--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -588,7 +588,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="B14">
         <v>122.25</v>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5980,6 +5980,104 @@
         <v>4</v>
       </c>
     </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B384" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384">
+        <v>190.45</v>
+      </c>
+      <c r="D384" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B385" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385">
+        <v>190.45</v>
+      </c>
+      <c r="D385" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B386" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386">
+        <v>190.45</v>
+      </c>
+      <c r="D386" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B387" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387">
+        <v>190.45</v>
+      </c>
+      <c r="D387" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388">
+        <v>190.45</v>
+      </c>
+      <c r="D388" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B389" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389">
+        <v>190.45</v>
+      </c>
+      <c r="D389" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B390" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390">
+        <v>190.45</v>
+      </c>
+      <c r="D390" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -420,184 +420,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B2">
-        <v>115.26</v>
+        <v>112.48</v>
       </c>
       <c r="C2">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D2">
-        <v>-39.48</v>
+        <v>-47.95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B3">
-        <v>112.48</v>
+        <v>111.57</v>
       </c>
       <c r="C3">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D3">
-        <v>-47.95</v>
+        <v>-64.08</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B4">
-        <v>111.57</v>
+        <v>202.52</v>
       </c>
       <c r="C4">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D4">
-        <v>-64.08</v>
+        <v>-20.27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B5">
-        <v>202.52</v>
+        <v>153.53</v>
       </c>
       <c r="C5">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D5">
-        <v>-20.27</v>
+        <v>-29.48</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B6">
-        <v>153.53</v>
+        <v>175.51</v>
       </c>
       <c r="C6">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D6">
-        <v>-29.48</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B7">
-        <v>175.51</v>
+        <v>172.17</v>
       </c>
       <c r="C7">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D7">
-        <v>-14.72</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B8">
-        <v>172.17</v>
+        <v>119.43</v>
       </c>
       <c r="C8">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D8">
-        <v>-21.23</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B9">
-        <v>119.43</v>
+        <v>106.97</v>
       </c>
       <c r="C9">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D9">
-        <v>-33.79</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B10">
-        <v>106.97</v>
+        <v>256.91</v>
       </c>
       <c r="C10">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D10">
-        <v>-46.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>256.91</v>
+        <v>288.42</v>
       </c>
       <c r="C11">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D11">
-        <v>-8.039999999999999</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B12">
-        <v>288.42</v>
+        <v>206.55</v>
       </c>
       <c r="C12">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D12">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B13">
-        <v>206.55</v>
+        <v>142.1</v>
       </c>
       <c r="C13">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D13">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44066</v>
+        <v>44082</v>
       </c>
       <c r="B14">
-        <v>122.25</v>
+        <v>123.34</v>
       </c>
       <c r="C14">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D14">
-        <v>-35.81</v>
+        <v>-42.92</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5448 +634,5238 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B2">
-        <v>122</v>
+        <v>117.04</v>
       </c>
       <c r="C2">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D2">
-        <v>-35.94</v>
+        <v>-45.83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43679</v>
+        <v>43710</v>
       </c>
       <c r="B3">
-        <v>121.61</v>
+        <v>117.17</v>
       </c>
       <c r="C3">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D3">
-        <v>-36.15</v>
+        <v>-45.77</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43680</v>
+        <v>43711</v>
       </c>
       <c r="B4">
-        <v>122</v>
+        <v>116.35</v>
       </c>
       <c r="C4">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D4">
-        <v>-35.94</v>
+        <v>-46.16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43681</v>
+        <v>43712</v>
       </c>
       <c r="B5">
-        <v>121.62</v>
+        <v>116.08</v>
       </c>
       <c r="C5">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D5">
-        <v>-36.14</v>
+        <v>-46.28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43682</v>
+        <v>43713</v>
       </c>
       <c r="B6">
-        <v>120.5</v>
+        <v>117.44</v>
       </c>
       <c r="C6">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D6">
-        <v>-36.73</v>
+        <v>-45.65</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43683</v>
+        <v>43714</v>
       </c>
       <c r="B7">
-        <v>119.52</v>
+        <v>116.57</v>
       </c>
       <c r="C7">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D7">
-        <v>-37.24</v>
+        <v>-46.06</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43684</v>
+        <v>43715</v>
       </c>
       <c r="B8">
-        <v>118.95</v>
+        <v>115.46</v>
       </c>
       <c r="C8">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D8">
-        <v>-37.54</v>
+        <v>-46.57</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43685</v>
+        <v>43716</v>
       </c>
       <c r="B9">
-        <v>118.24</v>
+        <v>114.35</v>
       </c>
       <c r="C9">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D9">
-        <v>-37.92</v>
+        <v>-47.08</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43686</v>
+        <v>43717</v>
       </c>
       <c r="B10">
-        <v>115.65</v>
+        <v>113.38</v>
       </c>
       <c r="C10">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D10">
-        <v>-39.27</v>
+        <v>-47.53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43687</v>
+        <v>43718</v>
       </c>
       <c r="B11">
-        <v>117.25</v>
+        <v>112.29</v>
       </c>
       <c r="C11">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D11">
-        <v>-38.44</v>
+        <v>-48.04</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43688</v>
+        <v>43719</v>
       </c>
       <c r="B12">
-        <v>100.75</v>
+        <v>111.58</v>
       </c>
       <c r="C12">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D12">
-        <v>-47.1</v>
+        <v>-48.36</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43689</v>
+        <v>43720</v>
       </c>
       <c r="B13">
-        <v>106.18</v>
+        <v>111.05</v>
       </c>
       <c r="C13">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D13">
-        <v>-44.25</v>
+        <v>-48.61</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43690</v>
+        <v>43721</v>
       </c>
       <c r="B14">
-        <v>116.88</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D14">
-        <v>-38.63</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43691</v>
+        <v>43722</v>
       </c>
       <c r="B15">
-        <v>116.46</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D15">
-        <v>-38.85</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43692</v>
+        <v>43723</v>
       </c>
       <c r="B16">
-        <v>115.62</v>
+        <v>111.48</v>
       </c>
       <c r="C16">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D16">
-        <v>-39.29</v>
+        <v>-48.41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43693</v>
+        <v>43724</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C17">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D17">
-        <v>-39.62</v>
+        <v>-48.63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43694</v>
+        <v>43725</v>
       </c>
       <c r="B18">
-        <v>115</v>
+        <v>110.55</v>
       </c>
       <c r="C18">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D18">
-        <v>-39.62</v>
+        <v>-48.84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43695</v>
+        <v>43726</v>
       </c>
       <c r="B19">
-        <v>114.7</v>
+        <v>110</v>
       </c>
       <c r="C19">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D19">
-        <v>-39.78</v>
+        <v>-49.09</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43696</v>
+        <v>43727</v>
       </c>
       <c r="B20">
-        <v>114.95</v>
+        <v>110.26</v>
       </c>
       <c r="C20">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D20">
-        <v>-39.64</v>
+        <v>-48.97</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43697</v>
+        <v>43728</v>
       </c>
       <c r="B21">
-        <v>114.95</v>
+        <v>116.09</v>
       </c>
       <c r="C21">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D21">
-        <v>-39.64</v>
+        <v>-46.28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43698</v>
+        <v>43729</v>
       </c>
       <c r="B22">
-        <v>114.71</v>
+        <v>120.71</v>
       </c>
       <c r="C22">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D22">
-        <v>-39.77</v>
+        <v>-44.14</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43699</v>
+        <v>43730</v>
       </c>
       <c r="B23">
-        <v>114.18</v>
+        <v>121.75</v>
       </c>
       <c r="C23">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D23">
-        <v>-40.05</v>
+        <v>-43.66</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43700</v>
+        <v>43731</v>
       </c>
       <c r="B24">
-        <v>113.87</v>
+        <v>127.12</v>
       </c>
       <c r="C24">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D24">
-        <v>-40.21</v>
+        <v>-41.17</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43701</v>
+        <v>43732</v>
       </c>
       <c r="B25">
-        <v>113.47</v>
+        <v>115.75</v>
       </c>
       <c r="C25">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D25">
-        <v>-40.42</v>
+        <v>-46.43</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43702</v>
+        <v>43733</v>
       </c>
       <c r="B26">
-        <v>113.3</v>
+        <v>107.17</v>
       </c>
       <c r="C26">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D26">
-        <v>-40.51</v>
+        <v>-50.4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43703</v>
+        <v>43734</v>
       </c>
       <c r="B27">
-        <v>113</v>
+        <v>104.53</v>
       </c>
       <c r="C27">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D27">
-        <v>-40.67</v>
+        <v>-51.63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43704</v>
+        <v>43735</v>
       </c>
       <c r="B28">
-        <v>112.67</v>
+        <v>103.09</v>
       </c>
       <c r="C28">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D28">
-        <v>-40.84</v>
+        <v>-52.29</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43705</v>
+        <v>43736</v>
       </c>
       <c r="B29">
-        <v>112.5</v>
+        <v>101.61</v>
       </c>
       <c r="C29">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D29">
-        <v>-40.93</v>
+        <v>-52.98</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43706</v>
+        <v>43737</v>
       </c>
       <c r="B30">
-        <v>112</v>
+        <v>100.54</v>
       </c>
       <c r="C30">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D30">
-        <v>-41.19</v>
+        <v>-53.47</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B31">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C31">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D31">
-        <v>-41.19</v>
+        <v>-53.72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43708</v>
-      </c>
-      <c r="B32">
-        <v>113.43</v>
+        <v>43739</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>190.45</v>
-      </c>
-      <c r="D32">
-        <v>-40.44</v>
+        <v>310.64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43709</v>
+        <v>43740</v>
       </c>
       <c r="B33">
-        <v>117.04</v>
+        <v>100</v>
       </c>
       <c r="C33">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D33">
-        <v>-45.83</v>
+        <v>-67.81</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43710</v>
+        <v>43741</v>
       </c>
       <c r="B34">
-        <v>117.17</v>
+        <v>103.57</v>
       </c>
       <c r="C34">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D34">
-        <v>-45.77</v>
+        <v>-66.66</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43711</v>
+        <v>43742</v>
       </c>
       <c r="B35">
-        <v>116.35</v>
+        <v>105.13</v>
       </c>
       <c r="C35">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D35">
-        <v>-46.16</v>
+        <v>-66.16</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43712</v>
+        <v>43743</v>
       </c>
       <c r="B36">
-        <v>116.08</v>
+        <v>103.54</v>
       </c>
       <c r="C36">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D36">
-        <v>-46.28</v>
+        <v>-66.67</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43713</v>
+        <v>43744</v>
       </c>
       <c r="B37">
-        <v>117.44</v>
+        <v>112.78</v>
       </c>
       <c r="C37">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D37">
-        <v>-45.65</v>
+        <v>-63.69</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43714</v>
+        <v>43745</v>
       </c>
       <c r="B38">
-        <v>116.57</v>
+        <v>113.9</v>
       </c>
       <c r="C38">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D38">
-        <v>-46.06</v>
+        <v>-63.33</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43715</v>
+        <v>43746</v>
       </c>
       <c r="B39">
-        <v>115.46</v>
+        <v>110.32</v>
       </c>
       <c r="C39">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D39">
-        <v>-46.57</v>
+        <v>-64.48999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43716</v>
+        <v>43747</v>
       </c>
       <c r="B40">
-        <v>114.35</v>
+        <v>111.64</v>
       </c>
       <c r="C40">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D40">
-        <v>-47.08</v>
+        <v>-64.06</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43717</v>
+        <v>43748</v>
       </c>
       <c r="B41">
-        <v>113.38</v>
+        <v>110.05</v>
       </c>
       <c r="C41">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D41">
-        <v>-47.53</v>
+        <v>-64.56999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43718</v>
+        <v>43749</v>
       </c>
       <c r="B42">
-        <v>112.29</v>
+        <v>107.29</v>
       </c>
       <c r="C42">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D42">
-        <v>-48.04</v>
+        <v>-65.45999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43719</v>
+        <v>43750</v>
       </c>
       <c r="B43">
-        <v>111.58</v>
+        <v>105.38</v>
       </c>
       <c r="C43">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D43">
-        <v>-48.36</v>
+        <v>-66.08</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43720</v>
+        <v>43751</v>
       </c>
       <c r="B44">
-        <v>111.05</v>
+        <v>103.48</v>
       </c>
       <c r="C44">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D44">
-        <v>-48.61</v>
+        <v>-66.69</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43721</v>
+        <v>43752</v>
       </c>
       <c r="B45">
-        <v>112</v>
+        <v>102.25</v>
       </c>
       <c r="C45">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D45">
-        <v>-48.17</v>
+        <v>-67.08</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43722</v>
+        <v>43753</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>101.58</v>
       </c>
       <c r="C46">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D46">
-        <v>-48.17</v>
+        <v>-67.3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43723</v>
+        <v>43754</v>
       </c>
       <c r="B47">
-        <v>111.48</v>
+        <v>101.71</v>
       </c>
       <c r="C47">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D47">
-        <v>-48.41</v>
+        <v>-67.26000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43724</v>
+        <v>43755</v>
       </c>
       <c r="B48">
-        <v>111</v>
+        <v>100.39</v>
       </c>
       <c r="C48">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D48">
-        <v>-48.63</v>
+        <v>-67.68000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43725</v>
+        <v>43756</v>
       </c>
       <c r="B49">
-        <v>110.55</v>
+        <v>102.58</v>
       </c>
       <c r="C49">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D49">
-        <v>-48.84</v>
+        <v>-66.98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43726</v>
+        <v>43757</v>
       </c>
       <c r="B50">
-        <v>110</v>
+        <v>104.29</v>
       </c>
       <c r="C50">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D50">
-        <v>-49.09</v>
+        <v>-66.43000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43727</v>
+        <v>43758</v>
       </c>
       <c r="B51">
-        <v>110.26</v>
+        <v>107.17</v>
       </c>
       <c r="C51">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D51">
-        <v>-48.97</v>
+        <v>-65.5</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43728</v>
+        <v>43759</v>
       </c>
       <c r="B52">
-        <v>116.09</v>
+        <v>113.17</v>
       </c>
       <c r="C52">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D52">
-        <v>-46.28</v>
+        <v>-63.57</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43729</v>
+        <v>43760</v>
       </c>
       <c r="B53">
-        <v>120.71</v>
+        <v>121.08</v>
       </c>
       <c r="C53">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D53">
-        <v>-44.14</v>
+        <v>-61.02</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43730</v>
+        <v>43761</v>
       </c>
       <c r="B54">
-        <v>121.75</v>
+        <v>119.83</v>
       </c>
       <c r="C54">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D54">
-        <v>-43.66</v>
+        <v>-61.42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43731</v>
+        <v>43762</v>
       </c>
       <c r="B55">
-        <v>127.12</v>
+        <v>119.59</v>
       </c>
       <c r="C55">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D55">
-        <v>-41.17</v>
+        <v>-61.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43732</v>
+        <v>43763</v>
       </c>
       <c r="B56">
-        <v>115.75</v>
+        <v>114.29</v>
       </c>
       <c r="C56">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D56">
-        <v>-46.43</v>
+        <v>-63.21</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43733</v>
+        <v>43764</v>
       </c>
       <c r="B57">
-        <v>107.17</v>
+        <v>110.48</v>
       </c>
       <c r="C57">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D57">
-        <v>-50.4</v>
+        <v>-64.44</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43734</v>
+        <v>43765</v>
       </c>
       <c r="B58">
-        <v>104.53</v>
+        <v>108.29</v>
       </c>
       <c r="C58">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D58">
-        <v>-51.63</v>
+        <v>-65.14</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43735</v>
+        <v>43766</v>
       </c>
       <c r="B59">
-        <v>103.09</v>
+        <v>116.55</v>
       </c>
       <c r="C59">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D59">
-        <v>-52.29</v>
+        <v>-62.48</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43736</v>
+        <v>43767</v>
       </c>
       <c r="B60">
-        <v>101.61</v>
+        <v>124.91</v>
       </c>
       <c r="C60">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D60">
-        <v>-52.98</v>
+        <v>-59.79</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43737</v>
+        <v>43768</v>
       </c>
       <c r="B61">
-        <v>100.54</v>
+        <v>151.17</v>
       </c>
       <c r="C61">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D61">
-        <v>-53.47</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B62">
-        <v>100</v>
+        <v>140.71</v>
       </c>
       <c r="C62">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D62">
-        <v>-53.72</v>
+        <v>-54.7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>43770</v>
+      </c>
+      <c r="B63">
+        <v>132.41</v>
       </c>
       <c r="C63">
-        <v>310.64</v>
-      </c>
-      <c r="D63" t="s">
-        <v>4</v>
+        <v>254.02</v>
+      </c>
+      <c r="D63">
+        <v>-47.87</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B64">
-        <v>100</v>
+        <v>148.46</v>
       </c>
       <c r="C64">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D64">
-        <v>-67.81</v>
+        <v>-41.56</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B65">
-        <v>103.57</v>
+        <v>145.22</v>
       </c>
       <c r="C65">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D65">
-        <v>-66.66</v>
+        <v>-42.83</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B66">
-        <v>105.13</v>
+        <v>141.39</v>
       </c>
       <c r="C66">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D66">
-        <v>-66.16</v>
+        <v>-44.34</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B67">
-        <v>103.54</v>
+        <v>140.3</v>
       </c>
       <c r="C67">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D67">
-        <v>-66.67</v>
+        <v>-44.77</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B68">
-        <v>112.78</v>
+        <v>174.96</v>
       </c>
       <c r="C68">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D68">
-        <v>-63.69</v>
+        <v>-31.12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B69">
-        <v>113.9</v>
+        <v>195.09</v>
       </c>
       <c r="C69">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D69">
-        <v>-63.33</v>
+        <v>-23.2</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B70">
-        <v>110.32</v>
+        <v>171.14</v>
       </c>
       <c r="C70">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D70">
-        <v>-64.48999999999999</v>
+        <v>-32.63</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B71">
-        <v>111.64</v>
+        <v>220.04</v>
       </c>
       <c r="C71">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D71">
-        <v>-64.06</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B72">
-        <v>110.05</v>
+        <v>260.87</v>
       </c>
       <c r="C72">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D72">
-        <v>-64.56999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B73">
-        <v>107.29</v>
+        <v>194.58</v>
       </c>
       <c r="C73">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D73">
-        <v>-65.45999999999999</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B74">
-        <v>105.38</v>
+        <v>172.46</v>
       </c>
       <c r="C74">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D74">
-        <v>-66.08</v>
+        <v>-32.11</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B75">
-        <v>103.48</v>
+        <v>158.7</v>
       </c>
       <c r="C75">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D75">
-        <v>-66.69</v>
+        <v>-37.53</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B76">
-        <v>102.25</v>
+        <v>289.41</v>
       </c>
       <c r="C76">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D76">
-        <v>-67.08</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B77">
-        <v>101.58</v>
+        <v>710.3200000000001</v>
       </c>
       <c r="C77">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D77">
-        <v>-67.3</v>
+        <v>179.63</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B78">
-        <v>101.71</v>
+        <v>464.86</v>
       </c>
       <c r="C78">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D78">
-        <v>-67.26000000000001</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B79">
-        <v>100.39</v>
+        <v>250.68</v>
       </c>
       <c r="C79">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D79">
-        <v>-67.68000000000001</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B80">
-        <v>102.58</v>
+        <v>195.91</v>
       </c>
       <c r="C80">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D80">
-        <v>-66.98</v>
+        <v>-22.87</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B81">
-        <v>104.29</v>
+        <v>171.29</v>
       </c>
       <c r="C81">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D81">
-        <v>-66.43000000000001</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B82">
-        <v>107.17</v>
+        <v>155.79</v>
       </c>
       <c r="C82">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D82">
-        <v>-65.5</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B83">
-        <v>113.17</v>
+        <v>143.59</v>
       </c>
       <c r="C83">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D83">
-        <v>-63.57</v>
+        <v>-43.47</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B84">
-        <v>121.08</v>
+        <v>136.41</v>
       </c>
       <c r="C84">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D84">
-        <v>-61.02</v>
+        <v>-46.3</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B85">
-        <v>119.83</v>
+        <v>130.94</v>
       </c>
       <c r="C85">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D85">
-        <v>-61.42</v>
+        <v>-48.45</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B86">
-        <v>119.59</v>
+        <v>126.1</v>
       </c>
       <c r="C86">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D86">
-        <v>-61.5</v>
+        <v>-50.36</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B87">
-        <v>114.29</v>
+        <v>121.92</v>
       </c>
       <c r="C87">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D87">
-        <v>-63.21</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B88">
-        <v>110.48</v>
+        <v>120</v>
       </c>
       <c r="C88">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D88">
-        <v>-64.44</v>
+        <v>-52.76</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B89">
-        <v>108.29</v>
+        <v>141.96</v>
       </c>
       <c r="C89">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D89">
-        <v>-65.14</v>
+        <v>-44.12</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B90">
-        <v>116.55</v>
+        <v>267.65</v>
       </c>
       <c r="C90">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D90">
-        <v>-62.48</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B91">
-        <v>124.91</v>
+        <v>215.57</v>
       </c>
       <c r="C91">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D91">
-        <v>-59.79</v>
+        <v>-15.14</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B92">
-        <v>151.17</v>
+        <v>177.61</v>
       </c>
       <c r="C92">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D92">
-        <v>-51.34</v>
+        <v>-30.08</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B93">
-        <v>140.71</v>
+        <v>157.42</v>
       </c>
       <c r="C93">
-        <v>310.64</v>
+        <v>217.71</v>
       </c>
       <c r="D93">
-        <v>-54.7</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B94">
-        <v>132.41</v>
+        <v>143.88</v>
       </c>
       <c r="C94">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D94">
-        <v>-47.87</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B95">
-        <v>148.46</v>
+        <v>138.09</v>
       </c>
       <c r="C95">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D95">
-        <v>-41.56</v>
+        <v>-36.57</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B96">
-        <v>145.22</v>
+        <v>139.5</v>
       </c>
       <c r="C96">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D96">
-        <v>-42.83</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B97">
-        <v>141.39</v>
+        <v>162</v>
       </c>
       <c r="C97">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D97">
-        <v>-44.34</v>
+        <v>-25.59</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B98">
-        <v>140.3</v>
+        <v>170.92</v>
       </c>
       <c r="C98">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D98">
-        <v>-44.77</v>
+        <v>-21.49</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B99">
-        <v>174.96</v>
+        <v>158.12</v>
       </c>
       <c r="C99">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D99">
-        <v>-31.12</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B100">
-        <v>195.09</v>
+        <v>143.38</v>
       </c>
       <c r="C100">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D100">
-        <v>-23.2</v>
+        <v>-34.14</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B101">
-        <v>171.14</v>
+        <v>138.14</v>
       </c>
       <c r="C101">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D101">
-        <v>-32.63</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B102">
-        <v>220.04</v>
+        <v>135.05</v>
       </c>
       <c r="C102">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D102">
-        <v>-13.38</v>
+        <v>-37.97</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B103">
-        <v>260.87</v>
+        <v>130.6</v>
       </c>
       <c r="C103">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D103">
-        <v>2.7</v>
+        <v>-40.01</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B104">
-        <v>194.58</v>
+        <v>129</v>
       </c>
       <c r="C104">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D104">
-        <v>-23.4</v>
+        <v>-40.75</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B105">
-        <v>172.46</v>
+        <v>124.67</v>
       </c>
       <c r="C105">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D105">
-        <v>-32.11</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B106">
-        <v>158.7</v>
+        <v>123.92</v>
       </c>
       <c r="C106">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D106">
-        <v>-37.53</v>
+        <v>-43.08</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B107">
-        <v>289.41</v>
+        <v>120.71</v>
       </c>
       <c r="C107">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D107">
-        <v>13.93</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B108">
-        <v>710.3200000000001</v>
+        <v>145.35</v>
       </c>
       <c r="C108">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D108">
-        <v>179.63</v>
+        <v>-33.24</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B109">
-        <v>464.86</v>
+        <v>250.95</v>
       </c>
       <c r="C109">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D109">
-        <v>83</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B110">
-        <v>250.68</v>
+        <v>251.93</v>
       </c>
       <c r="C110">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D110">
-        <v>-1.31</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B111">
-        <v>195.91</v>
+        <v>43818</v>
+      </c>
+      <c r="B111" t="s">
+        <v>4</v>
       </c>
       <c r="C111">
-        <v>254.02</v>
-      </c>
-      <c r="D111">
-        <v>-22.87</v>
+        <v>217.71</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B112">
-        <v>171.29</v>
+        <v>43819</v>
+      </c>
+      <c r="B112" t="s">
+        <v>4</v>
       </c>
       <c r="C112">
-        <v>254.02</v>
-      </c>
-      <c r="D112">
-        <v>-32.57</v>
+        <v>217.71</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B113">
-        <v>155.79</v>
+        <v>43820</v>
+      </c>
+      <c r="B113" t="s">
+        <v>4</v>
       </c>
       <c r="C113">
-        <v>254.02</v>
-      </c>
-      <c r="D113">
-        <v>-38.67</v>
+        <v>217.71</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43790</v>
-      </c>
-      <c r="B114">
-        <v>143.59</v>
+        <v>43821</v>
+      </c>
+      <c r="B114" t="s">
+        <v>4</v>
       </c>
       <c r="C114">
-        <v>254.02</v>
-      </c>
-      <c r="D114">
-        <v>-43.47</v>
+        <v>217.71</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B115">
-        <v>136.41</v>
+        <v>43822</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>254.02</v>
-      </c>
-      <c r="D115">
-        <v>-46.3</v>
+        <v>217.71</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B116">
-        <v>130.94</v>
+        <v>43823</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
       </c>
       <c r="C116">
-        <v>254.02</v>
-      </c>
-      <c r="D116">
-        <v>-48.45</v>
+        <v>217.71</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43793</v>
-      </c>
-      <c r="B117">
-        <v>126.1</v>
+        <v>43824</v>
+      </c>
+      <c r="B117" t="s">
+        <v>4</v>
       </c>
       <c r="C117">
-        <v>254.02</v>
-      </c>
-      <c r="D117">
-        <v>-50.36</v>
+        <v>217.71</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B118">
-        <v>121.92</v>
+        <v>43825</v>
+      </c>
+      <c r="B118" t="s">
+        <v>4</v>
       </c>
       <c r="C118">
-        <v>254.02</v>
-      </c>
-      <c r="D118">
-        <v>-52</v>
+        <v>217.71</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B119">
-        <v>120</v>
+        <v>43826</v>
+      </c>
+      <c r="B119" t="s">
+        <v>4</v>
       </c>
       <c r="C119">
-        <v>254.02</v>
-      </c>
-      <c r="D119">
-        <v>-52.76</v>
+        <v>217.71</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B120">
-        <v>141.96</v>
+        <v>43827</v>
+      </c>
+      <c r="B120" t="s">
+        <v>4</v>
       </c>
       <c r="C120">
-        <v>254.02</v>
-      </c>
-      <c r="D120">
-        <v>-44.12</v>
+        <v>217.71</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B121">
-        <v>267.65</v>
+        <v>43828</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>254.02</v>
-      </c>
-      <c r="D121">
-        <v>5.37</v>
+        <v>217.71</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B122">
-        <v>215.57</v>
+        <v>43829</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>254.02</v>
-      </c>
-      <c r="D122">
-        <v>-15.14</v>
+        <v>217.71</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B123">
-        <v>177.61</v>
+        <v>43830</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>254.02</v>
-      </c>
-      <c r="D123">
-        <v>-30.08</v>
+        <v>217.71</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B124">
-        <v>157.42</v>
+        <v>43831</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>217.71</v>
-      </c>
-      <c r="D124">
-        <v>-27.69</v>
+        <v>205.8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B125">
-        <v>143.88</v>
+        <v>43832</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>217.71</v>
-      </c>
-      <c r="D125">
-        <v>-33.91</v>
+        <v>205.8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B126">
-        <v>138.09</v>
+        <v>43833</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>217.71</v>
-      </c>
-      <c r="D126">
-        <v>-36.57</v>
+        <v>205.8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B127">
-        <v>139.5</v>
+        <v>43834</v>
+      </c>
+      <c r="B127" t="s">
+        <v>4</v>
       </c>
       <c r="C127">
-        <v>217.71</v>
-      </c>
-      <c r="D127">
-        <v>-35.92</v>
+        <v>205.8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B128">
-        <v>162</v>
+        <v>43835</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
       </c>
       <c r="C128">
-        <v>217.71</v>
-      </c>
-      <c r="D128">
-        <v>-25.59</v>
+        <v>205.8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B129">
-        <v>170.92</v>
+        <v>43836</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>217.71</v>
-      </c>
-      <c r="D129">
-        <v>-21.49</v>
+        <v>205.8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B130">
-        <v>158.12</v>
+        <v>43837</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>217.71</v>
-      </c>
-      <c r="D130">
-        <v>-27.37</v>
+        <v>205.8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B131">
-        <v>143.38</v>
+        <v>43838</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>217.71</v>
-      </c>
-      <c r="D131">
-        <v>-34.14</v>
+        <v>205.8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B132">
-        <v>138.14</v>
+        <v>108.1</v>
       </c>
       <c r="C132">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D132">
-        <v>-36.55</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B133">
-        <v>135.05</v>
+        <v>108.83</v>
       </c>
       <c r="C133">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D133">
-        <v>-37.97</v>
+        <v>-47.12</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B134">
-        <v>130.6</v>
+        <v>118.23</v>
       </c>
       <c r="C134">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D134">
-        <v>-40.01</v>
+        <v>-42.55</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B135">
-        <v>129</v>
+        <v>156.21</v>
       </c>
       <c r="C135">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D135">
-        <v>-40.75</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B136">
-        <v>124.67</v>
+        <v>173.29</v>
       </c>
       <c r="C136">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D136">
-        <v>-42.74</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B137">
-        <v>123.92</v>
+        <v>152.58</v>
       </c>
       <c r="C137">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D137">
-        <v>-43.08</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B138">
-        <v>120.71</v>
+        <v>141.92</v>
       </c>
       <c r="C138">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D138">
-        <v>-44.55</v>
+        <v>-31.04</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B139">
-        <v>145.35</v>
+        <v>136.11</v>
       </c>
       <c r="C139">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D139">
-        <v>-33.24</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B140">
-        <v>250.95</v>
+        <v>199.88</v>
       </c>
       <c r="C140">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D140">
-        <v>15.27</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B141">
-        <v>251.93</v>
+        <v>268.25</v>
       </c>
       <c r="C141">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D141">
-        <v>15.72</v>
+        <v>30.35</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B142" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B142">
+        <v>186.62</v>
       </c>
       <c r="C142">
-        <v>217.71</v>
-      </c>
-      <c r="D142" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D142">
+        <v>-9.32</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B143" t="s">
-        <v>4</v>
+        <v>43850</v>
+      </c>
+      <c r="B143">
+        <v>157.04</v>
       </c>
       <c r="C143">
-        <v>217.71</v>
-      </c>
-      <c r="D143" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D143">
+        <v>-23.69</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B144" t="s">
-        <v>4</v>
+        <v>43851</v>
+      </c>
+      <c r="B144">
+        <v>141.12</v>
       </c>
       <c r="C144">
-        <v>217.71</v>
-      </c>
-      <c r="D144" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D144">
+        <v>-31.43</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B145" t="s">
-        <v>4</v>
+        <v>43852</v>
+      </c>
+      <c r="B145">
+        <v>131.83</v>
       </c>
       <c r="C145">
-        <v>217.71</v>
-      </c>
-      <c r="D145" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D145">
+        <v>-35.94</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B146" t="s">
-        <v>4</v>
+        <v>43853</v>
+      </c>
+      <c r="B146">
+        <v>126.7</v>
       </c>
       <c r="C146">
-        <v>217.71</v>
-      </c>
-      <c r="D146" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D146">
+        <v>-38.44</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B147" t="s">
-        <v>4</v>
+        <v>43854</v>
+      </c>
+      <c r="B147">
+        <v>125.38</v>
       </c>
       <c r="C147">
-        <v>217.71</v>
-      </c>
-      <c r="D147" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D147">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43824</v>
-      </c>
-      <c r="B148" t="s">
-        <v>4</v>
+        <v>43855</v>
+      </c>
+      <c r="B148">
+        <v>128.12</v>
       </c>
       <c r="C148">
-        <v>217.71</v>
-      </c>
-      <c r="D148" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D148">
+        <v>-37.74</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43825</v>
-      </c>
-      <c r="B149" t="s">
-        <v>4</v>
+        <v>43856</v>
+      </c>
+      <c r="B149">
+        <v>124.04</v>
       </c>
       <c r="C149">
-        <v>217.71</v>
-      </c>
-      <c r="D149" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D149">
+        <v>-39.73</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43826</v>
-      </c>
-      <c r="B150" t="s">
-        <v>4</v>
+        <v>43857</v>
+      </c>
+      <c r="B150">
+        <v>118.61</v>
       </c>
       <c r="C150">
-        <v>217.71</v>
-      </c>
-      <c r="D150" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D150">
+        <v>-42.37</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43827</v>
-      </c>
-      <c r="B151" t="s">
-        <v>4</v>
+        <v>43858</v>
+      </c>
+      <c r="B151">
+        <v>114.5</v>
       </c>
       <c r="C151">
-        <v>217.71</v>
-      </c>
-      <c r="D151" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D151">
+        <v>-44.36</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43828</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4</v>
+        <v>43859</v>
+      </c>
+      <c r="B152">
+        <v>111.46</v>
       </c>
       <c r="C152">
-        <v>217.71</v>
-      </c>
-      <c r="D152" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D152">
+        <v>-45.84</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43829</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4</v>
+        <v>43860</v>
+      </c>
+      <c r="B153">
+        <v>131.61</v>
       </c>
       <c r="C153">
-        <v>217.71</v>
-      </c>
-      <c r="D153" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D153">
+        <v>-36.05</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4</v>
+        <v>43861</v>
+      </c>
+      <c r="B154">
+        <v>876.26</v>
       </c>
       <c r="C154">
-        <v>217.71</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D154">
+        <v>325.78</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
+        <v>43862</v>
+      </c>
+      <c r="B155">
+        <v>695.87</v>
       </c>
       <c r="C155">
-        <v>205.8</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D155">
+        <v>218.37</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4</v>
+        <v>43863</v>
+      </c>
+      <c r="B156">
+        <v>247.09</v>
       </c>
       <c r="C156">
-        <v>205.8</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D156">
+        <v>13.05</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4</v>
+        <v>43864</v>
+      </c>
+      <c r="B157">
+        <v>253.14</v>
       </c>
       <c r="C157">
-        <v>205.8</v>
-      </c>
-      <c r="D157" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D157">
+        <v>15.82</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43834</v>
-      </c>
-      <c r="B158" t="s">
-        <v>4</v>
+        <v>43865</v>
+      </c>
+      <c r="B158">
+        <v>321</v>
       </c>
       <c r="C158">
-        <v>205.8</v>
-      </c>
-      <c r="D158" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D158">
+        <v>46.86</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
+        <v>43866</v>
+      </c>
+      <c r="B159">
+        <v>212.33</v>
       </c>
       <c r="C159">
-        <v>205.8</v>
-      </c>
-      <c r="D159" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D159">
+        <v>-2.85</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43836</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4</v>
+        <v>43867</v>
+      </c>
+      <c r="B160">
+        <v>175.48</v>
       </c>
       <c r="C160">
-        <v>205.8</v>
-      </c>
-      <c r="D160" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D160">
+        <v>-19.72</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
+        <v>43868</v>
+      </c>
+      <c r="B161">
+        <v>156.87</v>
       </c>
       <c r="C161">
-        <v>205.8</v>
-      </c>
-      <c r="D161" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D161">
+        <v>-28.23</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B162">
+        <v>144</v>
       </c>
       <c r="C162">
-        <v>205.8</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D162">
+        <v>-34.12</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B163">
-        <v>108.1</v>
+        <v>140.65</v>
       </c>
       <c r="C163">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D163">
-        <v>-47.47</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B164">
-        <v>108.83</v>
+        <v>135.3</v>
       </c>
       <c r="C164">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D164">
-        <v>-47.12</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B165">
-        <v>118.23</v>
+        <v>136.46</v>
       </c>
       <c r="C165">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D165">
-        <v>-42.55</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B166">
-        <v>156.21</v>
+        <v>130.39</v>
       </c>
       <c r="C166">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D166">
-        <v>-24.1</v>
+        <v>-40.34</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B167">
-        <v>173.29</v>
+        <v>125.58</v>
       </c>
       <c r="C167">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D167">
-        <v>-15.8</v>
+        <v>-42.54</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B168">
-        <v>152.58</v>
+        <v>124.65</v>
       </c>
       <c r="C168">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D168">
-        <v>-25.86</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B169">
-        <v>141.92</v>
+        <v>122.29</v>
       </c>
       <c r="C169">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D169">
-        <v>-31.04</v>
+        <v>-44.05</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B170">
-        <v>136.11</v>
+        <v>118.13</v>
       </c>
       <c r="C170">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D170">
-        <v>-33.86</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B171">
-        <v>199.88</v>
+        <v>116.09</v>
       </c>
       <c r="C171">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D171">
-        <v>-2.88</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B172">
-        <v>268.25</v>
+        <v>114.46</v>
       </c>
       <c r="C172">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D172">
-        <v>30.35</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B173">
-        <v>186.62</v>
+        <v>113.86</v>
       </c>
       <c r="C173">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D173">
-        <v>-9.32</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B174">
-        <v>157.04</v>
+        <v>115.7</v>
       </c>
       <c r="C174">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D174">
-        <v>-23.69</v>
+        <v>-47.07</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B175">
-        <v>141.12</v>
+        <v>112.43</v>
       </c>
       <c r="C175">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D175">
-        <v>-31.43</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B176">
-        <v>131.83</v>
+        <v>110.58</v>
       </c>
       <c r="C176">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D176">
-        <v>-35.94</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B177">
-        <v>126.7</v>
+        <v>108.75</v>
       </c>
       <c r="C177">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D177">
-        <v>-38.44</v>
+        <v>-50.24</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B178">
-        <v>125.38</v>
+        <v>106.78</v>
       </c>
       <c r="C178">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D178">
-        <v>-39.08</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B179">
-        <v>128.12</v>
+        <v>110.83</v>
       </c>
       <c r="C179">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D179">
-        <v>-37.74</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B180">
-        <v>124.04</v>
+        <v>148.38</v>
       </c>
       <c r="C180">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D180">
-        <v>-39.73</v>
+        <v>-32.12</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B181">
-        <v>118.61</v>
+        <v>253</v>
       </c>
       <c r="C181">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D181">
-        <v>-42.37</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B182">
-        <v>114.5</v>
+        <v>184.96</v>
       </c>
       <c r="C182">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D182">
-        <v>-44.36</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B183">
-        <v>111.46</v>
+        <v>157.75</v>
       </c>
       <c r="C183">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D183">
-        <v>-45.84</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B184">
-        <v>131.61</v>
+        <v>142.96</v>
       </c>
       <c r="C184">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D184">
-        <v>-36.05</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B185">
-        <v>876.26</v>
+        <v>133</v>
       </c>
       <c r="C185">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D185">
-        <v>325.78</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B186">
-        <v>695.87</v>
+        <v>126.26</v>
       </c>
       <c r="C186">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D186">
-        <v>218.37</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B187">
-        <v>247.09</v>
+        <v>121.83</v>
       </c>
       <c r="C187">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D187">
-        <v>13.05</v>
+        <v>-32.46</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B188">
-        <v>253.14</v>
+        <v>118.7</v>
       </c>
       <c r="C188">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D188">
-        <v>15.82</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B189">
-        <v>321</v>
+        <v>116.17</v>
       </c>
       <c r="C189">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D189">
-        <v>46.86</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B190">
-        <v>212.33</v>
+        <v>113.91</v>
       </c>
       <c r="C190">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D190">
-        <v>-2.85</v>
+        <v>-36.85</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B191">
-        <v>175.48</v>
+        <v>112.86</v>
       </c>
       <c r="C191">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D191">
-        <v>-19.72</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B192">
-        <v>156.87</v>
+        <v>111.54</v>
       </c>
       <c r="C192">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D192">
-        <v>-28.23</v>
+        <v>-38.17</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B193">
-        <v>144</v>
+        <v>109.12</v>
       </c>
       <c r="C193">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D193">
-        <v>-34.12</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B194">
-        <v>140.65</v>
+        <v>107.5</v>
       </c>
       <c r="C194">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D194">
-        <v>-35.65</v>
+        <v>-40.41</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B195">
-        <v>135.3</v>
+        <v>106.17</v>
       </c>
       <c r="C195">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D195">
-        <v>-38.1</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B196">
-        <v>136.46</v>
+        <v>104.96</v>
       </c>
       <c r="C196">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D196">
-        <v>-37.57</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B197">
-        <v>130.39</v>
+        <v>104.21</v>
       </c>
       <c r="C197">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D197">
-        <v>-40.34</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B198">
-        <v>125.58</v>
+        <v>103.43</v>
       </c>
       <c r="C198">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D198">
-        <v>-42.54</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B199">
-        <v>124.65</v>
+        <v>102.5</v>
       </c>
       <c r="C199">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D199">
-        <v>-42.97</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B200">
-        <v>122.29</v>
+        <v>101.48</v>
       </c>
       <c r="C200">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D200">
-        <v>-44.05</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B201">
-        <v>118.13</v>
+        <v>106.39</v>
       </c>
       <c r="C201">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D201">
-        <v>-45.95</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B202">
-        <v>116.09</v>
+        <v>145.17</v>
       </c>
       <c r="C202">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D202">
-        <v>-46.89</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B203">
-        <v>114.46</v>
+        <v>183.46</v>
       </c>
       <c r="C203">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D203">
-        <v>-47.63</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B204">
-        <v>113.86</v>
+        <v>152.83</v>
       </c>
       <c r="C204">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D204">
-        <v>-47.91</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B205">
-        <v>115.7</v>
+        <v>138.67</v>
       </c>
       <c r="C205">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D205">
-        <v>-47.07</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B206">
-        <v>112.43</v>
+        <v>129.36</v>
       </c>
       <c r="C206">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D206">
-        <v>-48.56</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B207">
-        <v>110.58</v>
+        <v>123.21</v>
       </c>
       <c r="C207">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D207">
-        <v>-49.41</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B208">
-        <v>108.75</v>
+        <v>118.71</v>
       </c>
       <c r="C208">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D208">
-        <v>-50.24</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B209">
-        <v>106.78</v>
+        <v>115.42</v>
       </c>
       <c r="C209">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D209">
-        <v>-51.14</v>
+        <v>-36.02</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B210">
-        <v>110.83</v>
+        <v>112.87</v>
       </c>
       <c r="C210">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D210">
-        <v>-49.29</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B211">
-        <v>148.38</v>
+        <v>111.29</v>
       </c>
       <c r="C211">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D211">
-        <v>-32.12</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B212">
-        <v>253</v>
+        <v>110.33</v>
       </c>
       <c r="C212">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D212">
-        <v>15.75</v>
+        <v>-38.84</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B213">
-        <v>184.96</v>
+        <v>109.58</v>
       </c>
       <c r="C213">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D213">
-        <v>-15.38</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B214">
-        <v>157.75</v>
+        <v>108.54</v>
       </c>
       <c r="C214">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D214">
-        <v>-27.83</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B215">
-        <v>142.96</v>
+        <v>107.96</v>
       </c>
       <c r="C215">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D215">
-        <v>-20.75</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B216">
-        <v>133</v>
+        <v>107.3</v>
       </c>
       <c r="C216">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D216">
-        <v>-26.27</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B217">
-        <v>126.26</v>
+        <v>106.27</v>
       </c>
       <c r="C217">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D217">
-        <v>-30.01</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B218">
-        <v>121.83</v>
+        <v>105.43</v>
       </c>
       <c r="C218">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D218">
-        <v>-32.46</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B219">
-        <v>118.7</v>
+        <v>104.65</v>
       </c>
       <c r="C219">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D219">
-        <v>-34.2</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B220">
-        <v>116.17</v>
+        <v>43927</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
       </c>
       <c r="C220">
-        <v>180.39</v>
-      </c>
-      <c r="D220">
-        <v>-35.6</v>
+        <v>198.56</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B221">
-        <v>113.91</v>
+        <v>43928</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>180.39</v>
-      </c>
-      <c r="D221">
-        <v>-36.85</v>
+        <v>198.56</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B222">
-        <v>112.86</v>
+        <v>113.41</v>
       </c>
       <c r="C222">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D222">
-        <v>-37.43</v>
+        <v>-42.88</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B223">
-        <v>111.54</v>
+        <v>115.33</v>
       </c>
       <c r="C223">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D223">
-        <v>-38.17</v>
+        <v>-41.92</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B224">
-        <v>109.12</v>
+        <v>114.96</v>
       </c>
       <c r="C224">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D224">
-        <v>-39.51</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B225">
-        <v>107.5</v>
+        <v>111.71</v>
       </c>
       <c r="C225">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D225">
-        <v>-40.41</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B226">
-        <v>106.17</v>
+        <v>109.58</v>
       </c>
       <c r="C226">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D226">
-        <v>-41.15</v>
+        <v>-44.81</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B227">
-        <v>104.96</v>
+        <v>107.86</v>
       </c>
       <c r="C227">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D227">
-        <v>-41.81</v>
+        <v>-45.68</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B228">
-        <v>104.21</v>
+        <v>109.69</v>
       </c>
       <c r="C228">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D228">
-        <v>-42.23</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B229">
-        <v>103.43</v>
+        <v>108.68</v>
       </c>
       <c r="C229">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D229">
-        <v>-42.66</v>
+        <v>-45.27</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B230">
-        <v>102.5</v>
+        <v>106.59</v>
       </c>
       <c r="C230">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D230">
-        <v>-43.18</v>
+        <v>-46.32</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B231">
-        <v>101.48</v>
+        <v>111.16</v>
       </c>
       <c r="C231">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D231">
-        <v>-43.74</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B232">
-        <v>106.39</v>
+        <v>110.43</v>
       </c>
       <c r="C232">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D232">
-        <v>-41.02</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B233">
-        <v>145.17</v>
+        <v>108.26</v>
       </c>
       <c r="C233">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D233">
-        <v>-19.52</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B234">
-        <v>183.46</v>
+        <v>106.5</v>
       </c>
       <c r="C234">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D234">
-        <v>1.7</v>
+        <v>-46.36</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B235">
-        <v>152.83</v>
+        <v>104.91</v>
       </c>
       <c r="C235">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D235">
-        <v>-15.28</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B236">
-        <v>138.67</v>
+        <v>103.62</v>
       </c>
       <c r="C236">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D236">
-        <v>-23.13</v>
+        <v>-47.81</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B237">
-        <v>129.36</v>
+        <v>102.91</v>
       </c>
       <c r="C237">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D237">
-        <v>-28.29</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B238">
-        <v>123.21</v>
+        <v>102.22</v>
       </c>
       <c r="C238">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D238">
-        <v>-31.7</v>
+        <v>-48.52</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B239">
-        <v>118.71</v>
+        <v>101.35</v>
       </c>
       <c r="C239">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D239">
-        <v>-34.19</v>
+        <v>-48.96</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B240">
-        <v>115.42</v>
+        <v>100.46</v>
       </c>
       <c r="C240">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D240">
-        <v>-36.02</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B241">
-        <v>112.87</v>
+        <v>100</v>
       </c>
       <c r="C241">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D241">
-        <v>-37.43</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B242">
-        <v>111.29</v>
+        <v>100</v>
       </c>
       <c r="C242">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D242">
-        <v>-38.3</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B243">
-        <v>110.33</v>
+        <v>43950</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
       </c>
       <c r="C243">
-        <v>180.39</v>
-      </c>
-      <c r="D243">
-        <v>-38.84</v>
+        <v>198.56</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B244">
-        <v>109.58</v>
+        <v>43951</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
       </c>
       <c r="C244">
-        <v>180.39</v>
-      </c>
-      <c r="D244">
-        <v>-39.25</v>
+        <v>198.56</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B245">
-        <v>108.54</v>
+        <v>43952</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>180.39</v>
-      </c>
-      <c r="D245">
-        <v>-39.83</v>
+        <v>279.37</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B246">
-        <v>107.96</v>
+        <v>43953</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
       </c>
       <c r="C246">
-        <v>198.56</v>
-      </c>
-      <c r="D246">
-        <v>-45.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B247">
-        <v>107.3</v>
+        <v>43954</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>198.56</v>
-      </c>
-      <c r="D247">
-        <v>-45.96</v>
+        <v>279.37</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B248">
-        <v>106.27</v>
+        <v>43955</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
       </c>
       <c r="C248">
-        <v>198.56</v>
-      </c>
-      <c r="D248">
-        <v>-46.48</v>
+        <v>279.37</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B249">
-        <v>105.43</v>
+        <v>100.33</v>
       </c>
       <c r="C249">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D249">
-        <v>-46.9</v>
+        <v>-64.09</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B250">
-        <v>104.65</v>
+        <v>102.96</v>
       </c>
       <c r="C250">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D250">
-        <v>-47.3</v>
+        <v>-63.15</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B251" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B251">
+        <v>105.61</v>
       </c>
       <c r="C251">
-        <v>198.56</v>
-      </c>
-      <c r="D251" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D251">
+        <v>-62.2</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B252" t="s">
-        <v>4</v>
+        <v>43959</v>
+      </c>
+      <c r="B252">
+        <v>105.83</v>
       </c>
       <c r="C252">
-        <v>198.56</v>
-      </c>
-      <c r="D252" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D252">
+        <v>-62.12</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B253">
-        <v>113.41</v>
+        <v>114.83</v>
       </c>
       <c r="C253">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D253">
-        <v>-42.88</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B254">
-        <v>115.33</v>
+        <v>111.43</v>
       </c>
       <c r="C254">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D254">
-        <v>-41.92</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B255">
-        <v>114.96</v>
+        <v>108.26</v>
       </c>
       <c r="C255">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D255">
-        <v>-42.1</v>
+        <v>-61.25</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B256">
-        <v>111.71</v>
+        <v>107.38</v>
       </c>
       <c r="C256">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D256">
-        <v>-43.74</v>
+        <v>-61.57</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B257">
-        <v>109.58</v>
+        <v>168.96</v>
       </c>
       <c r="C257">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D257">
-        <v>-44.81</v>
+        <v>-39.52</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B258">
-        <v>107.86</v>
+        <v>442.05</v>
       </c>
       <c r="C258">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D258">
-        <v>-45.68</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B259">
-        <v>109.69</v>
+        <v>383.78</v>
       </c>
       <c r="C259">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D259">
-        <v>-44.76</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B260">
-        <v>108.68</v>
+        <v>213.5</v>
       </c>
       <c r="C260">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D260">
-        <v>-45.27</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B261">
-        <v>106.59</v>
+        <v>177.5</v>
       </c>
       <c r="C261">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D261">
-        <v>-46.32</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B262">
-        <v>111.16</v>
+        <v>158.13</v>
       </c>
       <c r="C262">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D262">
-        <v>-44.02</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B263">
-        <v>110.43</v>
+        <v>145.96</v>
       </c>
       <c r="C263">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D263">
-        <v>-44.39</v>
+        <v>-47.76</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B264">
-        <v>108.26</v>
+        <v>136.83</v>
       </c>
       <c r="C264">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D264">
-        <v>-45.48</v>
+        <v>-51.02</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B265">
-        <v>106.5</v>
+        <v>130.61</v>
       </c>
       <c r="C265">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D265">
-        <v>-46.36</v>
+        <v>-53.25</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B266">
-        <v>104.91</v>
+        <v>448.62</v>
       </c>
       <c r="C266">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D266">
-        <v>-47.16</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B267">
-        <v>103.62</v>
+        <v>1052.78</v>
       </c>
       <c r="C267">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D267">
-        <v>-47.81</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B268">
-        <v>102.91</v>
+        <v>927.75</v>
       </c>
       <c r="C268">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D268">
-        <v>-48.17</v>
+        <v>232.09</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B269">
-        <v>102.22</v>
+        <v>454.12</v>
       </c>
       <c r="C269">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D269">
-        <v>-48.52</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B270">
-        <v>101.35</v>
+        <v>291.38</v>
       </c>
       <c r="C270">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D270">
-        <v>-48.96</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B271">
-        <v>100.46</v>
+        <v>231.67</v>
       </c>
       <c r="C271">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D271">
-        <v>-49.41</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B272">
-        <v>100</v>
+        <v>201.75</v>
       </c>
       <c r="C272">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D272">
-        <v>-49.64</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B273">
-        <v>100</v>
+        <v>183.54</v>
       </c>
       <c r="C273">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D273">
-        <v>-49.64</v>
+        <v>-34.3</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B274" t="s">
-        <v>4</v>
+        <v>43981</v>
+      </c>
+      <c r="B274">
+        <v>170.25</v>
       </c>
       <c r="C274">
-        <v>198.56</v>
-      </c>
-      <c r="D274" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D274">
+        <v>-39.06</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B275" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B275">
+        <v>160.67</v>
       </c>
       <c r="C275">
-        <v>198.56</v>
-      </c>
-      <c r="D275" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D275">
+        <v>-42.49</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B276" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B276">
+        <v>155.43</v>
       </c>
       <c r="C276">
-        <v>279.37</v>
-      </c>
-      <c r="D276" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D276">
+        <v>-36.54</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B277" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B277">
+        <v>151.5</v>
       </c>
       <c r="C277">
-        <v>279.37</v>
-      </c>
-      <c r="D277" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D277">
+        <v>-38.14</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B278" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B278">
+        <v>147.78</v>
       </c>
       <c r="C278">
-        <v>279.37</v>
-      </c>
-      <c r="D278" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D278">
+        <v>-39.66</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B279" t="s">
-        <v>4</v>
+        <v>43986</v>
+      </c>
+      <c r="B279">
+        <v>152.05</v>
       </c>
       <c r="C279">
-        <v>279.37</v>
-      </c>
-      <c r="D279" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D279">
+        <v>-37.92</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B280">
-        <v>100.33</v>
+        <v>278.05</v>
       </c>
       <c r="C280">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D280">
-        <v>-64.09</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B281">
-        <v>102.96</v>
+        <v>708</v>
       </c>
       <c r="C281">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D281">
-        <v>-63.15</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B282">
-        <v>105.61</v>
+        <v>737.22</v>
       </c>
       <c r="C282">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D282">
-        <v>-62.2</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B283">
-        <v>105.83</v>
+        <v>401.87</v>
       </c>
       <c r="C283">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D283">
-        <v>-62.12</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B284">
-        <v>114.83</v>
+        <v>293.75</v>
       </c>
       <c r="C284">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D284">
-        <v>-58.9</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B285">
-        <v>111.43</v>
+        <v>506.38</v>
       </c>
       <c r="C285">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D285">
-        <v>-60.11</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B286">
-        <v>108.26</v>
+        <v>809.77</v>
       </c>
       <c r="C286">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D286">
-        <v>-61.25</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B287">
-        <v>107.38</v>
+        <v>749.96</v>
       </c>
       <c r="C287">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D287">
-        <v>-61.57</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B288">
-        <v>168.96</v>
+        <v>455.09</v>
       </c>
       <c r="C288">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D288">
-        <v>-39.52</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B289">
-        <v>442.05</v>
+        <v>337.83</v>
       </c>
       <c r="C289">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D289">
-        <v>58.23</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B290">
-        <v>383.78</v>
+        <v>307.09</v>
       </c>
       <c r="C290">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D290">
-        <v>37.37</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B291">
-        <v>213.5</v>
+        <v>254.1</v>
       </c>
       <c r="C291">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D291">
-        <v>-23.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B292">
-        <v>177.5</v>
+        <v>215.79</v>
       </c>
       <c r="C292">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D292">
-        <v>-36.46</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B293">
-        <v>158.13</v>
+        <v>194.35</v>
       </c>
       <c r="C293">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D293">
-        <v>-43.4</v>
+        <v>-20.65</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B294">
-        <v>145.96</v>
+        <v>180.04</v>
       </c>
       <c r="C294">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D294">
-        <v>-47.76</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B295">
-        <v>136.83</v>
+        <v>169.22</v>
       </c>
       <c r="C295">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D295">
-        <v>-51.02</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B296">
-        <v>130.61</v>
+        <v>160.87</v>
       </c>
       <c r="C296">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D296">
-        <v>-53.25</v>
+        <v>-34.32</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B297">
-        <v>448.62</v>
+        <v>154</v>
       </c>
       <c r="C297">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D297">
-        <v>60.58</v>
+        <v>-37.12</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B298">
-        <v>1052.78</v>
+        <v>148.7</v>
       </c>
       <c r="C298">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D298">
-        <v>276.84</v>
+        <v>-39.29</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B299">
-        <v>927.75</v>
+        <v>144.04</v>
       </c>
       <c r="C299">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D299">
-        <v>232.09</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B300">
-        <v>454.12</v>
+        <v>140.62</v>
       </c>
       <c r="C300">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D300">
-        <v>62.55</v>
+        <v>-42.59</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B301">
-        <v>291.38</v>
+        <v>139.21</v>
       </c>
       <c r="C301">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D301">
-        <v>4.3</v>
+        <v>-43.16</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B302">
-        <v>231.67</v>
+        <v>141.21</v>
       </c>
       <c r="C302">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D302">
-        <v>-17.08</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B303">
-        <v>201.75</v>
+        <v>139.58</v>
       </c>
       <c r="C303">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D303">
-        <v>-27.78</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B304">
-        <v>183.54</v>
+        <v>135.83</v>
       </c>
       <c r="C304">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D304">
-        <v>-34.3</v>
+        <v>-44.54</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B305">
-        <v>170.25</v>
+        <v>143.32</v>
       </c>
       <c r="C305">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D305">
-        <v>-39.06</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B306">
-        <v>160.67</v>
+        <v>410.33</v>
       </c>
       <c r="C306">
-        <v>279.37</v>
+        <v>200.23</v>
       </c>
       <c r="D306">
-        <v>-42.49</v>
+        <v>104.93</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B307">
-        <v>155.43</v>
+        <v>347.95</v>
       </c>
       <c r="C307">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D307">
-        <v>-36.54</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B308">
-        <v>151.5</v>
+        <v>232.13</v>
       </c>
       <c r="C308">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D308">
-        <v>-38.14</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B309">
-        <v>147.78</v>
+        <v>197.04</v>
       </c>
       <c r="C309">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D309">
-        <v>-39.66</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B310">
-        <v>152.05</v>
+        <v>177.77</v>
       </c>
       <c r="C310">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D310">
-        <v>-37.92</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B311">
-        <v>278.05</v>
+        <v>165.75</v>
       </c>
       <c r="C311">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D311">
-        <v>13.52</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B312">
-        <v>708</v>
+        <v>212.75</v>
       </c>
       <c r="C312">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D312">
-        <v>189.07</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B313">
-        <v>737.22</v>
+        <v>231.5</v>
       </c>
       <c r="C313">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D313">
-        <v>200.99</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B314">
-        <v>401.87</v>
+        <v>652.21</v>
       </c>
       <c r="C314">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D314">
-        <v>64.08</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B315">
-        <v>293.75</v>
+        <v>520.58</v>
       </c>
       <c r="C315">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D315">
-        <v>19.93</v>
+        <v>160</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B316">
-        <v>506.38</v>
+        <v>294.38</v>
       </c>
       <c r="C316">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D316">
-        <v>106.75</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B317">
-        <v>809.77</v>
+        <v>232.52</v>
       </c>
       <c r="C317">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D317">
-        <v>230.62</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B318">
-        <v>749.96</v>
+        <v>203.83</v>
       </c>
       <c r="C318">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D318">
-        <v>206.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B319">
-        <v>455.09</v>
+        <v>187.29</v>
       </c>
       <c r="C319">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D319">
-        <v>85.81</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B320">
-        <v>337.83</v>
+        <v>174.42</v>
       </c>
       <c r="C320">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D320">
-        <v>37.93</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B321">
-        <v>307.09</v>
+        <v>162.92</v>
       </c>
       <c r="C321">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D321">
-        <v>25.38</v>
+        <v>-18.63</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B322">
-        <v>254.1</v>
+        <v>155.3</v>
       </c>
       <c r="C322">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D322">
-        <v>3.74</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B323">
-        <v>215.79</v>
+        <v>150.17</v>
       </c>
       <c r="C323">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D323">
-        <v>-11.9</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B324">
-        <v>194.35</v>
+        <v>144.33</v>
       </c>
       <c r="C324">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D324">
-        <v>-20.65</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B325">
-        <v>180.04</v>
+        <v>139.68</v>
       </c>
       <c r="C325">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D325">
-        <v>-26.49</v>
+        <v>-30.24</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B326">
-        <v>169.22</v>
+        <v>135.79</v>
       </c>
       <c r="C326">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D326">
-        <v>-30.91</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B327">
-        <v>160.87</v>
+        <v>132.7</v>
       </c>
       <c r="C327">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D327">
-        <v>-34.32</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B328">
-        <v>154</v>
+        <v>130.32</v>
       </c>
       <c r="C328">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D328">
-        <v>-37.12</v>
+        <v>-34.91</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B329">
-        <v>148.7</v>
+        <v>128.14</v>
       </c>
       <c r="C329">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D329">
-        <v>-39.29</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B330">
-        <v>144.04</v>
+        <v>126.32</v>
       </c>
       <c r="C330">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D330">
-        <v>-41.19</v>
+        <v>-36.91</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B331">
-        <v>140.62</v>
+        <v>125</v>
       </c>
       <c r="C331">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D331">
-        <v>-42.59</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B332">
-        <v>139.21</v>
+        <v>124.48</v>
       </c>
       <c r="C332">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D332">
-        <v>-43.16</v>
+        <v>-37.83</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B333">
-        <v>141.21</v>
+        <v>124.22</v>
       </c>
       <c r="C333">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D333">
-        <v>-42.35</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B334">
-        <v>139.58</v>
+        <v>123.42</v>
       </c>
       <c r="C334">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D334">
-        <v>-43.01</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B335">
-        <v>135.83</v>
+        <v>126.82</v>
       </c>
       <c r="C335">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D335">
-        <v>-44.54</v>
+        <v>-36.66</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B336">
-        <v>143.32</v>
+        <v>133.04</v>
       </c>
       <c r="C336">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D336">
-        <v>-41.49</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B337">
-        <v>410.33</v>
+        <v>127.43</v>
       </c>
       <c r="C337">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D337">
-        <v>104.93</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B338">
-        <v>347.95</v>
+        <v>124.04</v>
       </c>
       <c r="C338">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D338">
-        <v>73.78</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B339">
-        <v>232.13</v>
+        <v>121.65</v>
       </c>
       <c r="C339">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D339">
-        <v>15.93</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B340">
-        <v>197.04</v>
+        <v>119.62</v>
       </c>
       <c r="C340">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D340">
-        <v>-1.59</v>
+        <v>-37.19</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B341">
-        <v>177.77</v>
+        <v>118.5</v>
       </c>
       <c r="C341">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D341">
-        <v>-11.21</v>
+        <v>-37.78</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B342">
-        <v>165.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
       </c>
       <c r="C342">
-        <v>200.23</v>
-      </c>
-      <c r="D342">
-        <v>-17.22</v>
+        <v>190.45</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B343">
-        <v>212.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
       </c>
       <c r="C343">
-        <v>200.23</v>
-      </c>
-      <c r="D343">
-        <v>6.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B344">
-        <v>231.5</v>
+        <v>44051</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
       </c>
       <c r="C344">
-        <v>200.23</v>
-      </c>
-      <c r="D344">
-        <v>15.62</v>
+        <v>190.45</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B345">
-        <v>652.21</v>
+        <v>44052</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>200.23</v>
-      </c>
-      <c r="D345">
-        <v>225.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B346">
-        <v>520.58</v>
+        <v>44053</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
       </c>
       <c r="C346">
-        <v>200.23</v>
-      </c>
-      <c r="D346">
-        <v>160</v>
+        <v>190.45</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B347">
-        <v>294.38</v>
+        <v>44054</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
       </c>
       <c r="C347">
-        <v>200.23</v>
-      </c>
-      <c r="D347">
-        <v>47.02</v>
+        <v>190.45</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B348">
-        <v>232.52</v>
+        <v>44055</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
       </c>
       <c r="C348">
-        <v>200.23</v>
-      </c>
-      <c r="D348">
-        <v>16.13</v>
+        <v>190.45</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B349">
-        <v>203.83</v>
+        <v>44056</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
       </c>
       <c r="C349">
-        <v>200.23</v>
-      </c>
-      <c r="D349">
-        <v>1.8</v>
+        <v>190.45</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B350">
-        <v>187.29</v>
+        <v>44057</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
       </c>
       <c r="C350">
-        <v>200.23</v>
-      </c>
-      <c r="D350">
-        <v>-6.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B351">
-        <v>174.42</v>
+        <v>44058</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
       </c>
       <c r="C351">
-        <v>200.23</v>
-      </c>
-      <c r="D351">
-        <v>-12.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B352">
-        <v>162.92</v>
+        <v>44059</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
       </c>
       <c r="C352">
-        <v>200.23</v>
-      </c>
-      <c r="D352">
-        <v>-18.63</v>
+        <v>190.45</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B353">
-        <v>155.3</v>
+        <v>44060</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
       </c>
       <c r="C353">
-        <v>200.23</v>
-      </c>
-      <c r="D353">
-        <v>-22.44</v>
+        <v>190.45</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B354">
-        <v>150.17</v>
+        <v>44061</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
       </c>
       <c r="C354">
-        <v>200.23</v>
-      </c>
-      <c r="D354">
-        <v>-25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B355">
-        <v>144.33</v>
+        <v>44062</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
       </c>
       <c r="C355">
-        <v>200.23</v>
-      </c>
-      <c r="D355">
-        <v>-27.92</v>
+        <v>190.45</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B356">
-        <v>139.68</v>
+        <v>44063</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
       </c>
       <c r="C356">
-        <v>200.23</v>
-      </c>
-      <c r="D356">
-        <v>-30.24</v>
+        <v>190.45</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B357">
-        <v>135.79</v>
+        <v>44064</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
       </c>
       <c r="C357">
-        <v>200.23</v>
-      </c>
-      <c r="D357">
-        <v>-32.18</v>
+        <v>190.45</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B358">
-        <v>132.7</v>
+        <v>44065</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
       </c>
       <c r="C358">
-        <v>200.23</v>
-      </c>
-      <c r="D358">
-        <v>-33.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D358" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B359">
-        <v>130.32</v>
+        <v>44066</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
       </c>
       <c r="C359">
-        <v>200.23</v>
-      </c>
-      <c r="D359">
-        <v>-34.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B360">
-        <v>128.14</v>
+        <v>185.67</v>
       </c>
       <c r="C360">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D360">
-        <v>-36</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B361">
-        <v>126.32</v>
+        <v>175.21</v>
       </c>
       <c r="C361">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D361">
-        <v>-36.91</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B362">
-        <v>125</v>
+        <v>162.82</v>
       </c>
       <c r="C362">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D362">
-        <v>-37.57</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B363">
-        <v>124.48</v>
+        <v>153.82</v>
       </c>
       <c r="C363">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D363">
-        <v>-37.83</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B364">
-        <v>124.22</v>
+        <v>146.96</v>
       </c>
       <c r="C364">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D364">
-        <v>-37.96</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B365">
-        <v>123.42</v>
+        <v>141.35</v>
       </c>
       <c r="C365">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D365">
-        <v>-38.36</v>
+        <v>-25.78</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B366">
-        <v>126.82</v>
+        <v>136.87</v>
       </c>
       <c r="C366">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D366">
-        <v>-36.66</v>
+        <v>-28.13</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B367">
-        <v>133.04</v>
+        <v>133.38</v>
       </c>
       <c r="C367">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D367">
-        <v>-33.55</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B368">
-        <v>127.43</v>
+        <v>130.25</v>
       </c>
       <c r="C368">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D368">
-        <v>-33.09</v>
+        <v>-39.72</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B369">
-        <v>124.04</v>
+        <v>127.43</v>
       </c>
       <c r="C369">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D369">
-        <v>-34.87</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B370">
-        <v>121.65</v>
+        <v>125.08</v>
       </c>
       <c r="C370">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D370">
-        <v>-36.12</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B371">
-        <v>119.62</v>
+        <v>123.48</v>
       </c>
       <c r="C371">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D371">
-        <v>-37.19</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B372">
-        <v>118.5</v>
+        <v>121.65</v>
       </c>
       <c r="C372">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D372">
-        <v>-37.78</v>
+        <v>-43.7</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B373" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B373">
+        <v>120.58</v>
       </c>
       <c r="C373">
-        <v>190.45</v>
-      </c>
-      <c r="D373" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D373">
+        <v>-44.2</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B374" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B374">
+        <v>119.59</v>
       </c>
       <c r="C374">
-        <v>190.45</v>
-      </c>
-      <c r="D374" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D374">
+        <v>-44.66</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B375" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B375">
+        <v>118.64</v>
       </c>
       <c r="C375">
-        <v>190.45</v>
-      </c>
-      <c r="D375" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B376" t="s">
-        <v>4</v>
-      </c>
-      <c r="C376">
-        <v>190.45</v>
-      </c>
-      <c r="D376" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B377" t="s">
-        <v>4</v>
-      </c>
-      <c r="C377">
-        <v>190.45</v>
-      </c>
-      <c r="D377" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B378" t="s">
-        <v>4</v>
-      </c>
-      <c r="C378">
-        <v>190.45</v>
-      </c>
-      <c r="D378" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B379" t="s">
-        <v>4</v>
-      </c>
-      <c r="C379">
-        <v>190.45</v>
-      </c>
-      <c r="D379" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B380" t="s">
-        <v>4</v>
-      </c>
-      <c r="C380">
-        <v>190.45</v>
-      </c>
-      <c r="D380" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B381" t="s">
-        <v>4</v>
-      </c>
-      <c r="C381">
-        <v>190.45</v>
-      </c>
-      <c r="D381" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B382" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382">
-        <v>190.45</v>
-      </c>
-      <c r="D382" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B383" t="s">
-        <v>4</v>
-      </c>
-      <c r="C383">
-        <v>190.45</v>
-      </c>
-      <c r="D383" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B384" t="s">
-        <v>4</v>
-      </c>
-      <c r="C384">
-        <v>190.45</v>
-      </c>
-      <c r="D384" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B385" t="s">
-        <v>4</v>
-      </c>
-      <c r="C385">
-        <v>190.45</v>
-      </c>
-      <c r="D385" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B386" t="s">
-        <v>4</v>
-      </c>
-      <c r="C386">
-        <v>190.45</v>
-      </c>
-      <c r="D386" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B387" t="s">
-        <v>4</v>
-      </c>
-      <c r="C387">
-        <v>190.45</v>
-      </c>
-      <c r="D387" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B388" t="s">
-        <v>4</v>
-      </c>
-      <c r="C388">
-        <v>190.45</v>
-      </c>
-      <c r="D388" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B389" t="s">
-        <v>4</v>
-      </c>
-      <c r="C389">
-        <v>190.45</v>
-      </c>
-      <c r="D389" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B390" t="s">
-        <v>4</v>
-      </c>
-      <c r="C390">
-        <v>190.45</v>
-      </c>
-      <c r="D390" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D375">
+        <v>-45.1</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="B14">
-        <v>123.34</v>
+        <v>119.53</v>
       </c>
       <c r="C14">
         <v>216.08</v>
       </c>
       <c r="D14">
-        <v>-42.92</v>
+        <v>-44.68</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5868,6 +5868,104 @@
         <v>-45.1</v>
       </c>
     </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B376">
+        <v>117.78</v>
+      </c>
+      <c r="C376">
+        <v>216.08</v>
+      </c>
+      <c r="D376">
+        <v>-45.49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B377">
+        <v>116.91</v>
+      </c>
+      <c r="C377">
+        <v>216.08</v>
+      </c>
+      <c r="D377">
+        <v>-45.89</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B378">
+        <v>115.96</v>
+      </c>
+      <c r="C378">
+        <v>216.08</v>
+      </c>
+      <c r="D378">
+        <v>-46.34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B379">
+        <v>115.22</v>
+      </c>
+      <c r="C379">
+        <v>216.08</v>
+      </c>
+      <c r="D379">
+        <v>-46.68</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B380">
+        <v>114.3</v>
+      </c>
+      <c r="C380">
+        <v>216.08</v>
+      </c>
+      <c r="D380">
+        <v>-47.1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B381">
+        <v>113.64</v>
+      </c>
+      <c r="C381">
+        <v>216.08</v>
+      </c>
+      <c r="D381">
+        <v>-47.41</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B382">
+        <v>112.45</v>
+      </c>
+      <c r="C382">
+        <v>216.08</v>
+      </c>
+      <c r="D382">
+        <v>-47.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44089</v>
+        <v>44095</v>
       </c>
       <c r="B14">
-        <v>119.53</v>
+        <v>117.01</v>
       </c>
       <c r="C14">
         <v>216.08</v>
       </c>
       <c r="D14">
-        <v>-44.68</v>
+        <v>-45.85</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5966,6 +5966,90 @@
         <v>-47.96</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B383">
+        <v>111.88</v>
+      </c>
+      <c r="C383">
+        <v>216.08</v>
+      </c>
+      <c r="D383">
+        <v>-48.23</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B384">
+        <v>111.45</v>
+      </c>
+      <c r="C384">
+        <v>216.08</v>
+      </c>
+      <c r="D384">
+        <v>-48.42</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B385">
+        <v>111.38</v>
+      </c>
+      <c r="C385">
+        <v>216.08</v>
+      </c>
+      <c r="D385">
+        <v>-48.46</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B386">
+        <v>110.95</v>
+      </c>
+      <c r="C386">
+        <v>216.08</v>
+      </c>
+      <c r="D386">
+        <v>-48.65</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B387">
+        <v>109.91</v>
+      </c>
+      <c r="C387">
+        <v>216.08</v>
+      </c>
+      <c r="D387">
+        <v>-49.13</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B388">
+        <v>108.74</v>
+      </c>
+      <c r="C388">
+        <v>216.08</v>
+      </c>
+      <c r="D388">
+        <v>-49.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B2">
-        <v>112.48</v>
+        <v>111.57</v>
       </c>
       <c r="C2">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D2">
-        <v>-47.95</v>
+        <v>-64.08</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B3">
-        <v>111.57</v>
+        <v>202.52</v>
       </c>
       <c r="C3">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D3">
-        <v>-64.08</v>
+        <v>-20.27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B4">
-        <v>202.52</v>
+        <v>153.53</v>
       </c>
       <c r="C4">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D4">
-        <v>-20.27</v>
+        <v>-29.48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B5">
-        <v>153.53</v>
+        <v>175.51</v>
       </c>
       <c r="C5">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D5">
-        <v>-29.48</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B6">
-        <v>175.51</v>
+        <v>172.17</v>
       </c>
       <c r="C6">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D6">
-        <v>-14.72</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B7">
-        <v>172.17</v>
+        <v>119.43</v>
       </c>
       <c r="C7">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D7">
-        <v>-21.23</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B8">
-        <v>119.43</v>
+        <v>106.97</v>
       </c>
       <c r="C8">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D8">
-        <v>-33.79</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B9">
-        <v>106.97</v>
+        <v>256.91</v>
       </c>
       <c r="C9">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D9">
-        <v>-46.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B10">
-        <v>256.91</v>
+        <v>288.42</v>
       </c>
       <c r="C10">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D10">
-        <v>-8.039999999999999</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B11">
-        <v>288.42</v>
+        <v>206.55</v>
       </c>
       <c r="C11">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D11">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B12">
-        <v>206.55</v>
+        <v>142.1</v>
       </c>
       <c r="C12">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D12">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B13">
-        <v>142.1</v>
+        <v>114.62</v>
       </c>
       <c r="C13">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D13">
-        <v>-25.39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B14">
-        <v>117.01</v>
-      </c>
-      <c r="C14">
-        <v>216.08</v>
-      </c>
-      <c r="D14">
-        <v>-45.85</v>
+        <v>-46.96</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5420 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43709</v>
-      </c>
-      <c r="B2">
-        <v>117.04</v>
+        <v>43739</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>216.08</v>
-      </c>
-      <c r="D2">
-        <v>-45.83</v>
+        <v>310.64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43710</v>
+        <v>43740</v>
       </c>
       <c r="B3">
-        <v>117.17</v>
+        <v>100</v>
       </c>
       <c r="C3">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D3">
-        <v>-45.77</v>
+        <v>-67.81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43711</v>
+        <v>43741</v>
       </c>
       <c r="B4">
-        <v>116.35</v>
+        <v>103.57</v>
       </c>
       <c r="C4">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D4">
-        <v>-46.16</v>
+        <v>-66.66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43712</v>
+        <v>43742</v>
       </c>
       <c r="B5">
-        <v>116.08</v>
+        <v>105.13</v>
       </c>
       <c r="C5">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D5">
-        <v>-46.28</v>
+        <v>-66.16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43713</v>
+        <v>43743</v>
       </c>
       <c r="B6">
-        <v>117.44</v>
+        <v>103.54</v>
       </c>
       <c r="C6">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D6">
-        <v>-45.65</v>
+        <v>-66.67</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43714</v>
+        <v>43744</v>
       </c>
       <c r="B7">
-        <v>116.57</v>
+        <v>112.78</v>
       </c>
       <c r="C7">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D7">
-        <v>-46.06</v>
+        <v>-63.69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43715</v>
+        <v>43745</v>
       </c>
       <c r="B8">
-        <v>115.46</v>
+        <v>113.9</v>
       </c>
       <c r="C8">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D8">
-        <v>-46.57</v>
+        <v>-63.33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43716</v>
+        <v>43746</v>
       </c>
       <c r="B9">
-        <v>114.35</v>
+        <v>110.32</v>
       </c>
       <c r="C9">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D9">
-        <v>-47.08</v>
+        <v>-64.48999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43717</v>
+        <v>43747</v>
       </c>
       <c r="B10">
-        <v>113.38</v>
+        <v>111.64</v>
       </c>
       <c r="C10">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D10">
-        <v>-47.53</v>
+        <v>-64.06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43718</v>
+        <v>43748</v>
       </c>
       <c r="B11">
-        <v>112.29</v>
+        <v>110.05</v>
       </c>
       <c r="C11">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D11">
-        <v>-48.04</v>
+        <v>-64.56999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43719</v>
+        <v>43749</v>
       </c>
       <c r="B12">
-        <v>111.58</v>
+        <v>107.29</v>
       </c>
       <c r="C12">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D12">
-        <v>-48.36</v>
+        <v>-65.45999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43720</v>
+        <v>43750</v>
       </c>
       <c r="B13">
-        <v>111.05</v>
+        <v>105.38</v>
       </c>
       <c r="C13">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D13">
-        <v>-48.61</v>
+        <v>-66.08</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43721</v>
+        <v>43751</v>
       </c>
       <c r="B14">
-        <v>112</v>
+        <v>103.48</v>
       </c>
       <c r="C14">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D14">
-        <v>-48.17</v>
+        <v>-66.69</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43722</v>
+        <v>43752</v>
       </c>
       <c r="B15">
-        <v>112</v>
+        <v>102.25</v>
       </c>
       <c r="C15">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D15">
-        <v>-48.17</v>
+        <v>-67.08</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43723</v>
+        <v>43753</v>
       </c>
       <c r="B16">
-        <v>111.48</v>
+        <v>101.58</v>
       </c>
       <c r="C16">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D16">
-        <v>-48.41</v>
+        <v>-67.3</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43724</v>
+        <v>43754</v>
       </c>
       <c r="B17">
-        <v>111</v>
+        <v>101.71</v>
       </c>
       <c r="C17">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D17">
-        <v>-48.63</v>
+        <v>-67.26000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43725</v>
+        <v>43755</v>
       </c>
       <c r="B18">
-        <v>110.55</v>
+        <v>100.39</v>
       </c>
       <c r="C18">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D18">
-        <v>-48.84</v>
+        <v>-67.68000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43726</v>
+        <v>43756</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>102.58</v>
       </c>
       <c r="C19">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D19">
-        <v>-49.09</v>
+        <v>-66.98</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43727</v>
+        <v>43757</v>
       </c>
       <c r="B20">
-        <v>110.26</v>
+        <v>104.29</v>
       </c>
       <c r="C20">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D20">
-        <v>-48.97</v>
+        <v>-66.43000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43728</v>
+        <v>43758</v>
       </c>
       <c r="B21">
-        <v>116.09</v>
+        <v>107.17</v>
       </c>
       <c r="C21">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D21">
-        <v>-46.28</v>
+        <v>-65.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43729</v>
+        <v>43759</v>
       </c>
       <c r="B22">
-        <v>120.71</v>
+        <v>113.17</v>
       </c>
       <c r="C22">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D22">
-        <v>-44.14</v>
+        <v>-63.57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43730</v>
+        <v>43760</v>
       </c>
       <c r="B23">
-        <v>121.75</v>
+        <v>121.08</v>
       </c>
       <c r="C23">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D23">
-        <v>-43.66</v>
+        <v>-61.02</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43731</v>
+        <v>43761</v>
       </c>
       <c r="B24">
-        <v>127.12</v>
+        <v>119.83</v>
       </c>
       <c r="C24">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D24">
-        <v>-41.17</v>
+        <v>-61.42</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43732</v>
+        <v>43762</v>
       </c>
       <c r="B25">
-        <v>115.75</v>
+        <v>119.59</v>
       </c>
       <c r="C25">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D25">
-        <v>-46.43</v>
+        <v>-61.5</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43733</v>
+        <v>43763</v>
       </c>
       <c r="B26">
-        <v>107.17</v>
+        <v>114.29</v>
       </c>
       <c r="C26">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D26">
-        <v>-50.4</v>
+        <v>-63.21</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43734</v>
+        <v>43764</v>
       </c>
       <c r="B27">
-        <v>104.53</v>
+        <v>110.48</v>
       </c>
       <c r="C27">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D27">
-        <v>-51.63</v>
+        <v>-64.44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43735</v>
+        <v>43765</v>
       </c>
       <c r="B28">
-        <v>103.09</v>
+        <v>108.29</v>
       </c>
       <c r="C28">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D28">
-        <v>-52.29</v>
+        <v>-65.14</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43736</v>
+        <v>43766</v>
       </c>
       <c r="B29">
-        <v>101.61</v>
+        <v>116.55</v>
       </c>
       <c r="C29">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D29">
-        <v>-52.98</v>
+        <v>-62.48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43737</v>
+        <v>43767</v>
       </c>
       <c r="B30">
-        <v>100.54</v>
+        <v>124.91</v>
       </c>
       <c r="C30">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D30">
-        <v>-53.47</v>
+        <v>-59.79</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43738</v>
+        <v>43768</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>151.17</v>
       </c>
       <c r="C31">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D31">
-        <v>-53.72</v>
+        <v>-51.34</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
+        <v>43769</v>
+      </c>
+      <c r="B32">
+        <v>140.71</v>
       </c>
       <c r="C32">
         <v>310.64</v>
       </c>
-      <c r="D32" t="s">
-        <v>4</v>
+      <c r="D32">
+        <v>-54.7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43740</v>
+        <v>43770</v>
       </c>
       <c r="B33">
-        <v>100</v>
+        <v>132.41</v>
       </c>
       <c r="C33">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D33">
-        <v>-67.81</v>
+        <v>-47.87</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43741</v>
+        <v>43771</v>
       </c>
       <c r="B34">
-        <v>103.57</v>
+        <v>148.46</v>
       </c>
       <c r="C34">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D34">
-        <v>-66.66</v>
+        <v>-41.56</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43742</v>
+        <v>43772</v>
       </c>
       <c r="B35">
-        <v>105.13</v>
+        <v>145.22</v>
       </c>
       <c r="C35">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D35">
-        <v>-66.16</v>
+        <v>-42.83</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43743</v>
+        <v>43773</v>
       </c>
       <c r="B36">
-        <v>103.54</v>
+        <v>141.39</v>
       </c>
       <c r="C36">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D36">
-        <v>-66.67</v>
+        <v>-44.34</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43744</v>
+        <v>43774</v>
       </c>
       <c r="B37">
-        <v>112.78</v>
+        <v>140.3</v>
       </c>
       <c r="C37">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D37">
-        <v>-63.69</v>
+        <v>-44.77</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43745</v>
+        <v>43775</v>
       </c>
       <c r="B38">
-        <v>113.9</v>
+        <v>174.96</v>
       </c>
       <c r="C38">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D38">
-        <v>-63.33</v>
+        <v>-31.12</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43746</v>
+        <v>43776</v>
       </c>
       <c r="B39">
-        <v>110.32</v>
+        <v>195.09</v>
       </c>
       <c r="C39">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D39">
-        <v>-64.48999999999999</v>
+        <v>-23.2</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43747</v>
+        <v>43777</v>
       </c>
       <c r="B40">
-        <v>111.64</v>
+        <v>171.14</v>
       </c>
       <c r="C40">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D40">
-        <v>-64.06</v>
+        <v>-32.63</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43748</v>
+        <v>43778</v>
       </c>
       <c r="B41">
-        <v>110.05</v>
+        <v>220.04</v>
       </c>
       <c r="C41">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D41">
-        <v>-64.56999999999999</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43749</v>
+        <v>43779</v>
       </c>
       <c r="B42">
-        <v>107.29</v>
+        <v>260.87</v>
       </c>
       <c r="C42">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D42">
-        <v>-65.45999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43750</v>
+        <v>43780</v>
       </c>
       <c r="B43">
-        <v>105.38</v>
+        <v>194.58</v>
       </c>
       <c r="C43">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D43">
-        <v>-66.08</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43751</v>
+        <v>43781</v>
       </c>
       <c r="B44">
-        <v>103.48</v>
+        <v>172.46</v>
       </c>
       <c r="C44">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D44">
-        <v>-66.69</v>
+        <v>-32.11</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43752</v>
+        <v>43782</v>
       </c>
       <c r="B45">
-        <v>102.25</v>
+        <v>158.7</v>
       </c>
       <c r="C45">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D45">
-        <v>-67.08</v>
+        <v>-37.53</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43753</v>
+        <v>43783</v>
       </c>
       <c r="B46">
-        <v>101.58</v>
+        <v>289.41</v>
       </c>
       <c r="C46">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D46">
-        <v>-67.3</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43754</v>
+        <v>43784</v>
       </c>
       <c r="B47">
-        <v>101.71</v>
+        <v>710.3200000000001</v>
       </c>
       <c r="C47">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D47">
-        <v>-67.26000000000001</v>
+        <v>179.63</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43755</v>
+        <v>43785</v>
       </c>
       <c r="B48">
-        <v>100.39</v>
+        <v>464.86</v>
       </c>
       <c r="C48">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D48">
-        <v>-67.68000000000001</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43756</v>
+        <v>43786</v>
       </c>
       <c r="B49">
-        <v>102.58</v>
+        <v>250.68</v>
       </c>
       <c r="C49">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D49">
-        <v>-66.98</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43757</v>
+        <v>43787</v>
       </c>
       <c r="B50">
-        <v>104.29</v>
+        <v>195.91</v>
       </c>
       <c r="C50">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D50">
-        <v>-66.43000000000001</v>
+        <v>-22.87</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43758</v>
+        <v>43788</v>
       </c>
       <c r="B51">
-        <v>107.17</v>
+        <v>171.29</v>
       </c>
       <c r="C51">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D51">
-        <v>-65.5</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="B52">
-        <v>113.17</v>
+        <v>155.79</v>
       </c>
       <c r="C52">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D52">
-        <v>-63.57</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43760</v>
+        <v>43790</v>
       </c>
       <c r="B53">
-        <v>121.08</v>
+        <v>143.59</v>
       </c>
       <c r="C53">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D53">
-        <v>-61.02</v>
+        <v>-43.47</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43761</v>
+        <v>43791</v>
       </c>
       <c r="B54">
-        <v>119.83</v>
+        <v>136.41</v>
       </c>
       <c r="C54">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D54">
-        <v>-61.42</v>
+        <v>-46.3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43762</v>
+        <v>43792</v>
       </c>
       <c r="B55">
-        <v>119.59</v>
+        <v>130.94</v>
       </c>
       <c r="C55">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D55">
-        <v>-61.5</v>
+        <v>-48.45</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43763</v>
+        <v>43793</v>
       </c>
       <c r="B56">
-        <v>114.29</v>
+        <v>126.1</v>
       </c>
       <c r="C56">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D56">
-        <v>-63.21</v>
+        <v>-50.36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43764</v>
+        <v>43794</v>
       </c>
       <c r="B57">
-        <v>110.48</v>
+        <v>121.92</v>
       </c>
       <c r="C57">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D57">
-        <v>-64.44</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43765</v>
+        <v>43795</v>
       </c>
       <c r="B58">
-        <v>108.29</v>
+        <v>120</v>
       </c>
       <c r="C58">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D58">
-        <v>-65.14</v>
+        <v>-52.76</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43766</v>
+        <v>43796</v>
       </c>
       <c r="B59">
-        <v>116.55</v>
+        <v>141.96</v>
       </c>
       <c r="C59">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D59">
-        <v>-62.48</v>
+        <v>-44.12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43767</v>
+        <v>43797</v>
       </c>
       <c r="B60">
-        <v>124.91</v>
+        <v>267.65</v>
       </c>
       <c r="C60">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D60">
-        <v>-59.79</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43768</v>
+        <v>43798</v>
       </c>
       <c r="B61">
-        <v>151.17</v>
+        <v>215.57</v>
       </c>
       <c r="C61">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D61">
-        <v>-51.34</v>
+        <v>-15.14</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B62">
-        <v>140.71</v>
+        <v>177.61</v>
       </c>
       <c r="C62">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D62">
-        <v>-54.7</v>
+        <v>-30.08</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63">
-        <v>132.41</v>
+        <v>157.42</v>
       </c>
       <c r="C63">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D63">
-        <v>-47.87</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B64">
-        <v>148.46</v>
+        <v>143.88</v>
       </c>
       <c r="C64">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D64">
-        <v>-41.56</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B65">
-        <v>145.22</v>
+        <v>138.09</v>
       </c>
       <c r="C65">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D65">
-        <v>-42.83</v>
+        <v>-36.57</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B66">
-        <v>141.39</v>
+        <v>139.5</v>
       </c>
       <c r="C66">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D66">
-        <v>-44.34</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B67">
-        <v>140.3</v>
+        <v>162</v>
       </c>
       <c r="C67">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D67">
-        <v>-44.77</v>
+        <v>-25.59</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B68">
-        <v>174.96</v>
+        <v>170.92</v>
       </c>
       <c r="C68">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D68">
-        <v>-31.12</v>
+        <v>-21.49</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B69">
-        <v>195.09</v>
+        <v>158.12</v>
       </c>
       <c r="C69">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D69">
-        <v>-23.2</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B70">
-        <v>171.14</v>
+        <v>143.38</v>
       </c>
       <c r="C70">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D70">
-        <v>-32.63</v>
+        <v>-34.14</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B71">
-        <v>220.04</v>
+        <v>138.14</v>
       </c>
       <c r="C71">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D71">
-        <v>-13.38</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B72">
-        <v>260.87</v>
+        <v>135.05</v>
       </c>
       <c r="C72">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D72">
-        <v>2.7</v>
+        <v>-37.97</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B73">
-        <v>194.58</v>
+        <v>130.6</v>
       </c>
       <c r="C73">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D73">
-        <v>-23.4</v>
+        <v>-40.01</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B74">
-        <v>172.46</v>
+        <v>129</v>
       </c>
       <c r="C74">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D74">
-        <v>-32.11</v>
+        <v>-40.75</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B75">
-        <v>158.7</v>
+        <v>124.67</v>
       </c>
       <c r="C75">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D75">
-        <v>-37.53</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B76">
-        <v>289.41</v>
+        <v>123.92</v>
       </c>
       <c r="C76">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D76">
-        <v>13.93</v>
+        <v>-43.08</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B77">
-        <v>710.3200000000001</v>
+        <v>120.71</v>
       </c>
       <c r="C77">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D77">
-        <v>179.63</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B78">
-        <v>464.86</v>
+        <v>145.35</v>
       </c>
       <c r="C78">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D78">
-        <v>83</v>
+        <v>-33.24</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B79">
-        <v>250.68</v>
+        <v>250.95</v>
       </c>
       <c r="C79">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D79">
-        <v>-1.31</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B80">
-        <v>195.91</v>
+        <v>251.93</v>
       </c>
       <c r="C80">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D80">
-        <v>-22.87</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B81">
-        <v>171.29</v>
+        <v>43818</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>254.02</v>
-      </c>
-      <c r="D81">
-        <v>-32.57</v>
+        <v>217.71</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B82">
-        <v>155.79</v>
+        <v>43819</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>254.02</v>
-      </c>
-      <c r="D82">
-        <v>-38.67</v>
+        <v>217.71</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43790</v>
-      </c>
-      <c r="B83">
-        <v>143.59</v>
+        <v>43820</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>254.02</v>
-      </c>
-      <c r="D83">
-        <v>-43.47</v>
+        <v>217.71</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B84">
-        <v>136.41</v>
+        <v>43821</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>254.02</v>
-      </c>
-      <c r="D84">
-        <v>-46.3</v>
+        <v>217.71</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B85">
-        <v>130.94</v>
+        <v>43822</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>254.02</v>
-      </c>
-      <c r="D85">
-        <v>-48.45</v>
+        <v>217.71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43793</v>
-      </c>
-      <c r="B86">
-        <v>126.1</v>
+        <v>43823</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
       </c>
       <c r="C86">
-        <v>254.02</v>
-      </c>
-      <c r="D86">
-        <v>-50.36</v>
+        <v>217.71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B87">
-        <v>121.92</v>
+        <v>43824</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
       </c>
       <c r="C87">
-        <v>254.02</v>
-      </c>
-      <c r="D87">
-        <v>-52</v>
+        <v>217.71</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B88">
-        <v>120</v>
+        <v>43825</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
       </c>
       <c r="C88">
-        <v>254.02</v>
-      </c>
-      <c r="D88">
-        <v>-52.76</v>
+        <v>217.71</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B89">
-        <v>141.96</v>
+        <v>43826</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
       </c>
       <c r="C89">
-        <v>254.02</v>
-      </c>
-      <c r="D89">
-        <v>-44.12</v>
+        <v>217.71</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B90">
-        <v>267.65</v>
+        <v>43827</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>254.02</v>
-      </c>
-      <c r="D90">
-        <v>5.37</v>
+        <v>217.71</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B91">
-        <v>215.57</v>
+        <v>43828</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>254.02</v>
-      </c>
-      <c r="D91">
-        <v>-15.14</v>
+        <v>217.71</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B92">
-        <v>177.61</v>
+        <v>43829</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>254.02</v>
-      </c>
-      <c r="D92">
-        <v>-30.08</v>
+        <v>217.71</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B93">
-        <v>157.42</v>
+        <v>43830</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
       </c>
       <c r="C93">
         <v>217.71</v>
       </c>
-      <c r="D93">
-        <v>-27.69</v>
+      <c r="D93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B94">
-        <v>143.88</v>
+        <v>43831</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>217.71</v>
-      </c>
-      <c r="D94">
-        <v>-33.91</v>
+        <v>205.8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B95">
-        <v>138.09</v>
+        <v>43832</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>217.71</v>
-      </c>
-      <c r="D95">
-        <v>-36.57</v>
+        <v>205.8</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B96">
-        <v>139.5</v>
+        <v>43833</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
       </c>
       <c r="C96">
-        <v>217.71</v>
-      </c>
-      <c r="D96">
-        <v>-35.92</v>
+        <v>205.8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B97">
-        <v>162</v>
+        <v>43834</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
       </c>
       <c r="C97">
-        <v>217.71</v>
-      </c>
-      <c r="D97">
-        <v>-25.59</v>
+        <v>205.8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B98">
-        <v>170.92</v>
+        <v>43835</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>217.71</v>
-      </c>
-      <c r="D98">
-        <v>-21.49</v>
+        <v>205.8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B99">
-        <v>158.12</v>
+        <v>43836</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>217.71</v>
-      </c>
-      <c r="D99">
-        <v>-27.37</v>
+        <v>205.8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B100">
-        <v>143.38</v>
+        <v>43837</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
       </c>
       <c r="C100">
-        <v>217.71</v>
-      </c>
-      <c r="D100">
-        <v>-34.14</v>
+        <v>205.8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B101">
-        <v>138.14</v>
+        <v>43838</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
       </c>
       <c r="C101">
-        <v>217.71</v>
-      </c>
-      <c r="D101">
-        <v>-36.55</v>
+        <v>205.8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B102">
-        <v>135.05</v>
+        <v>108.1</v>
       </c>
       <c r="C102">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D102">
-        <v>-37.97</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B103">
-        <v>130.6</v>
+        <v>108.83</v>
       </c>
       <c r="C103">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D103">
-        <v>-40.01</v>
+        <v>-47.12</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B104">
-        <v>129</v>
+        <v>118.23</v>
       </c>
       <c r="C104">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D104">
-        <v>-40.75</v>
+        <v>-42.55</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B105">
-        <v>124.67</v>
+        <v>156.21</v>
       </c>
       <c r="C105">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D105">
-        <v>-42.74</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B106">
-        <v>123.92</v>
+        <v>173.29</v>
       </c>
       <c r="C106">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D106">
-        <v>-43.08</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B107">
-        <v>120.71</v>
+        <v>152.58</v>
       </c>
       <c r="C107">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D107">
-        <v>-44.55</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B108">
-        <v>145.35</v>
+        <v>141.92</v>
       </c>
       <c r="C108">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D108">
-        <v>-33.24</v>
+        <v>-31.04</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B109">
-        <v>250.95</v>
+        <v>136.11</v>
       </c>
       <c r="C109">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D109">
-        <v>15.27</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B110">
-        <v>251.93</v>
+        <v>199.88</v>
       </c>
       <c r="C110">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D110">
-        <v>15.72</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B111">
+        <v>268.25</v>
       </c>
       <c r="C111">
-        <v>217.71</v>
-      </c>
-      <c r="D111" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D111">
+        <v>30.35</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B112">
+        <v>186.62</v>
       </c>
       <c r="C112">
-        <v>217.71</v>
-      </c>
-      <c r="D112" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D112">
+        <v>-9.32</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
+        <v>43850</v>
+      </c>
+      <c r="B113">
+        <v>157.04</v>
       </c>
       <c r="C113">
-        <v>217.71</v>
-      </c>
-      <c r="D113" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D113">
+        <v>-23.69</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
+        <v>43851</v>
+      </c>
+      <c r="B114">
+        <v>141.12</v>
       </c>
       <c r="C114">
-        <v>217.71</v>
-      </c>
-      <c r="D114" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D114">
+        <v>-31.43</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
+        <v>43852</v>
+      </c>
+      <c r="B115">
+        <v>131.83</v>
       </c>
       <c r="C115">
-        <v>217.71</v>
-      </c>
-      <c r="D115" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D115">
+        <v>-35.94</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
+        <v>43853</v>
+      </c>
+      <c r="B116">
+        <v>126.7</v>
       </c>
       <c r="C116">
-        <v>217.71</v>
-      </c>
-      <c r="D116" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D116">
+        <v>-38.44</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43824</v>
-      </c>
-      <c r="B117" t="s">
-        <v>4</v>
+        <v>43854</v>
+      </c>
+      <c r="B117">
+        <v>125.38</v>
       </c>
       <c r="C117">
-        <v>217.71</v>
-      </c>
-      <c r="D117" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D117">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43825</v>
-      </c>
-      <c r="B118" t="s">
-        <v>4</v>
+        <v>43855</v>
+      </c>
+      <c r="B118">
+        <v>128.12</v>
       </c>
       <c r="C118">
-        <v>217.71</v>
-      </c>
-      <c r="D118" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D118">
+        <v>-37.74</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43826</v>
-      </c>
-      <c r="B119" t="s">
-        <v>4</v>
+        <v>43856</v>
+      </c>
+      <c r="B119">
+        <v>124.04</v>
       </c>
       <c r="C119">
-        <v>217.71</v>
-      </c>
-      <c r="D119" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D119">
+        <v>-39.73</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43827</v>
-      </c>
-      <c r="B120" t="s">
-        <v>4</v>
+        <v>43857</v>
+      </c>
+      <c r="B120">
+        <v>118.61</v>
       </c>
       <c r="C120">
-        <v>217.71</v>
-      </c>
-      <c r="D120" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D120">
+        <v>-42.37</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43828</v>
-      </c>
-      <c r="B121" t="s">
-        <v>4</v>
+        <v>43858</v>
+      </c>
+      <c r="B121">
+        <v>114.5</v>
       </c>
       <c r="C121">
-        <v>217.71</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D121">
+        <v>-44.36</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43829</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
+        <v>43859</v>
+      </c>
+      <c r="B122">
+        <v>111.46</v>
       </c>
       <c r="C122">
-        <v>217.71</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D122">
+        <v>-45.84</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4</v>
+        <v>43860</v>
+      </c>
+      <c r="B123">
+        <v>131.61</v>
       </c>
       <c r="C123">
-        <v>217.71</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D123">
+        <v>-36.05</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B124" t="s">
-        <v>4</v>
+        <v>43861</v>
+      </c>
+      <c r="B124">
+        <v>876.26</v>
       </c>
       <c r="C124">
         <v>205.8</v>
       </c>
-      <c r="D124" t="s">
-        <v>4</v>
+      <c r="D124">
+        <v>325.78</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
+        <v>43862</v>
+      </c>
+      <c r="B125">
+        <v>695.87</v>
       </c>
       <c r="C125">
-        <v>205.8</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D125">
+        <v>218.37</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4</v>
+        <v>43863</v>
+      </c>
+      <c r="B126">
+        <v>247.09</v>
       </c>
       <c r="C126">
-        <v>205.8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D126">
+        <v>13.05</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43834</v>
-      </c>
-      <c r="B127" t="s">
-        <v>4</v>
+        <v>43864</v>
+      </c>
+      <c r="B127">
+        <v>253.14</v>
       </c>
       <c r="C127">
-        <v>205.8</v>
-      </c>
-      <c r="D127" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D127">
+        <v>15.82</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B128" t="s">
-        <v>4</v>
+        <v>43865</v>
+      </c>
+      <c r="B128">
+        <v>321</v>
       </c>
       <c r="C128">
-        <v>205.8</v>
-      </c>
-      <c r="D128" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D128">
+        <v>46.86</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43836</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4</v>
+        <v>43866</v>
+      </c>
+      <c r="B129">
+        <v>212.33</v>
       </c>
       <c r="C129">
-        <v>205.8</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D129">
+        <v>-2.85</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4</v>
+        <v>43867</v>
+      </c>
+      <c r="B130">
+        <v>175.48</v>
       </c>
       <c r="C130">
-        <v>205.8</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D130">
+        <v>-19.72</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B131" t="s">
-        <v>4</v>
+        <v>43868</v>
+      </c>
+      <c r="B131">
+        <v>156.87</v>
       </c>
       <c r="C131">
-        <v>205.8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D131">
+        <v>-28.23</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B132">
-        <v>108.1</v>
+        <v>144</v>
       </c>
       <c r="C132">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D132">
-        <v>-47.47</v>
+        <v>-34.12</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B133">
-        <v>108.83</v>
+        <v>140.65</v>
       </c>
       <c r="C133">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D133">
-        <v>-47.12</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B134">
-        <v>118.23</v>
+        <v>135.3</v>
       </c>
       <c r="C134">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D134">
-        <v>-42.55</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B135">
-        <v>156.21</v>
+        <v>136.46</v>
       </c>
       <c r="C135">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D135">
-        <v>-24.1</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B136">
-        <v>173.29</v>
+        <v>130.39</v>
       </c>
       <c r="C136">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D136">
-        <v>-15.8</v>
+        <v>-40.34</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B137">
-        <v>152.58</v>
+        <v>125.58</v>
       </c>
       <c r="C137">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D137">
-        <v>-25.86</v>
+        <v>-42.54</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B138">
-        <v>141.92</v>
+        <v>124.65</v>
       </c>
       <c r="C138">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D138">
-        <v>-31.04</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B139">
-        <v>136.11</v>
+        <v>122.29</v>
       </c>
       <c r="C139">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D139">
-        <v>-33.86</v>
+        <v>-44.05</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B140">
-        <v>199.88</v>
+        <v>118.13</v>
       </c>
       <c r="C140">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D140">
-        <v>-2.88</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B141">
-        <v>268.25</v>
+        <v>116.09</v>
       </c>
       <c r="C141">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D141">
-        <v>30.35</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B142">
-        <v>186.62</v>
+        <v>114.46</v>
       </c>
       <c r="C142">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D142">
-        <v>-9.32</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B143">
-        <v>157.04</v>
+        <v>113.86</v>
       </c>
       <c r="C143">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D143">
-        <v>-23.69</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B144">
-        <v>141.12</v>
+        <v>115.7</v>
       </c>
       <c r="C144">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D144">
-        <v>-31.43</v>
+        <v>-47.07</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B145">
-        <v>131.83</v>
+        <v>112.43</v>
       </c>
       <c r="C145">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D145">
-        <v>-35.94</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B146">
-        <v>126.7</v>
+        <v>110.58</v>
       </c>
       <c r="C146">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D146">
-        <v>-38.44</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B147">
-        <v>125.38</v>
+        <v>108.75</v>
       </c>
       <c r="C147">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D147">
-        <v>-39.08</v>
+        <v>-50.24</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B148">
-        <v>128.12</v>
+        <v>106.78</v>
       </c>
       <c r="C148">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D148">
-        <v>-37.74</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B149">
-        <v>124.04</v>
+        <v>110.83</v>
       </c>
       <c r="C149">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D149">
-        <v>-39.73</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B150">
-        <v>118.61</v>
+        <v>148.38</v>
       </c>
       <c r="C150">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D150">
-        <v>-42.37</v>
+        <v>-32.12</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B151">
-        <v>114.5</v>
+        <v>253</v>
       </c>
       <c r="C151">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D151">
-        <v>-44.36</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B152">
-        <v>111.46</v>
+        <v>184.96</v>
       </c>
       <c r="C152">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D152">
-        <v>-45.84</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B153">
-        <v>131.61</v>
+        <v>157.75</v>
       </c>
       <c r="C153">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D153">
-        <v>-36.05</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B154">
-        <v>876.26</v>
+        <v>142.96</v>
       </c>
       <c r="C154">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D154">
-        <v>325.78</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B155">
-        <v>695.87</v>
+        <v>133</v>
       </c>
       <c r="C155">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D155">
-        <v>218.37</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B156">
-        <v>247.09</v>
+        <v>126.26</v>
       </c>
       <c r="C156">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D156">
-        <v>13.05</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B157">
-        <v>253.14</v>
+        <v>121.83</v>
       </c>
       <c r="C157">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D157">
-        <v>15.82</v>
+        <v>-32.46</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B158">
-        <v>321</v>
+        <v>118.7</v>
       </c>
       <c r="C158">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D158">
-        <v>46.86</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B159">
-        <v>212.33</v>
+        <v>116.17</v>
       </c>
       <c r="C159">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D159">
-        <v>-2.85</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B160">
-        <v>175.48</v>
+        <v>113.91</v>
       </c>
       <c r="C160">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D160">
-        <v>-19.72</v>
+        <v>-36.85</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B161">
-        <v>156.87</v>
+        <v>112.86</v>
       </c>
       <c r="C161">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D161">
-        <v>-28.23</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B162">
-        <v>144</v>
+        <v>111.54</v>
       </c>
       <c r="C162">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D162">
-        <v>-34.12</v>
+        <v>-38.17</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B163">
-        <v>140.65</v>
+        <v>109.12</v>
       </c>
       <c r="C163">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D163">
-        <v>-35.65</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B164">
-        <v>135.3</v>
+        <v>107.5</v>
       </c>
       <c r="C164">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D164">
-        <v>-38.1</v>
+        <v>-40.41</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B165">
-        <v>136.46</v>
+        <v>106.17</v>
       </c>
       <c r="C165">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D165">
-        <v>-37.57</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B166">
-        <v>130.39</v>
+        <v>104.96</v>
       </c>
       <c r="C166">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D166">
-        <v>-40.34</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B167">
-        <v>125.58</v>
+        <v>104.21</v>
       </c>
       <c r="C167">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D167">
-        <v>-42.54</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B168">
-        <v>124.65</v>
+        <v>103.43</v>
       </c>
       <c r="C168">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D168">
-        <v>-42.97</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B169">
-        <v>122.29</v>
+        <v>102.5</v>
       </c>
       <c r="C169">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D169">
-        <v>-44.05</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B170">
-        <v>118.13</v>
+        <v>101.48</v>
       </c>
       <c r="C170">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D170">
-        <v>-45.95</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B171">
-        <v>116.09</v>
+        <v>106.39</v>
       </c>
       <c r="C171">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D171">
-        <v>-46.89</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B172">
-        <v>114.46</v>
+        <v>145.17</v>
       </c>
       <c r="C172">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D172">
-        <v>-47.63</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B173">
-        <v>113.86</v>
+        <v>183.46</v>
       </c>
       <c r="C173">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D173">
-        <v>-47.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B174">
-        <v>115.7</v>
+        <v>152.83</v>
       </c>
       <c r="C174">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D174">
-        <v>-47.07</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B175">
-        <v>112.43</v>
+        <v>138.67</v>
       </c>
       <c r="C175">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D175">
-        <v>-48.56</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B176">
-        <v>110.58</v>
+        <v>129.36</v>
       </c>
       <c r="C176">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D176">
-        <v>-49.41</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B177">
-        <v>108.75</v>
+        <v>123.21</v>
       </c>
       <c r="C177">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D177">
-        <v>-50.24</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B178">
-        <v>106.78</v>
+        <v>118.71</v>
       </c>
       <c r="C178">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D178">
-        <v>-51.14</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B179">
-        <v>110.83</v>
+        <v>115.42</v>
       </c>
       <c r="C179">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D179">
-        <v>-49.29</v>
+        <v>-36.02</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B180">
-        <v>148.38</v>
+        <v>112.87</v>
       </c>
       <c r="C180">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D180">
-        <v>-32.12</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B181">
-        <v>253</v>
+        <v>111.29</v>
       </c>
       <c r="C181">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D181">
-        <v>15.75</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B182">
-        <v>184.96</v>
+        <v>110.33</v>
       </c>
       <c r="C182">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D182">
-        <v>-15.38</v>
+        <v>-38.84</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B183">
-        <v>157.75</v>
+        <v>109.58</v>
       </c>
       <c r="C183">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D183">
-        <v>-27.83</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B184">
-        <v>142.96</v>
+        <v>108.54</v>
       </c>
       <c r="C184">
         <v>180.39</v>
       </c>
       <c r="D184">
-        <v>-20.75</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B185">
-        <v>133</v>
+        <v>107.96</v>
       </c>
       <c r="C185">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D185">
-        <v>-26.27</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B186">
-        <v>126.26</v>
+        <v>107.3</v>
       </c>
       <c r="C186">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D186">
-        <v>-30.01</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B187">
-        <v>121.83</v>
+        <v>106.27</v>
       </c>
       <c r="C187">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D187">
-        <v>-32.46</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B188">
-        <v>118.7</v>
+        <v>105.43</v>
       </c>
       <c r="C188">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D188">
-        <v>-34.2</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B189">
-        <v>116.17</v>
+        <v>104.65</v>
       </c>
       <c r="C189">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D189">
-        <v>-35.6</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B190">
-        <v>113.91</v>
+        <v>43927</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>180.39</v>
-      </c>
-      <c r="D190">
-        <v>-36.85</v>
+        <v>198.56</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43898</v>
-      </c>
-      <c r="B191">
-        <v>112.86</v>
+        <v>43928</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>180.39</v>
-      </c>
-      <c r="D191">
-        <v>-37.43</v>
+        <v>198.56</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B192">
-        <v>111.54</v>
+        <v>113.41</v>
       </c>
       <c r="C192">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D192">
-        <v>-38.17</v>
+        <v>-42.88</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B193">
-        <v>109.12</v>
+        <v>115.33</v>
       </c>
       <c r="C193">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D193">
-        <v>-39.51</v>
+        <v>-41.92</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B194">
-        <v>107.5</v>
+        <v>114.96</v>
       </c>
       <c r="C194">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D194">
-        <v>-40.41</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B195">
-        <v>106.17</v>
+        <v>111.71</v>
       </c>
       <c r="C195">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D195">
-        <v>-41.15</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B196">
-        <v>104.96</v>
+        <v>109.58</v>
       </c>
       <c r="C196">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D196">
-        <v>-41.81</v>
+        <v>-44.81</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B197">
-        <v>104.21</v>
+        <v>107.86</v>
       </c>
       <c r="C197">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D197">
-        <v>-42.23</v>
+        <v>-45.68</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B198">
-        <v>103.43</v>
+        <v>109.69</v>
       </c>
       <c r="C198">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D198">
-        <v>-42.66</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B199">
-        <v>102.5</v>
+        <v>108.68</v>
       </c>
       <c r="C199">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D199">
-        <v>-43.18</v>
+        <v>-45.27</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B200">
-        <v>101.48</v>
+        <v>106.59</v>
       </c>
       <c r="C200">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D200">
-        <v>-43.74</v>
+        <v>-46.32</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B201">
-        <v>106.39</v>
+        <v>111.16</v>
       </c>
       <c r="C201">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D201">
-        <v>-41.02</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B202">
-        <v>145.17</v>
+        <v>110.43</v>
       </c>
       <c r="C202">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D202">
-        <v>-19.52</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B203">
-        <v>183.46</v>
+        <v>108.26</v>
       </c>
       <c r="C203">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D203">
-        <v>1.7</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B204">
-        <v>152.83</v>
+        <v>106.5</v>
       </c>
       <c r="C204">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D204">
-        <v>-15.28</v>
+        <v>-46.36</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B205">
-        <v>138.67</v>
+        <v>104.91</v>
       </c>
       <c r="C205">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D205">
-        <v>-23.13</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B206">
-        <v>129.36</v>
+        <v>103.62</v>
       </c>
       <c r="C206">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D206">
-        <v>-28.29</v>
+        <v>-47.81</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B207">
-        <v>123.21</v>
+        <v>102.91</v>
       </c>
       <c r="C207">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D207">
-        <v>-31.7</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B208">
-        <v>118.71</v>
+        <v>102.22</v>
       </c>
       <c r="C208">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D208">
-        <v>-34.19</v>
+        <v>-48.52</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B209">
-        <v>115.42</v>
+        <v>101.35</v>
       </c>
       <c r="C209">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D209">
-        <v>-36.02</v>
+        <v>-48.96</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B210">
-        <v>112.87</v>
+        <v>100.46</v>
       </c>
       <c r="C210">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D210">
-        <v>-37.43</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B211">
-        <v>111.29</v>
+        <v>100</v>
       </c>
       <c r="C211">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D211">
-        <v>-38.3</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B212">
-        <v>110.33</v>
+        <v>100</v>
       </c>
       <c r="C212">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D212">
-        <v>-38.84</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B213">
-        <v>109.58</v>
+        <v>43950</v>
+      </c>
+      <c r="B213" t="s">
+        <v>4</v>
       </c>
       <c r="C213">
-        <v>180.39</v>
-      </c>
-      <c r="D213">
-        <v>-39.25</v>
+        <v>198.56</v>
+      </c>
+      <c r="D213" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B214">
-        <v>108.54</v>
+        <v>43951</v>
+      </c>
+      <c r="B214" t="s">
+        <v>4</v>
       </c>
       <c r="C214">
-        <v>180.39</v>
-      </c>
-      <c r="D214">
-        <v>-39.83</v>
+        <v>198.56</v>
+      </c>
+      <c r="D214" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B215">
-        <v>107.96</v>
+        <v>43952</v>
+      </c>
+      <c r="B215" t="s">
+        <v>4</v>
       </c>
       <c r="C215">
-        <v>198.56</v>
-      </c>
-      <c r="D215">
-        <v>-45.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D215" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B216">
-        <v>107.3</v>
+        <v>43953</v>
+      </c>
+      <c r="B216" t="s">
+        <v>4</v>
       </c>
       <c r="C216">
-        <v>198.56</v>
-      </c>
-      <c r="D216">
-        <v>-45.96</v>
+        <v>279.37</v>
+      </c>
+      <c r="D216" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B217">
-        <v>106.27</v>
+        <v>43954</v>
+      </c>
+      <c r="B217" t="s">
+        <v>4</v>
       </c>
       <c r="C217">
-        <v>198.56</v>
-      </c>
-      <c r="D217">
-        <v>-46.48</v>
+        <v>279.37</v>
+      </c>
+      <c r="D217" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43925</v>
-      </c>
-      <c r="B218">
-        <v>105.43</v>
+        <v>43955</v>
+      </c>
+      <c r="B218" t="s">
+        <v>4</v>
       </c>
       <c r="C218">
-        <v>198.56</v>
-      </c>
-      <c r="D218">
-        <v>-46.9</v>
+        <v>279.37</v>
+      </c>
+      <c r="D218" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B219">
-        <v>104.65</v>
+        <v>100.33</v>
       </c>
       <c r="C219">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D219">
-        <v>-47.3</v>
+        <v>-64.09</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
+        <v>43957</v>
+      </c>
+      <c r="B220">
+        <v>102.96</v>
       </c>
       <c r="C220">
-        <v>198.56</v>
-      </c>
-      <c r="D220" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D220">
+        <v>-63.15</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B221">
+        <v>105.61</v>
       </c>
       <c r="C221">
-        <v>198.56</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D221">
+        <v>-62.2</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B222">
-        <v>113.41</v>
+        <v>105.83</v>
       </c>
       <c r="C222">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D222">
-        <v>-42.88</v>
+        <v>-62.12</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B223">
-        <v>115.33</v>
+        <v>114.83</v>
       </c>
       <c r="C223">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D223">
-        <v>-41.92</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B224">
-        <v>114.96</v>
+        <v>111.43</v>
       </c>
       <c r="C224">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D224">
-        <v>-42.1</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B225">
-        <v>111.71</v>
+        <v>108.26</v>
       </c>
       <c r="C225">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D225">
-        <v>-43.74</v>
+        <v>-61.25</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B226">
-        <v>109.58</v>
+        <v>107.38</v>
       </c>
       <c r="C226">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D226">
-        <v>-44.81</v>
+        <v>-61.57</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B227">
-        <v>107.86</v>
+        <v>168.96</v>
       </c>
       <c r="C227">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D227">
-        <v>-45.68</v>
+        <v>-39.52</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B228">
-        <v>109.69</v>
+        <v>442.05</v>
       </c>
       <c r="C228">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D228">
-        <v>-44.76</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B229">
-        <v>108.68</v>
+        <v>383.78</v>
       </c>
       <c r="C229">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D229">
-        <v>-45.27</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B230">
-        <v>106.59</v>
+        <v>213.5</v>
       </c>
       <c r="C230">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D230">
-        <v>-46.32</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B231">
-        <v>111.16</v>
+        <v>177.5</v>
       </c>
       <c r="C231">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D231">
-        <v>-44.02</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B232">
-        <v>110.43</v>
+        <v>158.13</v>
       </c>
       <c r="C232">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D232">
-        <v>-44.39</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B233">
-        <v>108.26</v>
+        <v>145.96</v>
       </c>
       <c r="C233">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D233">
-        <v>-45.48</v>
+        <v>-47.76</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B234">
-        <v>106.5</v>
+        <v>136.83</v>
       </c>
       <c r="C234">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D234">
-        <v>-46.36</v>
+        <v>-51.02</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B235">
-        <v>104.91</v>
+        <v>130.61</v>
       </c>
       <c r="C235">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D235">
-        <v>-47.16</v>
+        <v>-53.25</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B236">
-        <v>103.62</v>
+        <v>448.62</v>
       </c>
       <c r="C236">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D236">
-        <v>-47.81</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B237">
-        <v>102.91</v>
+        <v>1052.78</v>
       </c>
       <c r="C237">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D237">
-        <v>-48.17</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B238">
-        <v>102.22</v>
+        <v>927.75</v>
       </c>
       <c r="C238">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D238">
-        <v>-48.52</v>
+        <v>232.09</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B239">
-        <v>101.35</v>
+        <v>454.12</v>
       </c>
       <c r="C239">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D239">
-        <v>-48.96</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B240">
-        <v>100.46</v>
+        <v>291.38</v>
       </c>
       <c r="C240">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D240">
-        <v>-49.41</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B241">
-        <v>100</v>
+        <v>231.67</v>
       </c>
       <c r="C241">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D241">
-        <v>-49.64</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B242">
-        <v>100</v>
+        <v>201.75</v>
       </c>
       <c r="C242">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D242">
-        <v>-49.64</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B243" t="s">
-        <v>4</v>
+        <v>43980</v>
+      </c>
+      <c r="B243">
+        <v>183.54</v>
       </c>
       <c r="C243">
-        <v>198.56</v>
-      </c>
-      <c r="D243" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D243">
+        <v>-34.3</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B244" t="s">
-        <v>4</v>
+        <v>43981</v>
+      </c>
+      <c r="B244">
+        <v>170.25</v>
       </c>
       <c r="C244">
-        <v>198.56</v>
-      </c>
-      <c r="D244" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D244">
+        <v>-39.06</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B245" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B245">
+        <v>160.67</v>
       </c>
       <c r="C245">
         <v>279.37</v>
       </c>
-      <c r="D245" t="s">
-        <v>4</v>
+      <c r="D245">
+        <v>-42.49</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B246" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B246">
+        <v>155.43</v>
       </c>
       <c r="C246">
-        <v>279.37</v>
-      </c>
-      <c r="D246" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D246">
+        <v>-36.54</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B247" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B247">
+        <v>151.5</v>
       </c>
       <c r="C247">
-        <v>279.37</v>
-      </c>
-      <c r="D247" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D247">
+        <v>-38.14</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B248" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B248">
+        <v>147.78</v>
       </c>
       <c r="C248">
-        <v>279.37</v>
-      </c>
-      <c r="D248" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D248">
+        <v>-39.66</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B249">
-        <v>100.33</v>
+        <v>152.05</v>
       </c>
       <c r="C249">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D249">
-        <v>-64.09</v>
+        <v>-37.92</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B250">
-        <v>102.96</v>
+        <v>278.05</v>
       </c>
       <c r="C250">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D250">
-        <v>-63.15</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B251">
-        <v>105.61</v>
+        <v>708</v>
       </c>
       <c r="C251">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D251">
-        <v>-62.2</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B252">
-        <v>105.83</v>
+        <v>737.22</v>
       </c>
       <c r="C252">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D252">
-        <v>-62.12</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B253">
-        <v>114.83</v>
+        <v>401.87</v>
       </c>
       <c r="C253">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D253">
-        <v>-58.9</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B254">
-        <v>111.43</v>
+        <v>293.75</v>
       </c>
       <c r="C254">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D254">
-        <v>-60.11</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B255">
-        <v>108.26</v>
+        <v>506.38</v>
       </c>
       <c r="C255">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D255">
-        <v>-61.25</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B256">
-        <v>107.38</v>
+        <v>809.77</v>
       </c>
       <c r="C256">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D256">
-        <v>-61.57</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B257">
-        <v>168.96</v>
+        <v>749.96</v>
       </c>
       <c r="C257">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D257">
-        <v>-39.52</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B258">
-        <v>442.05</v>
+        <v>455.09</v>
       </c>
       <c r="C258">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D258">
-        <v>58.23</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B259">
-        <v>383.78</v>
+        <v>337.83</v>
       </c>
       <c r="C259">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D259">
-        <v>37.37</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B260">
-        <v>213.5</v>
+        <v>307.09</v>
       </c>
       <c r="C260">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D260">
-        <v>-23.58</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B261">
-        <v>177.5</v>
+        <v>254.1</v>
       </c>
       <c r="C261">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D261">
-        <v>-36.46</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B262">
-        <v>158.13</v>
+        <v>215.79</v>
       </c>
       <c r="C262">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D262">
-        <v>-43.4</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B263">
-        <v>145.96</v>
+        <v>194.35</v>
       </c>
       <c r="C263">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D263">
-        <v>-47.76</v>
+        <v>-20.65</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B264">
-        <v>136.83</v>
+        <v>180.04</v>
       </c>
       <c r="C264">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D264">
-        <v>-51.02</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B265">
-        <v>130.61</v>
+        <v>169.22</v>
       </c>
       <c r="C265">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D265">
-        <v>-53.25</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B266">
-        <v>448.62</v>
+        <v>160.87</v>
       </c>
       <c r="C266">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D266">
-        <v>60.58</v>
+        <v>-34.32</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B267">
-        <v>1052.78</v>
+        <v>154</v>
       </c>
       <c r="C267">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D267">
-        <v>276.84</v>
+        <v>-37.12</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B268">
-        <v>927.75</v>
+        <v>148.7</v>
       </c>
       <c r="C268">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D268">
-        <v>232.09</v>
+        <v>-39.29</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B269">
-        <v>454.12</v>
+        <v>144.04</v>
       </c>
       <c r="C269">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D269">
-        <v>62.55</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B270">
-        <v>291.38</v>
+        <v>140.62</v>
       </c>
       <c r="C270">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D270">
-        <v>4.3</v>
+        <v>-42.59</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B271">
-        <v>231.67</v>
+        <v>139.21</v>
       </c>
       <c r="C271">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D271">
-        <v>-17.08</v>
+        <v>-43.16</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B272">
-        <v>201.75</v>
+        <v>141.21</v>
       </c>
       <c r="C272">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D272">
-        <v>-27.78</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B273">
-        <v>183.54</v>
+        <v>139.58</v>
       </c>
       <c r="C273">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D273">
-        <v>-34.3</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B274">
-        <v>170.25</v>
+        <v>135.83</v>
       </c>
       <c r="C274">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D274">
-        <v>-39.06</v>
+        <v>-44.54</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B275">
-        <v>160.67</v>
+        <v>143.32</v>
       </c>
       <c r="C275">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D275">
-        <v>-42.49</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B276">
-        <v>155.43</v>
+        <v>410.33</v>
       </c>
       <c r="C276">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D276">
-        <v>-36.54</v>
+        <v>104.93</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B277">
-        <v>151.5</v>
+        <v>347.95</v>
       </c>
       <c r="C277">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D277">
-        <v>-38.14</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B278">
-        <v>147.78</v>
+        <v>232.13</v>
       </c>
       <c r="C278">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D278">
-        <v>-39.66</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B279">
-        <v>152.05</v>
+        <v>197.04</v>
       </c>
       <c r="C279">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D279">
-        <v>-37.92</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B280">
-        <v>278.05</v>
+        <v>177.77</v>
       </c>
       <c r="C280">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D280">
-        <v>13.52</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B281">
-        <v>708</v>
+        <v>165.75</v>
       </c>
       <c r="C281">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D281">
-        <v>189.07</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B282">
-        <v>737.22</v>
+        <v>212.75</v>
       </c>
       <c r="C282">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D282">
-        <v>200.99</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B283">
-        <v>401.87</v>
+        <v>231.5</v>
       </c>
       <c r="C283">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D283">
-        <v>64.08</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B284">
-        <v>293.75</v>
+        <v>652.21</v>
       </c>
       <c r="C284">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D284">
-        <v>19.93</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B285">
-        <v>506.38</v>
+        <v>520.58</v>
       </c>
       <c r="C285">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D285">
-        <v>106.75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B286">
-        <v>809.77</v>
+        <v>294.38</v>
       </c>
       <c r="C286">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D286">
-        <v>230.62</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B287">
-        <v>749.96</v>
+        <v>232.52</v>
       </c>
       <c r="C287">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D287">
-        <v>206.2</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B288">
-        <v>455.09</v>
+        <v>203.83</v>
       </c>
       <c r="C288">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D288">
-        <v>85.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B289">
-        <v>337.83</v>
+        <v>187.29</v>
       </c>
       <c r="C289">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D289">
-        <v>37.93</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B290">
-        <v>307.09</v>
+        <v>174.42</v>
       </c>
       <c r="C290">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D290">
-        <v>25.38</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B291">
-        <v>254.1</v>
+        <v>162.92</v>
       </c>
       <c r="C291">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D291">
-        <v>3.74</v>
+        <v>-18.63</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B292">
-        <v>215.79</v>
+        <v>155.3</v>
       </c>
       <c r="C292">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D292">
-        <v>-11.9</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B293">
-        <v>194.35</v>
+        <v>150.17</v>
       </c>
       <c r="C293">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D293">
-        <v>-20.65</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B294">
-        <v>180.04</v>
+        <v>144.33</v>
       </c>
       <c r="C294">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D294">
-        <v>-26.49</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B295">
-        <v>169.22</v>
+        <v>139.68</v>
       </c>
       <c r="C295">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D295">
-        <v>-30.91</v>
+        <v>-30.24</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B296">
-        <v>160.87</v>
+        <v>135.79</v>
       </c>
       <c r="C296">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D296">
-        <v>-34.32</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B297">
-        <v>154</v>
+        <v>132.7</v>
       </c>
       <c r="C297">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D297">
-        <v>-37.12</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B298">
-        <v>148.7</v>
+        <v>130.32</v>
       </c>
       <c r="C298">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D298">
-        <v>-39.29</v>
+        <v>-34.91</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B299">
-        <v>144.04</v>
+        <v>128.14</v>
       </c>
       <c r="C299">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D299">
-        <v>-41.19</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B300">
-        <v>140.62</v>
+        <v>126.32</v>
       </c>
       <c r="C300">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D300">
-        <v>-42.59</v>
+        <v>-36.91</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B301">
-        <v>139.21</v>
+        <v>125</v>
       </c>
       <c r="C301">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D301">
-        <v>-43.16</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B302">
-        <v>141.21</v>
+        <v>124.48</v>
       </c>
       <c r="C302">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D302">
-        <v>-42.35</v>
+        <v>-37.83</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B303">
-        <v>139.58</v>
+        <v>124.22</v>
       </c>
       <c r="C303">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D303">
-        <v>-43.01</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B304">
-        <v>135.83</v>
+        <v>123.42</v>
       </c>
       <c r="C304">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D304">
-        <v>-44.54</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B305">
-        <v>143.32</v>
+        <v>126.82</v>
       </c>
       <c r="C305">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D305">
-        <v>-41.49</v>
+        <v>-36.66</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B306">
-        <v>410.33</v>
+        <v>133.04</v>
       </c>
       <c r="C306">
         <v>200.23</v>
       </c>
       <c r="D306">
-        <v>104.93</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B307">
-        <v>347.95</v>
+        <v>127.43</v>
       </c>
       <c r="C307">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D307">
-        <v>73.78</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B308">
-        <v>232.13</v>
+        <v>124.04</v>
       </c>
       <c r="C308">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D308">
-        <v>15.93</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B309">
-        <v>197.04</v>
+        <v>121.65</v>
       </c>
       <c r="C309">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D309">
-        <v>-1.59</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B310">
-        <v>177.77</v>
+        <v>119.62</v>
       </c>
       <c r="C310">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D310">
-        <v>-11.21</v>
+        <v>-37.19</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B311">
-        <v>165.75</v>
+        <v>118.5</v>
       </c>
       <c r="C311">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D311">
-        <v>-17.22</v>
+        <v>-37.78</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B312">
-        <v>212.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
       </c>
       <c r="C312">
-        <v>200.23</v>
-      </c>
-      <c r="D312">
-        <v>6.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B313">
-        <v>231.5</v>
+        <v>44050</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
       </c>
       <c r="C313">
-        <v>200.23</v>
-      </c>
-      <c r="D313">
-        <v>15.62</v>
+        <v>190.45</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B314">
-        <v>652.21</v>
+        <v>44051</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
       </c>
       <c r="C314">
-        <v>200.23</v>
-      </c>
-      <c r="D314">
-        <v>225.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B315">
-        <v>520.58</v>
+        <v>44052</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>200.23</v>
-      </c>
-      <c r="D315">
-        <v>160</v>
+        <v>190.45</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B316">
-        <v>294.38</v>
+        <v>44053</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
       </c>
       <c r="C316">
-        <v>200.23</v>
-      </c>
-      <c r="D316">
-        <v>47.02</v>
+        <v>190.45</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B317">
-        <v>232.52</v>
+        <v>44054</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
       </c>
       <c r="C317">
-        <v>200.23</v>
-      </c>
-      <c r="D317">
-        <v>16.13</v>
+        <v>190.45</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B318">
-        <v>203.83</v>
+        <v>44055</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
       </c>
       <c r="C318">
-        <v>200.23</v>
-      </c>
-      <c r="D318">
-        <v>1.8</v>
+        <v>190.45</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B319">
-        <v>187.29</v>
+        <v>44056</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
       </c>
       <c r="C319">
-        <v>200.23</v>
-      </c>
-      <c r="D319">
-        <v>-6.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B320">
-        <v>174.42</v>
+        <v>44057</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
       </c>
       <c r="C320">
-        <v>200.23</v>
-      </c>
-      <c r="D320">
-        <v>-12.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B321">
-        <v>162.92</v>
+        <v>44058</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
       </c>
       <c r="C321">
-        <v>200.23</v>
-      </c>
-      <c r="D321">
-        <v>-18.63</v>
+        <v>190.45</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B322">
-        <v>155.3</v>
+        <v>44059</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
       </c>
       <c r="C322">
-        <v>200.23</v>
-      </c>
-      <c r="D322">
-        <v>-22.44</v>
+        <v>190.45</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B323">
-        <v>150.17</v>
+        <v>44060</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>200.23</v>
-      </c>
-      <c r="D323">
-        <v>-25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B324">
-        <v>144.33</v>
+        <v>44061</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
       </c>
       <c r="C324">
-        <v>200.23</v>
-      </c>
-      <c r="D324">
-        <v>-27.92</v>
+        <v>190.45</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B325">
-        <v>139.68</v>
+        <v>44062</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
       </c>
       <c r="C325">
-        <v>200.23</v>
-      </c>
-      <c r="D325">
-        <v>-30.24</v>
+        <v>190.45</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B326">
-        <v>135.79</v>
+        <v>44063</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
       </c>
       <c r="C326">
-        <v>200.23</v>
-      </c>
-      <c r="D326">
-        <v>-32.18</v>
+        <v>190.45</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B327">
-        <v>132.7</v>
+        <v>44064</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>200.23</v>
-      </c>
-      <c r="D327">
-        <v>-33.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B328">
-        <v>130.32</v>
+        <v>44065</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
       </c>
       <c r="C328">
-        <v>200.23</v>
-      </c>
-      <c r="D328">
-        <v>-34.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B329">
-        <v>128.14</v>
+        <v>44066</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
       </c>
       <c r="C329">
-        <v>200.23</v>
-      </c>
-      <c r="D329">
-        <v>-36</v>
+        <v>190.45</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B330">
-        <v>126.32</v>
+        <v>185.67</v>
       </c>
       <c r="C330">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D330">
-        <v>-36.91</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B331">
-        <v>125</v>
+        <v>175.21</v>
       </c>
       <c r="C331">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D331">
-        <v>-37.57</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B332">
-        <v>124.48</v>
+        <v>162.82</v>
       </c>
       <c r="C332">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D332">
-        <v>-37.83</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B333">
-        <v>124.22</v>
+        <v>153.82</v>
       </c>
       <c r="C333">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D333">
-        <v>-37.96</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B334">
-        <v>123.42</v>
+        <v>146.96</v>
       </c>
       <c r="C334">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D334">
-        <v>-38.36</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B335">
-        <v>126.82</v>
+        <v>141.35</v>
       </c>
       <c r="C335">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D335">
-        <v>-36.66</v>
+        <v>-25.78</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B336">
-        <v>133.04</v>
+        <v>136.87</v>
       </c>
       <c r="C336">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D336">
-        <v>-33.55</v>
+        <v>-28.13</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B337">
-        <v>127.43</v>
+        <v>133.38</v>
       </c>
       <c r="C337">
         <v>190.45</v>
       </c>
       <c r="D337">
-        <v>-33.09</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B338">
-        <v>124.04</v>
+        <v>130.25</v>
       </c>
       <c r="C338">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D338">
-        <v>-34.87</v>
+        <v>-39.72</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B339">
-        <v>121.65</v>
+        <v>127.43</v>
       </c>
       <c r="C339">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D339">
-        <v>-36.12</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B340">
-        <v>119.62</v>
+        <v>125.08</v>
       </c>
       <c r="C340">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D340">
-        <v>-37.19</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B341">
-        <v>118.5</v>
+        <v>123.48</v>
       </c>
       <c r="C341">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D341">
-        <v>-37.78</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B342" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B342">
+        <v>121.65</v>
       </c>
       <c r="C342">
-        <v>190.45</v>
-      </c>
-      <c r="D342" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D342">
+        <v>-43.7</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B343" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B343">
+        <v>120.58</v>
       </c>
       <c r="C343">
-        <v>190.45</v>
-      </c>
-      <c r="D343" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D343">
+        <v>-44.2</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B344" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B344">
+        <v>119.59</v>
       </c>
       <c r="C344">
-        <v>190.45</v>
-      </c>
-      <c r="D344" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D344">
+        <v>-44.66</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B345" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B345">
+        <v>118.64</v>
       </c>
       <c r="C345">
-        <v>190.45</v>
-      </c>
-      <c r="D345" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D345">
+        <v>-45.1</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B346" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B346">
+        <v>117.78</v>
       </c>
       <c r="C346">
-        <v>190.45</v>
-      </c>
-      <c r="D346" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D346">
+        <v>-45.49</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B347" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B347">
+        <v>116.91</v>
       </c>
       <c r="C347">
-        <v>190.45</v>
-      </c>
-      <c r="D347" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D347">
+        <v>-45.89</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B348" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B348">
+        <v>115.96</v>
       </c>
       <c r="C348">
-        <v>190.45</v>
-      </c>
-      <c r="D348" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D348">
+        <v>-46.34</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B349" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B349">
+        <v>115.22</v>
       </c>
       <c r="C349">
-        <v>190.45</v>
-      </c>
-      <c r="D349" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D349">
+        <v>-46.68</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B350" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B350">
+        <v>114.3</v>
       </c>
       <c r="C350">
-        <v>190.45</v>
-      </c>
-      <c r="D350" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D350">
+        <v>-47.1</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B351" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B351">
+        <v>113.64</v>
       </c>
       <c r="C351">
-        <v>190.45</v>
-      </c>
-      <c r="D351" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D351">
+        <v>-47.41</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B352" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B352">
+        <v>112.45</v>
       </c>
       <c r="C352">
-        <v>190.45</v>
-      </c>
-      <c r="D352" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D352">
+        <v>-47.96</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B353" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B353">
+        <v>111.88</v>
       </c>
       <c r="C353">
-        <v>190.45</v>
-      </c>
-      <c r="D353" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D353">
+        <v>-48.23</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B354" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B354">
+        <v>111.45</v>
       </c>
       <c r="C354">
-        <v>190.45</v>
-      </c>
-      <c r="D354" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D354">
+        <v>-48.42</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B355" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B355">
+        <v>111.38</v>
       </c>
       <c r="C355">
-        <v>190.45</v>
-      </c>
-      <c r="D355" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D355">
+        <v>-48.46</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B356" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B356">
+        <v>110.95</v>
       </c>
       <c r="C356">
-        <v>190.45</v>
-      </c>
-      <c r="D356" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D356">
+        <v>-48.65</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B357" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B357">
+        <v>109.91</v>
       </c>
       <c r="C357">
-        <v>190.45</v>
-      </c>
-      <c r="D357" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D357">
+        <v>-49.13</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B358" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B358">
+        <v>108.74</v>
       </c>
       <c r="C358">
-        <v>190.45</v>
-      </c>
-      <c r="D358" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D358">
+        <v>-49.68</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B359" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B359">
+        <v>108.14</v>
       </c>
       <c r="C359">
-        <v>190.45</v>
-      </c>
-      <c r="D359" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D359">
+        <v>-49.95</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B360">
-        <v>185.67</v>
+        <v>107.41</v>
       </c>
       <c r="C360">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D360">
-        <v>-2.51</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B361">
-        <v>175.21</v>
+        <v>106.67</v>
       </c>
       <c r="C361">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D361">
-        <v>-8</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B362">
-        <v>162.82</v>
+        <v>106.09</v>
       </c>
       <c r="C362">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D362">
-        <v>-14.51</v>
+        <v>-50.9</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B363">
-        <v>153.82</v>
+        <v>105.35</v>
       </c>
       <c r="C363">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D363">
-        <v>-19.23</v>
+        <v>-51.25</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B364">
-        <v>146.96</v>
+        <v>105.04</v>
       </c>
       <c r="C364">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D364">
-        <v>-22.84</v>
+        <v>-51.39</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B365">
-        <v>141.35</v>
+        <v>109.5</v>
       </c>
       <c r="C365">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D365">
-        <v>-25.78</v>
+        <v>-49.33</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B366">
-        <v>136.87</v>
+        <v>116.7</v>
       </c>
       <c r="C366">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D366">
-        <v>-28.13</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B367">
-        <v>133.38</v>
+        <v>116.38</v>
       </c>
       <c r="C367">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D367">
-        <v>-29.97</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B368">
-        <v>130.25</v>
-      </c>
-      <c r="C368">
-        <v>216.08</v>
-      </c>
-      <c r="D368">
-        <v>-39.72</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44076</v>
-      </c>
-      <c r="B369">
-        <v>127.43</v>
-      </c>
-      <c r="C369">
-        <v>216.08</v>
-      </c>
-      <c r="D369">
-        <v>-41.03</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44077</v>
-      </c>
-      <c r="B370">
-        <v>125.08</v>
-      </c>
-      <c r="C370">
-        <v>216.08</v>
-      </c>
-      <c r="D370">
-        <v>-42.11</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44078</v>
-      </c>
-      <c r="B371">
-        <v>123.48</v>
-      </c>
-      <c r="C371">
-        <v>216.08</v>
-      </c>
-      <c r="D371">
-        <v>-42.86</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44079</v>
-      </c>
-      <c r="B372">
-        <v>121.65</v>
-      </c>
-      <c r="C372">
-        <v>216.08</v>
-      </c>
-      <c r="D372">
-        <v>-43.7</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44080</v>
-      </c>
-      <c r="B373">
-        <v>120.58</v>
-      </c>
-      <c r="C373">
-        <v>216.08</v>
-      </c>
-      <c r="D373">
-        <v>-44.2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44081</v>
-      </c>
-      <c r="B374">
-        <v>119.59</v>
-      </c>
-      <c r="C374">
-        <v>216.08</v>
-      </c>
-      <c r="D374">
-        <v>-44.66</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44082</v>
-      </c>
-      <c r="B375">
-        <v>118.64</v>
-      </c>
-      <c r="C375">
-        <v>216.08</v>
-      </c>
-      <c r="D375">
-        <v>-45.1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44083</v>
-      </c>
-      <c r="B376">
-        <v>117.78</v>
-      </c>
-      <c r="C376">
-        <v>216.08</v>
-      </c>
-      <c r="D376">
-        <v>-45.49</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44084</v>
-      </c>
-      <c r="B377">
-        <v>116.91</v>
-      </c>
-      <c r="C377">
-        <v>216.08</v>
-      </c>
-      <c r="D377">
-        <v>-45.89</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B378">
-        <v>115.96</v>
-      </c>
-      <c r="C378">
-        <v>216.08</v>
-      </c>
-      <c r="D378">
-        <v>-46.34</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B379">
-        <v>115.22</v>
-      </c>
-      <c r="C379">
-        <v>216.08</v>
-      </c>
-      <c r="D379">
-        <v>-46.68</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B380">
-        <v>114.3</v>
-      </c>
-      <c r="C380">
-        <v>216.08</v>
-      </c>
-      <c r="D380">
-        <v>-47.1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44088</v>
-      </c>
-      <c r="B381">
-        <v>113.64</v>
-      </c>
-      <c r="C381">
-        <v>216.08</v>
-      </c>
-      <c r="D381">
-        <v>-47.41</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B382">
-        <v>112.45</v>
-      </c>
-      <c r="C382">
-        <v>216.08</v>
-      </c>
-      <c r="D382">
-        <v>-47.96</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44090</v>
-      </c>
-      <c r="B383">
-        <v>111.88</v>
-      </c>
-      <c r="C383">
-        <v>216.08</v>
-      </c>
-      <c r="D383">
-        <v>-48.23</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44091</v>
-      </c>
-      <c r="B384">
-        <v>111.45</v>
-      </c>
-      <c r="C384">
-        <v>216.08</v>
-      </c>
-      <c r="D384">
-        <v>-48.42</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44092</v>
-      </c>
-      <c r="B385">
-        <v>111.38</v>
-      </c>
-      <c r="C385">
-        <v>216.08</v>
-      </c>
-      <c r="D385">
-        <v>-48.46</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44093</v>
-      </c>
-      <c r="B386">
-        <v>110.95</v>
-      </c>
-      <c r="C386">
-        <v>216.08</v>
-      </c>
-      <c r="D386">
-        <v>-48.65</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44094</v>
-      </c>
-      <c r="B387">
-        <v>109.91</v>
-      </c>
-      <c r="C387">
-        <v>216.08</v>
-      </c>
-      <c r="D387">
-        <v>-49.13</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B388">
-        <v>108.74</v>
-      </c>
-      <c r="C388">
-        <v>216.08</v>
-      </c>
-      <c r="D388">
-        <v>-49.68</v>
+        <v>-46.14</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-46.96</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B14">
+        <v>110.28</v>
+      </c>
+      <c r="C14">
+        <v>310.64</v>
+      </c>
+      <c r="D14">
+        <v>-64.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,146 @@
         <v>-46.14</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B368">
+        <v>115.96</v>
+      </c>
+      <c r="C368">
+        <v>310.64</v>
+      </c>
+      <c r="D368">
+        <v>-62.67</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B369">
+        <v>112.04</v>
+      </c>
+      <c r="C369">
+        <v>310.64</v>
+      </c>
+      <c r="D369">
+        <v>-63.93</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B370">
+        <v>109.25</v>
+      </c>
+      <c r="C370">
+        <v>310.64</v>
+      </c>
+      <c r="D370">
+        <v>-64.83</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B371">
+        <v>107.48</v>
+      </c>
+      <c r="C371">
+        <v>310.64</v>
+      </c>
+      <c r="D371">
+        <v>-65.40000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B372">
+        <v>105.92</v>
+      </c>
+      <c r="C372">
+        <v>310.64</v>
+      </c>
+      <c r="D372">
+        <v>-65.90000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B373">
+        <v>104.61</v>
+      </c>
+      <c r="C373">
+        <v>310.64</v>
+      </c>
+      <c r="D373">
+        <v>-66.31999999999999</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B374">
+        <v>103.71</v>
+      </c>
+      <c r="C374">
+        <v>310.64</v>
+      </c>
+      <c r="D374">
+        <v>-66.61</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B375">
+        <v>104.79</v>
+      </c>
+      <c r="C375">
+        <v>310.64</v>
+      </c>
+      <c r="D375">
+        <v>-66.27</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B376">
+        <v>119.09</v>
+      </c>
+      <c r="C376">
+        <v>310.64</v>
+      </c>
+      <c r="D376">
+        <v>-61.66</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B377">
+        <v>120</v>
+      </c>
+      <c r="C377">
+        <v>310.64</v>
+      </c>
+      <c r="D377">
+        <v>-61.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="B14">
-        <v>110.28</v>
+        <v>114.49</v>
       </c>
       <c r="C14">
         <v>310.64</v>
       </c>
       <c r="D14">
-        <v>-64.5</v>
+        <v>-63.14</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D377"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5896,6 +5896,146 @@
         <v>-61.37</v>
       </c>
     </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B378">
+        <v>116.67</v>
+      </c>
+      <c r="C378">
+        <v>310.64</v>
+      </c>
+      <c r="D378">
+        <v>-62.44</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B379">
+        <v>115.83</v>
+      </c>
+      <c r="C379">
+        <v>310.64</v>
+      </c>
+      <c r="D379">
+        <v>-62.71</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B380">
+        <v>113.96</v>
+      </c>
+      <c r="C380">
+        <v>310.64</v>
+      </c>
+      <c r="D380">
+        <v>-63.32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B381">
+        <v>112.27</v>
+      </c>
+      <c r="C381">
+        <v>310.64</v>
+      </c>
+      <c r="D381">
+        <v>-63.86</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B382">
+        <v>113.4</v>
+      </c>
+      <c r="C382">
+        <v>310.64</v>
+      </c>
+      <c r="D382">
+        <v>-63.49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B383">
+        <v>124.09</v>
+      </c>
+      <c r="C383">
+        <v>310.64</v>
+      </c>
+      <c r="D383">
+        <v>-60.05</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B384">
+        <v>129.46</v>
+      </c>
+      <c r="C384">
+        <v>310.64</v>
+      </c>
+      <c r="D384">
+        <v>-58.33</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B385">
+        <v>124.78</v>
+      </c>
+      <c r="C385">
+        <v>310.64</v>
+      </c>
+      <c r="D385">
+        <v>-59.83</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B386">
+        <v>120.13</v>
+      </c>
+      <c r="C386">
+        <v>310.64</v>
+      </c>
+      <c r="D386">
+        <v>-61.33</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B387">
+        <v>116.46</v>
+      </c>
+      <c r="C387">
+        <v>310.64</v>
+      </c>
+      <c r="D387">
+        <v>-62.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44124</v>
+        <v>44129</v>
       </c>
       <c r="B14">
-        <v>114.49</v>
+        <v>113.46</v>
       </c>
       <c r="C14">
         <v>310.64</v>
       </c>
       <c r="D14">
-        <v>-63.14</v>
+        <v>-63.48</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -6036,6 +6036,76 @@
         <v>-62.51</v>
       </c>
     </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B388">
+        <v>113.62</v>
+      </c>
+      <c r="C388">
+        <v>310.64</v>
+      </c>
+      <c r="D388">
+        <v>-63.42</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B389">
+        <v>111.25</v>
+      </c>
+      <c r="C389">
+        <v>310.64</v>
+      </c>
+      <c r="D389">
+        <v>-64.19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B390">
+        <v>109</v>
+      </c>
+      <c r="C390">
+        <v>310.64</v>
+      </c>
+      <c r="D390">
+        <v>-64.91</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B391">
+        <v>107.21</v>
+      </c>
+      <c r="C391">
+        <v>310.64</v>
+      </c>
+      <c r="D391">
+        <v>-65.48999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B392">
+        <v>105.52</v>
+      </c>
+      <c r="C392">
+        <v>310.64</v>
+      </c>
+      <c r="D392">
+        <v>-66.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B2">
-        <v>111.57</v>
+        <v>202.52</v>
       </c>
       <c r="C2">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D2">
-        <v>-64.08</v>
+        <v>-20.27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B3">
-        <v>202.52</v>
+        <v>153.53</v>
       </c>
       <c r="C3">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D3">
-        <v>-20.27</v>
+        <v>-29.48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B4">
-        <v>153.53</v>
+        <v>175.51</v>
       </c>
       <c r="C4">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D4">
-        <v>-29.48</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B5">
-        <v>175.51</v>
+        <v>172.17</v>
       </c>
       <c r="C5">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D5">
-        <v>-14.72</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B6">
-        <v>172.17</v>
+        <v>119.43</v>
       </c>
       <c r="C6">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D6">
-        <v>-21.23</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B7">
-        <v>119.43</v>
+        <v>106.97</v>
       </c>
       <c r="C7">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D7">
-        <v>-33.79</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B8">
-        <v>106.97</v>
+        <v>256.91</v>
       </c>
       <c r="C8">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D8">
-        <v>-46.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>256.91</v>
+        <v>288.42</v>
       </c>
       <c r="C9">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D9">
-        <v>-8.039999999999999</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B10">
-        <v>288.42</v>
+        <v>206.55</v>
       </c>
       <c r="C10">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D10">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B11">
-        <v>206.55</v>
+        <v>142.1</v>
       </c>
       <c r="C11">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D11">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>142.1</v>
+        <v>114.62</v>
       </c>
       <c r="C12">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D12">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B13">
-        <v>114.62</v>
+        <v>111.72</v>
       </c>
       <c r="C13">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D13">
-        <v>-46.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B14">
-        <v>113.46</v>
-      </c>
-      <c r="C14">
-        <v>310.64</v>
-      </c>
-      <c r="D14">
-        <v>-63.48</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5476 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43739</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>43770</v>
+      </c>
+      <c r="B2">
+        <v>132.41</v>
       </c>
       <c r="C2">
-        <v>310.64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>254.02</v>
+      </c>
+      <c r="D2">
+        <v>-47.87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>148.46</v>
       </c>
       <c r="C3">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D3">
-        <v>-67.81</v>
+        <v>-41.56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B4">
-        <v>103.57</v>
+        <v>145.22</v>
       </c>
       <c r="C4">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D4">
-        <v>-66.66</v>
+        <v>-42.83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B5">
-        <v>105.13</v>
+        <v>141.39</v>
       </c>
       <c r="C5">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D5">
-        <v>-66.16</v>
+        <v>-44.34</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B6">
-        <v>103.54</v>
+        <v>140.3</v>
       </c>
       <c r="C6">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D6">
-        <v>-66.67</v>
+        <v>-44.77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B7">
-        <v>112.78</v>
+        <v>174.96</v>
       </c>
       <c r="C7">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D7">
-        <v>-63.69</v>
+        <v>-31.12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B8">
-        <v>113.9</v>
+        <v>195.09</v>
       </c>
       <c r="C8">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D8">
-        <v>-63.33</v>
+        <v>-23.2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B9">
-        <v>110.32</v>
+        <v>171.14</v>
       </c>
       <c r="C9">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D9">
-        <v>-64.48999999999999</v>
+        <v>-32.63</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B10">
-        <v>111.64</v>
+        <v>220.04</v>
       </c>
       <c r="C10">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D10">
-        <v>-64.06</v>
+        <v>-13.38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B11">
-        <v>110.05</v>
+        <v>260.87</v>
       </c>
       <c r="C11">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D11">
-        <v>-64.56999999999999</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B12">
-        <v>107.29</v>
+        <v>194.58</v>
       </c>
       <c r="C12">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D12">
-        <v>-65.45999999999999</v>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B13">
-        <v>105.38</v>
+        <v>172.46</v>
       </c>
       <c r="C13">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D13">
-        <v>-66.08</v>
+        <v>-32.11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B14">
-        <v>103.48</v>
+        <v>158.7</v>
       </c>
       <c r="C14">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D14">
-        <v>-66.69</v>
+        <v>-37.53</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B15">
-        <v>102.25</v>
+        <v>289.41</v>
       </c>
       <c r="C15">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D15">
-        <v>-67.08</v>
+        <v>13.93</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B16">
-        <v>101.58</v>
+        <v>710.3200000000001</v>
       </c>
       <c r="C16">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D16">
-        <v>-67.3</v>
+        <v>179.63</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B17">
-        <v>101.71</v>
+        <v>464.86</v>
       </c>
       <c r="C17">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D17">
-        <v>-67.26000000000001</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B18">
-        <v>100.39</v>
+        <v>250.68</v>
       </c>
       <c r="C18">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D18">
-        <v>-67.68000000000001</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B19">
-        <v>102.58</v>
+        <v>195.91</v>
       </c>
       <c r="C19">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D19">
-        <v>-66.98</v>
+        <v>-22.87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B20">
-        <v>104.29</v>
+        <v>171.29</v>
       </c>
       <c r="C20">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D20">
-        <v>-66.43000000000001</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B21">
-        <v>107.17</v>
+        <v>155.79</v>
       </c>
       <c r="C21">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D21">
-        <v>-65.5</v>
+        <v>-38.67</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B22">
-        <v>113.17</v>
+        <v>143.59</v>
       </c>
       <c r="C22">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D22">
-        <v>-63.57</v>
+        <v>-43.47</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B23">
-        <v>121.08</v>
+        <v>136.41</v>
       </c>
       <c r="C23">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D23">
-        <v>-61.02</v>
+        <v>-46.3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B24">
-        <v>119.83</v>
+        <v>130.94</v>
       </c>
       <c r="C24">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D24">
-        <v>-61.42</v>
+        <v>-48.45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B25">
-        <v>119.59</v>
+        <v>126.1</v>
       </c>
       <c r="C25">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D25">
-        <v>-61.5</v>
+        <v>-50.36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B26">
-        <v>114.29</v>
+        <v>121.92</v>
       </c>
       <c r="C26">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D26">
-        <v>-63.21</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B27">
-        <v>110.48</v>
+        <v>120</v>
       </c>
       <c r="C27">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D27">
-        <v>-64.44</v>
+        <v>-52.76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B28">
-        <v>108.29</v>
+        <v>141.96</v>
       </c>
       <c r="C28">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D28">
-        <v>-65.14</v>
+        <v>-44.12</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B29">
-        <v>116.55</v>
+        <v>267.65</v>
       </c>
       <c r="C29">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D29">
-        <v>-62.48</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B30">
-        <v>124.91</v>
+        <v>215.57</v>
       </c>
       <c r="C30">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D30">
-        <v>-59.79</v>
+        <v>-15.14</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B31">
-        <v>151.17</v>
+        <v>177.61</v>
       </c>
       <c r="C31">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D31">
-        <v>-51.34</v>
+        <v>-30.08</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B32">
-        <v>140.71</v>
+        <v>157.42</v>
       </c>
       <c r="C32">
-        <v>310.64</v>
+        <v>217.71</v>
       </c>
       <c r="D32">
-        <v>-54.7</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B33">
-        <v>132.41</v>
+        <v>143.88</v>
       </c>
       <c r="C33">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D33">
-        <v>-47.87</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B34">
-        <v>148.46</v>
+        <v>138.09</v>
       </c>
       <c r="C34">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D34">
-        <v>-41.56</v>
+        <v>-36.57</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B35">
-        <v>145.22</v>
+        <v>139.5</v>
       </c>
       <c r="C35">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D35">
-        <v>-42.83</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B36">
-        <v>141.39</v>
+        <v>162</v>
       </c>
       <c r="C36">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D36">
-        <v>-44.34</v>
+        <v>-25.59</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B37">
-        <v>140.3</v>
+        <v>170.92</v>
       </c>
       <c r="C37">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D37">
-        <v>-44.77</v>
+        <v>-21.49</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B38">
-        <v>174.96</v>
+        <v>158.12</v>
       </c>
       <c r="C38">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D38">
-        <v>-31.12</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B39">
-        <v>195.09</v>
+        <v>143.38</v>
       </c>
       <c r="C39">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D39">
-        <v>-23.2</v>
+        <v>-34.14</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B40">
-        <v>171.14</v>
+        <v>138.14</v>
       </c>
       <c r="C40">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D40">
-        <v>-32.63</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B41">
-        <v>220.04</v>
+        <v>135.05</v>
       </c>
       <c r="C41">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D41">
-        <v>-13.38</v>
+        <v>-37.97</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B42">
-        <v>260.87</v>
+        <v>130.6</v>
       </c>
       <c r="C42">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D42">
-        <v>2.7</v>
+        <v>-40.01</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B43">
-        <v>194.58</v>
+        <v>129</v>
       </c>
       <c r="C43">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D43">
-        <v>-23.4</v>
+        <v>-40.75</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B44">
-        <v>172.46</v>
+        <v>124.67</v>
       </c>
       <c r="C44">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D44">
-        <v>-32.11</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B45">
-        <v>158.7</v>
+        <v>123.92</v>
       </c>
       <c r="C45">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D45">
-        <v>-37.53</v>
+        <v>-43.08</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B46">
-        <v>289.41</v>
+        <v>120.71</v>
       </c>
       <c r="C46">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D46">
-        <v>13.93</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B47">
-        <v>710.3200000000001</v>
+        <v>145.35</v>
       </c>
       <c r="C47">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D47">
-        <v>179.63</v>
+        <v>-33.24</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B48">
-        <v>464.86</v>
+        <v>250.95</v>
       </c>
       <c r="C48">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D48">
-        <v>83</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B49">
-        <v>250.68</v>
+        <v>251.93</v>
       </c>
       <c r="C49">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D49">
-        <v>-1.31</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43787</v>
-      </c>
-      <c r="B50">
-        <v>195.91</v>
+        <v>43818</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>254.02</v>
-      </c>
-      <c r="D50">
-        <v>-22.87</v>
+        <v>217.71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B51">
-        <v>171.29</v>
+        <v>43819</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>254.02</v>
-      </c>
-      <c r="D51">
-        <v>-32.57</v>
+        <v>217.71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B52">
-        <v>155.79</v>
+        <v>43820</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>254.02</v>
-      </c>
-      <c r="D52">
-        <v>-38.67</v>
+        <v>217.71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43790</v>
-      </c>
-      <c r="B53">
-        <v>143.59</v>
+        <v>43821</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>254.02</v>
-      </c>
-      <c r="D53">
-        <v>-43.47</v>
+        <v>217.71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B54">
-        <v>136.41</v>
+        <v>43822</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>254.02</v>
-      </c>
-      <c r="D54">
-        <v>-46.3</v>
+        <v>217.71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B55">
-        <v>130.94</v>
+        <v>43823</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>254.02</v>
-      </c>
-      <c r="D55">
-        <v>-48.45</v>
+        <v>217.71</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43793</v>
-      </c>
-      <c r="B56">
-        <v>126.1</v>
+        <v>43824</v>
+      </c>
+      <c r="B56" t="s">
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>254.02</v>
-      </c>
-      <c r="D56">
-        <v>-50.36</v>
+        <v>217.71</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B57">
-        <v>121.92</v>
+        <v>43825</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>254.02</v>
-      </c>
-      <c r="D57">
-        <v>-52</v>
+        <v>217.71</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B58">
-        <v>120</v>
+        <v>43826</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>254.02</v>
-      </c>
-      <c r="D58">
-        <v>-52.76</v>
+        <v>217.71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B59">
-        <v>141.96</v>
+        <v>43827</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
       </c>
       <c r="C59">
-        <v>254.02</v>
-      </c>
-      <c r="D59">
-        <v>-44.12</v>
+        <v>217.71</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B60">
-        <v>267.65</v>
+        <v>43828</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
       </c>
       <c r="C60">
-        <v>254.02</v>
-      </c>
-      <c r="D60">
-        <v>5.37</v>
+        <v>217.71</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B61">
-        <v>215.57</v>
+        <v>43829</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>254.02</v>
-      </c>
-      <c r="D61">
-        <v>-15.14</v>
+        <v>217.71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B62">
-        <v>177.61</v>
+        <v>43830</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
       </c>
       <c r="C62">
-        <v>254.02</v>
-      </c>
-      <c r="D62">
-        <v>-30.08</v>
+        <v>217.71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B63">
-        <v>157.42</v>
+        <v>43831</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>217.71</v>
-      </c>
-      <c r="D63">
-        <v>-27.69</v>
+        <v>205.8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B64">
-        <v>143.88</v>
+        <v>43832</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
       </c>
       <c r="C64">
-        <v>217.71</v>
-      </c>
-      <c r="D64">
-        <v>-33.91</v>
+        <v>205.8</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B65">
-        <v>138.09</v>
+        <v>43833</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
       </c>
       <c r="C65">
-        <v>217.71</v>
-      </c>
-      <c r="D65">
-        <v>-36.57</v>
+        <v>205.8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B66">
-        <v>139.5</v>
+        <v>43834</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>217.71</v>
-      </c>
-      <c r="D66">
-        <v>-35.92</v>
+        <v>205.8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B67">
-        <v>162</v>
+        <v>43835</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>217.71</v>
-      </c>
-      <c r="D67">
-        <v>-25.59</v>
+        <v>205.8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B68">
-        <v>170.92</v>
+        <v>43836</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>217.71</v>
-      </c>
-      <c r="D68">
-        <v>-21.49</v>
+        <v>205.8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B69">
-        <v>158.12</v>
+        <v>43837</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>217.71</v>
-      </c>
-      <c r="D69">
-        <v>-27.37</v>
+        <v>205.8</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B70">
-        <v>143.38</v>
+        <v>43838</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>217.71</v>
-      </c>
-      <c r="D70">
-        <v>-34.14</v>
+        <v>205.8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B71">
-        <v>138.14</v>
+        <v>108.1</v>
       </c>
       <c r="C71">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D71">
-        <v>-36.55</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B72">
-        <v>135.05</v>
+        <v>108.83</v>
       </c>
       <c r="C72">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D72">
-        <v>-37.97</v>
+        <v>-47.12</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B73">
-        <v>130.6</v>
+        <v>118.23</v>
       </c>
       <c r="C73">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D73">
-        <v>-40.01</v>
+        <v>-42.55</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B74">
-        <v>129</v>
+        <v>156.21</v>
       </c>
       <c r="C74">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D74">
-        <v>-40.75</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B75">
-        <v>124.67</v>
+        <v>173.29</v>
       </c>
       <c r="C75">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D75">
-        <v>-42.74</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B76">
-        <v>123.92</v>
+        <v>152.58</v>
       </c>
       <c r="C76">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D76">
-        <v>-43.08</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B77">
-        <v>120.71</v>
+        <v>141.92</v>
       </c>
       <c r="C77">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D77">
-        <v>-44.55</v>
+        <v>-31.04</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B78">
-        <v>145.35</v>
+        <v>136.11</v>
       </c>
       <c r="C78">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D78">
-        <v>-33.24</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B79">
-        <v>250.95</v>
+        <v>199.88</v>
       </c>
       <c r="C79">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D79">
-        <v>15.27</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B80">
-        <v>251.93</v>
+        <v>268.25</v>
       </c>
       <c r="C80">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D80">
-        <v>15.72</v>
+        <v>30.35</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B81">
+        <v>186.62</v>
       </c>
       <c r="C81">
-        <v>217.71</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D81">
+        <v>-9.32</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
+        <v>43850</v>
+      </c>
+      <c r="B82">
+        <v>157.04</v>
       </c>
       <c r="C82">
-        <v>217.71</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D82">
+        <v>-23.69</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
+        <v>43851</v>
+      </c>
+      <c r="B83">
+        <v>141.12</v>
       </c>
       <c r="C83">
-        <v>217.71</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D83">
+        <v>-31.43</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>43852</v>
+      </c>
+      <c r="B84">
+        <v>131.83</v>
       </c>
       <c r="C84">
-        <v>217.71</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D84">
+        <v>-35.94</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
+        <v>43853</v>
+      </c>
+      <c r="B85">
+        <v>126.7</v>
       </c>
       <c r="C85">
-        <v>217.71</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D85">
+        <v>-38.44</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B86" t="s">
-        <v>4</v>
+        <v>43854</v>
+      </c>
+      <c r="B86">
+        <v>125.38</v>
       </c>
       <c r="C86">
-        <v>217.71</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D86">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43824</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
+        <v>43855</v>
+      </c>
+      <c r="B87">
+        <v>128.12</v>
       </c>
       <c r="C87">
-        <v>217.71</v>
-      </c>
-      <c r="D87" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D87">
+        <v>-37.74</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43825</v>
-      </c>
-      <c r="B88" t="s">
-        <v>4</v>
+        <v>43856</v>
+      </c>
+      <c r="B88">
+        <v>124.04</v>
       </c>
       <c r="C88">
-        <v>217.71</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D88">
+        <v>-39.73</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43826</v>
-      </c>
-      <c r="B89" t="s">
-        <v>4</v>
+        <v>43857</v>
+      </c>
+      <c r="B89">
+        <v>118.61</v>
       </c>
       <c r="C89">
-        <v>217.71</v>
-      </c>
-      <c r="D89" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D89">
+        <v>-42.37</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43827</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
+        <v>43858</v>
+      </c>
+      <c r="B90">
+        <v>114.5</v>
       </c>
       <c r="C90">
-        <v>217.71</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D90">
+        <v>-44.36</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43828</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
+        <v>43859</v>
+      </c>
+      <c r="B91">
+        <v>111.46</v>
       </c>
       <c r="C91">
-        <v>217.71</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D91">
+        <v>-45.84</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43829</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
+        <v>43860</v>
+      </c>
+      <c r="B92">
+        <v>131.61</v>
       </c>
       <c r="C92">
-        <v>217.71</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D92">
+        <v>-36.05</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
+        <v>43861</v>
+      </c>
+      <c r="B93">
+        <v>876.26</v>
       </c>
       <c r="C93">
-        <v>217.71</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D93">
+        <v>325.78</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
+        <v>43862</v>
+      </c>
+      <c r="B94">
+        <v>695.87</v>
       </c>
       <c r="C94">
-        <v>205.8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D94">
+        <v>218.37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
+        <v>43863</v>
+      </c>
+      <c r="B95">
+        <v>247.09</v>
       </c>
       <c r="C95">
-        <v>205.8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D95">
+        <v>13.05</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B96" t="s">
-        <v>4</v>
+        <v>43864</v>
+      </c>
+      <c r="B96">
+        <v>253.14</v>
       </c>
       <c r="C96">
-        <v>205.8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D96">
+        <v>15.82</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43834</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
+        <v>43865</v>
+      </c>
+      <c r="B97">
+        <v>321</v>
       </c>
       <c r="C97">
-        <v>205.8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D97">
+        <v>46.86</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
+        <v>43866</v>
+      </c>
+      <c r="B98">
+        <v>212.33</v>
       </c>
       <c r="C98">
-        <v>205.8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D98">
+        <v>-2.85</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43836</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
+        <v>43867</v>
+      </c>
+      <c r="B99">
+        <v>175.48</v>
       </c>
       <c r="C99">
-        <v>205.8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D99">
+        <v>-19.72</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B100" t="s">
-        <v>4</v>
+        <v>43868</v>
+      </c>
+      <c r="B100">
+        <v>156.87</v>
       </c>
       <c r="C100">
-        <v>205.8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D100">
+        <v>-28.23</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B101" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B101">
+        <v>144</v>
       </c>
       <c r="C101">
-        <v>205.8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D101">
+        <v>-34.12</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B102">
-        <v>108.1</v>
+        <v>140.65</v>
       </c>
       <c r="C102">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D102">
-        <v>-47.47</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B103">
-        <v>108.83</v>
+        <v>135.3</v>
       </c>
       <c r="C103">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D103">
-        <v>-47.12</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B104">
-        <v>118.23</v>
+        <v>136.46</v>
       </c>
       <c r="C104">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D104">
-        <v>-42.55</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B105">
-        <v>156.21</v>
+        <v>130.39</v>
       </c>
       <c r="C105">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D105">
-        <v>-24.1</v>
+        <v>-40.34</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B106">
-        <v>173.29</v>
+        <v>125.58</v>
       </c>
       <c r="C106">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D106">
-        <v>-15.8</v>
+        <v>-42.54</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B107">
-        <v>152.58</v>
+        <v>124.65</v>
       </c>
       <c r="C107">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D107">
-        <v>-25.86</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B108">
-        <v>141.92</v>
+        <v>122.29</v>
       </c>
       <c r="C108">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D108">
-        <v>-31.04</v>
+        <v>-44.05</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B109">
-        <v>136.11</v>
+        <v>118.13</v>
       </c>
       <c r="C109">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D109">
-        <v>-33.86</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B110">
-        <v>199.88</v>
+        <v>116.09</v>
       </c>
       <c r="C110">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D110">
-        <v>-2.88</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B111">
-        <v>268.25</v>
+        <v>114.46</v>
       </c>
       <c r="C111">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D111">
-        <v>30.35</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B112">
-        <v>186.62</v>
+        <v>113.86</v>
       </c>
       <c r="C112">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D112">
-        <v>-9.32</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B113">
-        <v>157.04</v>
+        <v>115.7</v>
       </c>
       <c r="C113">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D113">
-        <v>-23.69</v>
+        <v>-47.07</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B114">
-        <v>141.12</v>
+        <v>112.43</v>
       </c>
       <c r="C114">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D114">
-        <v>-31.43</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B115">
-        <v>131.83</v>
+        <v>110.58</v>
       </c>
       <c r="C115">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D115">
-        <v>-35.94</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B116">
-        <v>126.7</v>
+        <v>108.75</v>
       </c>
       <c r="C116">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D116">
-        <v>-38.44</v>
+        <v>-50.24</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B117">
-        <v>125.38</v>
+        <v>106.78</v>
       </c>
       <c r="C117">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D117">
-        <v>-39.08</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B118">
-        <v>128.12</v>
+        <v>110.83</v>
       </c>
       <c r="C118">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D118">
-        <v>-37.74</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B119">
-        <v>124.04</v>
+        <v>148.38</v>
       </c>
       <c r="C119">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D119">
-        <v>-39.73</v>
+        <v>-32.12</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B120">
-        <v>118.61</v>
+        <v>253</v>
       </c>
       <c r="C120">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D120">
-        <v>-42.37</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>114.5</v>
+        <v>184.96</v>
       </c>
       <c r="C121">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D121">
-        <v>-44.36</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B122">
-        <v>111.46</v>
+        <v>157.75</v>
       </c>
       <c r="C122">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D122">
-        <v>-45.84</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>131.61</v>
+        <v>142.96</v>
       </c>
       <c r="C123">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D123">
-        <v>-36.05</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>876.26</v>
+        <v>133</v>
       </c>
       <c r="C124">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D124">
-        <v>325.78</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B125">
-        <v>695.87</v>
+        <v>126.26</v>
       </c>
       <c r="C125">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D125">
-        <v>218.37</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B126">
-        <v>247.09</v>
+        <v>121.83</v>
       </c>
       <c r="C126">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D126">
-        <v>13.05</v>
+        <v>-32.46</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B127">
-        <v>253.14</v>
+        <v>118.7</v>
       </c>
       <c r="C127">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D127">
-        <v>15.82</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B128">
-        <v>321</v>
+        <v>116.17</v>
       </c>
       <c r="C128">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D128">
-        <v>46.86</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B129">
-        <v>212.33</v>
+        <v>113.91</v>
       </c>
       <c r="C129">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D129">
-        <v>-2.85</v>
+        <v>-36.85</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>175.48</v>
+        <v>112.86</v>
       </c>
       <c r="C130">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D130">
-        <v>-19.72</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B131">
-        <v>156.87</v>
+        <v>111.54</v>
       </c>
       <c r="C131">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D131">
-        <v>-28.23</v>
+        <v>-38.17</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B132">
-        <v>144</v>
+        <v>109.12</v>
       </c>
       <c r="C132">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D132">
-        <v>-34.12</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B133">
-        <v>140.65</v>
+        <v>107.5</v>
       </c>
       <c r="C133">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D133">
-        <v>-35.65</v>
+        <v>-40.41</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B134">
-        <v>135.3</v>
+        <v>106.17</v>
       </c>
       <c r="C134">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D134">
-        <v>-38.1</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B135">
-        <v>136.46</v>
+        <v>104.96</v>
       </c>
       <c r="C135">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D135">
-        <v>-37.57</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B136">
-        <v>130.39</v>
+        <v>104.21</v>
       </c>
       <c r="C136">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D136">
-        <v>-40.34</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B137">
-        <v>125.58</v>
+        <v>103.43</v>
       </c>
       <c r="C137">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D137">
-        <v>-42.54</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B138">
-        <v>124.65</v>
+        <v>102.5</v>
       </c>
       <c r="C138">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D138">
-        <v>-42.97</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B139">
-        <v>122.29</v>
+        <v>101.48</v>
       </c>
       <c r="C139">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D139">
-        <v>-44.05</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B140">
-        <v>118.13</v>
+        <v>106.39</v>
       </c>
       <c r="C140">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D140">
-        <v>-45.95</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B141">
-        <v>116.09</v>
+        <v>145.17</v>
       </c>
       <c r="C141">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D141">
-        <v>-46.89</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B142">
-        <v>114.46</v>
+        <v>183.46</v>
       </c>
       <c r="C142">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D142">
-        <v>-47.63</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B143">
-        <v>113.86</v>
+        <v>152.83</v>
       </c>
       <c r="C143">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D143">
-        <v>-47.91</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B144">
-        <v>115.7</v>
+        <v>138.67</v>
       </c>
       <c r="C144">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D144">
-        <v>-47.07</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B145">
-        <v>112.43</v>
+        <v>129.36</v>
       </c>
       <c r="C145">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D145">
-        <v>-48.56</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B146">
-        <v>110.58</v>
+        <v>123.21</v>
       </c>
       <c r="C146">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D146">
-        <v>-49.41</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B147">
-        <v>108.75</v>
+        <v>118.71</v>
       </c>
       <c r="C147">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D147">
-        <v>-50.24</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B148">
-        <v>106.78</v>
+        <v>115.42</v>
       </c>
       <c r="C148">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D148">
-        <v>-51.14</v>
+        <v>-36.02</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B149">
-        <v>110.83</v>
+        <v>112.87</v>
       </c>
       <c r="C149">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D149">
-        <v>-49.29</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B150">
-        <v>148.38</v>
+        <v>111.29</v>
       </c>
       <c r="C150">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D150">
-        <v>-32.12</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B151">
-        <v>253</v>
+        <v>110.33</v>
       </c>
       <c r="C151">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D151">
-        <v>15.75</v>
+        <v>-38.84</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B152">
-        <v>184.96</v>
+        <v>109.58</v>
       </c>
       <c r="C152">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D152">
-        <v>-15.38</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B153">
-        <v>157.75</v>
+        <v>108.54</v>
       </c>
       <c r="C153">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D153">
-        <v>-27.83</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B154">
-        <v>142.96</v>
+        <v>107.96</v>
       </c>
       <c r="C154">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D154">
-        <v>-20.75</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B155">
-        <v>133</v>
+        <v>107.3</v>
       </c>
       <c r="C155">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D155">
-        <v>-26.27</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B156">
-        <v>126.26</v>
+        <v>106.27</v>
       </c>
       <c r="C156">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D156">
-        <v>-30.01</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B157">
-        <v>121.83</v>
+        <v>105.43</v>
       </c>
       <c r="C157">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D157">
-        <v>-32.46</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B158">
-        <v>118.7</v>
+        <v>104.65</v>
       </c>
       <c r="C158">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D158">
-        <v>-34.2</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B159">
-        <v>116.17</v>
+        <v>43927</v>
+      </c>
+      <c r="B159" t="s">
+        <v>4</v>
       </c>
       <c r="C159">
-        <v>180.39</v>
-      </c>
-      <c r="D159">
-        <v>-35.6</v>
+        <v>198.56</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B160">
-        <v>113.91</v>
+        <v>43928</v>
+      </c>
+      <c r="B160" t="s">
+        <v>4</v>
       </c>
       <c r="C160">
-        <v>180.39</v>
-      </c>
-      <c r="D160">
-        <v>-36.85</v>
+        <v>198.56</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B161">
-        <v>112.86</v>
+        <v>113.41</v>
       </c>
       <c r="C161">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D161">
-        <v>-37.43</v>
+        <v>-42.88</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B162">
-        <v>111.54</v>
+        <v>115.33</v>
       </c>
       <c r="C162">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D162">
-        <v>-38.17</v>
+        <v>-41.92</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B163">
-        <v>109.12</v>
+        <v>114.96</v>
       </c>
       <c r="C163">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D163">
-        <v>-39.51</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B164">
-        <v>107.5</v>
+        <v>111.71</v>
       </c>
       <c r="C164">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D164">
-        <v>-40.41</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B165">
-        <v>106.17</v>
+        <v>109.58</v>
       </c>
       <c r="C165">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D165">
-        <v>-41.15</v>
+        <v>-44.81</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B166">
-        <v>104.96</v>
+        <v>107.86</v>
       </c>
       <c r="C166">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D166">
-        <v>-41.81</v>
+        <v>-45.68</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B167">
-        <v>104.21</v>
+        <v>109.69</v>
       </c>
       <c r="C167">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D167">
-        <v>-42.23</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B168">
-        <v>103.43</v>
+        <v>108.68</v>
       </c>
       <c r="C168">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D168">
-        <v>-42.66</v>
+        <v>-45.27</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B169">
-        <v>102.5</v>
+        <v>106.59</v>
       </c>
       <c r="C169">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D169">
-        <v>-43.18</v>
+        <v>-46.32</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B170">
-        <v>101.48</v>
+        <v>111.16</v>
       </c>
       <c r="C170">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D170">
-        <v>-43.74</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B171">
-        <v>106.39</v>
+        <v>110.43</v>
       </c>
       <c r="C171">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D171">
-        <v>-41.02</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B172">
-        <v>145.17</v>
+        <v>108.26</v>
       </c>
       <c r="C172">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D172">
-        <v>-19.52</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B173">
-        <v>183.46</v>
+        <v>106.5</v>
       </c>
       <c r="C173">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D173">
-        <v>1.7</v>
+        <v>-46.36</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B174">
-        <v>152.83</v>
+        <v>104.91</v>
       </c>
       <c r="C174">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D174">
-        <v>-15.28</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B175">
-        <v>138.67</v>
+        <v>103.62</v>
       </c>
       <c r="C175">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D175">
-        <v>-23.13</v>
+        <v>-47.81</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B176">
-        <v>129.36</v>
+        <v>102.91</v>
       </c>
       <c r="C176">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D176">
-        <v>-28.29</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B177">
-        <v>123.21</v>
+        <v>102.22</v>
       </c>
       <c r="C177">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D177">
-        <v>-31.7</v>
+        <v>-48.52</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B178">
-        <v>118.71</v>
+        <v>101.35</v>
       </c>
       <c r="C178">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D178">
-        <v>-34.19</v>
+        <v>-48.96</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B179">
-        <v>115.42</v>
+        <v>100.46</v>
       </c>
       <c r="C179">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D179">
-        <v>-36.02</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B180">
-        <v>112.87</v>
+        <v>100</v>
       </c>
       <c r="C180">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D180">
-        <v>-37.43</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B181">
-        <v>111.29</v>
+        <v>100</v>
       </c>
       <c r="C181">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D181">
-        <v>-38.3</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B182">
-        <v>110.33</v>
+        <v>43950</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>180.39</v>
-      </c>
-      <c r="D182">
-        <v>-38.84</v>
+        <v>198.56</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B183">
-        <v>109.58</v>
+        <v>43951</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>180.39</v>
-      </c>
-      <c r="D183">
-        <v>-39.25</v>
+        <v>198.56</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B184">
-        <v>108.54</v>
+        <v>43952</v>
+      </c>
+      <c r="B184" t="s">
+        <v>4</v>
       </c>
       <c r="C184">
-        <v>180.39</v>
-      </c>
-      <c r="D184">
-        <v>-39.83</v>
+        <v>279.37</v>
+      </c>
+      <c r="D184" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B185">
-        <v>107.96</v>
+        <v>43953</v>
+      </c>
+      <c r="B185" t="s">
+        <v>4</v>
       </c>
       <c r="C185">
-        <v>198.56</v>
-      </c>
-      <c r="D185">
-        <v>-45.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D185" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B186">
-        <v>107.3</v>
+        <v>43954</v>
+      </c>
+      <c r="B186" t="s">
+        <v>4</v>
       </c>
       <c r="C186">
-        <v>198.56</v>
-      </c>
-      <c r="D186">
-        <v>-45.96</v>
+        <v>279.37</v>
+      </c>
+      <c r="D186" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B187">
-        <v>106.27</v>
+        <v>43955</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>198.56</v>
-      </c>
-      <c r="D187">
-        <v>-46.48</v>
+        <v>279.37</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B188">
-        <v>105.43</v>
+        <v>100.33</v>
       </c>
       <c r="C188">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D188">
-        <v>-46.9</v>
+        <v>-64.09</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B189">
-        <v>104.65</v>
+        <v>102.96</v>
       </c>
       <c r="C189">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D189">
-        <v>-47.3</v>
+        <v>-63.15</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B190">
+        <v>105.61</v>
       </c>
       <c r="C190">
-        <v>198.56</v>
-      </c>
-      <c r="D190" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D190">
+        <v>-62.2</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
+        <v>43959</v>
+      </c>
+      <c r="B191">
+        <v>105.83</v>
       </c>
       <c r="C191">
-        <v>198.56</v>
-      </c>
-      <c r="D191" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D191">
+        <v>-62.12</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B192">
-        <v>113.41</v>
+        <v>114.83</v>
       </c>
       <c r="C192">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D192">
-        <v>-42.88</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B193">
-        <v>115.33</v>
+        <v>111.43</v>
       </c>
       <c r="C193">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D193">
-        <v>-41.92</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B194">
-        <v>114.96</v>
+        <v>108.26</v>
       </c>
       <c r="C194">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D194">
-        <v>-42.1</v>
+        <v>-61.25</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B195">
-        <v>111.71</v>
+        <v>107.38</v>
       </c>
       <c r="C195">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D195">
-        <v>-43.74</v>
+        <v>-61.57</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B196">
-        <v>109.58</v>
+        <v>168.96</v>
       </c>
       <c r="C196">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D196">
-        <v>-44.81</v>
+        <v>-39.52</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B197">
-        <v>107.86</v>
+        <v>442.05</v>
       </c>
       <c r="C197">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D197">
-        <v>-45.68</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B198">
-        <v>109.69</v>
+        <v>383.78</v>
       </c>
       <c r="C198">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D198">
-        <v>-44.76</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B199">
-        <v>108.68</v>
+        <v>213.5</v>
       </c>
       <c r="C199">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D199">
-        <v>-45.27</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B200">
-        <v>106.59</v>
+        <v>177.5</v>
       </c>
       <c r="C200">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D200">
-        <v>-46.32</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B201">
-        <v>111.16</v>
+        <v>158.13</v>
       </c>
       <c r="C201">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D201">
-        <v>-44.02</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B202">
-        <v>110.43</v>
+        <v>145.96</v>
       </c>
       <c r="C202">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D202">
-        <v>-44.39</v>
+        <v>-47.76</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B203">
-        <v>108.26</v>
+        <v>136.83</v>
       </c>
       <c r="C203">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D203">
-        <v>-45.48</v>
+        <v>-51.02</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B204">
-        <v>106.5</v>
+        <v>130.61</v>
       </c>
       <c r="C204">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D204">
-        <v>-46.36</v>
+        <v>-53.25</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B205">
-        <v>104.91</v>
+        <v>448.62</v>
       </c>
       <c r="C205">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D205">
-        <v>-47.16</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B206">
-        <v>103.62</v>
+        <v>1052.78</v>
       </c>
       <c r="C206">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D206">
-        <v>-47.81</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B207">
-        <v>102.91</v>
+        <v>927.75</v>
       </c>
       <c r="C207">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D207">
-        <v>-48.17</v>
+        <v>232.09</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B208">
-        <v>102.22</v>
+        <v>454.12</v>
       </c>
       <c r="C208">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D208">
-        <v>-48.52</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B209">
-        <v>101.35</v>
+        <v>291.38</v>
       </c>
       <c r="C209">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D209">
-        <v>-48.96</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B210">
-        <v>100.46</v>
+        <v>231.67</v>
       </c>
       <c r="C210">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D210">
-        <v>-49.41</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B211">
-        <v>100</v>
+        <v>201.75</v>
       </c>
       <c r="C211">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D211">
-        <v>-49.64</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B212">
-        <v>100</v>
+        <v>183.54</v>
       </c>
       <c r="C212">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D212">
-        <v>-49.64</v>
+        <v>-34.3</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B213" t="s">
-        <v>4</v>
+        <v>43981</v>
+      </c>
+      <c r="B213">
+        <v>170.25</v>
       </c>
       <c r="C213">
-        <v>198.56</v>
-      </c>
-      <c r="D213" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D213">
+        <v>-39.06</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B214" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B214">
+        <v>160.67</v>
       </c>
       <c r="C214">
-        <v>198.56</v>
-      </c>
-      <c r="D214" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D214">
+        <v>-42.49</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B215" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B215">
+        <v>155.43</v>
       </c>
       <c r="C215">
-        <v>279.37</v>
-      </c>
-      <c r="D215" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D215">
+        <v>-36.54</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B216" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B216">
+        <v>151.5</v>
       </c>
       <c r="C216">
-        <v>279.37</v>
-      </c>
-      <c r="D216" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D216">
+        <v>-38.14</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B217" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B217">
+        <v>147.78</v>
       </c>
       <c r="C217">
-        <v>279.37</v>
-      </c>
-      <c r="D217" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D217">
+        <v>-39.66</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B218" t="s">
-        <v>4</v>
+        <v>43986</v>
+      </c>
+      <c r="B218">
+        <v>152.05</v>
       </c>
       <c r="C218">
-        <v>279.37</v>
-      </c>
-      <c r="D218" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D218">
+        <v>-37.92</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B219">
-        <v>100.33</v>
+        <v>278.05</v>
       </c>
       <c r="C219">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D219">
-        <v>-64.09</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B220">
-        <v>102.96</v>
+        <v>708</v>
       </c>
       <c r="C220">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D220">
-        <v>-63.15</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B221">
-        <v>105.61</v>
+        <v>737.22</v>
       </c>
       <c r="C221">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D221">
-        <v>-62.2</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B222">
-        <v>105.83</v>
+        <v>401.87</v>
       </c>
       <c r="C222">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D222">
-        <v>-62.12</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B223">
-        <v>114.83</v>
+        <v>293.75</v>
       </c>
       <c r="C223">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D223">
-        <v>-58.9</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B224">
-        <v>111.43</v>
+        <v>506.38</v>
       </c>
       <c r="C224">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D224">
-        <v>-60.11</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B225">
-        <v>108.26</v>
+        <v>809.77</v>
       </c>
       <c r="C225">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D225">
-        <v>-61.25</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B226">
-        <v>107.38</v>
+        <v>749.96</v>
       </c>
       <c r="C226">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D226">
-        <v>-61.57</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B227">
-        <v>168.96</v>
+        <v>455.09</v>
       </c>
       <c r="C227">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D227">
-        <v>-39.52</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B228">
-        <v>442.05</v>
+        <v>337.83</v>
       </c>
       <c r="C228">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D228">
-        <v>58.23</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B229">
-        <v>383.78</v>
+        <v>307.09</v>
       </c>
       <c r="C229">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D229">
-        <v>37.37</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B230">
-        <v>213.5</v>
+        <v>254.1</v>
       </c>
       <c r="C230">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D230">
-        <v>-23.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B231">
-        <v>177.5</v>
+        <v>215.79</v>
       </c>
       <c r="C231">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D231">
-        <v>-36.46</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B232">
-        <v>158.13</v>
+        <v>194.35</v>
       </c>
       <c r="C232">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D232">
-        <v>-43.4</v>
+        <v>-20.65</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B233">
-        <v>145.96</v>
+        <v>180.04</v>
       </c>
       <c r="C233">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D233">
-        <v>-47.76</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B234">
-        <v>136.83</v>
+        <v>169.22</v>
       </c>
       <c r="C234">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D234">
-        <v>-51.02</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B235">
-        <v>130.61</v>
+        <v>160.87</v>
       </c>
       <c r="C235">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D235">
-        <v>-53.25</v>
+        <v>-34.32</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B236">
-        <v>448.62</v>
+        <v>154</v>
       </c>
       <c r="C236">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D236">
-        <v>60.58</v>
+        <v>-37.12</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B237">
-        <v>1052.78</v>
+        <v>148.7</v>
       </c>
       <c r="C237">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D237">
-        <v>276.84</v>
+        <v>-39.29</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B238">
-        <v>927.75</v>
+        <v>144.04</v>
       </c>
       <c r="C238">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D238">
-        <v>232.09</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B239">
-        <v>454.12</v>
+        <v>140.62</v>
       </c>
       <c r="C239">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D239">
-        <v>62.55</v>
+        <v>-42.59</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B240">
-        <v>291.38</v>
+        <v>139.21</v>
       </c>
       <c r="C240">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D240">
-        <v>4.3</v>
+        <v>-43.16</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B241">
-        <v>231.67</v>
+        <v>141.21</v>
       </c>
       <c r="C241">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D241">
-        <v>-17.08</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B242">
-        <v>201.75</v>
+        <v>139.58</v>
       </c>
       <c r="C242">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D242">
-        <v>-27.78</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B243">
-        <v>183.54</v>
+        <v>135.83</v>
       </c>
       <c r="C243">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D243">
-        <v>-34.3</v>
+        <v>-44.54</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B244">
-        <v>170.25</v>
+        <v>143.32</v>
       </c>
       <c r="C244">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D244">
-        <v>-39.06</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B245">
-        <v>160.67</v>
+        <v>410.33</v>
       </c>
       <c r="C245">
-        <v>279.37</v>
+        <v>200.23</v>
       </c>
       <c r="D245">
-        <v>-42.49</v>
+        <v>104.93</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B246">
-        <v>155.43</v>
+        <v>347.95</v>
       </c>
       <c r="C246">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D246">
-        <v>-36.54</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B247">
-        <v>151.5</v>
+        <v>232.13</v>
       </c>
       <c r="C247">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D247">
-        <v>-38.14</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B248">
-        <v>147.78</v>
+        <v>197.04</v>
       </c>
       <c r="C248">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D248">
-        <v>-39.66</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B249">
-        <v>152.05</v>
+        <v>177.77</v>
       </c>
       <c r="C249">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D249">
-        <v>-37.92</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B250">
-        <v>278.05</v>
+        <v>165.75</v>
       </c>
       <c r="C250">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D250">
-        <v>13.52</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B251">
-        <v>708</v>
+        <v>212.75</v>
       </c>
       <c r="C251">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D251">
-        <v>189.07</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B252">
-        <v>737.22</v>
+        <v>231.5</v>
       </c>
       <c r="C252">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D252">
-        <v>200.99</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B253">
-        <v>401.87</v>
+        <v>652.21</v>
       </c>
       <c r="C253">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D253">
-        <v>64.08</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B254">
-        <v>293.75</v>
+        <v>520.58</v>
       </c>
       <c r="C254">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D254">
-        <v>19.93</v>
+        <v>160</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B255">
-        <v>506.38</v>
+        <v>294.38</v>
       </c>
       <c r="C255">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D255">
-        <v>106.75</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B256">
-        <v>809.77</v>
+        <v>232.52</v>
       </c>
       <c r="C256">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D256">
-        <v>230.62</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B257">
-        <v>749.96</v>
+        <v>203.83</v>
       </c>
       <c r="C257">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D257">
-        <v>206.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B258">
-        <v>455.09</v>
+        <v>187.29</v>
       </c>
       <c r="C258">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D258">
-        <v>85.81</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B259">
-        <v>337.83</v>
+        <v>174.42</v>
       </c>
       <c r="C259">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D259">
-        <v>37.93</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B260">
-        <v>307.09</v>
+        <v>162.92</v>
       </c>
       <c r="C260">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D260">
-        <v>25.38</v>
+        <v>-18.63</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B261">
-        <v>254.1</v>
+        <v>155.3</v>
       </c>
       <c r="C261">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D261">
-        <v>3.74</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B262">
-        <v>215.79</v>
+        <v>150.17</v>
       </c>
       <c r="C262">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D262">
-        <v>-11.9</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B263">
-        <v>194.35</v>
+        <v>144.33</v>
       </c>
       <c r="C263">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D263">
-        <v>-20.65</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B264">
-        <v>180.04</v>
+        <v>139.68</v>
       </c>
       <c r="C264">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D264">
-        <v>-26.49</v>
+        <v>-30.24</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B265">
-        <v>169.22</v>
+        <v>135.79</v>
       </c>
       <c r="C265">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D265">
-        <v>-30.91</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B266">
-        <v>160.87</v>
+        <v>132.7</v>
       </c>
       <c r="C266">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D266">
-        <v>-34.32</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B267">
-        <v>154</v>
+        <v>130.32</v>
       </c>
       <c r="C267">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D267">
-        <v>-37.12</v>
+        <v>-34.91</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B268">
-        <v>148.7</v>
+        <v>128.14</v>
       </c>
       <c r="C268">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D268">
-        <v>-39.29</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B269">
-        <v>144.04</v>
+        <v>126.32</v>
       </c>
       <c r="C269">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D269">
-        <v>-41.19</v>
+        <v>-36.91</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B270">
-        <v>140.62</v>
+        <v>125</v>
       </c>
       <c r="C270">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D270">
-        <v>-42.59</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B271">
-        <v>139.21</v>
+        <v>124.48</v>
       </c>
       <c r="C271">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D271">
-        <v>-43.16</v>
+        <v>-37.83</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B272">
-        <v>141.21</v>
+        <v>124.22</v>
       </c>
       <c r="C272">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D272">
-        <v>-42.35</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B273">
-        <v>139.58</v>
+        <v>123.42</v>
       </c>
       <c r="C273">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D273">
-        <v>-43.01</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B274">
-        <v>135.83</v>
+        <v>126.82</v>
       </c>
       <c r="C274">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D274">
-        <v>-44.54</v>
+        <v>-36.66</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B275">
-        <v>143.32</v>
+        <v>133.04</v>
       </c>
       <c r="C275">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D275">
-        <v>-41.49</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B276">
-        <v>410.33</v>
+        <v>127.43</v>
       </c>
       <c r="C276">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D276">
-        <v>104.93</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B277">
-        <v>347.95</v>
+        <v>124.04</v>
       </c>
       <c r="C277">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D277">
-        <v>73.78</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B278">
-        <v>232.13</v>
+        <v>121.65</v>
       </c>
       <c r="C278">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D278">
-        <v>15.93</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B279">
-        <v>197.04</v>
+        <v>119.62</v>
       </c>
       <c r="C279">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D279">
-        <v>-1.59</v>
+        <v>-37.19</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B280">
-        <v>177.77</v>
+        <v>118.5</v>
       </c>
       <c r="C280">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D280">
-        <v>-11.21</v>
+        <v>-37.78</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B281">
-        <v>165.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
       </c>
       <c r="C281">
-        <v>200.23</v>
-      </c>
-      <c r="D281">
-        <v>-17.22</v>
+        <v>190.45</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B282">
-        <v>212.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
       </c>
       <c r="C282">
-        <v>200.23</v>
-      </c>
-      <c r="D282">
-        <v>6.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B283">
-        <v>231.5</v>
+        <v>44051</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
       </c>
       <c r="C283">
-        <v>200.23</v>
-      </c>
-      <c r="D283">
-        <v>15.62</v>
+        <v>190.45</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B284">
-        <v>652.21</v>
+        <v>44052</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>200.23</v>
-      </c>
-      <c r="D284">
-        <v>225.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B285">
-        <v>520.58</v>
+        <v>44053</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
       </c>
       <c r="C285">
-        <v>200.23</v>
-      </c>
-      <c r="D285">
-        <v>160</v>
+        <v>190.45</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B286">
-        <v>294.38</v>
+        <v>44054</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
       </c>
       <c r="C286">
-        <v>200.23</v>
-      </c>
-      <c r="D286">
-        <v>47.02</v>
+        <v>190.45</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B287">
-        <v>232.52</v>
+        <v>44055</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
       </c>
       <c r="C287">
-        <v>200.23</v>
-      </c>
-      <c r="D287">
-        <v>16.13</v>
+        <v>190.45</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B288">
-        <v>203.83</v>
+        <v>44056</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>200.23</v>
-      </c>
-      <c r="D288">
-        <v>1.8</v>
+        <v>190.45</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B289">
-        <v>187.29</v>
+        <v>44057</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>200.23</v>
-      </c>
-      <c r="D289">
-        <v>-6.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B290">
-        <v>174.42</v>
+        <v>44058</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
       </c>
       <c r="C290">
-        <v>200.23</v>
-      </c>
-      <c r="D290">
-        <v>-12.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B291">
-        <v>162.92</v>
+        <v>44059</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
       </c>
       <c r="C291">
-        <v>200.23</v>
-      </c>
-      <c r="D291">
-        <v>-18.63</v>
+        <v>190.45</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B292">
-        <v>155.3</v>
+        <v>44060</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
       </c>
       <c r="C292">
-        <v>200.23</v>
-      </c>
-      <c r="D292">
-        <v>-22.44</v>
+        <v>190.45</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B293">
-        <v>150.17</v>
+        <v>44061</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
       </c>
       <c r="C293">
-        <v>200.23</v>
-      </c>
-      <c r="D293">
-        <v>-25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B294">
-        <v>144.33</v>
+        <v>44062</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
       </c>
       <c r="C294">
-        <v>200.23</v>
-      </c>
-      <c r="D294">
-        <v>-27.92</v>
+        <v>190.45</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B295">
-        <v>139.68</v>
+        <v>44063</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
       </c>
       <c r="C295">
-        <v>200.23</v>
-      </c>
-      <c r="D295">
-        <v>-30.24</v>
+        <v>190.45</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B296">
-        <v>135.79</v>
+        <v>44064</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
       </c>
       <c r="C296">
-        <v>200.23</v>
-      </c>
-      <c r="D296">
-        <v>-32.18</v>
+        <v>190.45</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B297">
-        <v>132.7</v>
+        <v>44065</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
       </c>
       <c r="C297">
-        <v>200.23</v>
-      </c>
-      <c r="D297">
-        <v>-33.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B298">
-        <v>130.32</v>
+        <v>44066</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
       </c>
       <c r="C298">
-        <v>200.23</v>
-      </c>
-      <c r="D298">
-        <v>-34.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B299">
-        <v>128.14</v>
+        <v>185.67</v>
       </c>
       <c r="C299">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D299">
-        <v>-36</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B300">
-        <v>126.32</v>
+        <v>175.21</v>
       </c>
       <c r="C300">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D300">
-        <v>-36.91</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B301">
-        <v>125</v>
+        <v>162.82</v>
       </c>
       <c r="C301">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D301">
-        <v>-37.57</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B302">
-        <v>124.48</v>
+        <v>153.82</v>
       </c>
       <c r="C302">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D302">
-        <v>-37.83</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B303">
-        <v>124.22</v>
+        <v>146.96</v>
       </c>
       <c r="C303">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D303">
-        <v>-37.96</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B304">
-        <v>123.42</v>
+        <v>141.35</v>
       </c>
       <c r="C304">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D304">
-        <v>-38.36</v>
+        <v>-25.78</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B305">
-        <v>126.82</v>
+        <v>136.87</v>
       </c>
       <c r="C305">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D305">
-        <v>-36.66</v>
+        <v>-28.13</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B306">
-        <v>133.04</v>
+        <v>133.38</v>
       </c>
       <c r="C306">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D306">
-        <v>-33.55</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B307">
-        <v>127.43</v>
+        <v>130.25</v>
       </c>
       <c r="C307">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D307">
-        <v>-33.09</v>
+        <v>-39.72</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B308">
-        <v>124.04</v>
+        <v>127.43</v>
       </c>
       <c r="C308">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D308">
-        <v>-34.87</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B309">
-        <v>121.65</v>
+        <v>125.08</v>
       </c>
       <c r="C309">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D309">
-        <v>-36.12</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B310">
-        <v>119.62</v>
+        <v>123.48</v>
       </c>
       <c r="C310">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D310">
-        <v>-37.19</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B311">
-        <v>118.5</v>
+        <v>121.65</v>
       </c>
       <c r="C311">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D311">
-        <v>-37.78</v>
+        <v>-43.7</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B312" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B312">
+        <v>120.58</v>
       </c>
       <c r="C312">
-        <v>190.45</v>
-      </c>
-      <c r="D312" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D312">
+        <v>-44.2</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B313" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B313">
+        <v>119.59</v>
       </c>
       <c r="C313">
-        <v>190.45</v>
-      </c>
-      <c r="D313" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D313">
+        <v>-44.66</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B314" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B314">
+        <v>118.64</v>
       </c>
       <c r="C314">
-        <v>190.45</v>
-      </c>
-      <c r="D314" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D314">
+        <v>-45.1</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B315" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B315">
+        <v>117.78</v>
       </c>
       <c r="C315">
-        <v>190.45</v>
-      </c>
-      <c r="D315" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D315">
+        <v>-45.49</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B316" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B316">
+        <v>116.91</v>
       </c>
       <c r="C316">
-        <v>190.45</v>
-      </c>
-      <c r="D316" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D316">
+        <v>-45.89</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B317" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B317">
+        <v>115.96</v>
       </c>
       <c r="C317">
-        <v>190.45</v>
-      </c>
-      <c r="D317" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D317">
+        <v>-46.34</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B318" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B318">
+        <v>115.22</v>
       </c>
       <c r="C318">
-        <v>190.45</v>
-      </c>
-      <c r="D318" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D318">
+        <v>-46.68</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B319" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B319">
+        <v>114.3</v>
       </c>
       <c r="C319">
-        <v>190.45</v>
-      </c>
-      <c r="D319" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D319">
+        <v>-47.1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B320" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B320">
+        <v>113.64</v>
       </c>
       <c r="C320">
-        <v>190.45</v>
-      </c>
-      <c r="D320" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D320">
+        <v>-47.41</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B321" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B321">
+        <v>112.45</v>
       </c>
       <c r="C321">
-        <v>190.45</v>
-      </c>
-      <c r="D321" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D321">
+        <v>-47.96</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B322" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B322">
+        <v>111.88</v>
       </c>
       <c r="C322">
-        <v>190.45</v>
-      </c>
-      <c r="D322" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D322">
+        <v>-48.23</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B323" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B323">
+        <v>111.45</v>
       </c>
       <c r="C323">
-        <v>190.45</v>
-      </c>
-      <c r="D323" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D323">
+        <v>-48.42</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B324" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B324">
+        <v>111.38</v>
       </c>
       <c r="C324">
-        <v>190.45</v>
-      </c>
-      <c r="D324" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D324">
+        <v>-48.46</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B325" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B325">
+        <v>110.95</v>
       </c>
       <c r="C325">
-        <v>190.45</v>
-      </c>
-      <c r="D325" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D325">
+        <v>-48.65</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B326" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B326">
+        <v>109.91</v>
       </c>
       <c r="C326">
-        <v>190.45</v>
-      </c>
-      <c r="D326" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D326">
+        <v>-49.13</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B327" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B327">
+        <v>108.74</v>
       </c>
       <c r="C327">
-        <v>190.45</v>
-      </c>
-      <c r="D327" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D327">
+        <v>-49.68</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B328" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B328">
+        <v>108.14</v>
       </c>
       <c r="C328">
-        <v>190.45</v>
-      </c>
-      <c r="D328" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D328">
+        <v>-49.95</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B329" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B329">
+        <v>107.41</v>
       </c>
       <c r="C329">
-        <v>190.45</v>
-      </c>
-      <c r="D329" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D329">
+        <v>-50.29</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B330">
-        <v>185.67</v>
+        <v>106.67</v>
       </c>
       <c r="C330">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D330">
-        <v>-2.51</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B331">
-        <v>175.21</v>
+        <v>106.09</v>
       </c>
       <c r="C331">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D331">
-        <v>-8</v>
+        <v>-50.9</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B332">
-        <v>162.82</v>
+        <v>105.35</v>
       </c>
       <c r="C332">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D332">
-        <v>-14.51</v>
+        <v>-51.25</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B333">
-        <v>153.82</v>
+        <v>105.04</v>
       </c>
       <c r="C333">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D333">
-        <v>-19.23</v>
+        <v>-51.39</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B334">
-        <v>146.96</v>
+        <v>109.5</v>
       </c>
       <c r="C334">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D334">
-        <v>-22.84</v>
+        <v>-49.33</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B335">
-        <v>141.35</v>
+        <v>116.7</v>
       </c>
       <c r="C335">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D335">
-        <v>-25.78</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B336">
-        <v>136.87</v>
+        <v>116.38</v>
       </c>
       <c r="C336">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D336">
-        <v>-28.13</v>
+        <v>-46.14</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B337">
-        <v>133.38</v>
+        <v>115.96</v>
       </c>
       <c r="C337">
-        <v>190.45</v>
+        <v>310.64</v>
       </c>
       <c r="D337">
-        <v>-29.97</v>
+        <v>-62.67</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B338">
-        <v>130.25</v>
+        <v>112.04</v>
       </c>
       <c r="C338">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D338">
-        <v>-39.72</v>
+        <v>-63.93</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B339">
-        <v>127.43</v>
+        <v>109.25</v>
       </c>
       <c r="C339">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D339">
-        <v>-41.03</v>
+        <v>-64.83</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B340">
-        <v>125.08</v>
+        <v>107.48</v>
       </c>
       <c r="C340">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D340">
-        <v>-42.11</v>
+        <v>-65.40000000000001</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B341">
-        <v>123.48</v>
+        <v>105.92</v>
       </c>
       <c r="C341">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D341">
-        <v>-42.86</v>
+        <v>-65.90000000000001</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B342">
-        <v>121.65</v>
+        <v>104.61</v>
       </c>
       <c r="C342">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D342">
-        <v>-43.7</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B343">
-        <v>120.58</v>
+        <v>103.71</v>
       </c>
       <c r="C343">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D343">
-        <v>-44.2</v>
+        <v>-66.61</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B344">
-        <v>119.59</v>
+        <v>104.79</v>
       </c>
       <c r="C344">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D344">
-        <v>-44.66</v>
+        <v>-66.27</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B345">
-        <v>118.64</v>
+        <v>119.09</v>
       </c>
       <c r="C345">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D345">
-        <v>-45.1</v>
+        <v>-61.66</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B346">
-        <v>117.78</v>
+        <v>120</v>
       </c>
       <c r="C346">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D346">
-        <v>-45.49</v>
+        <v>-61.37</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B347">
-        <v>116.91</v>
+        <v>116.67</v>
       </c>
       <c r="C347">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D347">
-        <v>-45.89</v>
+        <v>-62.44</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B348">
-        <v>115.96</v>
+        <v>115.83</v>
       </c>
       <c r="C348">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D348">
-        <v>-46.34</v>
+        <v>-62.71</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B349">
-        <v>115.22</v>
+        <v>113.96</v>
       </c>
       <c r="C349">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D349">
-        <v>-46.68</v>
+        <v>-63.32</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B350">
-        <v>114.3</v>
+        <v>112.27</v>
       </c>
       <c r="C350">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D350">
-        <v>-47.1</v>
+        <v>-63.86</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B351">
-        <v>113.64</v>
+        <v>113.4</v>
       </c>
       <c r="C351">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D351">
-        <v>-47.41</v>
+        <v>-63.49</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B352">
-        <v>112.45</v>
+        <v>124.09</v>
       </c>
       <c r="C352">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D352">
-        <v>-47.96</v>
+        <v>-60.05</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B353">
-        <v>111.88</v>
+        <v>129.46</v>
       </c>
       <c r="C353">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D353">
-        <v>-48.23</v>
+        <v>-58.33</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B354">
-        <v>111.45</v>
+        <v>124.78</v>
       </c>
       <c r="C354">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D354">
-        <v>-48.42</v>
+        <v>-59.83</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B355">
-        <v>111.38</v>
+        <v>120.13</v>
       </c>
       <c r="C355">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D355">
-        <v>-48.46</v>
+        <v>-61.33</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B356">
-        <v>110.95</v>
+        <v>116.46</v>
       </c>
       <c r="C356">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D356">
-        <v>-48.65</v>
+        <v>-62.51</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B357">
-        <v>109.91</v>
+        <v>113.62</v>
       </c>
       <c r="C357">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D357">
-        <v>-49.13</v>
+        <v>-63.42</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B358">
-        <v>108.74</v>
+        <v>111.25</v>
       </c>
       <c r="C358">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D358">
-        <v>-49.68</v>
+        <v>-64.19</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B359">
-        <v>108.14</v>
+        <v>109</v>
       </c>
       <c r="C359">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D359">
-        <v>-49.95</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B360">
-        <v>107.41</v>
+        <v>107.21</v>
       </c>
       <c r="C360">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D360">
-        <v>-50.29</v>
+        <v>-65.48999999999999</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B361">
-        <v>106.67</v>
+        <v>105.52</v>
       </c>
       <c r="C361">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D361">
-        <v>-50.64</v>
+        <v>-66.03</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B362">
-        <v>106.09</v>
+        <v>105.04</v>
       </c>
       <c r="C362">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D362">
-        <v>-50.9</v>
+        <v>-66.19</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B363">
-        <v>105.35</v>
+        <v>105.17</v>
       </c>
       <c r="C363">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D363">
-        <v>-51.25</v>
+        <v>-66.15000000000001</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B364">
-        <v>105.04</v>
+        <v>105</v>
       </c>
       <c r="C364">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D364">
-        <v>-51.39</v>
+        <v>-66.2</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B365">
-        <v>109.5</v>
+        <v>104.64</v>
       </c>
       <c r="C365">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D365">
-        <v>-49.33</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B366">
-        <v>116.7</v>
+        <v>103.7</v>
       </c>
       <c r="C366">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D366">
-        <v>-46</v>
+        <v>-66.62</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B367">
-        <v>116.38</v>
+        <v>103.17</v>
       </c>
       <c r="C367">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D367">
-        <v>-46.14</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B368">
-        <v>115.96</v>
-      </c>
-      <c r="C368">
-        <v>310.64</v>
-      </c>
-      <c r="D368">
-        <v>-62.67</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44106</v>
-      </c>
-      <c r="B369">
-        <v>112.04</v>
-      </c>
-      <c r="C369">
-        <v>310.64</v>
-      </c>
-      <c r="D369">
-        <v>-63.93</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44107</v>
-      </c>
-      <c r="B370">
-        <v>109.25</v>
-      </c>
-      <c r="C370">
-        <v>310.64</v>
-      </c>
-      <c r="D370">
-        <v>-64.83</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B371">
-        <v>107.48</v>
-      </c>
-      <c r="C371">
-        <v>310.64</v>
-      </c>
-      <c r="D371">
-        <v>-65.40000000000001</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44109</v>
-      </c>
-      <c r="B372">
-        <v>105.92</v>
-      </c>
-      <c r="C372">
-        <v>310.64</v>
-      </c>
-      <c r="D372">
-        <v>-65.90000000000001</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44110</v>
-      </c>
-      <c r="B373">
-        <v>104.61</v>
-      </c>
-      <c r="C373">
-        <v>310.64</v>
-      </c>
-      <c r="D373">
-        <v>-66.31999999999999</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B374">
-        <v>103.71</v>
-      </c>
-      <c r="C374">
-        <v>310.64</v>
-      </c>
-      <c r="D374">
-        <v>-66.61</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B375">
-        <v>104.79</v>
-      </c>
-      <c r="C375">
-        <v>310.64</v>
-      </c>
-      <c r="D375">
-        <v>-66.27</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B376">
-        <v>119.09</v>
-      </c>
-      <c r="C376">
-        <v>310.64</v>
-      </c>
-      <c r="D376">
-        <v>-61.66</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44114</v>
-      </c>
-      <c r="B377">
-        <v>120</v>
-      </c>
-      <c r="C377">
-        <v>310.64</v>
-      </c>
-      <c r="D377">
-        <v>-61.37</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44115</v>
-      </c>
-      <c r="B378">
-        <v>116.67</v>
-      </c>
-      <c r="C378">
-        <v>310.64</v>
-      </c>
-      <c r="D378">
-        <v>-62.44</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44116</v>
-      </c>
-      <c r="B379">
-        <v>115.83</v>
-      </c>
-      <c r="C379">
-        <v>310.64</v>
-      </c>
-      <c r="D379">
-        <v>-62.71</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44117</v>
-      </c>
-      <c r="B380">
-        <v>113.96</v>
-      </c>
-      <c r="C380">
-        <v>310.64</v>
-      </c>
-      <c r="D380">
-        <v>-63.32</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44118</v>
-      </c>
-      <c r="B381">
-        <v>112.27</v>
-      </c>
-      <c r="C381">
-        <v>310.64</v>
-      </c>
-      <c r="D381">
-        <v>-63.86</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B382">
-        <v>113.4</v>
-      </c>
-      <c r="C382">
-        <v>310.64</v>
-      </c>
-      <c r="D382">
-        <v>-63.49</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B383">
-        <v>124.09</v>
-      </c>
-      <c r="C383">
-        <v>310.64</v>
-      </c>
-      <c r="D383">
-        <v>-60.05</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B384">
-        <v>129.46</v>
-      </c>
-      <c r="C384">
-        <v>310.64</v>
-      </c>
-      <c r="D384">
-        <v>-58.33</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B385">
-        <v>124.78</v>
-      </c>
-      <c r="C385">
-        <v>310.64</v>
-      </c>
-      <c r="D385">
-        <v>-59.83</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44123</v>
-      </c>
-      <c r="B386">
-        <v>120.13</v>
-      </c>
-      <c r="C386">
-        <v>310.64</v>
-      </c>
-      <c r="D386">
-        <v>-61.33</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44124</v>
-      </c>
-      <c r="B387">
-        <v>116.46</v>
-      </c>
-      <c r="C387">
-        <v>310.64</v>
-      </c>
-      <c r="D387">
-        <v>-62.51</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B388">
-        <v>113.62</v>
-      </c>
-      <c r="C388">
-        <v>310.64</v>
-      </c>
-      <c r="D388">
-        <v>-63.42</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44126</v>
-      </c>
-      <c r="B389">
-        <v>111.25</v>
-      </c>
-      <c r="C389">
-        <v>310.64</v>
-      </c>
-      <c r="D389">
-        <v>-64.19</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44127</v>
-      </c>
-      <c r="B390">
-        <v>109</v>
-      </c>
-      <c r="C390">
-        <v>310.64</v>
-      </c>
-      <c r="D390">
-        <v>-64.91</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B391">
-        <v>107.21</v>
-      </c>
-      <c r="C391">
-        <v>310.64</v>
-      </c>
-      <c r="D391">
-        <v>-65.48999999999999</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B392">
-        <v>105.52</v>
-      </c>
-      <c r="C392">
-        <v>310.64</v>
-      </c>
-      <c r="D392">
-        <v>-66.03</v>
+        <v>-66.79000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-64.04000000000001</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B14">
+        <v>102.46</v>
+      </c>
+      <c r="C14">
+        <v>254.02</v>
+      </c>
+      <c r="D14">
+        <v>-59.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>-66.79000000000001</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B368">
+        <v>102.68</v>
+      </c>
+      <c r="C368">
+        <v>254.02</v>
+      </c>
+      <c r="D368">
+        <v>-59.58</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B369">
+        <v>102.57</v>
+      </c>
+      <c r="C369">
+        <v>254.02</v>
+      </c>
+      <c r="D369">
+        <v>-59.62</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B370">
+        <v>103</v>
+      </c>
+      <c r="C370">
+        <v>254.02</v>
+      </c>
+      <c r="D370">
+        <v>-59.45</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B371">
+        <v>102.52</v>
+      </c>
+      <c r="C371">
+        <v>254.02</v>
+      </c>
+      <c r="D371">
+        <v>-59.64</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B372">
+        <v>102.41</v>
+      </c>
+      <c r="C372">
+        <v>254.02</v>
+      </c>
+      <c r="D372">
+        <v>-59.68</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B373">
+        <v>101.3</v>
+      </c>
+      <c r="C373">
+        <v>254.02</v>
+      </c>
+      <c r="D373">
+        <v>-60.12</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B374" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374">
+        <v>254.02</v>
+      </c>
+      <c r="D374" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B375" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375">
+        <v>254.02</v>
+      </c>
+      <c r="D375" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B376">
+        <v>100</v>
+      </c>
+      <c r="C376">
+        <v>254.02</v>
+      </c>
+      <c r="D376">
+        <v>-60.63</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B377">
+        <v>100</v>
+      </c>
+      <c r="C377">
+        <v>254.02</v>
+      </c>
+      <c r="D377">
+        <v>-60.63</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B378">
+        <v>101.09</v>
+      </c>
+      <c r="C378">
+        <v>254.02</v>
+      </c>
+      <c r="D378">
+        <v>-60.2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B379">
+        <v>101.13</v>
+      </c>
+      <c r="C379">
+        <v>254.02</v>
+      </c>
+      <c r="D379">
+        <v>-60.19</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B380">
+        <v>102.91</v>
+      </c>
+      <c r="C380">
+        <v>254.02</v>
+      </c>
+      <c r="D380">
+        <v>-59.49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B381">
+        <v>104.65</v>
+      </c>
+      <c r="C381">
+        <v>254.02</v>
+      </c>
+      <c r="D381">
+        <v>-58.8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B382">
+        <v>107.74</v>
+      </c>
+      <c r="C382">
+        <v>254.02</v>
+      </c>
+      <c r="D382">
+        <v>-57.59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -588,16 +588,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="B14">
-        <v>102.46</v>
+        <v>103.58</v>
       </c>
       <c r="C14">
         <v>254.02</v>
       </c>
       <c r="D14">
-        <v>-59.66</v>
+        <v>-59.23</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5966,6 +5966,104 @@
         <v>-57.59</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B383">
+        <v>111.22</v>
+      </c>
+      <c r="C383">
+        <v>254.02</v>
+      </c>
+      <c r="D383">
+        <v>-56.22</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B384">
+        <v>108.09</v>
+      </c>
+      <c r="C384">
+        <v>254.02</v>
+      </c>
+      <c r="D384">
+        <v>-57.45</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B385">
+        <v>106.14</v>
+      </c>
+      <c r="C385">
+        <v>254.02</v>
+      </c>
+      <c r="D385">
+        <v>-58.22</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B386">
+        <v>105.62</v>
+      </c>
+      <c r="C386">
+        <v>254.02</v>
+      </c>
+      <c r="D386">
+        <v>-58.42</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B387">
+        <v>104.38</v>
+      </c>
+      <c r="C387">
+        <v>254.02</v>
+      </c>
+      <c r="D387">
+        <v>-58.91</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B388">
+        <v>102.62</v>
+      </c>
+      <c r="C388">
+        <v>254.02</v>
+      </c>
+      <c r="D388">
+        <v>-59.6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B389">
+        <v>101.46</v>
+      </c>
+      <c r="C389">
+        <v>254.02</v>
+      </c>
+      <c r="D389">
+        <v>-60.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B2">
-        <v>202.52</v>
+        <v>153.53</v>
       </c>
       <c r="C2">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D2">
-        <v>-20.27</v>
+        <v>-29.48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B3">
-        <v>153.53</v>
+        <v>175.51</v>
       </c>
       <c r="C3">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D3">
-        <v>-29.48</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B4">
-        <v>175.51</v>
+        <v>172.17</v>
       </c>
       <c r="C4">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D4">
-        <v>-14.72</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B5">
-        <v>172.17</v>
+        <v>119.43</v>
       </c>
       <c r="C5">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D5">
-        <v>-21.23</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B6">
-        <v>119.43</v>
+        <v>106.97</v>
       </c>
       <c r="C6">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D6">
-        <v>-33.79</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B7">
-        <v>106.97</v>
+        <v>256.91</v>
       </c>
       <c r="C7">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D7">
-        <v>-46.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B8">
-        <v>256.91</v>
+        <v>288.42</v>
       </c>
       <c r="C8">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D8">
-        <v>-8.039999999999999</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B9">
-        <v>288.42</v>
+        <v>206.55</v>
       </c>
       <c r="C9">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D9">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B10">
-        <v>206.55</v>
+        <v>142.1</v>
       </c>
       <c r="C10">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D10">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B11">
-        <v>142.1</v>
+        <v>114.62</v>
       </c>
       <c r="C11">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D11">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B12">
-        <v>114.62</v>
+        <v>111.72</v>
       </c>
       <c r="C12">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D12">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B13">
-        <v>111.72</v>
+        <v>103.35</v>
       </c>
       <c r="C13">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D13">
-        <v>-64.04000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B14">
-        <v>103.58</v>
-      </c>
-      <c r="C14">
-        <v>254.02</v>
-      </c>
-      <c r="D14">
-        <v>-59.23</v>
+        <v>-59.31</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5434 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B2">
-        <v>132.41</v>
+        <v>157.42</v>
       </c>
       <c r="C2">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D2">
-        <v>-47.87</v>
+        <v>-27.69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B3">
-        <v>148.46</v>
+        <v>143.88</v>
       </c>
       <c r="C3">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D3">
-        <v>-41.56</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B4">
-        <v>145.22</v>
+        <v>138.09</v>
       </c>
       <c r="C4">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D4">
-        <v>-42.83</v>
+        <v>-36.57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B5">
-        <v>141.39</v>
+        <v>139.5</v>
       </c>
       <c r="C5">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D5">
-        <v>-44.34</v>
+        <v>-35.92</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B6">
-        <v>140.3</v>
+        <v>162</v>
       </c>
       <c r="C6">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D6">
-        <v>-44.77</v>
+        <v>-25.59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B7">
-        <v>174.96</v>
+        <v>170.92</v>
       </c>
       <c r="C7">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D7">
-        <v>-31.12</v>
+        <v>-21.49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B8">
-        <v>195.09</v>
+        <v>158.12</v>
       </c>
       <c r="C8">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D8">
-        <v>-23.2</v>
+        <v>-27.37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B9">
-        <v>171.14</v>
+        <v>143.38</v>
       </c>
       <c r="C9">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D9">
-        <v>-32.63</v>
+        <v>-34.14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B10">
-        <v>220.04</v>
+        <v>138.14</v>
       </c>
       <c r="C10">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D10">
-        <v>-13.38</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B11">
-        <v>260.87</v>
+        <v>135.05</v>
       </c>
       <c r="C11">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D11">
-        <v>2.7</v>
+        <v>-37.97</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B12">
-        <v>194.58</v>
+        <v>130.6</v>
       </c>
       <c r="C12">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D12">
-        <v>-23.4</v>
+        <v>-40.01</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B13">
-        <v>172.46</v>
+        <v>129</v>
       </c>
       <c r="C13">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D13">
-        <v>-32.11</v>
+        <v>-40.75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B14">
-        <v>158.7</v>
+        <v>124.67</v>
       </c>
       <c r="C14">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D14">
-        <v>-37.53</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B15">
-        <v>289.41</v>
+        <v>123.92</v>
       </c>
       <c r="C15">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D15">
-        <v>13.93</v>
+        <v>-43.08</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B16">
-        <v>710.3200000000001</v>
+        <v>120.71</v>
       </c>
       <c r="C16">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D16">
-        <v>179.63</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B17">
-        <v>464.86</v>
+        <v>145.35</v>
       </c>
       <c r="C17">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D17">
-        <v>83</v>
+        <v>-33.24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B18">
-        <v>250.68</v>
+        <v>250.95</v>
       </c>
       <c r="C18">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D18">
-        <v>-1.31</v>
+        <v>15.27</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B19">
-        <v>195.91</v>
+        <v>251.93</v>
       </c>
       <c r="C19">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D19">
-        <v>-22.87</v>
+        <v>15.72</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43788</v>
-      </c>
-      <c r="B20">
-        <v>171.29</v>
+        <v>43818</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>254.02</v>
-      </c>
-      <c r="D20">
-        <v>-32.57</v>
+        <v>217.71</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43789</v>
-      </c>
-      <c r="B21">
-        <v>155.79</v>
+        <v>43819</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>254.02</v>
-      </c>
-      <c r="D21">
-        <v>-38.67</v>
+        <v>217.71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43790</v>
-      </c>
-      <c r="B22">
-        <v>143.59</v>
+        <v>43820</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>254.02</v>
-      </c>
-      <c r="D22">
-        <v>-43.47</v>
+        <v>217.71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43791</v>
-      </c>
-      <c r="B23">
-        <v>136.41</v>
+        <v>43821</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>254.02</v>
-      </c>
-      <c r="D23">
-        <v>-46.3</v>
+        <v>217.71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43792</v>
-      </c>
-      <c r="B24">
-        <v>130.94</v>
+        <v>43822</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>254.02</v>
-      </c>
-      <c r="D24">
-        <v>-48.45</v>
+        <v>217.71</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43793</v>
-      </c>
-      <c r="B25">
-        <v>126.1</v>
+        <v>43823</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>254.02</v>
-      </c>
-      <c r="D25">
-        <v>-50.36</v>
+        <v>217.71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43794</v>
-      </c>
-      <c r="B26">
-        <v>121.92</v>
+        <v>43824</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>254.02</v>
-      </c>
-      <c r="D26">
-        <v>-52</v>
+        <v>217.71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43795</v>
-      </c>
-      <c r="B27">
-        <v>120</v>
+        <v>43825</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>254.02</v>
-      </c>
-      <c r="D27">
-        <v>-52.76</v>
+        <v>217.71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43796</v>
-      </c>
-      <c r="B28">
-        <v>141.96</v>
+        <v>43826</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>254.02</v>
-      </c>
-      <c r="D28">
-        <v>-44.12</v>
+        <v>217.71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43797</v>
-      </c>
-      <c r="B29">
-        <v>267.65</v>
+        <v>43827</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>254.02</v>
-      </c>
-      <c r="D29">
-        <v>5.37</v>
+        <v>217.71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43798</v>
-      </c>
-      <c r="B30">
-        <v>215.57</v>
+        <v>43828</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>254.02</v>
-      </c>
-      <c r="D30">
-        <v>-15.14</v>
+        <v>217.71</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43799</v>
-      </c>
-      <c r="B31">
-        <v>177.61</v>
+        <v>43829</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>254.02</v>
-      </c>
-      <c r="D31">
-        <v>-30.08</v>
+        <v>217.71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B32">
-        <v>157.42</v>
+        <v>43830</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
       </c>
       <c r="C32">
         <v>217.71</v>
       </c>
-      <c r="D32">
-        <v>-27.69</v>
+      <c r="D32" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B33">
-        <v>143.88</v>
+        <v>43831</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>217.71</v>
-      </c>
-      <c r="D33">
-        <v>-33.91</v>
+        <v>205.8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B34">
-        <v>138.09</v>
+        <v>43832</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>217.71</v>
-      </c>
-      <c r="D34">
-        <v>-36.57</v>
+        <v>205.8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B35">
-        <v>139.5</v>
+        <v>43833</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>217.71</v>
-      </c>
-      <c r="D35">
-        <v>-35.92</v>
+        <v>205.8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B36">
-        <v>162</v>
+        <v>43834</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>217.71</v>
-      </c>
-      <c r="D36">
-        <v>-25.59</v>
+        <v>205.8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B37">
-        <v>170.92</v>
+        <v>43835</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>217.71</v>
-      </c>
-      <c r="D37">
-        <v>-21.49</v>
+        <v>205.8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B38">
-        <v>158.12</v>
+        <v>43836</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>217.71</v>
-      </c>
-      <c r="D38">
-        <v>-27.37</v>
+        <v>205.8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B39">
-        <v>143.38</v>
+        <v>43837</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>217.71</v>
-      </c>
-      <c r="D39">
-        <v>-34.14</v>
+        <v>205.8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43808</v>
-      </c>
-      <c r="B40">
-        <v>138.14</v>
+        <v>43838</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>217.71</v>
-      </c>
-      <c r="D40">
-        <v>-36.55</v>
+        <v>205.8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B41">
-        <v>135.05</v>
+        <v>108.1</v>
       </c>
       <c r="C41">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D41">
-        <v>-37.97</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B42">
-        <v>130.6</v>
+        <v>108.83</v>
       </c>
       <c r="C42">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D42">
-        <v>-40.01</v>
+        <v>-47.12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B43">
-        <v>129</v>
+        <v>118.23</v>
       </c>
       <c r="C43">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D43">
-        <v>-40.75</v>
+        <v>-42.55</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B44">
-        <v>124.67</v>
+        <v>156.21</v>
       </c>
       <c r="C44">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D44">
-        <v>-42.74</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B45">
-        <v>123.92</v>
+        <v>173.29</v>
       </c>
       <c r="C45">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D45">
-        <v>-43.08</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B46">
-        <v>120.71</v>
+        <v>152.58</v>
       </c>
       <c r="C46">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D46">
-        <v>-44.55</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B47">
-        <v>145.35</v>
+        <v>141.92</v>
       </c>
       <c r="C47">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D47">
-        <v>-33.24</v>
+        <v>-31.04</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B48">
-        <v>250.95</v>
+        <v>136.11</v>
       </c>
       <c r="C48">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D48">
-        <v>15.27</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B49">
-        <v>251.93</v>
+        <v>199.88</v>
       </c>
       <c r="C49">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D49">
-        <v>15.72</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B50" t="s">
-        <v>4</v>
+        <v>43848</v>
+      </c>
+      <c r="B50">
+        <v>268.25</v>
       </c>
       <c r="C50">
-        <v>217.71</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D50">
+        <v>30.35</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B51" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B51">
+        <v>186.62</v>
       </c>
       <c r="C51">
-        <v>217.71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D51">
+        <v>-9.32</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
+        <v>43850</v>
+      </c>
+      <c r="B52">
+        <v>157.04</v>
       </c>
       <c r="C52">
-        <v>217.71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D52">
+        <v>-23.69</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
+        <v>43851</v>
+      </c>
+      <c r="B53">
+        <v>141.12</v>
       </c>
       <c r="C53">
-        <v>217.71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D53">
+        <v>-31.43</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B54" t="s">
-        <v>4</v>
+        <v>43852</v>
+      </c>
+      <c r="B54">
+        <v>131.83</v>
       </c>
       <c r="C54">
-        <v>217.71</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D54">
+        <v>-35.94</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
+        <v>43853</v>
+      </c>
+      <c r="B55">
+        <v>126.7</v>
       </c>
       <c r="C55">
-        <v>217.71</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D55">
+        <v>-38.44</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43824</v>
-      </c>
-      <c r="B56" t="s">
-        <v>4</v>
+        <v>43854</v>
+      </c>
+      <c r="B56">
+        <v>125.38</v>
       </c>
       <c r="C56">
-        <v>217.71</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D56">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43825</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
+        <v>43855</v>
+      </c>
+      <c r="B57">
+        <v>128.12</v>
       </c>
       <c r="C57">
-        <v>217.71</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D57">
+        <v>-37.74</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43826</v>
-      </c>
-      <c r="B58" t="s">
-        <v>4</v>
+        <v>43856</v>
+      </c>
+      <c r="B58">
+        <v>124.04</v>
       </c>
       <c r="C58">
-        <v>217.71</v>
-      </c>
-      <c r="D58" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D58">
+        <v>-39.73</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43827</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
+        <v>43857</v>
+      </c>
+      <c r="B59">
+        <v>118.61</v>
       </c>
       <c r="C59">
-        <v>217.71</v>
-      </c>
-      <c r="D59" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D59">
+        <v>-42.37</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43828</v>
-      </c>
-      <c r="B60" t="s">
-        <v>4</v>
+        <v>43858</v>
+      </c>
+      <c r="B60">
+        <v>114.5</v>
       </c>
       <c r="C60">
-        <v>217.71</v>
-      </c>
-      <c r="D60" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D60">
+        <v>-44.36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43829</v>
-      </c>
-      <c r="B61" t="s">
-        <v>4</v>
+        <v>43859</v>
+      </c>
+      <c r="B61">
+        <v>111.46</v>
       </c>
       <c r="C61">
-        <v>217.71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D61">
+        <v>-45.84</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B62" t="s">
-        <v>4</v>
+        <v>43860</v>
+      </c>
+      <c r="B62">
+        <v>131.61</v>
       </c>
       <c r="C62">
-        <v>217.71</v>
-      </c>
-      <c r="D62" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D62">
+        <v>-36.05</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
+        <v>43861</v>
+      </c>
+      <c r="B63">
+        <v>876.26</v>
       </c>
       <c r="C63">
         <v>205.8</v>
       </c>
-      <c r="D63" t="s">
-        <v>4</v>
+      <c r="D63">
+        <v>325.78</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B64" t="s">
-        <v>4</v>
+        <v>43862</v>
+      </c>
+      <c r="B64">
+        <v>695.87</v>
       </c>
       <c r="C64">
-        <v>205.8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D64">
+        <v>218.37</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B65" t="s">
-        <v>4</v>
+        <v>43863</v>
+      </c>
+      <c r="B65">
+        <v>247.09</v>
       </c>
       <c r="C65">
-        <v>205.8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D65">
+        <v>13.05</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43834</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
+        <v>43864</v>
+      </c>
+      <c r="B66">
+        <v>253.14</v>
       </c>
       <c r="C66">
-        <v>205.8</v>
-      </c>
-      <c r="D66" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D66">
+        <v>15.82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
+        <v>43865</v>
+      </c>
+      <c r="B67">
+        <v>321</v>
       </c>
       <c r="C67">
-        <v>205.8</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D67">
+        <v>46.86</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43836</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+        <v>43866</v>
+      </c>
+      <c r="B68">
+        <v>212.33</v>
       </c>
       <c r="C68">
-        <v>205.8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D68">
+        <v>-2.85</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
+        <v>43867</v>
+      </c>
+      <c r="B69">
+        <v>175.48</v>
       </c>
       <c r="C69">
-        <v>205.8</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D69">
+        <v>-19.72</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+        <v>43868</v>
+      </c>
+      <c r="B70">
+        <v>156.87</v>
       </c>
       <c r="C70">
-        <v>205.8</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D70">
+        <v>-28.23</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B71">
-        <v>108.1</v>
+        <v>144</v>
       </c>
       <c r="C71">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D71">
-        <v>-47.47</v>
+        <v>-34.12</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B72">
-        <v>108.83</v>
+        <v>140.65</v>
       </c>
       <c r="C72">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D72">
-        <v>-47.12</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B73">
-        <v>118.23</v>
+        <v>135.3</v>
       </c>
       <c r="C73">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D73">
-        <v>-42.55</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B74">
-        <v>156.21</v>
+        <v>136.46</v>
       </c>
       <c r="C74">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D74">
-        <v>-24.1</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B75">
-        <v>173.29</v>
+        <v>130.39</v>
       </c>
       <c r="C75">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D75">
-        <v>-15.8</v>
+        <v>-40.34</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B76">
-        <v>152.58</v>
+        <v>125.58</v>
       </c>
       <c r="C76">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D76">
-        <v>-25.86</v>
+        <v>-42.54</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B77">
-        <v>141.92</v>
+        <v>124.65</v>
       </c>
       <c r="C77">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D77">
-        <v>-31.04</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B78">
-        <v>136.11</v>
+        <v>122.29</v>
       </c>
       <c r="C78">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D78">
-        <v>-33.86</v>
+        <v>-44.05</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B79">
-        <v>199.88</v>
+        <v>118.13</v>
       </c>
       <c r="C79">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D79">
-        <v>-2.88</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B80">
-        <v>268.25</v>
+        <v>116.09</v>
       </c>
       <c r="C80">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D80">
-        <v>30.35</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B81">
-        <v>186.62</v>
+        <v>114.46</v>
       </c>
       <c r="C81">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D81">
-        <v>-9.32</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B82">
-        <v>157.04</v>
+        <v>113.86</v>
       </c>
       <c r="C82">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D82">
-        <v>-23.69</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B83">
-        <v>141.12</v>
+        <v>115.7</v>
       </c>
       <c r="C83">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D83">
-        <v>-31.43</v>
+        <v>-47.07</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B84">
-        <v>131.83</v>
+        <v>112.43</v>
       </c>
       <c r="C84">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D84">
-        <v>-35.94</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B85">
-        <v>126.7</v>
+        <v>110.58</v>
       </c>
       <c r="C85">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D85">
-        <v>-38.44</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B86">
-        <v>125.38</v>
+        <v>108.75</v>
       </c>
       <c r="C86">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D86">
-        <v>-39.08</v>
+        <v>-50.24</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B87">
-        <v>128.12</v>
+        <v>106.78</v>
       </c>
       <c r="C87">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D87">
-        <v>-37.74</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B88">
-        <v>124.04</v>
+        <v>110.83</v>
       </c>
       <c r="C88">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D88">
-        <v>-39.73</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B89">
-        <v>118.61</v>
+        <v>148.38</v>
       </c>
       <c r="C89">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D89">
-        <v>-42.37</v>
+        <v>-32.12</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B90">
-        <v>114.5</v>
+        <v>253</v>
       </c>
       <c r="C90">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D90">
-        <v>-44.36</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B91">
-        <v>111.46</v>
+        <v>184.96</v>
       </c>
       <c r="C91">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D91">
-        <v>-45.84</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B92">
-        <v>131.61</v>
+        <v>157.75</v>
       </c>
       <c r="C92">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D92">
-        <v>-36.05</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B93">
-        <v>876.26</v>
+        <v>142.96</v>
       </c>
       <c r="C93">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D93">
-        <v>325.78</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B94">
-        <v>695.87</v>
+        <v>133</v>
       </c>
       <c r="C94">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D94">
-        <v>218.37</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B95">
-        <v>247.09</v>
+        <v>126.26</v>
       </c>
       <c r="C95">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D95">
-        <v>13.05</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B96">
-        <v>253.14</v>
+        <v>121.83</v>
       </c>
       <c r="C96">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D96">
-        <v>15.82</v>
+        <v>-32.46</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B97">
-        <v>321</v>
+        <v>118.7</v>
       </c>
       <c r="C97">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D97">
-        <v>46.86</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B98">
-        <v>212.33</v>
+        <v>116.17</v>
       </c>
       <c r="C98">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D98">
-        <v>-2.85</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B99">
-        <v>175.48</v>
+        <v>113.91</v>
       </c>
       <c r="C99">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D99">
-        <v>-19.72</v>
+        <v>-36.85</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B100">
-        <v>156.87</v>
+        <v>112.86</v>
       </c>
       <c r="C100">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D100">
-        <v>-28.23</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B101">
-        <v>144</v>
+        <v>111.54</v>
       </c>
       <c r="C101">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D101">
-        <v>-34.12</v>
+        <v>-38.17</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B102">
-        <v>140.65</v>
+        <v>109.12</v>
       </c>
       <c r="C102">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D102">
-        <v>-35.65</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B103">
-        <v>135.3</v>
+        <v>107.5</v>
       </c>
       <c r="C103">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D103">
-        <v>-38.1</v>
+        <v>-40.41</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B104">
-        <v>136.46</v>
+        <v>106.17</v>
       </c>
       <c r="C104">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D104">
-        <v>-37.57</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B105">
-        <v>130.39</v>
+        <v>104.96</v>
       </c>
       <c r="C105">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D105">
-        <v>-40.34</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>125.58</v>
+        <v>104.21</v>
       </c>
       <c r="C106">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D106">
-        <v>-42.54</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>124.65</v>
+        <v>103.43</v>
       </c>
       <c r="C107">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D107">
-        <v>-42.97</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>122.29</v>
+        <v>102.5</v>
       </c>
       <c r="C108">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D108">
-        <v>-44.05</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>118.13</v>
+        <v>101.48</v>
       </c>
       <c r="C109">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D109">
-        <v>-45.95</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B110">
-        <v>116.09</v>
+        <v>106.39</v>
       </c>
       <c r="C110">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D110">
-        <v>-46.89</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B111">
-        <v>114.46</v>
+        <v>145.17</v>
       </c>
       <c r="C111">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D111">
-        <v>-47.63</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B112">
-        <v>113.86</v>
+        <v>183.46</v>
       </c>
       <c r="C112">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D112">
-        <v>-47.91</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B113">
-        <v>115.7</v>
+        <v>152.83</v>
       </c>
       <c r="C113">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D113">
-        <v>-47.07</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B114">
-        <v>112.43</v>
+        <v>138.67</v>
       </c>
       <c r="C114">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D114">
-        <v>-48.56</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>110.58</v>
+        <v>129.36</v>
       </c>
       <c r="C115">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D115">
-        <v>-49.41</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B116">
-        <v>108.75</v>
+        <v>123.21</v>
       </c>
       <c r="C116">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D116">
-        <v>-50.24</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B117">
-        <v>106.78</v>
+        <v>118.71</v>
       </c>
       <c r="C117">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D117">
-        <v>-51.14</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B118">
-        <v>110.83</v>
+        <v>115.42</v>
       </c>
       <c r="C118">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D118">
-        <v>-49.29</v>
+        <v>-36.02</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B119">
-        <v>148.38</v>
+        <v>112.87</v>
       </c>
       <c r="C119">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D119">
-        <v>-32.12</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B120">
-        <v>253</v>
+        <v>111.29</v>
       </c>
       <c r="C120">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D120">
-        <v>15.75</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B121">
-        <v>184.96</v>
+        <v>110.33</v>
       </c>
       <c r="C121">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D121">
-        <v>-15.38</v>
+        <v>-38.84</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B122">
-        <v>157.75</v>
+        <v>109.58</v>
       </c>
       <c r="C122">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D122">
-        <v>-27.83</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B123">
-        <v>142.96</v>
+        <v>108.54</v>
       </c>
       <c r="C123">
         <v>180.39</v>
       </c>
       <c r="D123">
-        <v>-20.75</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B124">
-        <v>133</v>
+        <v>107.96</v>
       </c>
       <c r="C124">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D124">
-        <v>-26.27</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B125">
-        <v>126.26</v>
+        <v>107.3</v>
       </c>
       <c r="C125">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D125">
-        <v>-30.01</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B126">
-        <v>121.83</v>
+        <v>106.27</v>
       </c>
       <c r="C126">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D126">
-        <v>-32.46</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B127">
-        <v>118.7</v>
+        <v>105.43</v>
       </c>
       <c r="C127">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D127">
-        <v>-34.2</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B128">
-        <v>116.17</v>
+        <v>104.65</v>
       </c>
       <c r="C128">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D128">
-        <v>-35.6</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B129">
-        <v>113.91</v>
+        <v>43927</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
       </c>
       <c r="C129">
-        <v>180.39</v>
-      </c>
-      <c r="D129">
-        <v>-36.85</v>
+        <v>198.56</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43898</v>
-      </c>
-      <c r="B130">
-        <v>112.86</v>
+        <v>43928</v>
+      </c>
+      <c r="B130" t="s">
+        <v>4</v>
       </c>
       <c r="C130">
-        <v>180.39</v>
-      </c>
-      <c r="D130">
-        <v>-37.43</v>
+        <v>198.56</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B131">
-        <v>111.54</v>
+        <v>113.41</v>
       </c>
       <c r="C131">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D131">
-        <v>-38.17</v>
+        <v>-42.88</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B132">
-        <v>109.12</v>
+        <v>115.33</v>
       </c>
       <c r="C132">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D132">
-        <v>-39.51</v>
+        <v>-41.92</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B133">
-        <v>107.5</v>
+        <v>114.96</v>
       </c>
       <c r="C133">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D133">
-        <v>-40.41</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B134">
-        <v>106.17</v>
+        <v>111.71</v>
       </c>
       <c r="C134">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D134">
-        <v>-41.15</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B135">
-        <v>104.96</v>
+        <v>109.58</v>
       </c>
       <c r="C135">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D135">
-        <v>-41.81</v>
+        <v>-44.81</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B136">
-        <v>104.21</v>
+        <v>107.86</v>
       </c>
       <c r="C136">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D136">
-        <v>-42.23</v>
+        <v>-45.68</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B137">
-        <v>103.43</v>
+        <v>109.69</v>
       </c>
       <c r="C137">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D137">
-        <v>-42.66</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B138">
-        <v>102.5</v>
+        <v>108.68</v>
       </c>
       <c r="C138">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D138">
-        <v>-43.18</v>
+        <v>-45.27</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B139">
-        <v>101.48</v>
+        <v>106.59</v>
       </c>
       <c r="C139">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D139">
-        <v>-43.74</v>
+        <v>-46.32</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B140">
-        <v>106.39</v>
+        <v>111.16</v>
       </c>
       <c r="C140">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D140">
-        <v>-41.02</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B141">
-        <v>145.17</v>
+        <v>110.43</v>
       </c>
       <c r="C141">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D141">
-        <v>-19.52</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B142">
-        <v>183.46</v>
+        <v>108.26</v>
       </c>
       <c r="C142">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D142">
-        <v>1.7</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B143">
-        <v>152.83</v>
+        <v>106.5</v>
       </c>
       <c r="C143">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D143">
-        <v>-15.28</v>
+        <v>-46.36</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B144">
-        <v>138.67</v>
+        <v>104.91</v>
       </c>
       <c r="C144">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D144">
-        <v>-23.13</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B145">
-        <v>129.36</v>
+        <v>103.62</v>
       </c>
       <c r="C145">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D145">
-        <v>-28.29</v>
+        <v>-47.81</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B146">
-        <v>123.21</v>
+        <v>102.91</v>
       </c>
       <c r="C146">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D146">
-        <v>-31.7</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B147">
-        <v>118.71</v>
+        <v>102.22</v>
       </c>
       <c r="C147">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D147">
-        <v>-34.19</v>
+        <v>-48.52</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B148">
-        <v>115.42</v>
+        <v>101.35</v>
       </c>
       <c r="C148">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D148">
-        <v>-36.02</v>
+        <v>-48.96</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B149">
-        <v>112.87</v>
+        <v>100.46</v>
       </c>
       <c r="C149">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D149">
-        <v>-37.43</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B150">
-        <v>111.29</v>
+        <v>100</v>
       </c>
       <c r="C150">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D150">
-        <v>-38.3</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B151">
-        <v>110.33</v>
+        <v>100</v>
       </c>
       <c r="C151">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D151">
-        <v>-38.84</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B152">
-        <v>109.58</v>
+        <v>43950</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>180.39</v>
-      </c>
-      <c r="D152">
-        <v>-39.25</v>
+        <v>198.56</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B153">
-        <v>108.54</v>
+        <v>43951</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
       </c>
       <c r="C153">
-        <v>180.39</v>
-      </c>
-      <c r="D153">
-        <v>-39.83</v>
+        <v>198.56</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B154">
-        <v>107.96</v>
+        <v>43952</v>
+      </c>
+      <c r="B154" t="s">
+        <v>4</v>
       </c>
       <c r="C154">
-        <v>198.56</v>
-      </c>
-      <c r="D154">
-        <v>-45.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B155">
-        <v>107.3</v>
+        <v>43953</v>
+      </c>
+      <c r="B155" t="s">
+        <v>4</v>
       </c>
       <c r="C155">
-        <v>198.56</v>
-      </c>
-      <c r="D155">
-        <v>-45.96</v>
+        <v>279.37</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B156">
-        <v>106.27</v>
+        <v>43954</v>
+      </c>
+      <c r="B156" t="s">
+        <v>4</v>
       </c>
       <c r="C156">
-        <v>198.56</v>
-      </c>
-      <c r="D156">
-        <v>-46.48</v>
+        <v>279.37</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43925</v>
-      </c>
-      <c r="B157">
-        <v>105.43</v>
+        <v>43955</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>198.56</v>
-      </c>
-      <c r="D157">
-        <v>-46.9</v>
+        <v>279.37</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B158">
-        <v>104.65</v>
+        <v>100.33</v>
       </c>
       <c r="C158">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D158">
-        <v>-47.3</v>
+        <v>-64.09</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B159" t="s">
-        <v>4</v>
+        <v>43957</v>
+      </c>
+      <c r="B159">
+        <v>102.96</v>
       </c>
       <c r="C159">
-        <v>198.56</v>
-      </c>
-      <c r="D159" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D159">
+        <v>-63.15</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B160" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B160">
+        <v>105.61</v>
       </c>
       <c r="C160">
-        <v>198.56</v>
-      </c>
-      <c r="D160" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D160">
+        <v>-62.2</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B161">
-        <v>113.41</v>
+        <v>105.83</v>
       </c>
       <c r="C161">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D161">
-        <v>-42.88</v>
+        <v>-62.12</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B162">
-        <v>115.33</v>
+        <v>114.83</v>
       </c>
       <c r="C162">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D162">
-        <v>-41.92</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B163">
-        <v>114.96</v>
+        <v>111.43</v>
       </c>
       <c r="C163">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D163">
-        <v>-42.1</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B164">
-        <v>111.71</v>
+        <v>108.26</v>
       </c>
       <c r="C164">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D164">
-        <v>-43.74</v>
+        <v>-61.25</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B165">
-        <v>109.58</v>
+        <v>107.38</v>
       </c>
       <c r="C165">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D165">
-        <v>-44.81</v>
+        <v>-61.57</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B166">
-        <v>107.86</v>
+        <v>168.96</v>
       </c>
       <c r="C166">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D166">
-        <v>-45.68</v>
+        <v>-39.52</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B167">
-        <v>109.69</v>
+        <v>442.05</v>
       </c>
       <c r="C167">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D167">
-        <v>-44.76</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B168">
-        <v>108.68</v>
+        <v>383.78</v>
       </c>
       <c r="C168">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D168">
-        <v>-45.27</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>106.59</v>
+        <v>213.5</v>
       </c>
       <c r="C169">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D169">
-        <v>-46.32</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B170">
-        <v>111.16</v>
+        <v>177.5</v>
       </c>
       <c r="C170">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D170">
-        <v>-44.02</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B171">
-        <v>110.43</v>
+        <v>158.13</v>
       </c>
       <c r="C171">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D171">
-        <v>-44.39</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B172">
-        <v>108.26</v>
+        <v>145.96</v>
       </c>
       <c r="C172">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D172">
-        <v>-45.48</v>
+        <v>-47.76</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B173">
-        <v>106.5</v>
+        <v>136.83</v>
       </c>
       <c r="C173">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D173">
-        <v>-46.36</v>
+        <v>-51.02</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B174">
-        <v>104.91</v>
+        <v>130.61</v>
       </c>
       <c r="C174">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D174">
-        <v>-47.16</v>
+        <v>-53.25</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B175">
-        <v>103.62</v>
+        <v>448.62</v>
       </c>
       <c r="C175">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D175">
-        <v>-47.81</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B176">
-        <v>102.91</v>
+        <v>1052.78</v>
       </c>
       <c r="C176">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D176">
-        <v>-48.17</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B177">
-        <v>102.22</v>
+        <v>927.75</v>
       </c>
       <c r="C177">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D177">
-        <v>-48.52</v>
+        <v>232.09</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B178">
-        <v>101.35</v>
+        <v>454.12</v>
       </c>
       <c r="C178">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D178">
-        <v>-48.96</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B179">
-        <v>100.46</v>
+        <v>291.38</v>
       </c>
       <c r="C179">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D179">
-        <v>-49.41</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B180">
-        <v>100</v>
+        <v>231.67</v>
       </c>
       <c r="C180">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D180">
-        <v>-49.64</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B181">
-        <v>100</v>
+        <v>201.75</v>
       </c>
       <c r="C181">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D181">
-        <v>-49.64</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B182" t="s">
-        <v>4</v>
+        <v>43980</v>
+      </c>
+      <c r="B182">
+        <v>183.54</v>
       </c>
       <c r="C182">
-        <v>198.56</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D182">
+        <v>-34.3</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4</v>
+        <v>43981</v>
+      </c>
+      <c r="B183">
+        <v>170.25</v>
       </c>
       <c r="C183">
-        <v>198.56</v>
-      </c>
-      <c r="D183" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D183">
+        <v>-39.06</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B184" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B184">
+        <v>160.67</v>
       </c>
       <c r="C184">
         <v>279.37</v>
       </c>
-      <c r="D184" t="s">
-        <v>4</v>
+      <c r="D184">
+        <v>-42.49</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B185" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B185">
+        <v>155.43</v>
       </c>
       <c r="C185">
-        <v>279.37</v>
-      </c>
-      <c r="D185" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D185">
+        <v>-36.54</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B186" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B186">
+        <v>151.5</v>
       </c>
       <c r="C186">
-        <v>279.37</v>
-      </c>
-      <c r="D186" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D186">
+        <v>-38.14</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B187">
+        <v>147.78</v>
       </c>
       <c r="C187">
-        <v>279.37</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D187">
+        <v>-39.66</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B188">
-        <v>100.33</v>
+        <v>152.05</v>
       </c>
       <c r="C188">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D188">
-        <v>-64.09</v>
+        <v>-37.92</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B189">
-        <v>102.96</v>
+        <v>278.05</v>
       </c>
       <c r="C189">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D189">
-        <v>-63.15</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B190">
-        <v>105.61</v>
+        <v>708</v>
       </c>
       <c r="C190">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D190">
-        <v>-62.2</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B191">
-        <v>105.83</v>
+        <v>737.22</v>
       </c>
       <c r="C191">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D191">
-        <v>-62.12</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B192">
-        <v>114.83</v>
+        <v>401.87</v>
       </c>
       <c r="C192">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D192">
-        <v>-58.9</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B193">
-        <v>111.43</v>
+        <v>293.75</v>
       </c>
       <c r="C193">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D193">
-        <v>-60.11</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B194">
-        <v>108.26</v>
+        <v>506.38</v>
       </c>
       <c r="C194">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D194">
-        <v>-61.25</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B195">
-        <v>107.38</v>
+        <v>809.77</v>
       </c>
       <c r="C195">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D195">
-        <v>-61.57</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B196">
-        <v>168.96</v>
+        <v>749.96</v>
       </c>
       <c r="C196">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D196">
-        <v>-39.52</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B197">
-        <v>442.05</v>
+        <v>455.09</v>
       </c>
       <c r="C197">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D197">
-        <v>58.23</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B198">
-        <v>383.78</v>
+        <v>337.83</v>
       </c>
       <c r="C198">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D198">
-        <v>37.37</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B199">
-        <v>213.5</v>
+        <v>307.09</v>
       </c>
       <c r="C199">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D199">
-        <v>-23.58</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B200">
-        <v>177.5</v>
+        <v>254.1</v>
       </c>
       <c r="C200">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D200">
-        <v>-36.46</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B201">
-        <v>158.13</v>
+        <v>215.79</v>
       </c>
       <c r="C201">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D201">
-        <v>-43.4</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B202">
-        <v>145.96</v>
+        <v>194.35</v>
       </c>
       <c r="C202">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D202">
-        <v>-47.76</v>
+        <v>-20.65</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B203">
-        <v>136.83</v>
+        <v>180.04</v>
       </c>
       <c r="C203">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D203">
-        <v>-51.02</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B204">
-        <v>130.61</v>
+        <v>169.22</v>
       </c>
       <c r="C204">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D204">
-        <v>-53.25</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B205">
-        <v>448.62</v>
+        <v>160.87</v>
       </c>
       <c r="C205">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D205">
-        <v>60.58</v>
+        <v>-34.32</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B206">
-        <v>1052.78</v>
+        <v>154</v>
       </c>
       <c r="C206">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D206">
-        <v>276.84</v>
+        <v>-37.12</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B207">
-        <v>927.75</v>
+        <v>148.7</v>
       </c>
       <c r="C207">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D207">
-        <v>232.09</v>
+        <v>-39.29</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B208">
-        <v>454.12</v>
+        <v>144.04</v>
       </c>
       <c r="C208">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D208">
-        <v>62.55</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B209">
-        <v>291.38</v>
+        <v>140.62</v>
       </c>
       <c r="C209">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D209">
-        <v>4.3</v>
+        <v>-42.59</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B210">
-        <v>231.67</v>
+        <v>139.21</v>
       </c>
       <c r="C210">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D210">
-        <v>-17.08</v>
+        <v>-43.16</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B211">
-        <v>201.75</v>
+        <v>141.21</v>
       </c>
       <c r="C211">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D211">
-        <v>-27.78</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B212">
-        <v>183.54</v>
+        <v>139.58</v>
       </c>
       <c r="C212">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D212">
-        <v>-34.3</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B213">
-        <v>170.25</v>
+        <v>135.83</v>
       </c>
       <c r="C213">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D213">
-        <v>-39.06</v>
+        <v>-44.54</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B214">
-        <v>160.67</v>
+        <v>143.32</v>
       </c>
       <c r="C214">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D214">
-        <v>-42.49</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B215">
-        <v>155.43</v>
+        <v>410.33</v>
       </c>
       <c r="C215">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D215">
-        <v>-36.54</v>
+        <v>104.93</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B216">
-        <v>151.5</v>
+        <v>347.95</v>
       </c>
       <c r="C216">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D216">
-        <v>-38.14</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B217">
-        <v>147.78</v>
+        <v>232.13</v>
       </c>
       <c r="C217">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D217">
-        <v>-39.66</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B218">
-        <v>152.05</v>
+        <v>197.04</v>
       </c>
       <c r="C218">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D218">
-        <v>-37.92</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B219">
-        <v>278.05</v>
+        <v>177.77</v>
       </c>
       <c r="C219">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D219">
-        <v>13.52</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B220">
-        <v>708</v>
+        <v>165.75</v>
       </c>
       <c r="C220">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D220">
-        <v>189.07</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B221">
-        <v>737.22</v>
+        <v>212.75</v>
       </c>
       <c r="C221">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D221">
-        <v>200.99</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B222">
-        <v>401.87</v>
+        <v>231.5</v>
       </c>
       <c r="C222">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D222">
-        <v>64.08</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B223">
-        <v>293.75</v>
+        <v>652.21</v>
       </c>
       <c r="C223">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D223">
-        <v>19.93</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B224">
-        <v>506.38</v>
+        <v>520.58</v>
       </c>
       <c r="C224">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D224">
-        <v>106.75</v>
+        <v>160</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B225">
-        <v>809.77</v>
+        <v>294.38</v>
       </c>
       <c r="C225">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D225">
-        <v>230.62</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B226">
-        <v>749.96</v>
+        <v>232.52</v>
       </c>
       <c r="C226">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D226">
-        <v>206.2</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B227">
-        <v>455.09</v>
+        <v>203.83</v>
       </c>
       <c r="C227">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D227">
-        <v>85.81</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B228">
-        <v>337.83</v>
+        <v>187.29</v>
       </c>
       <c r="C228">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D228">
-        <v>37.93</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B229">
-        <v>307.09</v>
+        <v>174.42</v>
       </c>
       <c r="C229">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D229">
-        <v>25.38</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B230">
-        <v>254.1</v>
+        <v>162.92</v>
       </c>
       <c r="C230">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D230">
-        <v>3.74</v>
+        <v>-18.63</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B231">
-        <v>215.79</v>
+        <v>155.3</v>
       </c>
       <c r="C231">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D231">
-        <v>-11.9</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B232">
-        <v>194.35</v>
+        <v>150.17</v>
       </c>
       <c r="C232">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D232">
-        <v>-20.65</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B233">
-        <v>180.04</v>
+        <v>144.33</v>
       </c>
       <c r="C233">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D233">
-        <v>-26.49</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B234">
-        <v>169.22</v>
+        <v>139.68</v>
       </c>
       <c r="C234">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D234">
-        <v>-30.91</v>
+        <v>-30.24</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B235">
-        <v>160.87</v>
+        <v>135.79</v>
       </c>
       <c r="C235">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D235">
-        <v>-34.32</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B236">
-        <v>154</v>
+        <v>132.7</v>
       </c>
       <c r="C236">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D236">
-        <v>-37.12</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B237">
-        <v>148.7</v>
+        <v>130.32</v>
       </c>
       <c r="C237">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D237">
-        <v>-39.29</v>
+        <v>-34.91</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B238">
-        <v>144.04</v>
+        <v>128.14</v>
       </c>
       <c r="C238">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D238">
-        <v>-41.19</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B239">
-        <v>140.62</v>
+        <v>126.32</v>
       </c>
       <c r="C239">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D239">
-        <v>-42.59</v>
+        <v>-36.91</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B240">
-        <v>139.21</v>
+        <v>125</v>
       </c>
       <c r="C240">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D240">
-        <v>-43.16</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B241">
-        <v>141.21</v>
+        <v>124.48</v>
       </c>
       <c r="C241">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D241">
-        <v>-42.35</v>
+        <v>-37.83</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B242">
-        <v>139.58</v>
+        <v>124.22</v>
       </c>
       <c r="C242">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D242">
-        <v>-43.01</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B243">
-        <v>135.83</v>
+        <v>123.42</v>
       </c>
       <c r="C243">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D243">
-        <v>-44.54</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B244">
-        <v>143.32</v>
+        <v>126.82</v>
       </c>
       <c r="C244">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D244">
-        <v>-41.49</v>
+        <v>-36.66</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B245">
-        <v>410.33</v>
+        <v>133.04</v>
       </c>
       <c r="C245">
         <v>200.23</v>
       </c>
       <c r="D245">
-        <v>104.93</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B246">
-        <v>347.95</v>
+        <v>127.43</v>
       </c>
       <c r="C246">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D246">
-        <v>73.78</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B247">
-        <v>232.13</v>
+        <v>124.04</v>
       </c>
       <c r="C247">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D247">
-        <v>15.93</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B248">
-        <v>197.04</v>
+        <v>121.65</v>
       </c>
       <c r="C248">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D248">
-        <v>-1.59</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B249">
-        <v>177.77</v>
+        <v>119.62</v>
       </c>
       <c r="C249">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D249">
-        <v>-11.21</v>
+        <v>-37.19</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B250">
-        <v>165.75</v>
+        <v>118.5</v>
       </c>
       <c r="C250">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D250">
-        <v>-17.22</v>
+        <v>-37.78</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B251">
-        <v>212.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>200.23</v>
-      </c>
-      <c r="D251">
-        <v>6.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B252">
-        <v>231.5</v>
+        <v>44050</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>200.23</v>
-      </c>
-      <c r="D252">
-        <v>15.62</v>
+        <v>190.45</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B253">
-        <v>652.21</v>
+        <v>44051</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
       </c>
       <c r="C253">
-        <v>200.23</v>
-      </c>
-      <c r="D253">
-        <v>225.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B254">
-        <v>520.58</v>
+        <v>44052</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
       </c>
       <c r="C254">
-        <v>200.23</v>
-      </c>
-      <c r="D254">
-        <v>160</v>
+        <v>190.45</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B255">
-        <v>294.38</v>
+        <v>44053</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
       </c>
       <c r="C255">
-        <v>200.23</v>
-      </c>
-      <c r="D255">
-        <v>47.02</v>
+        <v>190.45</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B256">
-        <v>232.52</v>
+        <v>44054</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
       </c>
       <c r="C256">
-        <v>200.23</v>
-      </c>
-      <c r="D256">
-        <v>16.13</v>
+        <v>190.45</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B257">
-        <v>203.83</v>
+        <v>44055</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
       </c>
       <c r="C257">
-        <v>200.23</v>
-      </c>
-      <c r="D257">
-        <v>1.8</v>
+        <v>190.45</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B258">
-        <v>187.29</v>
+        <v>44056</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
       </c>
       <c r="C258">
-        <v>200.23</v>
-      </c>
-      <c r="D258">
-        <v>-6.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B259">
-        <v>174.42</v>
+        <v>44057</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
       </c>
       <c r="C259">
-        <v>200.23</v>
-      </c>
-      <c r="D259">
-        <v>-12.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B260">
-        <v>162.92</v>
+        <v>44058</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>200.23</v>
-      </c>
-      <c r="D260">
-        <v>-18.63</v>
+        <v>190.45</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B261">
-        <v>155.3</v>
+        <v>44059</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
       </c>
       <c r="C261">
-        <v>200.23</v>
-      </c>
-      <c r="D261">
-        <v>-22.44</v>
+        <v>190.45</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B262">
-        <v>150.17</v>
+        <v>44060</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
       </c>
       <c r="C262">
-        <v>200.23</v>
-      </c>
-      <c r="D262">
-        <v>-25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B263">
-        <v>144.33</v>
+        <v>44061</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
       </c>
       <c r="C263">
-        <v>200.23</v>
-      </c>
-      <c r="D263">
-        <v>-27.92</v>
+        <v>190.45</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B264">
-        <v>139.68</v>
+        <v>44062</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
       </c>
       <c r="C264">
-        <v>200.23</v>
-      </c>
-      <c r="D264">
-        <v>-30.24</v>
+        <v>190.45</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B265">
-        <v>135.79</v>
+        <v>44063</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
       </c>
       <c r="C265">
-        <v>200.23</v>
-      </c>
-      <c r="D265">
-        <v>-32.18</v>
+        <v>190.45</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B266">
-        <v>132.7</v>
+        <v>44064</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
       </c>
       <c r="C266">
-        <v>200.23</v>
-      </c>
-      <c r="D266">
-        <v>-33.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B267">
-        <v>130.32</v>
+        <v>44065</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
       </c>
       <c r="C267">
-        <v>200.23</v>
-      </c>
-      <c r="D267">
-        <v>-34.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B268">
-        <v>128.14</v>
+        <v>44066</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
       </c>
       <c r="C268">
-        <v>200.23</v>
-      </c>
-      <c r="D268">
-        <v>-36</v>
+        <v>190.45</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B269">
-        <v>126.32</v>
+        <v>185.67</v>
       </c>
       <c r="C269">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D269">
-        <v>-36.91</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B270">
-        <v>125</v>
+        <v>175.21</v>
       </c>
       <c r="C270">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D270">
-        <v>-37.57</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B271">
-        <v>124.48</v>
+        <v>162.82</v>
       </c>
       <c r="C271">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D271">
-        <v>-37.83</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B272">
-        <v>124.22</v>
+        <v>153.82</v>
       </c>
       <c r="C272">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D272">
-        <v>-37.96</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B273">
-        <v>123.42</v>
+        <v>146.96</v>
       </c>
       <c r="C273">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D273">
-        <v>-38.36</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B274">
-        <v>126.82</v>
+        <v>141.35</v>
       </c>
       <c r="C274">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D274">
-        <v>-36.66</v>
+        <v>-25.78</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B275">
-        <v>133.04</v>
+        <v>136.87</v>
       </c>
       <c r="C275">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D275">
-        <v>-33.55</v>
+        <v>-28.13</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B276">
-        <v>127.43</v>
+        <v>133.38</v>
       </c>
       <c r="C276">
         <v>190.45</v>
       </c>
       <c r="D276">
-        <v>-33.09</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B277">
-        <v>124.04</v>
+        <v>130.25</v>
       </c>
       <c r="C277">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D277">
-        <v>-34.87</v>
+        <v>-39.72</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B278">
-        <v>121.65</v>
+        <v>127.43</v>
       </c>
       <c r="C278">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D278">
-        <v>-36.12</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B279">
-        <v>119.62</v>
+        <v>125.08</v>
       </c>
       <c r="C279">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D279">
-        <v>-37.19</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B280">
-        <v>118.5</v>
+        <v>123.48</v>
       </c>
       <c r="C280">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D280">
-        <v>-37.78</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B281" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B281">
+        <v>121.65</v>
       </c>
       <c r="C281">
-        <v>190.45</v>
-      </c>
-      <c r="D281" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D281">
+        <v>-43.7</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B282" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B282">
+        <v>120.58</v>
       </c>
       <c r="C282">
-        <v>190.45</v>
-      </c>
-      <c r="D282" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D282">
+        <v>-44.2</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B283" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B283">
+        <v>119.59</v>
       </c>
       <c r="C283">
-        <v>190.45</v>
-      </c>
-      <c r="D283" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D283">
+        <v>-44.66</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B284" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B284">
+        <v>118.64</v>
       </c>
       <c r="C284">
-        <v>190.45</v>
-      </c>
-      <c r="D284" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D284">
+        <v>-45.1</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B285" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B285">
+        <v>117.78</v>
       </c>
       <c r="C285">
-        <v>190.45</v>
-      </c>
-      <c r="D285" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D285">
+        <v>-45.49</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B286" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B286">
+        <v>116.91</v>
       </c>
       <c r="C286">
-        <v>190.45</v>
-      </c>
-      <c r="D286" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D286">
+        <v>-45.89</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B287" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B287">
+        <v>115.96</v>
       </c>
       <c r="C287">
-        <v>190.45</v>
-      </c>
-      <c r="D287" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D287">
+        <v>-46.34</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B288" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B288">
+        <v>115.22</v>
       </c>
       <c r="C288">
-        <v>190.45</v>
-      </c>
-      <c r="D288" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D288">
+        <v>-46.68</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B289" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B289">
+        <v>114.3</v>
       </c>
       <c r="C289">
-        <v>190.45</v>
-      </c>
-      <c r="D289" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D289">
+        <v>-47.1</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B290" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B290">
+        <v>113.64</v>
       </c>
       <c r="C290">
-        <v>190.45</v>
-      </c>
-      <c r="D290" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D290">
+        <v>-47.41</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B291" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B291">
+        <v>112.45</v>
       </c>
       <c r="C291">
-        <v>190.45</v>
-      </c>
-      <c r="D291" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D291">
+        <v>-47.96</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B292" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B292">
+        <v>111.88</v>
       </c>
       <c r="C292">
-        <v>190.45</v>
-      </c>
-      <c r="D292" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D292">
+        <v>-48.23</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B293" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B293">
+        <v>111.45</v>
       </c>
       <c r="C293">
-        <v>190.45</v>
-      </c>
-      <c r="D293" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D293">
+        <v>-48.42</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B294" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B294">
+        <v>111.38</v>
       </c>
       <c r="C294">
-        <v>190.45</v>
-      </c>
-      <c r="D294" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D294">
+        <v>-48.46</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B295" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B295">
+        <v>110.95</v>
       </c>
       <c r="C295">
-        <v>190.45</v>
-      </c>
-      <c r="D295" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D295">
+        <v>-48.65</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B296" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B296">
+        <v>109.91</v>
       </c>
       <c r="C296">
-        <v>190.45</v>
-      </c>
-      <c r="D296" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D296">
+        <v>-49.13</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B297" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B297">
+        <v>108.74</v>
       </c>
       <c r="C297">
-        <v>190.45</v>
-      </c>
-      <c r="D297" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D297">
+        <v>-49.68</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B298" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B298">
+        <v>108.14</v>
       </c>
       <c r="C298">
-        <v>190.45</v>
-      </c>
-      <c r="D298" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D298">
+        <v>-49.95</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B299">
-        <v>185.67</v>
+        <v>107.41</v>
       </c>
       <c r="C299">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D299">
-        <v>-2.51</v>
+        <v>-50.29</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B300">
-        <v>175.21</v>
+        <v>106.67</v>
       </c>
       <c r="C300">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D300">
-        <v>-8</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B301">
-        <v>162.82</v>
+        <v>106.09</v>
       </c>
       <c r="C301">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D301">
-        <v>-14.51</v>
+        <v>-50.9</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B302">
-        <v>153.82</v>
+        <v>105.35</v>
       </c>
       <c r="C302">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D302">
-        <v>-19.23</v>
+        <v>-51.25</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B303">
-        <v>146.96</v>
+        <v>105.04</v>
       </c>
       <c r="C303">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D303">
-        <v>-22.84</v>
+        <v>-51.39</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B304">
-        <v>141.35</v>
+        <v>109.5</v>
       </c>
       <c r="C304">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D304">
-        <v>-25.78</v>
+        <v>-49.33</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B305">
-        <v>136.87</v>
+        <v>116.7</v>
       </c>
       <c r="C305">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D305">
-        <v>-28.13</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B306">
-        <v>133.38</v>
+        <v>116.38</v>
       </c>
       <c r="C306">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D306">
-        <v>-29.97</v>
+        <v>-46.14</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B307">
-        <v>130.25</v>
+        <v>115.96</v>
       </c>
       <c r="C307">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D307">
-        <v>-39.72</v>
+        <v>-62.67</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B308">
-        <v>127.43</v>
+        <v>112.04</v>
       </c>
       <c r="C308">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D308">
-        <v>-41.03</v>
+        <v>-63.93</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B309">
-        <v>125.08</v>
+        <v>109.25</v>
       </c>
       <c r="C309">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D309">
-        <v>-42.11</v>
+        <v>-64.83</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B310">
-        <v>123.48</v>
+        <v>107.48</v>
       </c>
       <c r="C310">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D310">
-        <v>-42.86</v>
+        <v>-65.40000000000001</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B311">
-        <v>121.65</v>
+        <v>105.92</v>
       </c>
       <c r="C311">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D311">
-        <v>-43.7</v>
+        <v>-65.90000000000001</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B312">
-        <v>120.58</v>
+        <v>104.61</v>
       </c>
       <c r="C312">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D312">
-        <v>-44.2</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B313">
-        <v>119.59</v>
+        <v>103.71</v>
       </c>
       <c r="C313">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D313">
-        <v>-44.66</v>
+        <v>-66.61</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B314">
-        <v>118.64</v>
+        <v>104.79</v>
       </c>
       <c r="C314">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D314">
-        <v>-45.1</v>
+        <v>-66.27</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B315">
-        <v>117.78</v>
+        <v>119.09</v>
       </c>
       <c r="C315">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D315">
-        <v>-45.49</v>
+        <v>-61.66</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B316">
-        <v>116.91</v>
+        <v>120</v>
       </c>
       <c r="C316">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D316">
-        <v>-45.89</v>
+        <v>-61.37</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B317">
-        <v>115.96</v>
+        <v>116.67</v>
       </c>
       <c r="C317">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D317">
-        <v>-46.34</v>
+        <v>-62.44</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B318">
-        <v>115.22</v>
+        <v>115.83</v>
       </c>
       <c r="C318">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D318">
-        <v>-46.68</v>
+        <v>-62.71</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B319">
-        <v>114.3</v>
+        <v>113.96</v>
       </c>
       <c r="C319">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D319">
-        <v>-47.1</v>
+        <v>-63.32</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B320">
-        <v>113.64</v>
+        <v>112.27</v>
       </c>
       <c r="C320">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D320">
-        <v>-47.41</v>
+        <v>-63.86</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B321">
-        <v>112.45</v>
+        <v>113.4</v>
       </c>
       <c r="C321">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D321">
-        <v>-47.96</v>
+        <v>-63.49</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B322">
-        <v>111.88</v>
+        <v>124.09</v>
       </c>
       <c r="C322">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D322">
-        <v>-48.23</v>
+        <v>-60.05</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B323">
-        <v>111.45</v>
+        <v>129.46</v>
       </c>
       <c r="C323">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D323">
-        <v>-48.42</v>
+        <v>-58.33</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B324">
-        <v>111.38</v>
+        <v>124.78</v>
       </c>
       <c r="C324">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D324">
-        <v>-48.46</v>
+        <v>-59.83</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B325">
-        <v>110.95</v>
+        <v>120.13</v>
       </c>
       <c r="C325">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D325">
-        <v>-48.65</v>
+        <v>-61.33</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B326">
-        <v>109.91</v>
+        <v>116.46</v>
       </c>
       <c r="C326">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D326">
-        <v>-49.13</v>
+        <v>-62.51</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B327">
-        <v>108.74</v>
+        <v>113.62</v>
       </c>
       <c r="C327">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D327">
-        <v>-49.68</v>
+        <v>-63.42</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B328">
-        <v>108.14</v>
+        <v>111.25</v>
       </c>
       <c r="C328">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D328">
-        <v>-49.95</v>
+        <v>-64.19</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B329">
-        <v>107.41</v>
+        <v>109</v>
       </c>
       <c r="C329">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D329">
-        <v>-50.29</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B330">
-        <v>106.67</v>
+        <v>107.21</v>
       </c>
       <c r="C330">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D330">
-        <v>-50.64</v>
+        <v>-65.48999999999999</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B331">
-        <v>106.09</v>
+        <v>105.52</v>
       </c>
       <c r="C331">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D331">
-        <v>-50.9</v>
+        <v>-66.03</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B332">
-        <v>105.35</v>
+        <v>105.04</v>
       </c>
       <c r="C332">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D332">
-        <v>-51.25</v>
+        <v>-66.19</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B333">
-        <v>105.04</v>
+        <v>105.17</v>
       </c>
       <c r="C333">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D333">
-        <v>-51.39</v>
+        <v>-66.15000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B334">
-        <v>109.5</v>
+        <v>105</v>
       </c>
       <c r="C334">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D334">
-        <v>-49.33</v>
+        <v>-66.2</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B335">
-        <v>116.7</v>
+        <v>104.64</v>
       </c>
       <c r="C335">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D335">
-        <v>-46</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B336">
-        <v>116.38</v>
+        <v>103.7</v>
       </c>
       <c r="C336">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D336">
-        <v>-46.14</v>
+        <v>-66.62</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337">
-        <v>115.96</v>
+        <v>103.17</v>
       </c>
       <c r="C337">
         <v>310.64</v>
       </c>
       <c r="D337">
-        <v>-62.67</v>
+        <v>-66.79000000000001</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B338">
-        <v>112.04</v>
+        <v>102.68</v>
       </c>
       <c r="C338">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D338">
-        <v>-63.93</v>
+        <v>-59.58</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B339">
-        <v>109.25</v>
+        <v>102.57</v>
       </c>
       <c r="C339">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D339">
-        <v>-64.83</v>
+        <v>-59.62</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B340">
-        <v>107.48</v>
+        <v>103</v>
       </c>
       <c r="C340">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D340">
-        <v>-65.40000000000001</v>
+        <v>-59.45</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B341">
-        <v>105.92</v>
+        <v>102.52</v>
       </c>
       <c r="C341">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D341">
-        <v>-65.90000000000001</v>
+        <v>-59.64</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B342">
-        <v>104.61</v>
+        <v>102.41</v>
       </c>
       <c r="C342">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D342">
-        <v>-66.31999999999999</v>
+        <v>-59.68</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B343">
-        <v>103.71</v>
+        <v>101.3</v>
       </c>
       <c r="C343">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D343">
-        <v>-66.61</v>
+        <v>-60.12</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B344">
-        <v>104.79</v>
+        <v>44142</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
       </c>
       <c r="C344">
-        <v>310.64</v>
-      </c>
-      <c r="D344">
-        <v>-66.27</v>
+        <v>254.02</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B345">
-        <v>119.09</v>
+        <v>44143</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>310.64</v>
-      </c>
-      <c r="D345">
-        <v>-61.66</v>
+        <v>254.02</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B346">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C346">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D346">
-        <v>-61.37</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B347">
-        <v>116.67</v>
+        <v>100</v>
       </c>
       <c r="C347">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D347">
-        <v>-62.44</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B348">
-        <v>115.83</v>
+        <v>101.09</v>
       </c>
       <c r="C348">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D348">
-        <v>-62.71</v>
+        <v>-60.2</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B349">
-        <v>113.96</v>
+        <v>101.13</v>
       </c>
       <c r="C349">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D349">
-        <v>-63.32</v>
+        <v>-60.19</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B350">
-        <v>112.27</v>
+        <v>102.91</v>
       </c>
       <c r="C350">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D350">
-        <v>-63.86</v>
+        <v>-59.49</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B351">
-        <v>113.4</v>
+        <v>104.65</v>
       </c>
       <c r="C351">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D351">
-        <v>-63.49</v>
+        <v>-58.8</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B352">
-        <v>124.09</v>
+        <v>107.74</v>
       </c>
       <c r="C352">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D352">
-        <v>-60.05</v>
+        <v>-57.59</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B353">
-        <v>129.46</v>
+        <v>111.22</v>
       </c>
       <c r="C353">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D353">
-        <v>-58.33</v>
+        <v>-56.22</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B354">
-        <v>124.78</v>
+        <v>108.09</v>
       </c>
       <c r="C354">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D354">
-        <v>-59.83</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B355">
-        <v>120.13</v>
+        <v>106.14</v>
       </c>
       <c r="C355">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D355">
-        <v>-61.33</v>
+        <v>-58.22</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B356">
-        <v>116.46</v>
+        <v>105.62</v>
       </c>
       <c r="C356">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D356">
-        <v>-62.51</v>
+        <v>-58.42</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B357">
-        <v>113.62</v>
+        <v>104.38</v>
       </c>
       <c r="C357">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D357">
-        <v>-63.42</v>
+        <v>-58.91</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B358">
-        <v>111.25</v>
+        <v>102.62</v>
       </c>
       <c r="C358">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D358">
-        <v>-64.19</v>
+        <v>-59.6</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B359">
-        <v>109</v>
+        <v>101.46</v>
       </c>
       <c r="C359">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D359">
-        <v>-64.91</v>
+        <v>-60.06</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B360">
-        <v>107.21</v>
+        <v>100.6</v>
       </c>
       <c r="C360">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D360">
-        <v>-65.48999999999999</v>
+        <v>-60.4</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B361">
-        <v>105.52</v>
+        <v>44159</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
       </c>
       <c r="C361">
-        <v>310.64</v>
-      </c>
-      <c r="D361">
-        <v>-66.03</v>
+        <v>254.02</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B362">
-        <v>105.04</v>
+        <v>44160</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
       </c>
       <c r="C362">
-        <v>310.64</v>
-      </c>
-      <c r="D362">
-        <v>-66.19</v>
+        <v>254.02</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44131</v>
-      </c>
-      <c r="B363">
-        <v>105.17</v>
+        <v>44161</v>
+      </c>
+      <c r="B363" t="s">
+        <v>4</v>
       </c>
       <c r="C363">
-        <v>310.64</v>
-      </c>
-      <c r="D363">
-        <v>-66.15000000000001</v>
+        <v>254.02</v>
+      </c>
+      <c r="D363" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44132</v>
-      </c>
-      <c r="B364">
-        <v>105</v>
+        <v>44162</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
       </c>
       <c r="C364">
-        <v>310.64</v>
-      </c>
-      <c r="D364">
-        <v>-66.2</v>
+        <v>254.02</v>
+      </c>
+      <c r="D364" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44133</v>
-      </c>
-      <c r="B365">
-        <v>104.64</v>
+        <v>44163</v>
+      </c>
+      <c r="B365" t="s">
+        <v>4</v>
       </c>
       <c r="C365">
-        <v>310.64</v>
-      </c>
-      <c r="D365">
-        <v>-66.31999999999999</v>
+        <v>254.02</v>
+      </c>
+      <c r="D365" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44134</v>
-      </c>
-      <c r="B366">
-        <v>103.7</v>
+        <v>44164</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
       </c>
       <c r="C366">
-        <v>310.64</v>
-      </c>
-      <c r="D366">
-        <v>-66.62</v>
+        <v>254.02</v>
+      </c>
+      <c r="D366" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B367">
-        <v>103.17</v>
+        <v>101.65</v>
       </c>
       <c r="C367">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D367">
-        <v>-66.79000000000001</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B368">
-        <v>102.68</v>
-      </c>
-      <c r="C368">
-        <v>254.02</v>
-      </c>
-      <c r="D368">
-        <v>-59.58</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B369">
-        <v>102.57</v>
-      </c>
-      <c r="C369">
-        <v>254.02</v>
-      </c>
-      <c r="D369">
-        <v>-59.62</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B370">
-        <v>103</v>
-      </c>
-      <c r="C370">
-        <v>254.02</v>
-      </c>
-      <c r="D370">
-        <v>-59.45</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B371">
-        <v>102.52</v>
-      </c>
-      <c r="C371">
-        <v>254.02</v>
-      </c>
-      <c r="D371">
-        <v>-59.64</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B372">
-        <v>102.41</v>
-      </c>
-      <c r="C372">
-        <v>254.02</v>
-      </c>
-      <c r="D372">
-        <v>-59.68</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B373">
-        <v>101.3</v>
-      </c>
-      <c r="C373">
-        <v>254.02</v>
-      </c>
-      <c r="D373">
-        <v>-60.12</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B374" t="s">
-        <v>4</v>
-      </c>
-      <c r="C374">
-        <v>254.02</v>
-      </c>
-      <c r="D374" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B375" t="s">
-        <v>4</v>
-      </c>
-      <c r="C375">
-        <v>254.02</v>
-      </c>
-      <c r="D375" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44144</v>
-      </c>
-      <c r="B376">
-        <v>100</v>
-      </c>
-      <c r="C376">
-        <v>254.02</v>
-      </c>
-      <c r="D376">
-        <v>-60.63</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44145</v>
-      </c>
-      <c r="B377">
-        <v>100</v>
-      </c>
-      <c r="C377">
-        <v>254.02</v>
-      </c>
-      <c r="D377">
-        <v>-60.63</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B378">
-        <v>101.09</v>
-      </c>
-      <c r="C378">
-        <v>254.02</v>
-      </c>
-      <c r="D378">
-        <v>-60.2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B379">
-        <v>101.13</v>
-      </c>
-      <c r="C379">
-        <v>254.02</v>
-      </c>
-      <c r="D379">
-        <v>-60.19</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B380">
-        <v>102.91</v>
-      </c>
-      <c r="C380">
-        <v>254.02</v>
-      </c>
-      <c r="D380">
-        <v>-59.49</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B381">
-        <v>104.65</v>
-      </c>
-      <c r="C381">
-        <v>254.02</v>
-      </c>
-      <c r="D381">
-        <v>-58.8</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B382">
-        <v>107.74</v>
-      </c>
-      <c r="C382">
-        <v>254.02</v>
-      </c>
-      <c r="D382">
-        <v>-57.59</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B383">
-        <v>111.22</v>
-      </c>
-      <c r="C383">
-        <v>254.02</v>
-      </c>
-      <c r="D383">
-        <v>-56.22</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B384">
-        <v>108.09</v>
-      </c>
-      <c r="C384">
-        <v>254.02</v>
-      </c>
-      <c r="D384">
-        <v>-57.45</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B385">
-        <v>106.14</v>
-      </c>
-      <c r="C385">
-        <v>254.02</v>
-      </c>
-      <c r="D385">
-        <v>-58.22</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B386">
-        <v>105.62</v>
-      </c>
-      <c r="C386">
-        <v>254.02</v>
-      </c>
-      <c r="D386">
-        <v>-58.42</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B387">
-        <v>104.38</v>
-      </c>
-      <c r="C387">
-        <v>254.02</v>
-      </c>
-      <c r="D387">
-        <v>-58.91</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B388">
-        <v>102.62</v>
-      </c>
-      <c r="C388">
-        <v>254.02</v>
-      </c>
-      <c r="D388">
-        <v>-59.6</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B389">
-        <v>101.46</v>
-      </c>
-      <c r="C389">
-        <v>254.02</v>
-      </c>
-      <c r="D389">
-        <v>-60.06</v>
+        <v>-59.98</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -420,170 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B2">
-        <v>153.53</v>
+        <v>175.51</v>
       </c>
       <c r="C2">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D2">
-        <v>-29.48</v>
+        <v>-14.72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B3">
-        <v>175.51</v>
+        <v>172.17</v>
       </c>
       <c r="C3">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D3">
-        <v>-14.72</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B4">
-        <v>172.17</v>
+        <v>119.43</v>
       </c>
       <c r="C4">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D4">
-        <v>-21.23</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B5">
-        <v>119.43</v>
+        <v>106.97</v>
       </c>
       <c r="C5">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D5">
-        <v>-33.79</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B6">
-        <v>106.97</v>
+        <v>256.91</v>
       </c>
       <c r="C6">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D6">
-        <v>-46.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>256.91</v>
+        <v>288.42</v>
       </c>
       <c r="C7">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D7">
-        <v>-8.039999999999999</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B8">
-        <v>288.42</v>
+        <v>206.55</v>
       </c>
       <c r="C8">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D8">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B9">
-        <v>206.55</v>
+        <v>142.1</v>
       </c>
       <c r="C9">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D9">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B10">
-        <v>142.1</v>
+        <v>114.62</v>
       </c>
       <c r="C10">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D10">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B11">
-        <v>114.62</v>
+        <v>111.72</v>
       </c>
       <c r="C11">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D11">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B12">
-        <v>111.72</v>
+        <v>103.35</v>
       </c>
       <c r="C12">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D12">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B13">
-        <v>103.35</v>
+        <v>139.27</v>
       </c>
       <c r="C13">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D13">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
   </sheetData>
@@ -620,5126 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43800</v>
-      </c>
-      <c r="B2">
-        <v>157.42</v>
+        <v>43831</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>217.71</v>
-      </c>
-      <c r="D2">
-        <v>-27.69</v>
+        <v>205.8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43801</v>
-      </c>
-      <c r="B3">
-        <v>143.88</v>
+        <v>43832</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>217.71</v>
-      </c>
-      <c r="D3">
-        <v>-33.91</v>
+        <v>205.8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43802</v>
-      </c>
-      <c r="B4">
-        <v>138.09</v>
+        <v>43833</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>217.71</v>
-      </c>
-      <c r="D4">
-        <v>-36.57</v>
+        <v>205.8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43803</v>
-      </c>
-      <c r="B5">
-        <v>139.5</v>
+        <v>43834</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>217.71</v>
-      </c>
-      <c r="D5">
-        <v>-35.92</v>
+        <v>205.8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43804</v>
-      </c>
-      <c r="B6">
-        <v>162</v>
+        <v>43835</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>217.71</v>
-      </c>
-      <c r="D6">
-        <v>-25.59</v>
+        <v>205.8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43805</v>
-      </c>
-      <c r="B7">
-        <v>170.92</v>
+        <v>43836</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>217.71</v>
-      </c>
-      <c r="D7">
-        <v>-21.49</v>
+        <v>205.8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43806</v>
-      </c>
-      <c r="B8">
-        <v>158.12</v>
+        <v>43837</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>217.71</v>
-      </c>
-      <c r="D8">
-        <v>-27.37</v>
+        <v>205.8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43807</v>
-      </c>
-      <c r="B9">
-        <v>143.38</v>
+        <v>43838</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>217.71</v>
-      </c>
-      <c r="D9">
-        <v>-34.14</v>
+        <v>205.8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B10">
-        <v>138.14</v>
+        <v>108.1</v>
       </c>
       <c r="C10">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D10">
-        <v>-36.55</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B11">
-        <v>135.05</v>
+        <v>108.83</v>
       </c>
       <c r="C11">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D11">
-        <v>-37.97</v>
+        <v>-47.12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B12">
-        <v>130.6</v>
+        <v>118.23</v>
       </c>
       <c r="C12">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D12">
-        <v>-40.01</v>
+        <v>-42.55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>156.21</v>
       </c>
       <c r="C13">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D13">
-        <v>-40.75</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B14">
-        <v>124.67</v>
+        <v>173.29</v>
       </c>
       <c r="C14">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D14">
-        <v>-42.74</v>
+        <v>-15.8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B15">
-        <v>123.92</v>
+        <v>152.58</v>
       </c>
       <c r="C15">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D15">
-        <v>-43.08</v>
+        <v>-25.86</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B16">
-        <v>120.71</v>
+        <v>141.92</v>
       </c>
       <c r="C16">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D16">
-        <v>-44.55</v>
+        <v>-31.04</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B17">
-        <v>145.35</v>
+        <v>136.11</v>
       </c>
       <c r="C17">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D17">
-        <v>-33.24</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B18">
-        <v>250.95</v>
+        <v>199.88</v>
       </c>
       <c r="C18">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D18">
-        <v>15.27</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B19">
-        <v>251.93</v>
+        <v>268.25</v>
       </c>
       <c r="C19">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D19">
-        <v>15.72</v>
+        <v>30.35</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43818</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
+        <v>43849</v>
+      </c>
+      <c r="B20">
+        <v>186.62</v>
       </c>
       <c r="C20">
-        <v>217.71</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D20">
+        <v>-9.32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43819</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
+        <v>43850</v>
+      </c>
+      <c r="B21">
+        <v>157.04</v>
       </c>
       <c r="C21">
-        <v>217.71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D21">
+        <v>-23.69</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43820</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
+        <v>43851</v>
+      </c>
+      <c r="B22">
+        <v>141.12</v>
       </c>
       <c r="C22">
-        <v>217.71</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D22">
+        <v>-31.43</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43821</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
+        <v>43852</v>
+      </c>
+      <c r="B23">
+        <v>131.83</v>
       </c>
       <c r="C23">
-        <v>217.71</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D23">
+        <v>-35.94</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43822</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
+        <v>43853</v>
+      </c>
+      <c r="B24">
+        <v>126.7</v>
       </c>
       <c r="C24">
-        <v>217.71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D24">
+        <v>-38.44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43823</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
+        <v>43854</v>
+      </c>
+      <c r="B25">
+        <v>125.38</v>
       </c>
       <c r="C25">
-        <v>217.71</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D25">
+        <v>-39.08</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43824</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+        <v>43855</v>
+      </c>
+      <c r="B26">
+        <v>128.12</v>
       </c>
       <c r="C26">
-        <v>217.71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D26">
+        <v>-37.74</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43825</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
+        <v>43856</v>
+      </c>
+      <c r="B27">
+        <v>124.04</v>
       </c>
       <c r="C27">
-        <v>217.71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D27">
+        <v>-39.73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43826</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
+        <v>43857</v>
+      </c>
+      <c r="B28">
+        <v>118.61</v>
       </c>
       <c r="C28">
-        <v>217.71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D28">
+        <v>-42.37</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43827</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
+        <v>43858</v>
+      </c>
+      <c r="B29">
+        <v>114.5</v>
       </c>
       <c r="C29">
-        <v>217.71</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D29">
+        <v>-44.36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43828</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4</v>
+        <v>43859</v>
+      </c>
+      <c r="B30">
+        <v>111.46</v>
       </c>
       <c r="C30">
-        <v>217.71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D30">
+        <v>-45.84</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43829</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
+        <v>43860</v>
+      </c>
+      <c r="B31">
+        <v>131.61</v>
       </c>
       <c r="C31">
-        <v>217.71</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D31">
+        <v>-36.05</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43830</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
+        <v>43861</v>
+      </c>
+      <c r="B32">
+        <v>876.26</v>
       </c>
       <c r="C32">
-        <v>217.71</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D32">
+        <v>325.78</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
+        <v>43862</v>
+      </c>
+      <c r="B33">
+        <v>695.87</v>
       </c>
       <c r="C33">
-        <v>205.8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D33">
+        <v>218.37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
+        <v>43863</v>
+      </c>
+      <c r="B34">
+        <v>247.09</v>
       </c>
       <c r="C34">
-        <v>205.8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D34">
+        <v>13.05</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
+        <v>43864</v>
+      </c>
+      <c r="B35">
+        <v>253.14</v>
       </c>
       <c r="C35">
-        <v>205.8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D35">
+        <v>15.82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43834</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4</v>
+        <v>43865</v>
+      </c>
+      <c r="B36">
+        <v>321</v>
       </c>
       <c r="C36">
-        <v>205.8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D36">
+        <v>46.86</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
+        <v>43866</v>
+      </c>
+      <c r="B37">
+        <v>212.33</v>
       </c>
       <c r="C37">
-        <v>205.8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D37">
+        <v>-2.85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43836</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
+        <v>43867</v>
+      </c>
+      <c r="B38">
+        <v>175.48</v>
       </c>
       <c r="C38">
-        <v>205.8</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D38">
+        <v>-19.72</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4</v>
+        <v>43868</v>
+      </c>
+      <c r="B39">
+        <v>156.87</v>
       </c>
       <c r="C39">
-        <v>205.8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D39">
+        <v>-28.23</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B40">
+        <v>144</v>
       </c>
       <c r="C40">
-        <v>205.8</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D40">
+        <v>-34.12</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B41">
-        <v>108.1</v>
+        <v>140.65</v>
       </c>
       <c r="C41">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D41">
-        <v>-47.47</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B42">
-        <v>108.83</v>
+        <v>135.3</v>
       </c>
       <c r="C42">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D42">
-        <v>-47.12</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B43">
-        <v>118.23</v>
+        <v>136.46</v>
       </c>
       <c r="C43">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D43">
-        <v>-42.55</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B44">
-        <v>156.21</v>
+        <v>130.39</v>
       </c>
       <c r="C44">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D44">
-        <v>-24.1</v>
+        <v>-40.34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B45">
-        <v>173.29</v>
+        <v>125.58</v>
       </c>
       <c r="C45">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D45">
-        <v>-15.8</v>
+        <v>-42.54</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B46">
-        <v>152.58</v>
+        <v>124.65</v>
       </c>
       <c r="C46">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D46">
-        <v>-25.86</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B47">
-        <v>141.92</v>
+        <v>122.29</v>
       </c>
       <c r="C47">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D47">
-        <v>-31.04</v>
+        <v>-44.05</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B48">
-        <v>136.11</v>
+        <v>118.13</v>
       </c>
       <c r="C48">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D48">
-        <v>-33.86</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B49">
-        <v>199.88</v>
+        <v>116.09</v>
       </c>
       <c r="C49">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D49">
-        <v>-2.88</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B50">
-        <v>268.25</v>
+        <v>114.46</v>
       </c>
       <c r="C50">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D50">
-        <v>30.35</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B51">
-        <v>186.62</v>
+        <v>113.86</v>
       </c>
       <c r="C51">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D51">
-        <v>-9.32</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B52">
-        <v>157.04</v>
+        <v>115.7</v>
       </c>
       <c r="C52">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D52">
-        <v>-23.69</v>
+        <v>-47.07</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B53">
-        <v>141.12</v>
+        <v>112.43</v>
       </c>
       <c r="C53">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D53">
-        <v>-31.43</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B54">
-        <v>131.83</v>
+        <v>110.58</v>
       </c>
       <c r="C54">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D54">
-        <v>-35.94</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B55">
-        <v>126.7</v>
+        <v>108.75</v>
       </c>
       <c r="C55">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D55">
-        <v>-38.44</v>
+        <v>-50.24</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B56">
-        <v>125.38</v>
+        <v>106.78</v>
       </c>
       <c r="C56">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D56">
-        <v>-39.08</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B57">
-        <v>128.12</v>
+        <v>110.83</v>
       </c>
       <c r="C57">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D57">
-        <v>-37.74</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B58">
-        <v>124.04</v>
+        <v>148.38</v>
       </c>
       <c r="C58">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D58">
-        <v>-39.73</v>
+        <v>-32.12</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B59">
-        <v>118.61</v>
+        <v>253</v>
       </c>
       <c r="C59">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D59">
-        <v>-42.37</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B60">
-        <v>114.5</v>
+        <v>184.96</v>
       </c>
       <c r="C60">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D60">
-        <v>-44.36</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B61">
-        <v>111.46</v>
+        <v>157.75</v>
       </c>
       <c r="C61">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D61">
-        <v>-45.84</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B62">
-        <v>131.61</v>
+        <v>142.96</v>
       </c>
       <c r="C62">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D62">
-        <v>-36.05</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B63">
-        <v>876.26</v>
+        <v>133</v>
       </c>
       <c r="C63">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D63">
-        <v>325.78</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B64">
-        <v>695.87</v>
+        <v>126.26</v>
       </c>
       <c r="C64">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D64">
-        <v>218.37</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B65">
-        <v>247.09</v>
+        <v>121.83</v>
       </c>
       <c r="C65">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D65">
-        <v>13.05</v>
+        <v>-32.46</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B66">
-        <v>253.14</v>
+        <v>118.7</v>
       </c>
       <c r="C66">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D66">
-        <v>15.82</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B67">
-        <v>321</v>
+        <v>116.17</v>
       </c>
       <c r="C67">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D67">
-        <v>46.86</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B68">
-        <v>212.33</v>
+        <v>113.91</v>
       </c>
       <c r="C68">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D68">
-        <v>-2.85</v>
+        <v>-36.85</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B69">
-        <v>175.48</v>
+        <v>112.86</v>
       </c>
       <c r="C69">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D69">
-        <v>-19.72</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B70">
-        <v>156.87</v>
+        <v>111.54</v>
       </c>
       <c r="C70">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D70">
-        <v>-28.23</v>
+        <v>-38.17</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B71">
-        <v>144</v>
+        <v>109.12</v>
       </c>
       <c r="C71">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D71">
-        <v>-34.12</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B72">
-        <v>140.65</v>
+        <v>107.5</v>
       </c>
       <c r="C72">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D72">
-        <v>-35.65</v>
+        <v>-40.41</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B73">
-        <v>135.3</v>
+        <v>106.17</v>
       </c>
       <c r="C73">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D73">
-        <v>-38.1</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B74">
-        <v>136.46</v>
+        <v>104.96</v>
       </c>
       <c r="C74">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D74">
-        <v>-37.57</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B75">
-        <v>130.39</v>
+        <v>104.21</v>
       </c>
       <c r="C75">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D75">
-        <v>-40.34</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B76">
-        <v>125.58</v>
+        <v>103.43</v>
       </c>
       <c r="C76">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D76">
-        <v>-42.54</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B77">
-        <v>124.65</v>
+        <v>102.5</v>
       </c>
       <c r="C77">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D77">
-        <v>-42.97</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B78">
-        <v>122.29</v>
+        <v>101.48</v>
       </c>
       <c r="C78">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D78">
-        <v>-44.05</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B79">
-        <v>118.13</v>
+        <v>106.39</v>
       </c>
       <c r="C79">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D79">
-        <v>-45.95</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B80">
-        <v>116.09</v>
+        <v>145.17</v>
       </c>
       <c r="C80">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D80">
-        <v>-46.89</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B81">
-        <v>114.46</v>
+        <v>183.46</v>
       </c>
       <c r="C81">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D81">
-        <v>-47.63</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B82">
-        <v>113.86</v>
+        <v>152.83</v>
       </c>
       <c r="C82">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D82">
-        <v>-47.91</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B83">
-        <v>115.7</v>
+        <v>138.67</v>
       </c>
       <c r="C83">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D83">
-        <v>-47.07</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B84">
-        <v>112.43</v>
+        <v>129.36</v>
       </c>
       <c r="C84">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D84">
-        <v>-48.56</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B85">
-        <v>110.58</v>
+        <v>123.21</v>
       </c>
       <c r="C85">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D85">
-        <v>-49.41</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B86">
-        <v>108.75</v>
+        <v>118.71</v>
       </c>
       <c r="C86">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D86">
-        <v>-50.24</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B87">
-        <v>106.78</v>
+        <v>115.42</v>
       </c>
       <c r="C87">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D87">
-        <v>-51.14</v>
+        <v>-36.02</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B88">
-        <v>110.83</v>
+        <v>112.87</v>
       </c>
       <c r="C88">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D88">
-        <v>-49.29</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B89">
-        <v>148.38</v>
+        <v>111.29</v>
       </c>
       <c r="C89">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D89">
-        <v>-32.12</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B90">
-        <v>253</v>
+        <v>110.33</v>
       </c>
       <c r="C90">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D90">
-        <v>15.75</v>
+        <v>-38.84</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>184.96</v>
+        <v>109.58</v>
       </c>
       <c r="C91">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D91">
-        <v>-15.38</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>157.75</v>
+        <v>108.54</v>
       </c>
       <c r="C92">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D92">
-        <v>-27.83</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>142.96</v>
+        <v>107.96</v>
       </c>
       <c r="C93">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D93">
-        <v>-20.75</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B94">
-        <v>133</v>
+        <v>107.3</v>
       </c>
       <c r="C94">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D94">
-        <v>-26.27</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>126.26</v>
+        <v>106.27</v>
       </c>
       <c r="C95">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D95">
-        <v>-30.01</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>121.83</v>
+        <v>105.43</v>
       </c>
       <c r="C96">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D96">
-        <v>-32.46</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>118.7</v>
+        <v>104.65</v>
       </c>
       <c r="C97">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D97">
-        <v>-34.2</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B98">
-        <v>116.17</v>
+        <v>43927</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
       </c>
       <c r="C98">
-        <v>180.39</v>
-      </c>
-      <c r="D98">
-        <v>-35.6</v>
+        <v>198.56</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B99">
-        <v>113.91</v>
+        <v>43928</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>180.39</v>
-      </c>
-      <c r="D99">
-        <v>-36.85</v>
+        <v>198.56</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B100">
-        <v>112.86</v>
+        <v>113.41</v>
       </c>
       <c r="C100">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D100">
-        <v>-37.43</v>
+        <v>-42.88</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B101">
-        <v>111.54</v>
+        <v>115.33</v>
       </c>
       <c r="C101">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D101">
-        <v>-38.17</v>
+        <v>-41.92</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B102">
-        <v>109.12</v>
+        <v>114.96</v>
       </c>
       <c r="C102">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D102">
-        <v>-39.51</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B103">
-        <v>107.5</v>
+        <v>111.71</v>
       </c>
       <c r="C103">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D103">
-        <v>-40.41</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B104">
-        <v>106.17</v>
+        <v>109.58</v>
       </c>
       <c r="C104">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D104">
-        <v>-41.15</v>
+        <v>-44.81</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B105">
-        <v>104.96</v>
+        <v>107.86</v>
       </c>
       <c r="C105">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D105">
-        <v>-41.81</v>
+        <v>-45.68</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B106">
-        <v>104.21</v>
+        <v>109.69</v>
       </c>
       <c r="C106">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D106">
-        <v>-42.23</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B107">
-        <v>103.43</v>
+        <v>108.68</v>
       </c>
       <c r="C107">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D107">
-        <v>-42.66</v>
+        <v>-45.27</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B108">
-        <v>102.5</v>
+        <v>106.59</v>
       </c>
       <c r="C108">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D108">
-        <v>-43.18</v>
+        <v>-46.32</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B109">
-        <v>101.48</v>
+        <v>111.16</v>
       </c>
       <c r="C109">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D109">
-        <v>-43.74</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B110">
-        <v>106.39</v>
+        <v>110.43</v>
       </c>
       <c r="C110">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D110">
-        <v>-41.02</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B111">
-        <v>145.17</v>
+        <v>108.26</v>
       </c>
       <c r="C111">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D111">
-        <v>-19.52</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B112">
-        <v>183.46</v>
+        <v>106.5</v>
       </c>
       <c r="C112">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D112">
-        <v>1.7</v>
+        <v>-46.36</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B113">
-        <v>152.83</v>
+        <v>104.91</v>
       </c>
       <c r="C113">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D113">
-        <v>-15.28</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B114">
-        <v>138.67</v>
+        <v>103.62</v>
       </c>
       <c r="C114">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D114">
-        <v>-23.13</v>
+        <v>-47.81</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B115">
-        <v>129.36</v>
+        <v>102.91</v>
       </c>
       <c r="C115">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D115">
-        <v>-28.29</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B116">
-        <v>123.21</v>
+        <v>102.22</v>
       </c>
       <c r="C116">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D116">
-        <v>-31.7</v>
+        <v>-48.52</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B117">
-        <v>118.71</v>
+        <v>101.35</v>
       </c>
       <c r="C117">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D117">
-        <v>-34.19</v>
+        <v>-48.96</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B118">
-        <v>115.42</v>
+        <v>100.46</v>
       </c>
       <c r="C118">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D118">
-        <v>-36.02</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B119">
-        <v>112.87</v>
+        <v>100</v>
       </c>
       <c r="C119">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D119">
-        <v>-37.43</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B120">
-        <v>111.29</v>
+        <v>100</v>
       </c>
       <c r="C120">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D120">
-        <v>-38.3</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B121">
-        <v>110.33</v>
+        <v>43950</v>
+      </c>
+      <c r="B121" t="s">
+        <v>4</v>
       </c>
       <c r="C121">
-        <v>180.39</v>
-      </c>
-      <c r="D121">
-        <v>-38.84</v>
+        <v>198.56</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B122">
-        <v>109.58</v>
+        <v>43951</v>
+      </c>
+      <c r="B122" t="s">
+        <v>4</v>
       </c>
       <c r="C122">
-        <v>180.39</v>
-      </c>
-      <c r="D122">
-        <v>-39.25</v>
+        <v>198.56</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B123">
-        <v>108.54</v>
+        <v>43952</v>
+      </c>
+      <c r="B123" t="s">
+        <v>4</v>
       </c>
       <c r="C123">
-        <v>180.39</v>
-      </c>
-      <c r="D123">
-        <v>-39.83</v>
+        <v>279.37</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B124">
-        <v>107.96</v>
+        <v>43953</v>
+      </c>
+      <c r="B124" t="s">
+        <v>4</v>
       </c>
       <c r="C124">
-        <v>198.56</v>
-      </c>
-      <c r="D124">
-        <v>-45.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B125">
-        <v>107.3</v>
+        <v>43954</v>
+      </c>
+      <c r="B125" t="s">
+        <v>4</v>
       </c>
       <c r="C125">
-        <v>198.56</v>
-      </c>
-      <c r="D125">
-        <v>-45.96</v>
+        <v>279.37</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B126">
-        <v>106.27</v>
+        <v>43955</v>
+      </c>
+      <c r="B126" t="s">
+        <v>4</v>
       </c>
       <c r="C126">
-        <v>198.56</v>
-      </c>
-      <c r="D126">
-        <v>-46.48</v>
+        <v>279.37</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B127">
-        <v>105.43</v>
+        <v>100.33</v>
       </c>
       <c r="C127">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D127">
-        <v>-46.9</v>
+        <v>-64.09</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B128">
-        <v>104.65</v>
+        <v>102.96</v>
       </c>
       <c r="C128">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D128">
-        <v>-47.3</v>
+        <v>-63.15</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B129" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B129">
+        <v>105.61</v>
       </c>
       <c r="C129">
-        <v>198.56</v>
-      </c>
-      <c r="D129" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D129">
+        <v>-62.2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B130" t="s">
-        <v>4</v>
+        <v>43959</v>
+      </c>
+      <c r="B130">
+        <v>105.83</v>
       </c>
       <c r="C130">
-        <v>198.56</v>
-      </c>
-      <c r="D130" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D130">
+        <v>-62.12</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B131">
-        <v>113.41</v>
+        <v>114.83</v>
       </c>
       <c r="C131">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D131">
-        <v>-42.88</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B132">
-        <v>115.33</v>
+        <v>111.43</v>
       </c>
       <c r="C132">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D132">
-        <v>-41.92</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B133">
-        <v>114.96</v>
+        <v>108.26</v>
       </c>
       <c r="C133">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D133">
-        <v>-42.1</v>
+        <v>-61.25</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B134">
-        <v>111.71</v>
+        <v>107.38</v>
       </c>
       <c r="C134">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D134">
-        <v>-43.74</v>
+        <v>-61.57</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B135">
-        <v>109.58</v>
+        <v>168.96</v>
       </c>
       <c r="C135">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D135">
-        <v>-44.81</v>
+        <v>-39.52</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B136">
-        <v>107.86</v>
+        <v>442.05</v>
       </c>
       <c r="C136">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D136">
-        <v>-45.68</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B137">
-        <v>109.69</v>
+        <v>383.78</v>
       </c>
       <c r="C137">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D137">
-        <v>-44.76</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B138">
-        <v>108.68</v>
+        <v>213.5</v>
       </c>
       <c r="C138">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D138">
-        <v>-45.27</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B139">
-        <v>106.59</v>
+        <v>177.5</v>
       </c>
       <c r="C139">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D139">
-        <v>-46.32</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B140">
-        <v>111.16</v>
+        <v>158.13</v>
       </c>
       <c r="C140">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D140">
-        <v>-44.02</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B141">
-        <v>110.43</v>
+        <v>145.96</v>
       </c>
       <c r="C141">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D141">
-        <v>-44.39</v>
+        <v>-47.76</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B142">
-        <v>108.26</v>
+        <v>136.83</v>
       </c>
       <c r="C142">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D142">
-        <v>-45.48</v>
+        <v>-51.02</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B143">
-        <v>106.5</v>
+        <v>130.61</v>
       </c>
       <c r="C143">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D143">
-        <v>-46.36</v>
+        <v>-53.25</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B144">
-        <v>104.91</v>
+        <v>448.62</v>
       </c>
       <c r="C144">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D144">
-        <v>-47.16</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B145">
-        <v>103.62</v>
+        <v>1052.78</v>
       </c>
       <c r="C145">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D145">
-        <v>-47.81</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B146">
-        <v>102.91</v>
+        <v>927.75</v>
       </c>
       <c r="C146">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D146">
-        <v>-48.17</v>
+        <v>232.09</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B147">
-        <v>102.22</v>
+        <v>454.12</v>
       </c>
       <c r="C147">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D147">
-        <v>-48.52</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B148">
-        <v>101.35</v>
+        <v>291.38</v>
       </c>
       <c r="C148">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D148">
-        <v>-48.96</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B149">
-        <v>100.46</v>
+        <v>231.67</v>
       </c>
       <c r="C149">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D149">
-        <v>-49.41</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B150">
-        <v>100</v>
+        <v>201.75</v>
       </c>
       <c r="C150">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D150">
-        <v>-49.64</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B151">
-        <v>100</v>
+        <v>183.54</v>
       </c>
       <c r="C151">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D151">
-        <v>-49.64</v>
+        <v>-34.3</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B152" t="s">
-        <v>4</v>
+        <v>43981</v>
+      </c>
+      <c r="B152">
+        <v>170.25</v>
       </c>
       <c r="C152">
-        <v>198.56</v>
-      </c>
-      <c r="D152" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D152">
+        <v>-39.06</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B153" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B153">
+        <v>160.67</v>
       </c>
       <c r="C153">
-        <v>198.56</v>
-      </c>
-      <c r="D153" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D153">
+        <v>-42.49</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B154" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B154">
+        <v>155.43</v>
       </c>
       <c r="C154">
-        <v>279.37</v>
-      </c>
-      <c r="D154" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D154">
+        <v>-36.54</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B155" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B155">
+        <v>151.5</v>
       </c>
       <c r="C155">
-        <v>279.37</v>
-      </c>
-      <c r="D155" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D155">
+        <v>-38.14</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B156" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B156">
+        <v>147.78</v>
       </c>
       <c r="C156">
-        <v>279.37</v>
-      </c>
-      <c r="D156" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D156">
+        <v>-39.66</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B157" t="s">
-        <v>4</v>
+        <v>43986</v>
+      </c>
+      <c r="B157">
+        <v>152.05</v>
       </c>
       <c r="C157">
-        <v>279.37</v>
-      </c>
-      <c r="D157" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D157">
+        <v>-37.92</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B158">
-        <v>100.33</v>
+        <v>278.05</v>
       </c>
       <c r="C158">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D158">
-        <v>-64.09</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B159">
-        <v>102.96</v>
+        <v>708</v>
       </c>
       <c r="C159">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D159">
-        <v>-63.15</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B160">
-        <v>105.61</v>
+        <v>737.22</v>
       </c>
       <c r="C160">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D160">
-        <v>-62.2</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B161">
-        <v>105.83</v>
+        <v>401.87</v>
       </c>
       <c r="C161">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D161">
-        <v>-62.12</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B162">
-        <v>114.83</v>
+        <v>293.75</v>
       </c>
       <c r="C162">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D162">
-        <v>-58.9</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B163">
-        <v>111.43</v>
+        <v>506.38</v>
       </c>
       <c r="C163">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D163">
-        <v>-60.11</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B164">
-        <v>108.26</v>
+        <v>809.77</v>
       </c>
       <c r="C164">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D164">
-        <v>-61.25</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B165">
-        <v>107.38</v>
+        <v>749.96</v>
       </c>
       <c r="C165">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D165">
-        <v>-61.57</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B166">
-        <v>168.96</v>
+        <v>455.09</v>
       </c>
       <c r="C166">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D166">
-        <v>-39.52</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B167">
-        <v>442.05</v>
+        <v>337.83</v>
       </c>
       <c r="C167">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D167">
-        <v>58.23</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B168">
-        <v>383.78</v>
+        <v>307.09</v>
       </c>
       <c r="C168">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D168">
-        <v>37.37</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B169">
-        <v>213.5</v>
+        <v>254.1</v>
       </c>
       <c r="C169">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D169">
-        <v>-23.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B170">
-        <v>177.5</v>
+        <v>215.79</v>
       </c>
       <c r="C170">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D170">
-        <v>-36.46</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B171">
-        <v>158.13</v>
+        <v>194.35</v>
       </c>
       <c r="C171">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D171">
-        <v>-43.4</v>
+        <v>-20.65</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B172">
-        <v>145.96</v>
+        <v>180.04</v>
       </c>
       <c r="C172">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D172">
-        <v>-47.76</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B173">
-        <v>136.83</v>
+        <v>169.22</v>
       </c>
       <c r="C173">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D173">
-        <v>-51.02</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B174">
-        <v>130.61</v>
+        <v>160.87</v>
       </c>
       <c r="C174">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D174">
-        <v>-53.25</v>
+        <v>-34.32</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B175">
-        <v>448.62</v>
+        <v>154</v>
       </c>
       <c r="C175">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D175">
-        <v>60.58</v>
+        <v>-37.12</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B176">
-        <v>1052.78</v>
+        <v>148.7</v>
       </c>
       <c r="C176">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D176">
-        <v>276.84</v>
+        <v>-39.29</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B177">
-        <v>927.75</v>
+        <v>144.04</v>
       </c>
       <c r="C177">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D177">
-        <v>232.09</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B178">
-        <v>454.12</v>
+        <v>140.62</v>
       </c>
       <c r="C178">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D178">
-        <v>62.55</v>
+        <v>-42.59</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B179">
-        <v>291.38</v>
+        <v>139.21</v>
       </c>
       <c r="C179">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D179">
-        <v>4.3</v>
+        <v>-43.16</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B180">
-        <v>231.67</v>
+        <v>141.21</v>
       </c>
       <c r="C180">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D180">
-        <v>-17.08</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B181">
-        <v>201.75</v>
+        <v>139.58</v>
       </c>
       <c r="C181">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D181">
-        <v>-27.78</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B182">
-        <v>183.54</v>
+        <v>135.83</v>
       </c>
       <c r="C182">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D182">
-        <v>-34.3</v>
+        <v>-44.54</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B183">
-        <v>170.25</v>
+        <v>143.32</v>
       </c>
       <c r="C183">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D183">
-        <v>-39.06</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B184">
-        <v>160.67</v>
+        <v>410.33</v>
       </c>
       <c r="C184">
-        <v>279.37</v>
+        <v>200.23</v>
       </c>
       <c r="D184">
-        <v>-42.49</v>
+        <v>104.93</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B185">
-        <v>155.43</v>
+        <v>347.95</v>
       </c>
       <c r="C185">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D185">
-        <v>-36.54</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B186">
-        <v>151.5</v>
+        <v>232.13</v>
       </c>
       <c r="C186">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D186">
-        <v>-38.14</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B187">
-        <v>147.78</v>
+        <v>197.04</v>
       </c>
       <c r="C187">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D187">
-        <v>-39.66</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B188">
-        <v>152.05</v>
+        <v>177.77</v>
       </c>
       <c r="C188">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D188">
-        <v>-37.92</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B189">
-        <v>278.05</v>
+        <v>165.75</v>
       </c>
       <c r="C189">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D189">
-        <v>13.52</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B190">
-        <v>708</v>
+        <v>212.75</v>
       </c>
       <c r="C190">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D190">
-        <v>189.07</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B191">
-        <v>737.22</v>
+        <v>231.5</v>
       </c>
       <c r="C191">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D191">
-        <v>200.99</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B192">
-        <v>401.87</v>
+        <v>652.21</v>
       </c>
       <c r="C192">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D192">
-        <v>64.08</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B193">
-        <v>293.75</v>
+        <v>520.58</v>
       </c>
       <c r="C193">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D193">
-        <v>19.93</v>
+        <v>160</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B194">
-        <v>506.38</v>
+        <v>294.38</v>
       </c>
       <c r="C194">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D194">
-        <v>106.75</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B195">
-        <v>809.77</v>
+        <v>232.52</v>
       </c>
       <c r="C195">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D195">
-        <v>230.62</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B196">
-        <v>749.96</v>
+        <v>203.83</v>
       </c>
       <c r="C196">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D196">
-        <v>206.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B197">
-        <v>455.09</v>
+        <v>187.29</v>
       </c>
       <c r="C197">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D197">
-        <v>85.81</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B198">
-        <v>337.83</v>
+        <v>174.42</v>
       </c>
       <c r="C198">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D198">
-        <v>37.93</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B199">
-        <v>307.09</v>
+        <v>162.92</v>
       </c>
       <c r="C199">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D199">
-        <v>25.38</v>
+        <v>-18.63</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B200">
-        <v>254.1</v>
+        <v>155.3</v>
       </c>
       <c r="C200">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D200">
-        <v>3.74</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B201">
-        <v>215.79</v>
+        <v>150.17</v>
       </c>
       <c r="C201">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D201">
-        <v>-11.9</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B202">
-        <v>194.35</v>
+        <v>144.33</v>
       </c>
       <c r="C202">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D202">
-        <v>-20.65</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B203">
-        <v>180.04</v>
+        <v>139.68</v>
       </c>
       <c r="C203">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D203">
-        <v>-26.49</v>
+        <v>-30.24</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B204">
-        <v>169.22</v>
+        <v>135.79</v>
       </c>
       <c r="C204">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D204">
-        <v>-30.91</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B205">
-        <v>160.87</v>
+        <v>132.7</v>
       </c>
       <c r="C205">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D205">
-        <v>-34.32</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B206">
-        <v>154</v>
+        <v>130.32</v>
       </c>
       <c r="C206">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D206">
-        <v>-37.12</v>
+        <v>-34.91</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B207">
-        <v>148.7</v>
+        <v>128.14</v>
       </c>
       <c r="C207">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D207">
-        <v>-39.29</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B208">
-        <v>144.04</v>
+        <v>126.32</v>
       </c>
       <c r="C208">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D208">
-        <v>-41.19</v>
+        <v>-36.91</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B209">
-        <v>140.62</v>
+        <v>125</v>
       </c>
       <c r="C209">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D209">
-        <v>-42.59</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B210">
-        <v>139.21</v>
+        <v>124.48</v>
       </c>
       <c r="C210">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D210">
-        <v>-43.16</v>
+        <v>-37.83</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B211">
-        <v>141.21</v>
+        <v>124.22</v>
       </c>
       <c r="C211">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D211">
-        <v>-42.35</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B212">
-        <v>139.58</v>
+        <v>123.42</v>
       </c>
       <c r="C212">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D212">
-        <v>-43.01</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B213">
-        <v>135.83</v>
+        <v>126.82</v>
       </c>
       <c r="C213">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D213">
-        <v>-44.54</v>
+        <v>-36.66</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B214">
-        <v>143.32</v>
+        <v>133.04</v>
       </c>
       <c r="C214">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D214">
-        <v>-41.49</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B215">
-        <v>410.33</v>
+        <v>127.43</v>
       </c>
       <c r="C215">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D215">
-        <v>104.93</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B216">
-        <v>347.95</v>
+        <v>124.04</v>
       </c>
       <c r="C216">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D216">
-        <v>73.78</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B217">
-        <v>232.13</v>
+        <v>121.65</v>
       </c>
       <c r="C217">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D217">
-        <v>15.93</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B218">
-        <v>197.04</v>
+        <v>119.62</v>
       </c>
       <c r="C218">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D218">
-        <v>-1.59</v>
+        <v>-37.19</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B219">
-        <v>177.77</v>
+        <v>118.5</v>
       </c>
       <c r="C219">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D219">
-        <v>-11.21</v>
+        <v>-37.78</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B220">
-        <v>165.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B220" t="s">
+        <v>4</v>
       </c>
       <c r="C220">
-        <v>200.23</v>
-      </c>
-      <c r="D220">
-        <v>-17.22</v>
+        <v>190.45</v>
+      </c>
+      <c r="D220" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B221">
-        <v>212.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B221" t="s">
+        <v>4</v>
       </c>
       <c r="C221">
-        <v>200.23</v>
-      </c>
-      <c r="D221">
-        <v>6.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D221" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B222">
-        <v>231.5</v>
+        <v>44051</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
       </c>
       <c r="C222">
-        <v>200.23</v>
-      </c>
-      <c r="D222">
-        <v>15.62</v>
+        <v>190.45</v>
+      </c>
+      <c r="D222" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B223">
-        <v>652.21</v>
+        <v>44052</v>
+      </c>
+      <c r="B223" t="s">
+        <v>4</v>
       </c>
       <c r="C223">
-        <v>200.23</v>
-      </c>
-      <c r="D223">
-        <v>225.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D223" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B224">
-        <v>520.58</v>
+        <v>44053</v>
+      </c>
+      <c r="B224" t="s">
+        <v>4</v>
       </c>
       <c r="C224">
-        <v>200.23</v>
-      </c>
-      <c r="D224">
-        <v>160</v>
+        <v>190.45</v>
+      </c>
+      <c r="D224" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B225">
-        <v>294.38</v>
+        <v>44054</v>
+      </c>
+      <c r="B225" t="s">
+        <v>4</v>
       </c>
       <c r="C225">
-        <v>200.23</v>
-      </c>
-      <c r="D225">
-        <v>47.02</v>
+        <v>190.45</v>
+      </c>
+      <c r="D225" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B226">
-        <v>232.52</v>
+        <v>44055</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>200.23</v>
-      </c>
-      <c r="D226">
-        <v>16.13</v>
+        <v>190.45</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B227">
-        <v>203.83</v>
+        <v>44056</v>
+      </c>
+      <c r="B227" t="s">
+        <v>4</v>
       </c>
       <c r="C227">
-        <v>200.23</v>
-      </c>
-      <c r="D227">
-        <v>1.8</v>
+        <v>190.45</v>
+      </c>
+      <c r="D227" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B228">
-        <v>187.29</v>
+        <v>44057</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
       </c>
       <c r="C228">
-        <v>200.23</v>
-      </c>
-      <c r="D228">
-        <v>-6.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B229">
-        <v>174.42</v>
+        <v>44058</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
       </c>
       <c r="C229">
-        <v>200.23</v>
-      </c>
-      <c r="D229">
-        <v>-12.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B230">
-        <v>162.92</v>
+        <v>44059</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
       </c>
       <c r="C230">
-        <v>200.23</v>
-      </c>
-      <c r="D230">
-        <v>-18.63</v>
+        <v>190.45</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B231">
-        <v>155.3</v>
+        <v>44060</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>200.23</v>
-      </c>
-      <c r="D231">
-        <v>-22.44</v>
+        <v>190.45</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B232">
-        <v>150.17</v>
+        <v>44061</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
       </c>
       <c r="C232">
-        <v>200.23</v>
-      </c>
-      <c r="D232">
-        <v>-25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B233">
-        <v>144.33</v>
+        <v>44062</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
       </c>
       <c r="C233">
-        <v>200.23</v>
-      </c>
-      <c r="D233">
-        <v>-27.92</v>
+        <v>190.45</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B234">
-        <v>139.68</v>
+        <v>44063</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
       </c>
       <c r="C234">
-        <v>200.23</v>
-      </c>
-      <c r="D234">
-        <v>-30.24</v>
+        <v>190.45</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B235">
-        <v>135.79</v>
+        <v>44064</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4</v>
       </c>
       <c r="C235">
-        <v>200.23</v>
-      </c>
-      <c r="D235">
-        <v>-32.18</v>
+        <v>190.45</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B236">
-        <v>132.7</v>
+        <v>44065</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>200.23</v>
-      </c>
-      <c r="D236">
-        <v>-33.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B237">
-        <v>130.32</v>
+        <v>44066</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>200.23</v>
-      </c>
-      <c r="D237">
-        <v>-34.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B238">
-        <v>128.14</v>
+        <v>185.67</v>
       </c>
       <c r="C238">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D238">
-        <v>-36</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B239">
-        <v>126.32</v>
+        <v>175.21</v>
       </c>
       <c r="C239">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D239">
-        <v>-36.91</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B240">
-        <v>125</v>
+        <v>162.82</v>
       </c>
       <c r="C240">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D240">
-        <v>-37.57</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B241">
-        <v>124.48</v>
+        <v>153.82</v>
       </c>
       <c r="C241">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D241">
-        <v>-37.83</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B242">
-        <v>124.22</v>
+        <v>146.96</v>
       </c>
       <c r="C242">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D242">
-        <v>-37.96</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B243">
-        <v>123.42</v>
+        <v>141.35</v>
       </c>
       <c r="C243">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D243">
-        <v>-38.36</v>
+        <v>-25.78</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B244">
-        <v>126.82</v>
+        <v>136.87</v>
       </c>
       <c r="C244">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D244">
-        <v>-36.66</v>
+        <v>-28.13</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B245">
-        <v>133.04</v>
+        <v>133.38</v>
       </c>
       <c r="C245">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D245">
-        <v>-33.55</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B246">
-        <v>127.43</v>
+        <v>130.25</v>
       </c>
       <c r="C246">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D246">
-        <v>-33.09</v>
+        <v>-39.72</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B247">
-        <v>124.04</v>
+        <v>127.43</v>
       </c>
       <c r="C247">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D247">
-        <v>-34.87</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B248">
-        <v>121.65</v>
+        <v>125.08</v>
       </c>
       <c r="C248">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D248">
-        <v>-36.12</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B249">
-        <v>119.62</v>
+        <v>123.48</v>
       </c>
       <c r="C249">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D249">
-        <v>-37.19</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B250">
-        <v>118.5</v>
+        <v>121.65</v>
       </c>
       <c r="C250">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D250">
-        <v>-37.78</v>
+        <v>-43.7</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B251" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B251">
+        <v>120.58</v>
       </c>
       <c r="C251">
-        <v>190.45</v>
-      </c>
-      <c r="D251" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D251">
+        <v>-44.2</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B252" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B252">
+        <v>119.59</v>
       </c>
       <c r="C252">
-        <v>190.45</v>
-      </c>
-      <c r="D252" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D252">
+        <v>-44.66</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B253" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B253">
+        <v>118.64</v>
       </c>
       <c r="C253">
-        <v>190.45</v>
-      </c>
-      <c r="D253" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D253">
+        <v>-45.1</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B254" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B254">
+        <v>117.78</v>
       </c>
       <c r="C254">
-        <v>190.45</v>
-      </c>
-      <c r="D254" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D254">
+        <v>-45.49</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B255" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B255">
+        <v>116.91</v>
       </c>
       <c r="C255">
-        <v>190.45</v>
-      </c>
-      <c r="D255" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D255">
+        <v>-45.89</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B256" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B256">
+        <v>115.96</v>
       </c>
       <c r="C256">
-        <v>190.45</v>
-      </c>
-      <c r="D256" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D256">
+        <v>-46.34</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B257" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B257">
+        <v>115.22</v>
       </c>
       <c r="C257">
-        <v>190.45</v>
-      </c>
-      <c r="D257" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D257">
+        <v>-46.68</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B258" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B258">
+        <v>114.3</v>
       </c>
       <c r="C258">
-        <v>190.45</v>
-      </c>
-      <c r="D258" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D258">
+        <v>-47.1</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B259" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B259">
+        <v>113.64</v>
       </c>
       <c r="C259">
-        <v>190.45</v>
-      </c>
-      <c r="D259" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D259">
+        <v>-47.41</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B260" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B260">
+        <v>112.45</v>
       </c>
       <c r="C260">
-        <v>190.45</v>
-      </c>
-      <c r="D260" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D260">
+        <v>-47.96</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B261" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B261">
+        <v>111.88</v>
       </c>
       <c r="C261">
-        <v>190.45</v>
-      </c>
-      <c r="D261" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D261">
+        <v>-48.23</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B262" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B262">
+        <v>111.45</v>
       </c>
       <c r="C262">
-        <v>190.45</v>
-      </c>
-      <c r="D262" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D262">
+        <v>-48.42</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B263" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B263">
+        <v>111.38</v>
       </c>
       <c r="C263">
-        <v>190.45</v>
-      </c>
-      <c r="D263" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D263">
+        <v>-48.46</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B264" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B264">
+        <v>110.95</v>
       </c>
       <c r="C264">
-        <v>190.45</v>
-      </c>
-      <c r="D264" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D264">
+        <v>-48.65</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B265" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B265">
+        <v>109.91</v>
       </c>
       <c r="C265">
-        <v>190.45</v>
-      </c>
-      <c r="D265" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D265">
+        <v>-49.13</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B266" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B266">
+        <v>108.74</v>
       </c>
       <c r="C266">
-        <v>190.45</v>
-      </c>
-      <c r="D266" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D266">
+        <v>-49.68</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B267" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B267">
+        <v>108.14</v>
       </c>
       <c r="C267">
-        <v>190.45</v>
-      </c>
-      <c r="D267" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D267">
+        <v>-49.95</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B268" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B268">
+        <v>107.41</v>
       </c>
       <c r="C268">
-        <v>190.45</v>
-      </c>
-      <c r="D268" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D268">
+        <v>-50.29</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B269">
-        <v>185.67</v>
+        <v>106.67</v>
       </c>
       <c r="C269">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D269">
-        <v>-2.51</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B270">
-        <v>175.21</v>
+        <v>106.09</v>
       </c>
       <c r="C270">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D270">
-        <v>-8</v>
+        <v>-50.9</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B271">
-        <v>162.82</v>
+        <v>105.35</v>
       </c>
       <c r="C271">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D271">
-        <v>-14.51</v>
+        <v>-51.25</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B272">
-        <v>153.82</v>
+        <v>105.04</v>
       </c>
       <c r="C272">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D272">
-        <v>-19.23</v>
+        <v>-51.39</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B273">
-        <v>146.96</v>
+        <v>109.5</v>
       </c>
       <c r="C273">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D273">
-        <v>-22.84</v>
+        <v>-49.33</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B274">
-        <v>141.35</v>
+        <v>116.7</v>
       </c>
       <c r="C274">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D274">
-        <v>-25.78</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B275">
-        <v>136.87</v>
+        <v>116.38</v>
       </c>
       <c r="C275">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D275">
-        <v>-28.13</v>
+        <v>-46.14</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B276">
-        <v>133.38</v>
+        <v>115.96</v>
       </c>
       <c r="C276">
-        <v>190.45</v>
+        <v>310.64</v>
       </c>
       <c r="D276">
-        <v>-29.97</v>
+        <v>-62.67</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B277">
-        <v>130.25</v>
+        <v>112.04</v>
       </c>
       <c r="C277">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D277">
-        <v>-39.72</v>
+        <v>-63.93</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B278">
-        <v>127.43</v>
+        <v>109.25</v>
       </c>
       <c r="C278">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D278">
-        <v>-41.03</v>
+        <v>-64.83</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B279">
-        <v>125.08</v>
+        <v>107.48</v>
       </c>
       <c r="C279">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D279">
-        <v>-42.11</v>
+        <v>-65.40000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B280">
-        <v>123.48</v>
+        <v>105.92</v>
       </c>
       <c r="C280">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D280">
-        <v>-42.86</v>
+        <v>-65.90000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B281">
-        <v>121.65</v>
+        <v>104.61</v>
       </c>
       <c r="C281">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D281">
-        <v>-43.7</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B282">
-        <v>120.58</v>
+        <v>103.71</v>
       </c>
       <c r="C282">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D282">
-        <v>-44.2</v>
+        <v>-66.61</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B283">
-        <v>119.59</v>
+        <v>104.79</v>
       </c>
       <c r="C283">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D283">
-        <v>-44.66</v>
+        <v>-66.27</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B284">
-        <v>118.64</v>
+        <v>119.09</v>
       </c>
       <c r="C284">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D284">
-        <v>-45.1</v>
+        <v>-61.66</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B285">
-        <v>117.78</v>
+        <v>120</v>
       </c>
       <c r="C285">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D285">
-        <v>-45.49</v>
+        <v>-61.37</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B286">
-        <v>116.91</v>
+        <v>116.67</v>
       </c>
       <c r="C286">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D286">
-        <v>-45.89</v>
+        <v>-62.44</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B287">
-        <v>115.96</v>
+        <v>115.83</v>
       </c>
       <c r="C287">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D287">
-        <v>-46.34</v>
+        <v>-62.71</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B288">
-        <v>115.22</v>
+        <v>113.96</v>
       </c>
       <c r="C288">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D288">
-        <v>-46.68</v>
+        <v>-63.32</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B289">
-        <v>114.3</v>
+        <v>112.27</v>
       </c>
       <c r="C289">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D289">
-        <v>-47.1</v>
+        <v>-63.86</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B290">
-        <v>113.64</v>
+        <v>113.4</v>
       </c>
       <c r="C290">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D290">
-        <v>-47.41</v>
+        <v>-63.49</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B291">
-        <v>112.45</v>
+        <v>124.09</v>
       </c>
       <c r="C291">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D291">
-        <v>-47.96</v>
+        <v>-60.05</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B292">
-        <v>111.88</v>
+        <v>129.46</v>
       </c>
       <c r="C292">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D292">
-        <v>-48.23</v>
+        <v>-58.33</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B293">
-        <v>111.45</v>
+        <v>124.78</v>
       </c>
       <c r="C293">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D293">
-        <v>-48.42</v>
+        <v>-59.83</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B294">
-        <v>111.38</v>
+        <v>120.13</v>
       </c>
       <c r="C294">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D294">
-        <v>-48.46</v>
+        <v>-61.33</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B295">
-        <v>110.95</v>
+        <v>116.46</v>
       </c>
       <c r="C295">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D295">
-        <v>-48.65</v>
+        <v>-62.51</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B296">
-        <v>109.91</v>
+        <v>113.62</v>
       </c>
       <c r="C296">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D296">
-        <v>-49.13</v>
+        <v>-63.42</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B297">
-        <v>108.74</v>
+        <v>111.25</v>
       </c>
       <c r="C297">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D297">
-        <v>-49.68</v>
+        <v>-64.19</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B298">
-        <v>108.14</v>
+        <v>109</v>
       </c>
       <c r="C298">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D298">
-        <v>-49.95</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B299">
-        <v>107.41</v>
+        <v>107.21</v>
       </c>
       <c r="C299">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D299">
-        <v>-50.29</v>
+        <v>-65.48999999999999</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B300">
-        <v>106.67</v>
+        <v>105.52</v>
       </c>
       <c r="C300">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D300">
-        <v>-50.64</v>
+        <v>-66.03</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B301">
-        <v>106.09</v>
+        <v>105.04</v>
       </c>
       <c r="C301">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D301">
-        <v>-50.9</v>
+        <v>-66.19</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B302">
-        <v>105.35</v>
+        <v>105.17</v>
       </c>
       <c r="C302">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D302">
-        <v>-51.25</v>
+        <v>-66.15000000000001</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B303">
-        <v>105.04</v>
+        <v>105</v>
       </c>
       <c r="C303">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D303">
-        <v>-51.39</v>
+        <v>-66.2</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B304">
-        <v>109.5</v>
+        <v>104.64</v>
       </c>
       <c r="C304">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D304">
-        <v>-49.33</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B305">
-        <v>116.7</v>
+        <v>103.7</v>
       </c>
       <c r="C305">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D305">
-        <v>-46</v>
+        <v>-66.62</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B306">
-        <v>116.38</v>
+        <v>103.17</v>
       </c>
       <c r="C306">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D306">
-        <v>-46.14</v>
+        <v>-66.79000000000001</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B307">
-        <v>115.96</v>
+        <v>102.68</v>
       </c>
       <c r="C307">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D307">
-        <v>-62.67</v>
+        <v>-59.58</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B308">
-        <v>112.04</v>
+        <v>102.57</v>
       </c>
       <c r="C308">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D308">
-        <v>-63.93</v>
+        <v>-59.62</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B309">
-        <v>109.25</v>
+        <v>103</v>
       </c>
       <c r="C309">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D309">
-        <v>-64.83</v>
+        <v>-59.45</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B310">
-        <v>107.48</v>
+        <v>102.52</v>
       </c>
       <c r="C310">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D310">
-        <v>-65.40000000000001</v>
+        <v>-59.64</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B311">
-        <v>105.92</v>
+        <v>102.41</v>
       </c>
       <c r="C311">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D311">
-        <v>-65.90000000000001</v>
+        <v>-59.68</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B312">
-        <v>104.61</v>
+        <v>101.3</v>
       </c>
       <c r="C312">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D312">
-        <v>-66.31999999999999</v>
+        <v>-60.12</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B313">
-        <v>103.71</v>
+        <v>44142</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
       </c>
       <c r="C313">
-        <v>310.64</v>
-      </c>
-      <c r="D313">
-        <v>-66.61</v>
+        <v>254.02</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B314">
-        <v>104.79</v>
+        <v>44143</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
       </c>
       <c r="C314">
-        <v>310.64</v>
-      </c>
-      <c r="D314">
-        <v>-66.27</v>
+        <v>254.02</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B315">
-        <v>119.09</v>
+        <v>100</v>
       </c>
       <c r="C315">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D315">
-        <v>-61.66</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B316">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C316">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D316">
-        <v>-61.37</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B317">
-        <v>116.67</v>
+        <v>101.09</v>
       </c>
       <c r="C317">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D317">
-        <v>-62.44</v>
+        <v>-60.2</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B318">
-        <v>115.83</v>
+        <v>101.13</v>
       </c>
       <c r="C318">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D318">
-        <v>-62.71</v>
+        <v>-60.19</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B319">
-        <v>113.96</v>
+        <v>102.91</v>
       </c>
       <c r="C319">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D319">
-        <v>-63.32</v>
+        <v>-59.49</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B320">
-        <v>112.27</v>
+        <v>104.65</v>
       </c>
       <c r="C320">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D320">
-        <v>-63.86</v>
+        <v>-58.8</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B321">
-        <v>113.4</v>
+        <v>107.74</v>
       </c>
       <c r="C321">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D321">
-        <v>-63.49</v>
+        <v>-57.59</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B322">
-        <v>124.09</v>
+        <v>111.22</v>
       </c>
       <c r="C322">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D322">
-        <v>-60.05</v>
+        <v>-56.22</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B323">
-        <v>129.46</v>
+        <v>108.09</v>
       </c>
       <c r="C323">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D323">
-        <v>-58.33</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B324">
-        <v>124.78</v>
+        <v>106.14</v>
       </c>
       <c r="C324">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D324">
-        <v>-59.83</v>
+        <v>-58.22</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B325">
-        <v>120.13</v>
+        <v>105.62</v>
       </c>
       <c r="C325">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D325">
-        <v>-61.33</v>
+        <v>-58.42</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B326">
-        <v>116.46</v>
+        <v>104.38</v>
       </c>
       <c r="C326">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D326">
-        <v>-62.51</v>
+        <v>-58.91</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B327">
-        <v>113.62</v>
+        <v>102.62</v>
       </c>
       <c r="C327">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D327">
-        <v>-63.42</v>
+        <v>-59.6</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B328">
-        <v>111.25</v>
+        <v>101.46</v>
       </c>
       <c r="C328">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D328">
-        <v>-64.19</v>
+        <v>-60.06</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B329">
-        <v>109</v>
+        <v>100.6</v>
       </c>
       <c r="C329">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D329">
-        <v>-64.91</v>
+        <v>-60.4</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B330">
-        <v>107.21</v>
+        <v>44159</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
       </c>
       <c r="C330">
-        <v>310.64</v>
-      </c>
-      <c r="D330">
-        <v>-65.48999999999999</v>
+        <v>254.02</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B331">
-        <v>105.52</v>
+        <v>44160</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
       </c>
       <c r="C331">
-        <v>310.64</v>
-      </c>
-      <c r="D331">
-        <v>-66.03</v>
+        <v>254.02</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B332">
-        <v>105.04</v>
+        <v>44161</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>310.64</v>
-      </c>
-      <c r="D332">
-        <v>-66.19</v>
+        <v>254.02</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44131</v>
-      </c>
-      <c r="B333">
-        <v>105.17</v>
+        <v>44162</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
       </c>
       <c r="C333">
-        <v>310.64</v>
-      </c>
-      <c r="D333">
-        <v>-66.15000000000001</v>
+        <v>254.02</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44132</v>
-      </c>
-      <c r="B334">
-        <v>105</v>
+        <v>44163</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
       </c>
       <c r="C334">
-        <v>310.64</v>
-      </c>
-      <c r="D334">
-        <v>-66.2</v>
+        <v>254.02</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44133</v>
-      </c>
-      <c r="B335">
-        <v>104.64</v>
+        <v>44164</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
       </c>
       <c r="C335">
-        <v>310.64</v>
-      </c>
-      <c r="D335">
-        <v>-66.31999999999999</v>
+        <v>254.02</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B336">
-        <v>103.7</v>
+        <v>101.65</v>
       </c>
       <c r="C336">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D336">
-        <v>-66.62</v>
+        <v>-59.98</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B337">
-        <v>103.17</v>
+        <v>110.58</v>
       </c>
       <c r="C337">
-        <v>310.64</v>
+        <v>217.71</v>
       </c>
       <c r="D337">
-        <v>-66.79000000000001</v>
+        <v>-49.21</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B338">
-        <v>102.68</v>
+        <v>108.5</v>
       </c>
       <c r="C338">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D338">
-        <v>-59.58</v>
+        <v>-50.16</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B339">
-        <v>102.57</v>
+        <v>44168</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
       </c>
       <c r="C339">
-        <v>254.02</v>
-      </c>
-      <c r="D339">
-        <v>-59.62</v>
+        <v>217.71</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B340">
-        <v>103</v>
+        <v>214.25</v>
       </c>
       <c r="C340">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D340">
-        <v>-59.45</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B341">
-        <v>102.52</v>
+        <v>231.35</v>
       </c>
       <c r="C341">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D341">
-        <v>-59.64</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B342">
-        <v>102.41</v>
+        <v>243.12</v>
       </c>
       <c r="C342">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D342">
-        <v>-59.68</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B343">
-        <v>101.3</v>
+        <v>201.39</v>
       </c>
       <c r="C343">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D343">
-        <v>-60.12</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B344" t="s">
-        <v>4</v>
+        <v>44173</v>
+      </c>
+      <c r="B344">
+        <v>175.17</v>
       </c>
       <c r="C344">
-        <v>254.02</v>
-      </c>
-      <c r="D344" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D344">
+        <v>-19.54</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B345" t="s">
-        <v>4</v>
+        <v>44174</v>
+      </c>
+      <c r="B345">
+        <v>156.35</v>
       </c>
       <c r="C345">
-        <v>254.02</v>
-      </c>
-      <c r="D345" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D345">
+        <v>-28.18</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B346">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C346">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D346">
-        <v>-60.63</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B347">
-        <v>100</v>
+        <v>135.23</v>
       </c>
       <c r="C347">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D347">
-        <v>-60.63</v>
+        <v>-37.89</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B348">
-        <v>101.09</v>
+        <v>128.75</v>
       </c>
       <c r="C348">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D348">
-        <v>-60.2</v>
+        <v>-40.86</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B349">
-        <v>101.13</v>
+        <v>124.17</v>
       </c>
       <c r="C349">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D349">
-        <v>-60.19</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B350">
-        <v>102.91</v>
+        <v>121.7</v>
       </c>
       <c r="C350">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D350">
-        <v>-59.49</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B351">
-        <v>104.65</v>
+        <v>119.43</v>
       </c>
       <c r="C351">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D351">
-        <v>-58.8</v>
+        <v>-45.14</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B352">
-        <v>107.74</v>
+        <v>117.26</v>
       </c>
       <c r="C352">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D352">
-        <v>-57.59</v>
+        <v>-46.14</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B353">
-        <v>111.22</v>
+        <v>118.09</v>
       </c>
       <c r="C353">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D353">
-        <v>-56.22</v>
+        <v>-45.76</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B354">
-        <v>108.09</v>
+        <v>116.75</v>
       </c>
       <c r="C354">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D354">
-        <v>-57.45</v>
+        <v>-46.37</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B355">
-        <v>106.14</v>
+        <v>114.76</v>
       </c>
       <c r="C355">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D355">
-        <v>-58.22</v>
+        <v>-47.28</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B356">
-        <v>105.62</v>
+        <v>123.88</v>
       </c>
       <c r="C356">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D356">
-        <v>-58.42</v>
+        <v>-43.1</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B357">
-        <v>104.38</v>
+        <v>134.21</v>
       </c>
       <c r="C357">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D357">
-        <v>-58.91</v>
+        <v>-38.35</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B358">
-        <v>102.62</v>
+        <v>136.58</v>
       </c>
       <c r="C358">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D358">
-        <v>-59.6</v>
+        <v>-37.26</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B359">
-        <v>101.46</v>
+        <v>136.52</v>
       </c>
       <c r="C359">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D359">
-        <v>-60.06</v>
+        <v>-37.29</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B360">
-        <v>100.6</v>
+        <v>127.08</v>
       </c>
       <c r="C360">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D360">
-        <v>-60.4</v>
+        <v>-41.63</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44159</v>
-      </c>
-      <c r="B361" t="s">
-        <v>4</v>
+        <v>44190</v>
+      </c>
+      <c r="B361">
+        <v>120.96</v>
       </c>
       <c r="C361">
-        <v>254.02</v>
-      </c>
-      <c r="D361" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D361">
+        <v>-44.44</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B362" t="s">
-        <v>4</v>
+        <v>44191</v>
+      </c>
+      <c r="B362">
+        <v>116.79</v>
       </c>
       <c r="C362">
-        <v>254.02</v>
-      </c>
-      <c r="D362" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D362">
+        <v>-46.35</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44161</v>
-      </c>
-      <c r="B363" t="s">
-        <v>4</v>
+        <v>44192</v>
+      </c>
+      <c r="B363">
+        <v>113.5</v>
       </c>
       <c r="C363">
-        <v>254.02</v>
-      </c>
-      <c r="D363" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D363">
+        <v>-47.87</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B364" t="s">
-        <v>4</v>
+        <v>44193</v>
+      </c>
+      <c r="B364">
+        <v>111.13</v>
       </c>
       <c r="C364">
-        <v>254.02</v>
-      </c>
-      <c r="D364" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D364">
+        <v>-48.95</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B365" t="s">
-        <v>4</v>
+        <v>44194</v>
+      </c>
+      <c r="B365">
+        <v>111.5</v>
       </c>
       <c r="C365">
-        <v>254.02</v>
-      </c>
-      <c r="D365" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D365">
+        <v>-48.78</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44164</v>
-      </c>
-      <c r="B366" t="s">
-        <v>4</v>
+        <v>44195</v>
+      </c>
+      <c r="B366">
+        <v>135.13</v>
       </c>
       <c r="C366">
-        <v>254.02</v>
-      </c>
-      <c r="D366" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D366">
+        <v>-37.93</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B367">
-        <v>101.65</v>
+        <v>129.92</v>
       </c>
       <c r="C367">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D367">
-        <v>-59.98</v>
+        <v>-40.32</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -586,6 +586,20 @@
         <v>-36.03</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>119.88</v>
+      </c>
+      <c r="C14">
+        <v>205.8</v>
+      </c>
+      <c r="D14">
+        <v>-41.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5742,6 +5756,216 @@
         <v>-40.32</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B368">
+        <v>133.78</v>
+      </c>
+      <c r="C368">
+        <v>205.8</v>
+      </c>
+      <c r="D368">
+        <v>-34.99</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B369">
+        <v>128.83</v>
+      </c>
+      <c r="C369">
+        <v>205.8</v>
+      </c>
+      <c r="D369">
+        <v>-37.4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B370">
+        <v>122.26</v>
+      </c>
+      <c r="C370">
+        <v>205.8</v>
+      </c>
+      <c r="D370">
+        <v>-40.59</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B371">
+        <v>118.29</v>
+      </c>
+      <c r="C371">
+        <v>205.8</v>
+      </c>
+      <c r="D371">
+        <v>-42.52</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B372">
+        <v>116.29</v>
+      </c>
+      <c r="C372">
+        <v>205.8</v>
+      </c>
+      <c r="D372">
+        <v>-43.49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B373">
+        <v>118.83</v>
+      </c>
+      <c r="C373">
+        <v>205.8</v>
+      </c>
+      <c r="D373">
+        <v>-42.26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B374">
+        <v>118</v>
+      </c>
+      <c r="C374">
+        <v>205.8</v>
+      </c>
+      <c r="D374">
+        <v>-42.66</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B375">
+        <v>116.71</v>
+      </c>
+      <c r="C375">
+        <v>205.8</v>
+      </c>
+      <c r="D375">
+        <v>-43.29</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B376">
+        <v>117.5</v>
+      </c>
+      <c r="C376">
+        <v>205.8</v>
+      </c>
+      <c r="D376">
+        <v>-42.91</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B377">
+        <v>116.69</v>
+      </c>
+      <c r="C377">
+        <v>205.8</v>
+      </c>
+      <c r="D377">
+        <v>-43.3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B378" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378">
+        <v>205.8</v>
+      </c>
+      <c r="D378" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B379">
+        <v>113.19</v>
+      </c>
+      <c r="C379">
+        <v>205.8</v>
+      </c>
+      <c r="D379">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B380">
+        <v>116.5</v>
+      </c>
+      <c r="C380">
+        <v>205.8</v>
+      </c>
+      <c r="D380">
+        <v>-43.39</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B381">
+        <v>122.52</v>
+      </c>
+      <c r="C381">
+        <v>205.8</v>
+      </c>
+      <c r="D381">
+        <v>-40.46</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B382">
+        <v>118.96</v>
+      </c>
+      <c r="C382">
+        <v>205.8</v>
+      </c>
+      <c r="D382">
+        <v>-42.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B2">
-        <v>175.51</v>
+        <v>172.17</v>
       </c>
       <c r="C2">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D2">
-        <v>-14.72</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B3">
-        <v>172.17</v>
+        <v>119.43</v>
       </c>
       <c r="C3">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D3">
-        <v>-21.23</v>
+        <v>-33.79</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B4">
-        <v>119.43</v>
+        <v>106.97</v>
       </c>
       <c r="C4">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D4">
-        <v>-33.79</v>
+        <v>-46.13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B5">
-        <v>106.97</v>
+        <v>256.91</v>
       </c>
       <c r="C5">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D5">
-        <v>-46.13</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B6">
-        <v>256.91</v>
+        <v>288.42</v>
       </c>
       <c r="C6">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D6">
-        <v>-8.039999999999999</v>
+        <v>17.76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B7">
-        <v>288.42</v>
+        <v>206.55</v>
       </c>
       <c r="C7">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D7">
-        <v>17.76</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B8">
-        <v>206.55</v>
+        <v>142.1</v>
       </c>
       <c r="C8">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D8">
-        <v>3.16</v>
+        <v>-25.39</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B9">
-        <v>142.1</v>
+        <v>114.62</v>
       </c>
       <c r="C9">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D9">
-        <v>-25.39</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B10">
-        <v>114.62</v>
+        <v>111.72</v>
       </c>
       <c r="C10">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D10">
-        <v>-46.96</v>
+        <v>-64.04000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B11">
-        <v>111.72</v>
+        <v>103.35</v>
       </c>
       <c r="C11">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D11">
-        <v>-64.04000000000001</v>
+        <v>-59.31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B12">
-        <v>103.35</v>
+        <v>139.27</v>
       </c>
       <c r="C12">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D12">
-        <v>-59.31</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B13">
-        <v>139.27</v>
+        <v>309.19</v>
       </c>
       <c r="C13">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D13">
-        <v>-36.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>119.88</v>
-      </c>
-      <c r="C14">
-        <v>205.8</v>
-      </c>
-      <c r="D14">
-        <v>-41.75</v>
+        <v>50.24</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5336 +620,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43831</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>43862</v>
+      </c>
+      <c r="B2">
+        <v>695.87</v>
       </c>
       <c r="C2">
-        <v>205.8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D2">
+        <v>218.37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43832</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>43863</v>
+      </c>
+      <c r="B3">
+        <v>247.09</v>
       </c>
       <c r="C3">
-        <v>205.8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D3">
+        <v>13.05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43833</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>43864</v>
+      </c>
+      <c r="B4">
+        <v>253.14</v>
       </c>
       <c r="C4">
-        <v>205.8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D4">
+        <v>15.82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43834</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+        <v>43865</v>
+      </c>
+      <c r="B5">
+        <v>321</v>
       </c>
       <c r="C5">
-        <v>205.8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D5">
+        <v>46.86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43835</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>43866</v>
+      </c>
+      <c r="B6">
+        <v>212.33</v>
       </c>
       <c r="C6">
-        <v>205.8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D6">
+        <v>-2.85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43836</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
+        <v>43867</v>
+      </c>
+      <c r="B7">
+        <v>175.48</v>
       </c>
       <c r="C7">
-        <v>205.8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D7">
+        <v>-19.72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43837</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>43868</v>
+      </c>
+      <c r="B8">
+        <v>156.87</v>
       </c>
       <c r="C8">
-        <v>205.8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D8">
+        <v>-28.23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43838</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
+        <v>43869</v>
+      </c>
+      <c r="B9">
+        <v>144</v>
       </c>
       <c r="C9">
-        <v>205.8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D9">
+        <v>-34.12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B10">
-        <v>108.1</v>
+        <v>140.65</v>
       </c>
       <c r="C10">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D10">
-        <v>-47.47</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B11">
-        <v>108.83</v>
+        <v>135.3</v>
       </c>
       <c r="C11">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D11">
-        <v>-47.12</v>
+        <v>-38.1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B12">
-        <v>118.23</v>
+        <v>136.46</v>
       </c>
       <c r="C12">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D12">
-        <v>-42.55</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B13">
-        <v>156.21</v>
+        <v>130.39</v>
       </c>
       <c r="C13">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D13">
-        <v>-24.1</v>
+        <v>-40.34</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B14">
-        <v>173.29</v>
+        <v>125.58</v>
       </c>
       <c r="C14">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D14">
-        <v>-15.8</v>
+        <v>-42.54</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B15">
-        <v>152.58</v>
+        <v>124.65</v>
       </c>
       <c r="C15">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D15">
-        <v>-25.86</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B16">
-        <v>141.92</v>
+        <v>122.29</v>
       </c>
       <c r="C16">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D16">
-        <v>-31.04</v>
+        <v>-44.05</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B17">
-        <v>136.11</v>
+        <v>118.13</v>
       </c>
       <c r="C17">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D17">
-        <v>-33.86</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B18">
-        <v>199.88</v>
+        <v>116.09</v>
       </c>
       <c r="C18">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D18">
-        <v>-2.88</v>
+        <v>-46.89</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B19">
-        <v>268.25</v>
+        <v>114.46</v>
       </c>
       <c r="C19">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D19">
-        <v>30.35</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B20">
-        <v>186.62</v>
+        <v>113.86</v>
       </c>
       <c r="C20">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D20">
-        <v>-9.32</v>
+        <v>-47.91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B21">
-        <v>157.04</v>
+        <v>115.7</v>
       </c>
       <c r="C21">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D21">
-        <v>-23.69</v>
+        <v>-47.07</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B22">
-        <v>141.12</v>
+        <v>112.43</v>
       </c>
       <c r="C22">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D22">
-        <v>-31.43</v>
+        <v>-48.56</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B23">
-        <v>131.83</v>
+        <v>110.58</v>
       </c>
       <c r="C23">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D23">
-        <v>-35.94</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B24">
-        <v>126.7</v>
+        <v>108.75</v>
       </c>
       <c r="C24">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D24">
-        <v>-38.44</v>
+        <v>-50.24</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B25">
-        <v>125.38</v>
+        <v>106.78</v>
       </c>
       <c r="C25">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D25">
-        <v>-39.08</v>
+        <v>-51.14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B26">
-        <v>128.12</v>
+        <v>110.83</v>
       </c>
       <c r="C26">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D26">
-        <v>-37.74</v>
+        <v>-49.29</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B27">
-        <v>124.04</v>
+        <v>148.38</v>
       </c>
       <c r="C27">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D27">
-        <v>-39.73</v>
+        <v>-32.12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B28">
-        <v>118.61</v>
+        <v>253</v>
       </c>
       <c r="C28">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D28">
-        <v>-42.37</v>
+        <v>15.75</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B29">
-        <v>114.5</v>
+        <v>184.96</v>
       </c>
       <c r="C29">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D29">
-        <v>-44.36</v>
+        <v>-15.38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B30">
-        <v>111.46</v>
+        <v>157.75</v>
       </c>
       <c r="C30">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D30">
-        <v>-45.84</v>
+        <v>-27.83</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B31">
-        <v>131.61</v>
+        <v>142.96</v>
       </c>
       <c r="C31">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D31">
-        <v>-36.05</v>
+        <v>-20.75</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B32">
-        <v>876.26</v>
+        <v>133</v>
       </c>
       <c r="C32">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D32">
-        <v>325.78</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B33">
-        <v>695.87</v>
+        <v>126.26</v>
       </c>
       <c r="C33">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D33">
-        <v>218.37</v>
+        <v>-30.01</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B34">
-        <v>247.09</v>
+        <v>121.83</v>
       </c>
       <c r="C34">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D34">
-        <v>13.05</v>
+        <v>-32.46</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B35">
-        <v>253.14</v>
+        <v>118.7</v>
       </c>
       <c r="C35">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D35">
-        <v>15.82</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B36">
-        <v>321</v>
+        <v>116.17</v>
       </c>
       <c r="C36">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D36">
-        <v>46.86</v>
+        <v>-35.6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B37">
-        <v>212.33</v>
+        <v>113.91</v>
       </c>
       <c r="C37">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D37">
-        <v>-2.85</v>
+        <v>-36.85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B38">
-        <v>175.48</v>
+        <v>112.86</v>
       </c>
       <c r="C38">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D38">
-        <v>-19.72</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B39">
-        <v>156.87</v>
+        <v>111.54</v>
       </c>
       <c r="C39">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D39">
-        <v>-28.23</v>
+        <v>-38.17</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B40">
-        <v>144</v>
+        <v>109.12</v>
       </c>
       <c r="C40">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D40">
-        <v>-34.12</v>
+        <v>-39.51</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B41">
-        <v>140.65</v>
+        <v>107.5</v>
       </c>
       <c r="C41">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D41">
-        <v>-35.65</v>
+        <v>-40.41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B42">
-        <v>135.3</v>
+        <v>106.17</v>
       </c>
       <c r="C42">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D42">
-        <v>-38.1</v>
+        <v>-41.15</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B43">
-        <v>136.46</v>
+        <v>104.96</v>
       </c>
       <c r="C43">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D43">
-        <v>-37.57</v>
+        <v>-41.81</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B44">
-        <v>130.39</v>
+        <v>104.21</v>
       </c>
       <c r="C44">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D44">
-        <v>-40.34</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B45">
-        <v>125.58</v>
+        <v>103.43</v>
       </c>
       <c r="C45">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D45">
-        <v>-42.54</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B46">
-        <v>124.65</v>
+        <v>102.5</v>
       </c>
       <c r="C46">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D46">
-        <v>-42.97</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>122.29</v>
+        <v>101.48</v>
       </c>
       <c r="C47">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D47">
-        <v>-44.05</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B48">
-        <v>118.13</v>
+        <v>106.39</v>
       </c>
       <c r="C48">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D48">
-        <v>-45.95</v>
+        <v>-41.02</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B49">
-        <v>116.09</v>
+        <v>145.17</v>
       </c>
       <c r="C49">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D49">
-        <v>-46.89</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B50">
-        <v>114.46</v>
+        <v>183.46</v>
       </c>
       <c r="C50">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D50">
-        <v>-47.63</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B51">
-        <v>113.86</v>
+        <v>152.83</v>
       </c>
       <c r="C51">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D51">
-        <v>-47.91</v>
+        <v>-15.28</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B52">
-        <v>115.7</v>
+        <v>138.67</v>
       </c>
       <c r="C52">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D52">
-        <v>-47.07</v>
+        <v>-23.13</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B53">
-        <v>112.43</v>
+        <v>129.36</v>
       </c>
       <c r="C53">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D53">
-        <v>-48.56</v>
+        <v>-28.29</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>110.58</v>
+        <v>123.21</v>
       </c>
       <c r="C54">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D54">
-        <v>-49.41</v>
+        <v>-31.7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B55">
-        <v>108.75</v>
+        <v>118.71</v>
       </c>
       <c r="C55">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D55">
-        <v>-50.24</v>
+        <v>-34.19</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B56">
-        <v>106.78</v>
+        <v>115.42</v>
       </c>
       <c r="C56">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D56">
-        <v>-51.14</v>
+        <v>-36.02</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B57">
-        <v>110.83</v>
+        <v>112.87</v>
       </c>
       <c r="C57">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D57">
-        <v>-49.29</v>
+        <v>-37.43</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B58">
-        <v>148.38</v>
+        <v>111.29</v>
       </c>
       <c r="C58">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D58">
-        <v>-32.12</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B59">
-        <v>253</v>
+        <v>110.33</v>
       </c>
       <c r="C59">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D59">
-        <v>15.75</v>
+        <v>-38.84</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B60">
-        <v>184.96</v>
+        <v>109.58</v>
       </c>
       <c r="C60">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D60">
-        <v>-15.38</v>
+        <v>-39.25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B61">
-        <v>157.75</v>
+        <v>108.54</v>
       </c>
       <c r="C61">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D61">
-        <v>-27.83</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62">
-        <v>142.96</v>
+        <v>107.96</v>
       </c>
       <c r="C62">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D62">
-        <v>-20.75</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B63">
-        <v>133</v>
+        <v>107.3</v>
       </c>
       <c r="C63">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D63">
-        <v>-26.27</v>
+        <v>-45.96</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B64">
-        <v>126.26</v>
+        <v>106.27</v>
       </c>
       <c r="C64">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D64">
-        <v>-30.01</v>
+        <v>-46.48</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B65">
-        <v>121.83</v>
+        <v>105.43</v>
       </c>
       <c r="C65">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D65">
-        <v>-32.46</v>
+        <v>-46.9</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B66">
-        <v>118.7</v>
+        <v>104.65</v>
       </c>
       <c r="C66">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D66">
-        <v>-34.2</v>
+        <v>-47.3</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43896</v>
-      </c>
-      <c r="B67">
-        <v>116.17</v>
+        <v>43927</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>180.39</v>
-      </c>
-      <c r="D67">
-        <v>-35.6</v>
+        <v>198.56</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43897</v>
-      </c>
-      <c r="B68">
-        <v>113.91</v>
+        <v>43928</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
       </c>
       <c r="C68">
-        <v>180.39</v>
-      </c>
-      <c r="D68">
-        <v>-36.85</v>
+        <v>198.56</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B69">
-        <v>112.86</v>
+        <v>113.41</v>
       </c>
       <c r="C69">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D69">
-        <v>-37.43</v>
+        <v>-42.88</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B70">
-        <v>111.54</v>
+        <v>115.33</v>
       </c>
       <c r="C70">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D70">
-        <v>-38.17</v>
+        <v>-41.92</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B71">
-        <v>109.12</v>
+        <v>114.96</v>
       </c>
       <c r="C71">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D71">
-        <v>-39.51</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B72">
-        <v>107.5</v>
+        <v>111.71</v>
       </c>
       <c r="C72">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D72">
-        <v>-40.41</v>
+        <v>-43.74</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B73">
-        <v>106.17</v>
+        <v>109.58</v>
       </c>
       <c r="C73">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D73">
-        <v>-41.15</v>
+        <v>-44.81</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B74">
-        <v>104.96</v>
+        <v>107.86</v>
       </c>
       <c r="C74">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D74">
-        <v>-41.81</v>
+        <v>-45.68</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>104.21</v>
+        <v>109.69</v>
       </c>
       <c r="C75">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D75">
-        <v>-42.23</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>103.43</v>
+        <v>108.68</v>
       </c>
       <c r="C76">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D76">
-        <v>-42.66</v>
+        <v>-45.27</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>102.5</v>
+        <v>106.59</v>
       </c>
       <c r="C77">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D77">
-        <v>-43.18</v>
+        <v>-46.32</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>101.48</v>
+        <v>111.16</v>
       </c>
       <c r="C78">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D78">
-        <v>-43.74</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B79">
-        <v>106.39</v>
+        <v>110.43</v>
       </c>
       <c r="C79">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D79">
-        <v>-41.02</v>
+        <v>-44.39</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B80">
-        <v>145.17</v>
+        <v>108.26</v>
       </c>
       <c r="C80">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D80">
-        <v>-19.52</v>
+        <v>-45.48</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B81">
-        <v>183.46</v>
+        <v>106.5</v>
       </c>
       <c r="C81">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D81">
-        <v>1.7</v>
+        <v>-46.36</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B82">
-        <v>152.83</v>
+        <v>104.91</v>
       </c>
       <c r="C82">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D82">
-        <v>-15.28</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B83">
-        <v>138.67</v>
+        <v>103.62</v>
       </c>
       <c r="C83">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D83">
-        <v>-23.13</v>
+        <v>-47.81</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>129.36</v>
+        <v>102.91</v>
       </c>
       <c r="C84">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D84">
-        <v>-28.29</v>
+        <v>-48.17</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B85">
-        <v>123.21</v>
+        <v>102.22</v>
       </c>
       <c r="C85">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D85">
-        <v>-31.7</v>
+        <v>-48.52</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B86">
-        <v>118.71</v>
+        <v>101.35</v>
       </c>
       <c r="C86">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D86">
-        <v>-34.19</v>
+        <v>-48.96</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B87">
-        <v>115.42</v>
+        <v>100.46</v>
       </c>
       <c r="C87">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D87">
-        <v>-36.02</v>
+        <v>-49.41</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B88">
-        <v>112.87</v>
+        <v>100</v>
       </c>
       <c r="C88">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D88">
-        <v>-37.43</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B89">
-        <v>111.29</v>
+        <v>100</v>
       </c>
       <c r="C89">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D89">
-        <v>-38.3</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43919</v>
-      </c>
-      <c r="B90">
-        <v>110.33</v>
+        <v>43950</v>
+      </c>
+      <c r="B90" t="s">
+        <v>4</v>
       </c>
       <c r="C90">
-        <v>180.39</v>
-      </c>
-      <c r="D90">
-        <v>-38.84</v>
+        <v>198.56</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43920</v>
-      </c>
-      <c r="B91">
-        <v>109.58</v>
+        <v>43951</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
       </c>
       <c r="C91">
-        <v>180.39</v>
-      </c>
-      <c r="D91">
-        <v>-39.25</v>
+        <v>198.56</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43921</v>
-      </c>
-      <c r="B92">
-        <v>108.54</v>
+        <v>43952</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>180.39</v>
-      </c>
-      <c r="D92">
-        <v>-39.83</v>
+        <v>279.37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43922</v>
-      </c>
-      <c r="B93">
-        <v>107.96</v>
+        <v>43953</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
       </c>
       <c r="C93">
-        <v>198.56</v>
-      </c>
-      <c r="D93">
-        <v>-45.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43923</v>
-      </c>
-      <c r="B94">
-        <v>107.3</v>
+        <v>43954</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
       </c>
       <c r="C94">
-        <v>198.56</v>
-      </c>
-      <c r="D94">
-        <v>-45.96</v>
+        <v>279.37</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43924</v>
-      </c>
-      <c r="B95">
-        <v>106.27</v>
+        <v>43955</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
       </c>
       <c r="C95">
-        <v>198.56</v>
-      </c>
-      <c r="D95">
-        <v>-46.48</v>
+        <v>279.37</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B96">
-        <v>105.43</v>
+        <v>100.33</v>
       </c>
       <c r="C96">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D96">
-        <v>-46.9</v>
+        <v>-64.09</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B97">
-        <v>104.65</v>
+        <v>102.96</v>
       </c>
       <c r="C97">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D97">
-        <v>-47.3</v>
+        <v>-63.15</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B98" t="s">
-        <v>4</v>
+        <v>43958</v>
+      </c>
+      <c r="B98">
+        <v>105.61</v>
       </c>
       <c r="C98">
-        <v>198.56</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D98">
+        <v>-62.2</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43928</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
+        <v>43959</v>
+      </c>
+      <c r="B99">
+        <v>105.83</v>
       </c>
       <c r="C99">
-        <v>198.56</v>
-      </c>
-      <c r="D99" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D99">
+        <v>-62.12</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B100">
-        <v>113.41</v>
+        <v>114.83</v>
       </c>
       <c r="C100">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D100">
-        <v>-42.88</v>
+        <v>-58.9</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B101">
-        <v>115.33</v>
+        <v>111.43</v>
       </c>
       <c r="C101">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D101">
-        <v>-41.92</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B102">
-        <v>114.96</v>
+        <v>108.26</v>
       </c>
       <c r="C102">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D102">
-        <v>-42.1</v>
+        <v>-61.25</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B103">
-        <v>111.71</v>
+        <v>107.38</v>
       </c>
       <c r="C103">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D103">
-        <v>-43.74</v>
+        <v>-61.57</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B104">
-        <v>109.58</v>
+        <v>168.96</v>
       </c>
       <c r="C104">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D104">
-        <v>-44.81</v>
+        <v>-39.52</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B105">
-        <v>107.86</v>
+        <v>442.05</v>
       </c>
       <c r="C105">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D105">
-        <v>-45.68</v>
+        <v>58.23</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B106">
-        <v>109.69</v>
+        <v>383.78</v>
       </c>
       <c r="C106">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D106">
-        <v>-44.76</v>
+        <v>37.37</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B107">
-        <v>108.68</v>
+        <v>213.5</v>
       </c>
       <c r="C107">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D107">
-        <v>-45.27</v>
+        <v>-23.58</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B108">
-        <v>106.59</v>
+        <v>177.5</v>
       </c>
       <c r="C108">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D108">
-        <v>-46.32</v>
+        <v>-36.46</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B109">
-        <v>111.16</v>
+        <v>158.13</v>
       </c>
       <c r="C109">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D109">
-        <v>-44.02</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B110">
-        <v>110.43</v>
+        <v>145.96</v>
       </c>
       <c r="C110">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D110">
-        <v>-44.39</v>
+        <v>-47.76</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B111">
-        <v>108.26</v>
+        <v>136.83</v>
       </c>
       <c r="C111">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D111">
-        <v>-45.48</v>
+        <v>-51.02</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B112">
-        <v>106.5</v>
+        <v>130.61</v>
       </c>
       <c r="C112">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D112">
-        <v>-46.36</v>
+        <v>-53.25</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B113">
-        <v>104.91</v>
+        <v>448.62</v>
       </c>
       <c r="C113">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D113">
-        <v>-47.16</v>
+        <v>60.58</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B114">
-        <v>103.62</v>
+        <v>1052.78</v>
       </c>
       <c r="C114">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D114">
-        <v>-47.81</v>
+        <v>276.84</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B115">
-        <v>102.91</v>
+        <v>927.75</v>
       </c>
       <c r="C115">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D115">
-        <v>-48.17</v>
+        <v>232.09</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B116">
-        <v>102.22</v>
+        <v>454.12</v>
       </c>
       <c r="C116">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D116">
-        <v>-48.52</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B117">
-        <v>101.35</v>
+        <v>291.38</v>
       </c>
       <c r="C117">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D117">
-        <v>-48.96</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B118">
-        <v>100.46</v>
+        <v>231.67</v>
       </c>
       <c r="C118">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D118">
-        <v>-49.41</v>
+        <v>-17.08</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B119">
-        <v>100</v>
+        <v>201.75</v>
       </c>
       <c r="C119">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D119">
-        <v>-49.64</v>
+        <v>-27.78</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B120">
-        <v>100</v>
+        <v>183.54</v>
       </c>
       <c r="C120">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D120">
-        <v>-49.64</v>
+        <v>-34.3</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B121" t="s">
-        <v>4</v>
+        <v>43981</v>
+      </c>
+      <c r="B121">
+        <v>170.25</v>
       </c>
       <c r="C121">
-        <v>198.56</v>
-      </c>
-      <c r="D121" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D121">
+        <v>-39.06</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B122" t="s">
-        <v>4</v>
+        <v>43982</v>
+      </c>
+      <c r="B122">
+        <v>160.67</v>
       </c>
       <c r="C122">
-        <v>198.56</v>
-      </c>
-      <c r="D122" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D122">
+        <v>-42.49</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B123" t="s">
-        <v>4</v>
+        <v>43983</v>
+      </c>
+      <c r="B123">
+        <v>155.43</v>
       </c>
       <c r="C123">
-        <v>279.37</v>
-      </c>
-      <c r="D123" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D123">
+        <v>-36.54</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B124" t="s">
-        <v>4</v>
+        <v>43984</v>
+      </c>
+      <c r="B124">
+        <v>151.5</v>
       </c>
       <c r="C124">
-        <v>279.37</v>
-      </c>
-      <c r="D124" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D124">
+        <v>-38.14</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B125" t="s">
-        <v>4</v>
+        <v>43985</v>
+      </c>
+      <c r="B125">
+        <v>147.78</v>
       </c>
       <c r="C125">
-        <v>279.37</v>
-      </c>
-      <c r="D125" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D125">
+        <v>-39.66</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B126" t="s">
-        <v>4</v>
+        <v>43986</v>
+      </c>
+      <c r="B126">
+        <v>152.05</v>
       </c>
       <c r="C126">
-        <v>279.37</v>
-      </c>
-      <c r="D126" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D126">
+        <v>-37.92</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B127">
-        <v>100.33</v>
+        <v>278.05</v>
       </c>
       <c r="C127">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D127">
-        <v>-64.09</v>
+        <v>13.52</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B128">
-        <v>102.96</v>
+        <v>708</v>
       </c>
       <c r="C128">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D128">
-        <v>-63.15</v>
+        <v>189.07</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B129">
-        <v>105.61</v>
+        <v>737.22</v>
       </c>
       <c r="C129">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D129">
-        <v>-62.2</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B130">
-        <v>105.83</v>
+        <v>401.87</v>
       </c>
       <c r="C130">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D130">
-        <v>-62.12</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B131">
-        <v>114.83</v>
+        <v>293.75</v>
       </c>
       <c r="C131">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D131">
-        <v>-58.9</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B132">
-        <v>111.43</v>
+        <v>506.38</v>
       </c>
       <c r="C132">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D132">
-        <v>-60.11</v>
+        <v>106.75</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B133">
-        <v>108.26</v>
+        <v>809.77</v>
       </c>
       <c r="C133">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D133">
-        <v>-61.25</v>
+        <v>230.62</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B134">
-        <v>107.38</v>
+        <v>749.96</v>
       </c>
       <c r="C134">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D134">
-        <v>-61.57</v>
+        <v>206.2</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B135">
-        <v>168.96</v>
+        <v>455.09</v>
       </c>
       <c r="C135">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D135">
-        <v>-39.52</v>
+        <v>85.81</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B136">
-        <v>442.05</v>
+        <v>337.83</v>
       </c>
       <c r="C136">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D136">
-        <v>58.23</v>
+        <v>37.93</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B137">
-        <v>383.78</v>
+        <v>307.09</v>
       </c>
       <c r="C137">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D137">
-        <v>37.37</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>213.5</v>
+        <v>254.1</v>
       </c>
       <c r="C138">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D138">
-        <v>-23.58</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B139">
-        <v>177.5</v>
+        <v>215.79</v>
       </c>
       <c r="C139">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D139">
-        <v>-36.46</v>
+        <v>-11.9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B140">
-        <v>158.13</v>
+        <v>194.35</v>
       </c>
       <c r="C140">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D140">
-        <v>-43.4</v>
+        <v>-20.65</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B141">
-        <v>145.96</v>
+        <v>180.04</v>
       </c>
       <c r="C141">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D141">
-        <v>-47.76</v>
+        <v>-26.49</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B142">
-        <v>136.83</v>
+        <v>169.22</v>
       </c>
       <c r="C142">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D142">
-        <v>-51.02</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B143">
-        <v>130.61</v>
+        <v>160.87</v>
       </c>
       <c r="C143">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D143">
-        <v>-53.25</v>
+        <v>-34.32</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B144">
-        <v>448.62</v>
+        <v>154</v>
       </c>
       <c r="C144">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D144">
-        <v>60.58</v>
+        <v>-37.12</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B145">
-        <v>1052.78</v>
+        <v>148.7</v>
       </c>
       <c r="C145">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D145">
-        <v>276.84</v>
+        <v>-39.29</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B146">
-        <v>927.75</v>
+        <v>144.04</v>
       </c>
       <c r="C146">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D146">
-        <v>232.09</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B147">
-        <v>454.12</v>
+        <v>140.62</v>
       </c>
       <c r="C147">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D147">
-        <v>62.55</v>
+        <v>-42.59</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B148">
-        <v>291.38</v>
+        <v>139.21</v>
       </c>
       <c r="C148">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D148">
-        <v>4.3</v>
+        <v>-43.16</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B149">
-        <v>231.67</v>
+        <v>141.21</v>
       </c>
       <c r="C149">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D149">
-        <v>-17.08</v>
+        <v>-42.35</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B150">
-        <v>201.75</v>
+        <v>139.58</v>
       </c>
       <c r="C150">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D150">
-        <v>-27.78</v>
+        <v>-43.01</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B151">
-        <v>183.54</v>
+        <v>135.83</v>
       </c>
       <c r="C151">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D151">
-        <v>-34.3</v>
+        <v>-44.54</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B152">
-        <v>170.25</v>
+        <v>143.32</v>
       </c>
       <c r="C152">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D152">
-        <v>-39.06</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B153">
-        <v>160.67</v>
+        <v>410.33</v>
       </c>
       <c r="C153">
-        <v>279.37</v>
+        <v>200.23</v>
       </c>
       <c r="D153">
-        <v>-42.49</v>
+        <v>104.93</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B154">
-        <v>155.43</v>
+        <v>347.95</v>
       </c>
       <c r="C154">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D154">
-        <v>-36.54</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B155">
-        <v>151.5</v>
+        <v>232.13</v>
       </c>
       <c r="C155">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D155">
-        <v>-38.14</v>
+        <v>15.93</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B156">
-        <v>147.78</v>
+        <v>197.04</v>
       </c>
       <c r="C156">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D156">
-        <v>-39.66</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B157">
-        <v>152.05</v>
+        <v>177.77</v>
       </c>
       <c r="C157">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D157">
-        <v>-37.92</v>
+        <v>-11.21</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B158">
-        <v>278.05</v>
+        <v>165.75</v>
       </c>
       <c r="C158">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D158">
-        <v>13.52</v>
+        <v>-17.22</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B159">
-        <v>708</v>
+        <v>212.75</v>
       </c>
       <c r="C159">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D159">
-        <v>189.07</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B160">
-        <v>737.22</v>
+        <v>231.5</v>
       </c>
       <c r="C160">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D160">
-        <v>200.99</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B161">
-        <v>401.87</v>
+        <v>652.21</v>
       </c>
       <c r="C161">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D161">
-        <v>64.08</v>
+        <v>225.73</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B162">
-        <v>293.75</v>
+        <v>520.58</v>
       </c>
       <c r="C162">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D162">
-        <v>19.93</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B163">
-        <v>506.38</v>
+        <v>294.38</v>
       </c>
       <c r="C163">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D163">
-        <v>106.75</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B164">
-        <v>809.77</v>
+        <v>232.52</v>
       </c>
       <c r="C164">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D164">
-        <v>230.62</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B165">
-        <v>749.96</v>
+        <v>203.83</v>
       </c>
       <c r="C165">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D165">
-        <v>206.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B166">
-        <v>455.09</v>
+        <v>187.29</v>
       </c>
       <c r="C166">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D166">
-        <v>85.81</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B167">
-        <v>337.83</v>
+        <v>174.42</v>
       </c>
       <c r="C167">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D167">
-        <v>37.93</v>
+        <v>-12.89</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B168">
-        <v>307.09</v>
+        <v>162.92</v>
       </c>
       <c r="C168">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D168">
-        <v>25.38</v>
+        <v>-18.63</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B169">
-        <v>254.1</v>
+        <v>155.3</v>
       </c>
       <c r="C169">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D169">
-        <v>3.74</v>
+        <v>-22.44</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B170">
-        <v>215.79</v>
+        <v>150.17</v>
       </c>
       <c r="C170">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D170">
-        <v>-11.9</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B171">
-        <v>194.35</v>
+        <v>144.33</v>
       </c>
       <c r="C171">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D171">
-        <v>-20.65</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B172">
-        <v>180.04</v>
+        <v>139.68</v>
       </c>
       <c r="C172">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D172">
-        <v>-26.49</v>
+        <v>-30.24</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B173">
-        <v>169.22</v>
+        <v>135.79</v>
       </c>
       <c r="C173">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D173">
-        <v>-30.91</v>
+        <v>-32.18</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B174">
-        <v>160.87</v>
+        <v>132.7</v>
       </c>
       <c r="C174">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D174">
-        <v>-34.32</v>
+        <v>-33.73</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B175">
-        <v>154</v>
+        <v>130.32</v>
       </c>
       <c r="C175">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D175">
-        <v>-37.12</v>
+        <v>-34.91</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B176">
-        <v>148.7</v>
+        <v>128.14</v>
       </c>
       <c r="C176">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D176">
-        <v>-39.29</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B177">
-        <v>144.04</v>
+        <v>126.32</v>
       </c>
       <c r="C177">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D177">
-        <v>-41.19</v>
+        <v>-36.91</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B178">
-        <v>140.62</v>
+        <v>125</v>
       </c>
       <c r="C178">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D178">
-        <v>-42.59</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B179">
-        <v>139.21</v>
+        <v>124.48</v>
       </c>
       <c r="C179">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D179">
-        <v>-43.16</v>
+        <v>-37.83</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B180">
-        <v>141.21</v>
+        <v>124.22</v>
       </c>
       <c r="C180">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D180">
-        <v>-42.35</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B181">
-        <v>139.58</v>
+        <v>123.42</v>
       </c>
       <c r="C181">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D181">
-        <v>-43.01</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B182">
-        <v>135.83</v>
+        <v>126.82</v>
       </c>
       <c r="C182">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D182">
-        <v>-44.54</v>
+        <v>-36.66</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B183">
-        <v>143.32</v>
+        <v>133.04</v>
       </c>
       <c r="C183">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D183">
-        <v>-41.49</v>
+        <v>-33.55</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B184">
-        <v>410.33</v>
+        <v>127.43</v>
       </c>
       <c r="C184">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D184">
-        <v>104.93</v>
+        <v>-33.09</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B185">
-        <v>347.95</v>
+        <v>124.04</v>
       </c>
       <c r="C185">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D185">
-        <v>73.78</v>
+        <v>-34.87</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B186">
-        <v>232.13</v>
+        <v>121.65</v>
       </c>
       <c r="C186">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D186">
-        <v>15.93</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B187">
-        <v>197.04</v>
+        <v>119.62</v>
       </c>
       <c r="C187">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D187">
-        <v>-1.59</v>
+        <v>-37.19</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B188">
-        <v>177.77</v>
+        <v>118.5</v>
       </c>
       <c r="C188">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D188">
-        <v>-11.21</v>
+        <v>-37.78</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44018</v>
-      </c>
-      <c r="B189">
-        <v>165.75</v>
+        <v>44049</v>
+      </c>
+      <c r="B189" t="s">
+        <v>4</v>
       </c>
       <c r="C189">
-        <v>200.23</v>
-      </c>
-      <c r="D189">
-        <v>-17.22</v>
+        <v>190.45</v>
+      </c>
+      <c r="D189" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B190">
-        <v>212.75</v>
+        <v>44050</v>
+      </c>
+      <c r="B190" t="s">
+        <v>4</v>
       </c>
       <c r="C190">
-        <v>200.23</v>
-      </c>
-      <c r="D190">
-        <v>6.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D190" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B191">
-        <v>231.5</v>
+        <v>44051</v>
+      </c>
+      <c r="B191" t="s">
+        <v>4</v>
       </c>
       <c r="C191">
-        <v>200.23</v>
-      </c>
-      <c r="D191">
-        <v>15.62</v>
+        <v>190.45</v>
+      </c>
+      <c r="D191" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B192">
-        <v>652.21</v>
+        <v>44052</v>
+      </c>
+      <c r="B192" t="s">
+        <v>4</v>
       </c>
       <c r="C192">
-        <v>200.23</v>
-      </c>
-      <c r="D192">
-        <v>225.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D192" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B193">
-        <v>520.58</v>
+        <v>44053</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
       </c>
       <c r="C193">
-        <v>200.23</v>
-      </c>
-      <c r="D193">
-        <v>160</v>
+        <v>190.45</v>
+      </c>
+      <c r="D193" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B194">
-        <v>294.38</v>
+        <v>44054</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
       </c>
       <c r="C194">
-        <v>200.23</v>
-      </c>
-      <c r="D194">
-        <v>47.02</v>
+        <v>190.45</v>
+      </c>
+      <c r="D194" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B195">
-        <v>232.52</v>
+        <v>44055</v>
+      </c>
+      <c r="B195" t="s">
+        <v>4</v>
       </c>
       <c r="C195">
-        <v>200.23</v>
-      </c>
-      <c r="D195">
-        <v>16.13</v>
+        <v>190.45</v>
+      </c>
+      <c r="D195" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B196">
-        <v>203.83</v>
+        <v>44056</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>200.23</v>
-      </c>
-      <c r="D196">
-        <v>1.8</v>
+        <v>190.45</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B197">
-        <v>187.29</v>
+        <v>44057</v>
+      </c>
+      <c r="B197" t="s">
+        <v>4</v>
       </c>
       <c r="C197">
-        <v>200.23</v>
-      </c>
-      <c r="D197">
-        <v>-6.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D197" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B198">
-        <v>174.42</v>
+        <v>44058</v>
+      </c>
+      <c r="B198" t="s">
+        <v>4</v>
       </c>
       <c r="C198">
-        <v>200.23</v>
-      </c>
-      <c r="D198">
-        <v>-12.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D198" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B199">
-        <v>162.92</v>
+        <v>44059</v>
+      </c>
+      <c r="B199" t="s">
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>200.23</v>
-      </c>
-      <c r="D199">
-        <v>-18.63</v>
+        <v>190.45</v>
+      </c>
+      <c r="D199" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B200">
-        <v>155.3</v>
+        <v>44060</v>
+      </c>
+      <c r="B200" t="s">
+        <v>4</v>
       </c>
       <c r="C200">
-        <v>200.23</v>
-      </c>
-      <c r="D200">
-        <v>-22.44</v>
+        <v>190.45</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B201">
-        <v>150.17</v>
+        <v>44061</v>
+      </c>
+      <c r="B201" t="s">
+        <v>4</v>
       </c>
       <c r="C201">
-        <v>200.23</v>
-      </c>
-      <c r="D201">
-        <v>-25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B202">
-        <v>144.33</v>
+        <v>44062</v>
+      </c>
+      <c r="B202" t="s">
+        <v>4</v>
       </c>
       <c r="C202">
-        <v>200.23</v>
-      </c>
-      <c r="D202">
-        <v>-27.92</v>
+        <v>190.45</v>
+      </c>
+      <c r="D202" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B203">
-        <v>139.68</v>
+        <v>44063</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
       </c>
       <c r="C203">
-        <v>200.23</v>
-      </c>
-      <c r="D203">
-        <v>-30.24</v>
+        <v>190.45</v>
+      </c>
+      <c r="D203" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B204">
-        <v>135.79</v>
+        <v>44064</v>
+      </c>
+      <c r="B204" t="s">
+        <v>4</v>
       </c>
       <c r="C204">
-        <v>200.23</v>
-      </c>
-      <c r="D204">
-        <v>-32.18</v>
+        <v>190.45</v>
+      </c>
+      <c r="D204" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B205">
-        <v>132.7</v>
+        <v>44065</v>
+      </c>
+      <c r="B205" t="s">
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>200.23</v>
-      </c>
-      <c r="D205">
-        <v>-33.73</v>
+        <v>190.45</v>
+      </c>
+      <c r="D205" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B206">
-        <v>130.32</v>
+        <v>44066</v>
+      </c>
+      <c r="B206" t="s">
+        <v>4</v>
       </c>
       <c r="C206">
-        <v>200.23</v>
-      </c>
-      <c r="D206">
-        <v>-34.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D206" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B207">
-        <v>128.14</v>
+        <v>185.67</v>
       </c>
       <c r="C207">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D207">
-        <v>-36</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B208">
-        <v>126.32</v>
+        <v>175.21</v>
       </c>
       <c r="C208">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D208">
-        <v>-36.91</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B209">
-        <v>125</v>
+        <v>162.82</v>
       </c>
       <c r="C209">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D209">
-        <v>-37.57</v>
+        <v>-14.51</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B210">
-        <v>124.48</v>
+        <v>153.82</v>
       </c>
       <c r="C210">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D210">
-        <v>-37.83</v>
+        <v>-19.23</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B211">
-        <v>124.22</v>
+        <v>146.96</v>
       </c>
       <c r="C211">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D211">
-        <v>-37.96</v>
+        <v>-22.84</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B212">
-        <v>123.42</v>
+        <v>141.35</v>
       </c>
       <c r="C212">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D212">
-        <v>-38.36</v>
+        <v>-25.78</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B213">
-        <v>126.82</v>
+        <v>136.87</v>
       </c>
       <c r="C213">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D213">
-        <v>-36.66</v>
+        <v>-28.13</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B214">
-        <v>133.04</v>
+        <v>133.38</v>
       </c>
       <c r="C214">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D214">
-        <v>-33.55</v>
+        <v>-29.97</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B215">
-        <v>127.43</v>
+        <v>130.25</v>
       </c>
       <c r="C215">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D215">
-        <v>-33.09</v>
+        <v>-39.72</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B216">
-        <v>124.04</v>
+        <v>127.43</v>
       </c>
       <c r="C216">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D216">
-        <v>-34.87</v>
+        <v>-41.03</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B217">
-        <v>121.65</v>
+        <v>125.08</v>
       </c>
       <c r="C217">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D217">
-        <v>-36.12</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B218">
-        <v>119.62</v>
+        <v>123.48</v>
       </c>
       <c r="C218">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D218">
-        <v>-37.19</v>
+        <v>-42.86</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B219">
-        <v>118.5</v>
+        <v>121.65</v>
       </c>
       <c r="C219">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D219">
-        <v>-37.78</v>
+        <v>-43.7</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B220">
+        <v>120.58</v>
       </c>
       <c r="C220">
-        <v>190.45</v>
-      </c>
-      <c r="D220" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D220">
+        <v>-44.2</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B221" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B221">
+        <v>119.59</v>
       </c>
       <c r="C221">
-        <v>190.45</v>
-      </c>
-      <c r="D221" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D221">
+        <v>-44.66</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B222" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B222">
+        <v>118.64</v>
       </c>
       <c r="C222">
-        <v>190.45</v>
-      </c>
-      <c r="D222" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D222">
+        <v>-45.1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B223" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B223">
+        <v>117.78</v>
       </c>
       <c r="C223">
-        <v>190.45</v>
-      </c>
-      <c r="D223" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D223">
+        <v>-45.49</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B224" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B224">
+        <v>116.91</v>
       </c>
       <c r="C224">
-        <v>190.45</v>
-      </c>
-      <c r="D224" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D224">
+        <v>-45.89</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B225" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B225">
+        <v>115.96</v>
       </c>
       <c r="C225">
-        <v>190.45</v>
-      </c>
-      <c r="D225" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D225">
+        <v>-46.34</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B226" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B226">
+        <v>115.22</v>
       </c>
       <c r="C226">
-        <v>190.45</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D226">
+        <v>-46.68</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B227" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B227">
+        <v>114.3</v>
       </c>
       <c r="C227">
-        <v>190.45</v>
-      </c>
-      <c r="D227" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D227">
+        <v>-47.1</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B228" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B228">
+        <v>113.64</v>
       </c>
       <c r="C228">
-        <v>190.45</v>
-      </c>
-      <c r="D228" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D228">
+        <v>-47.41</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B229" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B229">
+        <v>112.45</v>
       </c>
       <c r="C229">
-        <v>190.45</v>
-      </c>
-      <c r="D229" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D229">
+        <v>-47.96</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B230" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B230">
+        <v>111.88</v>
       </c>
       <c r="C230">
-        <v>190.45</v>
-      </c>
-      <c r="D230" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D230">
+        <v>-48.23</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B231">
+        <v>111.45</v>
       </c>
       <c r="C231">
-        <v>190.45</v>
-      </c>
-      <c r="D231" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D231">
+        <v>-48.42</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B232">
+        <v>111.38</v>
       </c>
       <c r="C232">
-        <v>190.45</v>
-      </c>
-      <c r="D232" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D232">
+        <v>-48.46</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B233">
+        <v>110.95</v>
       </c>
       <c r="C233">
-        <v>190.45</v>
-      </c>
-      <c r="D233" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D233">
+        <v>-48.65</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B234">
+        <v>109.91</v>
       </c>
       <c r="C234">
-        <v>190.45</v>
-      </c>
-      <c r="D234" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D234">
+        <v>-49.13</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B235">
+        <v>108.74</v>
       </c>
       <c r="C235">
-        <v>190.45</v>
-      </c>
-      <c r="D235" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D235">
+        <v>-49.68</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B236">
+        <v>108.14</v>
       </c>
       <c r="C236">
-        <v>190.45</v>
-      </c>
-      <c r="D236" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D236">
+        <v>-49.95</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
+        <v>44097</v>
+      </c>
+      <c r="B237">
+        <v>107.41</v>
       </c>
       <c r="C237">
-        <v>190.45</v>
-      </c>
-      <c r="D237" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D237">
+        <v>-50.29</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B238">
-        <v>185.67</v>
+        <v>106.67</v>
       </c>
       <c r="C238">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D238">
-        <v>-2.51</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B239">
-        <v>175.21</v>
+        <v>106.09</v>
       </c>
       <c r="C239">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D239">
-        <v>-8</v>
+        <v>-50.9</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B240">
-        <v>162.82</v>
+        <v>105.35</v>
       </c>
       <c r="C240">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D240">
-        <v>-14.51</v>
+        <v>-51.25</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B241">
-        <v>153.82</v>
+        <v>105.04</v>
       </c>
       <c r="C241">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D241">
-        <v>-19.23</v>
+        <v>-51.39</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B242">
-        <v>146.96</v>
+        <v>109.5</v>
       </c>
       <c r="C242">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D242">
-        <v>-22.84</v>
+        <v>-49.33</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B243">
-        <v>141.35</v>
+        <v>116.7</v>
       </c>
       <c r="C243">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D243">
-        <v>-25.78</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B244">
-        <v>136.87</v>
+        <v>116.38</v>
       </c>
       <c r="C244">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D244">
-        <v>-28.13</v>
+        <v>-46.14</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B245">
-        <v>133.38</v>
+        <v>115.96</v>
       </c>
       <c r="C245">
-        <v>190.45</v>
+        <v>310.64</v>
       </c>
       <c r="D245">
-        <v>-29.97</v>
+        <v>-62.67</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B246">
-        <v>130.25</v>
+        <v>112.04</v>
       </c>
       <c r="C246">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D246">
-        <v>-39.72</v>
+        <v>-63.93</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B247">
-        <v>127.43</v>
+        <v>109.25</v>
       </c>
       <c r="C247">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D247">
-        <v>-41.03</v>
+        <v>-64.83</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B248">
-        <v>125.08</v>
+        <v>107.48</v>
       </c>
       <c r="C248">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D248">
-        <v>-42.11</v>
+        <v>-65.40000000000001</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B249">
-        <v>123.48</v>
+        <v>105.92</v>
       </c>
       <c r="C249">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D249">
-        <v>-42.86</v>
+        <v>-65.90000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B250">
-        <v>121.65</v>
+        <v>104.61</v>
       </c>
       <c r="C250">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D250">
-        <v>-43.7</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B251">
-        <v>120.58</v>
+        <v>103.71</v>
       </c>
       <c r="C251">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D251">
-        <v>-44.2</v>
+        <v>-66.61</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B252">
-        <v>119.59</v>
+        <v>104.79</v>
       </c>
       <c r="C252">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D252">
-        <v>-44.66</v>
+        <v>-66.27</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B253">
-        <v>118.64</v>
+        <v>119.09</v>
       </c>
       <c r="C253">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D253">
-        <v>-45.1</v>
+        <v>-61.66</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B254">
-        <v>117.78</v>
+        <v>120</v>
       </c>
       <c r="C254">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D254">
-        <v>-45.49</v>
+        <v>-61.37</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B255">
-        <v>116.91</v>
+        <v>116.67</v>
       </c>
       <c r="C255">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D255">
-        <v>-45.89</v>
+        <v>-62.44</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B256">
-        <v>115.96</v>
+        <v>115.83</v>
       </c>
       <c r="C256">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D256">
-        <v>-46.34</v>
+        <v>-62.71</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B257">
-        <v>115.22</v>
+        <v>113.96</v>
       </c>
       <c r="C257">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D257">
-        <v>-46.68</v>
+        <v>-63.32</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B258">
-        <v>114.3</v>
+        <v>112.27</v>
       </c>
       <c r="C258">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D258">
-        <v>-47.1</v>
+        <v>-63.86</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B259">
-        <v>113.64</v>
+        <v>113.4</v>
       </c>
       <c r="C259">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D259">
-        <v>-47.41</v>
+        <v>-63.49</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B260">
-        <v>112.45</v>
+        <v>124.09</v>
       </c>
       <c r="C260">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D260">
-        <v>-47.96</v>
+        <v>-60.05</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B261">
-        <v>111.88</v>
+        <v>129.46</v>
       </c>
       <c r="C261">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D261">
-        <v>-48.23</v>
+        <v>-58.33</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B262">
-        <v>111.45</v>
+        <v>124.78</v>
       </c>
       <c r="C262">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D262">
-        <v>-48.42</v>
+        <v>-59.83</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B263">
-        <v>111.38</v>
+        <v>120.13</v>
       </c>
       <c r="C263">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D263">
-        <v>-48.46</v>
+        <v>-61.33</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B264">
-        <v>110.95</v>
+        <v>116.46</v>
       </c>
       <c r="C264">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D264">
-        <v>-48.65</v>
+        <v>-62.51</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B265">
-        <v>109.91</v>
+        <v>113.62</v>
       </c>
       <c r="C265">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D265">
-        <v>-49.13</v>
+        <v>-63.42</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B266">
-        <v>108.74</v>
+        <v>111.25</v>
       </c>
       <c r="C266">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D266">
-        <v>-49.68</v>
+        <v>-64.19</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B267">
-        <v>108.14</v>
+        <v>109</v>
       </c>
       <c r="C267">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D267">
-        <v>-49.95</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B268">
-        <v>107.41</v>
+        <v>107.21</v>
       </c>
       <c r="C268">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D268">
-        <v>-50.29</v>
+        <v>-65.48999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B269">
-        <v>106.67</v>
+        <v>105.52</v>
       </c>
       <c r="C269">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D269">
-        <v>-50.64</v>
+        <v>-66.03</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B270">
-        <v>106.09</v>
+        <v>105.04</v>
       </c>
       <c r="C270">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D270">
-        <v>-50.9</v>
+        <v>-66.19</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B271">
-        <v>105.35</v>
+        <v>105.17</v>
       </c>
       <c r="C271">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D271">
-        <v>-51.25</v>
+        <v>-66.15000000000001</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B272">
-        <v>105.04</v>
+        <v>105</v>
       </c>
       <c r="C272">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D272">
-        <v>-51.39</v>
+        <v>-66.2</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B273">
-        <v>109.5</v>
+        <v>104.64</v>
       </c>
       <c r="C273">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D273">
-        <v>-49.33</v>
+        <v>-66.31999999999999</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B274">
-        <v>116.7</v>
+        <v>103.7</v>
       </c>
       <c r="C274">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D274">
-        <v>-46</v>
+        <v>-66.62</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B275">
-        <v>116.38</v>
+        <v>103.17</v>
       </c>
       <c r="C275">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D275">
-        <v>-46.14</v>
+        <v>-66.79000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B276">
-        <v>115.96</v>
+        <v>102.68</v>
       </c>
       <c r="C276">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D276">
-        <v>-62.67</v>
+        <v>-59.58</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B277">
-        <v>112.04</v>
+        <v>102.57</v>
       </c>
       <c r="C277">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D277">
-        <v>-63.93</v>
+        <v>-59.62</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B278">
-        <v>109.25</v>
+        <v>103</v>
       </c>
       <c r="C278">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D278">
-        <v>-64.83</v>
+        <v>-59.45</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B279">
-        <v>107.48</v>
+        <v>102.52</v>
       </c>
       <c r="C279">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D279">
-        <v>-65.40000000000001</v>
+        <v>-59.64</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B280">
-        <v>105.92</v>
+        <v>102.41</v>
       </c>
       <c r="C280">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D280">
-        <v>-65.90000000000001</v>
+        <v>-59.68</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B281">
-        <v>104.61</v>
+        <v>101.3</v>
       </c>
       <c r="C281">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D281">
-        <v>-66.31999999999999</v>
+        <v>-60.12</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B282">
-        <v>103.71</v>
+        <v>44142</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
       </c>
       <c r="C282">
-        <v>310.64</v>
-      </c>
-      <c r="D282">
-        <v>-66.61</v>
+        <v>254.02</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B283">
-        <v>104.79</v>
+        <v>44143</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
       </c>
       <c r="C283">
-        <v>310.64</v>
-      </c>
-      <c r="D283">
-        <v>-66.27</v>
+        <v>254.02</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B284">
-        <v>119.09</v>
+        <v>100</v>
       </c>
       <c r="C284">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D284">
-        <v>-61.66</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B285">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C285">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D285">
-        <v>-61.37</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B286">
-        <v>116.67</v>
+        <v>101.09</v>
       </c>
       <c r="C286">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D286">
-        <v>-62.44</v>
+        <v>-60.2</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B287">
-        <v>115.83</v>
+        <v>101.13</v>
       </c>
       <c r="C287">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D287">
-        <v>-62.71</v>
+        <v>-60.19</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B288">
-        <v>113.96</v>
+        <v>102.91</v>
       </c>
       <c r="C288">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D288">
-        <v>-63.32</v>
+        <v>-59.49</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B289">
-        <v>112.27</v>
+        <v>104.65</v>
       </c>
       <c r="C289">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D289">
-        <v>-63.86</v>
+        <v>-58.8</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B290">
-        <v>113.4</v>
+        <v>107.74</v>
       </c>
       <c r="C290">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D290">
-        <v>-63.49</v>
+        <v>-57.59</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B291">
-        <v>124.09</v>
+        <v>111.22</v>
       </c>
       <c r="C291">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D291">
-        <v>-60.05</v>
+        <v>-56.22</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B292">
-        <v>129.46</v>
+        <v>108.09</v>
       </c>
       <c r="C292">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D292">
-        <v>-58.33</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B293">
-        <v>124.78</v>
+        <v>106.14</v>
       </c>
       <c r="C293">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D293">
-        <v>-59.83</v>
+        <v>-58.22</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B294">
-        <v>120.13</v>
+        <v>105.62</v>
       </c>
       <c r="C294">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D294">
-        <v>-61.33</v>
+        <v>-58.42</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B295">
-        <v>116.46</v>
+        <v>104.38</v>
       </c>
       <c r="C295">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D295">
-        <v>-62.51</v>
+        <v>-58.91</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B296">
-        <v>113.62</v>
+        <v>102.62</v>
       </c>
       <c r="C296">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D296">
-        <v>-63.42</v>
+        <v>-59.6</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B297">
-        <v>111.25</v>
+        <v>101.46</v>
       </c>
       <c r="C297">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D297">
-        <v>-64.19</v>
+        <v>-60.06</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B298">
-        <v>109</v>
+        <v>100.6</v>
       </c>
       <c r="C298">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D298">
-        <v>-64.91</v>
+        <v>-60.4</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B299">
-        <v>107.21</v>
+        <v>44159</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
       </c>
       <c r="C299">
-        <v>310.64</v>
-      </c>
-      <c r="D299">
-        <v>-65.48999999999999</v>
+        <v>254.02</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B300">
-        <v>105.52</v>
+        <v>44160</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
       </c>
       <c r="C300">
-        <v>310.64</v>
-      </c>
-      <c r="D300">
-        <v>-66.03</v>
+        <v>254.02</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B301">
-        <v>105.04</v>
+        <v>44161</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
       </c>
       <c r="C301">
-        <v>310.64</v>
-      </c>
-      <c r="D301">
-        <v>-66.19</v>
+        <v>254.02</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44131</v>
-      </c>
-      <c r="B302">
-        <v>105.17</v>
+        <v>44162</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
       </c>
       <c r="C302">
-        <v>310.64</v>
-      </c>
-      <c r="D302">
-        <v>-66.15000000000001</v>
+        <v>254.02</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44132</v>
-      </c>
-      <c r="B303">
-        <v>105</v>
+        <v>44163</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
       </c>
       <c r="C303">
-        <v>310.64</v>
-      </c>
-      <c r="D303">
-        <v>-66.2</v>
+        <v>254.02</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44133</v>
-      </c>
-      <c r="B304">
-        <v>104.64</v>
+        <v>44164</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
       </c>
       <c r="C304">
-        <v>310.64</v>
-      </c>
-      <c r="D304">
-        <v>-66.31999999999999</v>
+        <v>254.02</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B305">
-        <v>103.7</v>
+        <v>101.65</v>
       </c>
       <c r="C305">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D305">
-        <v>-66.62</v>
+        <v>-59.98</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B306">
-        <v>103.17</v>
+        <v>110.58</v>
       </c>
       <c r="C306">
-        <v>310.64</v>
+        <v>217.71</v>
       </c>
       <c r="D306">
-        <v>-66.79000000000001</v>
+        <v>-49.21</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B307">
-        <v>102.68</v>
+        <v>108.5</v>
       </c>
       <c r="C307">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D307">
-        <v>-59.58</v>
+        <v>-50.16</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B308">
-        <v>102.57</v>
+        <v>44168</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>254.02</v>
-      </c>
-      <c r="D308">
-        <v>-59.62</v>
+        <v>217.71</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B309">
-        <v>103</v>
+        <v>214.25</v>
       </c>
       <c r="C309">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D309">
-        <v>-59.45</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B310">
-        <v>102.52</v>
+        <v>231.35</v>
       </c>
       <c r="C310">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D310">
-        <v>-59.64</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B311">
-        <v>102.41</v>
+        <v>243.12</v>
       </c>
       <c r="C311">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D311">
-        <v>-59.68</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B312">
-        <v>101.3</v>
+        <v>201.39</v>
       </c>
       <c r="C312">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D312">
-        <v>-60.12</v>
+        <v>-7.49</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B313" t="s">
-        <v>4</v>
+        <v>44173</v>
+      </c>
+      <c r="B313">
+        <v>175.17</v>
       </c>
       <c r="C313">
-        <v>254.02</v>
-      </c>
-      <c r="D313" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D313">
+        <v>-19.54</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B314" t="s">
-        <v>4</v>
+        <v>44174</v>
+      </c>
+      <c r="B314">
+        <v>156.35</v>
       </c>
       <c r="C314">
-        <v>254.02</v>
-      </c>
-      <c r="D314" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D314">
+        <v>-28.18</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B315">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C315">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D315">
-        <v>-60.63</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B316">
-        <v>100</v>
+        <v>135.23</v>
       </c>
       <c r="C316">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D316">
-        <v>-60.63</v>
+        <v>-37.89</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B317">
-        <v>101.09</v>
+        <v>128.75</v>
       </c>
       <c r="C317">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D317">
-        <v>-60.2</v>
+        <v>-40.86</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B318">
-        <v>101.13</v>
+        <v>124.17</v>
       </c>
       <c r="C318">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D318">
-        <v>-60.19</v>
+        <v>-42.96</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B319">
-        <v>102.91</v>
+        <v>121.7</v>
       </c>
       <c r="C319">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D319">
-        <v>-59.49</v>
+        <v>-44.1</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B320">
-        <v>104.65</v>
+        <v>119.43</v>
       </c>
       <c r="C320">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D320">
-        <v>-58.8</v>
+        <v>-45.14</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B321">
-        <v>107.74</v>
+        <v>117.26</v>
       </c>
       <c r="C321">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D321">
-        <v>-57.59</v>
+        <v>-46.14</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B322">
-        <v>111.22</v>
+        <v>118.09</v>
       </c>
       <c r="C322">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D322">
-        <v>-56.22</v>
+        <v>-45.76</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B323">
-        <v>108.09</v>
+        <v>116.75</v>
       </c>
       <c r="C323">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D323">
-        <v>-57.45</v>
+        <v>-46.37</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B324">
-        <v>106.14</v>
+        <v>114.76</v>
       </c>
       <c r="C324">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D324">
-        <v>-58.22</v>
+        <v>-47.28</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B325">
-        <v>105.62</v>
+        <v>123.88</v>
       </c>
       <c r="C325">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D325">
-        <v>-58.42</v>
+        <v>-43.1</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B326">
-        <v>104.38</v>
+        <v>134.21</v>
       </c>
       <c r="C326">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D326">
-        <v>-58.91</v>
+        <v>-38.35</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B327">
-        <v>102.62</v>
+        <v>136.58</v>
       </c>
       <c r="C327">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D327">
-        <v>-59.6</v>
+        <v>-37.26</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B328">
-        <v>101.46</v>
+        <v>136.52</v>
       </c>
       <c r="C328">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D328">
-        <v>-60.06</v>
+        <v>-37.29</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B329">
-        <v>100.6</v>
+        <v>127.08</v>
       </c>
       <c r="C329">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D329">
-        <v>-60.4</v>
+        <v>-41.63</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44159</v>
-      </c>
-      <c r="B330" t="s">
-        <v>4</v>
+        <v>44190</v>
+      </c>
+      <c r="B330">
+        <v>120.96</v>
       </c>
       <c r="C330">
-        <v>254.02</v>
-      </c>
-      <c r="D330" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D330">
+        <v>-44.44</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B331" t="s">
-        <v>4</v>
+        <v>44191</v>
+      </c>
+      <c r="B331">
+        <v>116.79</v>
       </c>
       <c r="C331">
-        <v>254.02</v>
-      </c>
-      <c r="D331" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D331">
+        <v>-46.35</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44161</v>
-      </c>
-      <c r="B332" t="s">
-        <v>4</v>
+        <v>44192</v>
+      </c>
+      <c r="B332">
+        <v>113.5</v>
       </c>
       <c r="C332">
-        <v>254.02</v>
-      </c>
-      <c r="D332" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D332">
+        <v>-47.87</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B333" t="s">
-        <v>4</v>
+        <v>44193</v>
+      </c>
+      <c r="B333">
+        <v>111.13</v>
       </c>
       <c r="C333">
-        <v>254.02</v>
-      </c>
-      <c r="D333" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D333">
+        <v>-48.95</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B334" t="s">
-        <v>4</v>
+        <v>44194</v>
+      </c>
+      <c r="B334">
+        <v>111.5</v>
       </c>
       <c r="C334">
-        <v>254.02</v>
-      </c>
-      <c r="D334" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D334">
+        <v>-48.78</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44164</v>
-      </c>
-      <c r="B335" t="s">
-        <v>4</v>
+        <v>44195</v>
+      </c>
+      <c r="B335">
+        <v>135.13</v>
       </c>
       <c r="C335">
-        <v>254.02</v>
-      </c>
-      <c r="D335" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D335">
+        <v>-37.93</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B336">
-        <v>101.65</v>
+        <v>129.92</v>
       </c>
       <c r="C336">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D336">
-        <v>-59.98</v>
+        <v>-40.32</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B337">
-        <v>110.58</v>
+        <v>133.78</v>
       </c>
       <c r="C337">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D337">
-        <v>-49.21</v>
+        <v>-34.99</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44167</v>
+        <v>44198</v>
       </c>
       <c r="B338">
-        <v>108.5</v>
+        <v>128.83</v>
       </c>
       <c r="C338">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D338">
-        <v>-50.16</v>
+        <v>-37.4</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44168</v>
-      </c>
-      <c r="B339" t="s">
-        <v>4</v>
+        <v>44199</v>
+      </c>
+      <c r="B339">
+        <v>122.26</v>
       </c>
       <c r="C339">
-        <v>217.71</v>
-      </c>
-      <c r="D339" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D339">
+        <v>-40.59</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44169</v>
+        <v>44200</v>
       </c>
       <c r="B340">
-        <v>214.25</v>
+        <v>118.29</v>
       </c>
       <c r="C340">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D340">
-        <v>-1.59</v>
+        <v>-42.52</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44170</v>
+        <v>44201</v>
       </c>
       <c r="B341">
-        <v>231.35</v>
+        <v>116.29</v>
       </c>
       <c r="C341">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D341">
-        <v>6.27</v>
+        <v>-43.49</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44171</v>
+        <v>44202</v>
       </c>
       <c r="B342">
-        <v>243.12</v>
+        <v>118.83</v>
       </c>
       <c r="C342">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D342">
-        <v>11.68</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44172</v>
+        <v>44203</v>
       </c>
       <c r="B343">
-        <v>201.39</v>
+        <v>118</v>
       </c>
       <c r="C343">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D343">
-        <v>-7.49</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44173</v>
+        <v>44204</v>
       </c>
       <c r="B344">
-        <v>175.17</v>
+        <v>116.71</v>
       </c>
       <c r="C344">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D344">
-        <v>-19.54</v>
+        <v>-43.29</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44174</v>
+        <v>44205</v>
       </c>
       <c r="B345">
-        <v>156.35</v>
+        <v>117.5</v>
       </c>
       <c r="C345">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D345">
-        <v>-28.18</v>
+        <v>-42.91</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44175</v>
+        <v>44206</v>
       </c>
       <c r="B346">
-        <v>144</v>
+        <v>116.69</v>
       </c>
       <c r="C346">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D346">
-        <v>-33.86</v>
+        <v>-43.3</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44176</v>
-      </c>
-      <c r="B347">
-        <v>135.23</v>
+        <v>44207</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
       </c>
       <c r="C347">
-        <v>217.71</v>
-      </c>
-      <c r="D347">
-        <v>-37.89</v>
+        <v>205.8</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44177</v>
+        <v>44208</v>
       </c>
       <c r="B348">
-        <v>128.75</v>
+        <v>113.19</v>
       </c>
       <c r="C348">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D348">
-        <v>-40.86</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44178</v>
+        <v>44209</v>
       </c>
       <c r="B349">
-        <v>124.17</v>
+        <v>116.5</v>
       </c>
       <c r="C349">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D349">
-        <v>-42.96</v>
+        <v>-43.39</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44179</v>
+        <v>44210</v>
       </c>
       <c r="B350">
-        <v>121.7</v>
+        <v>122.52</v>
       </c>
       <c r="C350">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D350">
-        <v>-44.1</v>
+        <v>-40.46</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44180</v>
+        <v>44211</v>
       </c>
       <c r="B351">
-        <v>119.43</v>
+        <v>118.96</v>
       </c>
       <c r="C351">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D351">
-        <v>-45.14</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44181</v>
+        <v>44212</v>
       </c>
       <c r="B352">
-        <v>117.26</v>
+        <v>120.67</v>
       </c>
       <c r="C352">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D352">
-        <v>-46.14</v>
+        <v>-41.37</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44182</v>
+        <v>44213</v>
       </c>
       <c r="B353">
-        <v>118.09</v>
+        <v>160.95</v>
       </c>
       <c r="C353">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D353">
-        <v>-45.76</v>
+        <v>-21.79</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44183</v>
+        <v>44214</v>
       </c>
       <c r="B354">
-        <v>116.75</v>
+        <v>195.21</v>
       </c>
       <c r="C354">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D354">
-        <v>-46.37</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44184</v>
+        <v>44215</v>
       </c>
       <c r="B355">
-        <v>114.76</v>
+        <v>199.05</v>
       </c>
       <c r="C355">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D355">
-        <v>-47.28</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44185</v>
+        <v>44216</v>
       </c>
       <c r="B356">
-        <v>123.88</v>
+        <v>207.83</v>
       </c>
       <c r="C356">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D356">
-        <v>-43.1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="B357">
-        <v>134.21</v>
+        <v>410.43</v>
       </c>
       <c r="C357">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D357">
-        <v>-38.35</v>
+        <v>99.43000000000001</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44187</v>
+        <v>44218</v>
       </c>
       <c r="B358">
-        <v>136.58</v>
+        <v>482</v>
       </c>
       <c r="C358">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D358">
-        <v>-37.26</v>
+        <v>134.21</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44188</v>
+        <v>44219</v>
       </c>
       <c r="B359">
-        <v>136.52</v>
+        <v>301.95</v>
       </c>
       <c r="C359">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D359">
-        <v>-37.29</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44189</v>
+        <v>44220</v>
       </c>
       <c r="B360">
-        <v>127.08</v>
+        <v>238.75</v>
       </c>
       <c r="C360">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D360">
-        <v>-41.63</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44190</v>
+        <v>44221</v>
       </c>
       <c r="B361">
-        <v>120.96</v>
+        <v>256.09</v>
       </c>
       <c r="C361">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D361">
-        <v>-44.44</v>
+        <v>24.44</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44191</v>
+        <v>44222</v>
       </c>
       <c r="B362">
-        <v>116.79</v>
+        <v>557.88</v>
       </c>
       <c r="C362">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D362">
-        <v>-46.35</v>
+        <v>171.08</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44192</v>
+        <v>44223</v>
       </c>
       <c r="B363">
-        <v>113.5</v>
+        <v>880.04</v>
       </c>
       <c r="C363">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D363">
-        <v>-47.87</v>
+        <v>327.62</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="B364">
-        <v>111.13</v>
+        <v>522.79</v>
       </c>
       <c r="C364">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D364">
-        <v>-48.95</v>
+        <v>154.03</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="B365">
-        <v>111.5</v>
+        <v>757.29</v>
       </c>
       <c r="C365">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D365">
-        <v>-48.78</v>
+        <v>267.98</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44195</v>
+        <v>44226</v>
       </c>
       <c r="B366">
-        <v>135.13</v>
+        <v>1169.05</v>
       </c>
       <c r="C366">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D366">
-        <v>-37.93</v>
+        <v>468.05</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B367">
-        <v>129.92</v>
+        <v>1137.5</v>
       </c>
       <c r="C367">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D367">
-        <v>-40.32</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B368">
-        <v>133.78</v>
-      </c>
-      <c r="C368">
-        <v>205.8</v>
-      </c>
-      <c r="D368">
-        <v>-34.99</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B369">
-        <v>128.83</v>
-      </c>
-      <c r="C369">
-        <v>205.8</v>
-      </c>
-      <c r="D369">
-        <v>-37.4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B370">
-        <v>122.26</v>
-      </c>
-      <c r="C370">
-        <v>205.8</v>
-      </c>
-      <c r="D370">
-        <v>-40.59</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B371">
-        <v>118.29</v>
-      </c>
-      <c r="C371">
-        <v>205.8</v>
-      </c>
-      <c r="D371">
-        <v>-42.52</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B372">
-        <v>116.29</v>
-      </c>
-      <c r="C372">
-        <v>205.8</v>
-      </c>
-      <c r="D372">
-        <v>-43.49</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B373">
-        <v>118.83</v>
-      </c>
-      <c r="C373">
-        <v>205.8</v>
-      </c>
-      <c r="D373">
-        <v>-42.26</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B374">
-        <v>118</v>
-      </c>
-      <c r="C374">
-        <v>205.8</v>
-      </c>
-      <c r="D374">
-        <v>-42.66</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B375">
-        <v>116.71</v>
-      </c>
-      <c r="C375">
-        <v>205.8</v>
-      </c>
-      <c r="D375">
-        <v>-43.29</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B376">
-        <v>117.5</v>
-      </c>
-      <c r="C376">
-        <v>205.8</v>
-      </c>
-      <c r="D376">
-        <v>-42.91</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B377">
-        <v>116.69</v>
-      </c>
-      <c r="C377">
-        <v>205.8</v>
-      </c>
-      <c r="D377">
-        <v>-43.3</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B378" t="s">
-        <v>4</v>
-      </c>
-      <c r="C378">
-        <v>205.8</v>
-      </c>
-      <c r="D378" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B379">
-        <v>113.19</v>
-      </c>
-      <c r="C379">
-        <v>205.8</v>
-      </c>
-      <c r="D379">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B380">
-        <v>116.5</v>
-      </c>
-      <c r="C380">
-        <v>205.8</v>
-      </c>
-      <c r="D380">
-        <v>-43.39</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B381">
-        <v>122.52</v>
-      </c>
-      <c r="C381">
-        <v>205.8</v>
-      </c>
-      <c r="D381">
-        <v>-40.46</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B382">
-        <v>118.96</v>
-      </c>
-      <c r="C382">
-        <v>205.8</v>
-      </c>
-      <c r="D382">
-        <v>-42.2</v>
+        <v>452.72</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -423,13 +423,13 @@
         <v>43890</v>
       </c>
       <c r="B2">
-        <v>172.17</v>
+        <v>167.88</v>
       </c>
       <c r="C2">
         <v>218.57</v>
       </c>
       <c r="D2">
-        <v>-21.23</v>
+        <v>-23.19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>43921</v>
       </c>
       <c r="B3">
-        <v>119.43</v>
+        <v>119.31</v>
       </c>
       <c r="C3">
         <v>180.39</v>
       </c>
       <c r="D3">
-        <v>-33.79</v>
+        <v>-33.86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>43951</v>
       </c>
       <c r="B4">
-        <v>106.97</v>
+        <v>106.9</v>
       </c>
       <c r="C4">
         <v>198.56</v>
       </c>
       <c r="D4">
-        <v>-46.13</v>
+        <v>-46.16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>43982</v>
       </c>
       <c r="B5">
-        <v>256.91</v>
+        <v>256.46</v>
       </c>
       <c r="C5">
         <v>279.37</v>
       </c>
       <c r="D5">
-        <v>-8.039999999999999</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>44012</v>
       </c>
       <c r="B6">
-        <v>288.42</v>
+        <v>290.18</v>
       </c>
       <c r="C6">
         <v>244.93</v>
       </c>
       <c r="D6">
-        <v>17.76</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -493,13 +493,13 @@
         <v>44043</v>
       </c>
       <c r="B7">
-        <v>206.55</v>
+        <v>206.22</v>
       </c>
       <c r="C7">
         <v>200.23</v>
       </c>
       <c r="D7">
-        <v>3.16</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -507,13 +507,13 @@
         <v>44074</v>
       </c>
       <c r="B8">
-        <v>142.1</v>
+        <v>141.47</v>
       </c>
       <c r="C8">
         <v>190.45</v>
       </c>
       <c r="D8">
-        <v>-25.39</v>
+        <v>-25.72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -521,13 +521,13 @@
         <v>44104</v>
       </c>
       <c r="B9">
-        <v>114.62</v>
+        <v>114.56</v>
       </c>
       <c r="C9">
         <v>216.08</v>
       </c>
       <c r="D9">
-        <v>-46.96</v>
+        <v>-46.99</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -535,13 +535,13 @@
         <v>44135</v>
       </c>
       <c r="B10">
-        <v>111.72</v>
+        <v>111.67</v>
       </c>
       <c r="C10">
         <v>310.64</v>
       </c>
       <c r="D10">
-        <v>-64.04000000000001</v>
+        <v>-64.05</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -549,13 +549,13 @@
         <v>44165</v>
       </c>
       <c r="B11">
-        <v>103.35</v>
+        <v>103.39</v>
       </c>
       <c r="C11">
         <v>254.02</v>
       </c>
       <c r="D11">
-        <v>-59.31</v>
+        <v>-59.3</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -563,13 +563,13 @@
         <v>44196</v>
       </c>
       <c r="B12">
-        <v>139.27</v>
+        <v>138.96</v>
       </c>
       <c r="C12">
         <v>217.71</v>
       </c>
       <c r="D12">
-        <v>-36.03</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -577,13 +577,27 @@
         <v>44227</v>
       </c>
       <c r="B13">
-        <v>309.19</v>
+        <v>313.84</v>
       </c>
       <c r="C13">
         <v>205.8</v>
       </c>
       <c r="D13">
-        <v>50.24</v>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B14">
+        <v>350.19</v>
+      </c>
+      <c r="C14">
+        <v>218.57</v>
+      </c>
+      <c r="D14">
+        <v>60.22</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -623,13 +637,13 @@
         <v>43862</v>
       </c>
       <c r="B2">
-        <v>695.87</v>
+        <v>605.13</v>
       </c>
       <c r="C2">
         <v>218.57</v>
       </c>
       <c r="D2">
-        <v>218.37</v>
+        <v>176.86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -637,13 +651,13 @@
         <v>43863</v>
       </c>
       <c r="B3">
-        <v>247.09</v>
+        <v>234.71</v>
       </c>
       <c r="C3">
         <v>218.57</v>
       </c>
       <c r="D3">
-        <v>13.05</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -651,13 +665,13 @@
         <v>43864</v>
       </c>
       <c r="B4">
-        <v>253.14</v>
+        <v>275.77</v>
       </c>
       <c r="C4">
         <v>218.57</v>
       </c>
       <c r="D4">
-        <v>15.82</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -665,13 +679,13 @@
         <v>43865</v>
       </c>
       <c r="B5">
-        <v>321</v>
+        <v>300.73</v>
       </c>
       <c r="C5">
         <v>218.57</v>
       </c>
       <c r="D5">
-        <v>46.86</v>
+        <v>37.59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -679,13 +693,13 @@
         <v>43866</v>
       </c>
       <c r="B6">
-        <v>212.33</v>
+        <v>206.7</v>
       </c>
       <c r="C6">
         <v>218.57</v>
       </c>
       <c r="D6">
-        <v>-2.85</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -693,13 +707,13 @@
         <v>43867</v>
       </c>
       <c r="B7">
-        <v>175.48</v>
+        <v>173.12</v>
       </c>
       <c r="C7">
         <v>218.57</v>
       </c>
       <c r="D7">
-        <v>-19.72</v>
+        <v>-20.79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -707,13 +721,13 @@
         <v>43868</v>
       </c>
       <c r="B8">
-        <v>156.87</v>
+        <v>154.87</v>
       </c>
       <c r="C8">
         <v>218.57</v>
       </c>
       <c r="D8">
-        <v>-28.23</v>
+        <v>-29.14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -721,13 +735,13 @@
         <v>43869</v>
       </c>
       <c r="B9">
-        <v>144</v>
+        <v>142.79</v>
       </c>
       <c r="C9">
         <v>218.57</v>
       </c>
       <c r="D9">
-        <v>-34.12</v>
+        <v>-34.67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -735,13 +749,13 @@
         <v>43870</v>
       </c>
       <c r="B10">
-        <v>140.65</v>
+        <v>140.57</v>
       </c>
       <c r="C10">
         <v>218.57</v>
       </c>
       <c r="D10">
-        <v>-35.65</v>
+        <v>-35.69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -749,13 +763,13 @@
         <v>43871</v>
       </c>
       <c r="B11">
-        <v>135.3</v>
+        <v>135.09</v>
       </c>
       <c r="C11">
         <v>218.57</v>
       </c>
       <c r="D11">
-        <v>-38.1</v>
+        <v>-38.19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -763,13 +777,13 @@
         <v>43872</v>
       </c>
       <c r="B12">
-        <v>136.46</v>
+        <v>136.22</v>
       </c>
       <c r="C12">
         <v>218.57</v>
       </c>
       <c r="D12">
-        <v>-37.57</v>
+        <v>-37.68</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -777,13 +791,13 @@
         <v>43873</v>
       </c>
       <c r="B13">
-        <v>130.39</v>
+        <v>129.67</v>
       </c>
       <c r="C13">
         <v>218.57</v>
       </c>
       <c r="D13">
-        <v>-40.34</v>
+        <v>-40.67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -791,13 +805,13 @@
         <v>43874</v>
       </c>
       <c r="B14">
-        <v>125.58</v>
+        <v>125.21</v>
       </c>
       <c r="C14">
         <v>218.57</v>
       </c>
       <c r="D14">
-        <v>-42.54</v>
+        <v>-42.71</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -805,13 +819,13 @@
         <v>43875</v>
       </c>
       <c r="B15">
-        <v>124.65</v>
+        <v>124.78</v>
       </c>
       <c r="C15">
         <v>218.57</v>
       </c>
       <c r="D15">
-        <v>-42.97</v>
+        <v>-42.91</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -819,13 +833,13 @@
         <v>43876</v>
       </c>
       <c r="B16">
-        <v>122.29</v>
+        <v>121.58</v>
       </c>
       <c r="C16">
         <v>218.57</v>
       </c>
       <c r="D16">
-        <v>-44.05</v>
+        <v>-44.37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -833,13 +847,13 @@
         <v>43877</v>
       </c>
       <c r="B17">
-        <v>118.13</v>
+        <v>117.7</v>
       </c>
       <c r="C17">
         <v>218.57</v>
       </c>
       <c r="D17">
-        <v>-45.95</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -847,13 +861,13 @@
         <v>43878</v>
       </c>
       <c r="B18">
-        <v>116.09</v>
+        <v>115.96</v>
       </c>
       <c r="C18">
         <v>218.57</v>
       </c>
       <c r="D18">
-        <v>-46.89</v>
+        <v>-46.95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -861,13 +875,13 @@
         <v>43879</v>
       </c>
       <c r="B19">
-        <v>114.46</v>
+        <v>114.39</v>
       </c>
       <c r="C19">
         <v>218.57</v>
       </c>
       <c r="D19">
-        <v>-47.63</v>
+        <v>-47.66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -875,13 +889,13 @@
         <v>43880</v>
       </c>
       <c r="B20">
-        <v>113.86</v>
+        <v>113.96</v>
       </c>
       <c r="C20">
         <v>218.57</v>
       </c>
       <c r="D20">
-        <v>-47.91</v>
+        <v>-47.86</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -889,13 +903,13 @@
         <v>43881</v>
       </c>
       <c r="B21">
-        <v>115.7</v>
+        <v>115.48</v>
       </c>
       <c r="C21">
         <v>218.57</v>
       </c>
       <c r="D21">
-        <v>-47.07</v>
+        <v>-47.17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -903,13 +917,13 @@
         <v>43882</v>
       </c>
       <c r="B22">
-        <v>112.43</v>
+        <v>112.13</v>
       </c>
       <c r="C22">
         <v>218.57</v>
       </c>
       <c r="D22">
-        <v>-48.56</v>
+        <v>-48.7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -917,13 +931,13 @@
         <v>43883</v>
       </c>
       <c r="B23">
-        <v>110.58</v>
+        <v>110.46</v>
       </c>
       <c r="C23">
         <v>218.57</v>
       </c>
       <c r="D23">
-        <v>-49.41</v>
+        <v>-49.46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -931,13 +945,13 @@
         <v>43884</v>
       </c>
       <c r="B24">
-        <v>108.75</v>
+        <v>108.5</v>
       </c>
       <c r="C24">
         <v>218.57</v>
       </c>
       <c r="D24">
-        <v>-50.24</v>
+        <v>-50.36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -945,13 +959,13 @@
         <v>43885</v>
       </c>
       <c r="B25">
-        <v>106.78</v>
+        <v>106.52</v>
       </c>
       <c r="C25">
         <v>218.57</v>
       </c>
       <c r="D25">
-        <v>-51.14</v>
+        <v>-51.26</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -959,13 +973,13 @@
         <v>43886</v>
       </c>
       <c r="B26">
-        <v>110.83</v>
+        <v>112.83</v>
       </c>
       <c r="C26">
         <v>218.57</v>
       </c>
       <c r="D26">
-        <v>-49.29</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -973,13 +987,13 @@
         <v>43887</v>
       </c>
       <c r="B27">
-        <v>148.38</v>
+        <v>152.24</v>
       </c>
       <c r="C27">
         <v>218.57</v>
       </c>
       <c r="D27">
-        <v>-32.12</v>
+        <v>-30.35</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -987,13 +1001,13 @@
         <v>43888</v>
       </c>
       <c r="B28">
-        <v>253</v>
+        <v>245.74</v>
       </c>
       <c r="C28">
         <v>218.57</v>
       </c>
       <c r="D28">
-        <v>15.75</v>
+        <v>12.43</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1001,13 +1015,13 @@
         <v>43889</v>
       </c>
       <c r="B29">
-        <v>184.96</v>
+        <v>180.26</v>
       </c>
       <c r="C29">
         <v>218.57</v>
       </c>
       <c r="D29">
-        <v>-15.38</v>
+        <v>-17.53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1015,13 +1029,13 @@
         <v>43890</v>
       </c>
       <c r="B30">
-        <v>157.75</v>
+        <v>155.42</v>
       </c>
       <c r="C30">
         <v>218.57</v>
       </c>
       <c r="D30">
-        <v>-27.83</v>
+        <v>-28.89</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1029,13 +1043,13 @@
         <v>43891</v>
       </c>
       <c r="B31">
-        <v>142.96</v>
+        <v>141.43</v>
       </c>
       <c r="C31">
         <v>180.39</v>
       </c>
       <c r="D31">
-        <v>-20.75</v>
+        <v>-21.59</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1043,13 +1057,13 @@
         <v>43892</v>
       </c>
       <c r="B32">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C32">
         <v>180.39</v>
       </c>
       <c r="D32">
-        <v>-26.27</v>
+        <v>-26.82</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1057,13 +1071,13 @@
         <v>43893</v>
       </c>
       <c r="B33">
-        <v>126.26</v>
+        <v>125.52</v>
       </c>
       <c r="C33">
         <v>180.39</v>
       </c>
       <c r="D33">
-        <v>-30.01</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1071,13 +1085,13 @@
         <v>43894</v>
       </c>
       <c r="B34">
-        <v>121.83</v>
+        <v>121.46</v>
       </c>
       <c r="C34">
         <v>180.39</v>
       </c>
       <c r="D34">
-        <v>-32.46</v>
+        <v>-32.67</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1085,13 +1099,13 @@
         <v>43895</v>
       </c>
       <c r="B35">
-        <v>118.7</v>
+        <v>118.35</v>
       </c>
       <c r="C35">
         <v>180.39</v>
       </c>
       <c r="D35">
-        <v>-34.2</v>
+        <v>-34.39</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1099,13 +1113,13 @@
         <v>43896</v>
       </c>
       <c r="B36">
-        <v>116.17</v>
+        <v>115.83</v>
       </c>
       <c r="C36">
         <v>180.39</v>
       </c>
       <c r="D36">
-        <v>-35.6</v>
+        <v>-35.79</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1113,13 +1127,13 @@
         <v>43897</v>
       </c>
       <c r="B37">
-        <v>113.91</v>
+        <v>113.7</v>
       </c>
       <c r="C37">
         <v>180.39</v>
       </c>
       <c r="D37">
-        <v>-36.85</v>
+        <v>-36.97</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1127,13 +1141,13 @@
         <v>43898</v>
       </c>
       <c r="B38">
-        <v>112.86</v>
+        <v>112.91</v>
       </c>
       <c r="C38">
         <v>180.39</v>
       </c>
       <c r="D38">
-        <v>-37.43</v>
+        <v>-37.41</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1141,13 +1155,13 @@
         <v>43899</v>
       </c>
       <c r="B39">
-        <v>111.54</v>
+        <v>111.12</v>
       </c>
       <c r="C39">
         <v>180.39</v>
       </c>
       <c r="D39">
-        <v>-38.17</v>
+        <v>-38.4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1155,13 +1169,13 @@
         <v>43900</v>
       </c>
       <c r="B40">
-        <v>109.12</v>
+        <v>108.88</v>
       </c>
       <c r="C40">
         <v>180.39</v>
       </c>
       <c r="D40">
-        <v>-39.51</v>
+        <v>-39.64</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1169,13 +1183,13 @@
         <v>43901</v>
       </c>
       <c r="B41">
-        <v>107.5</v>
+        <v>107.38</v>
       </c>
       <c r="C41">
         <v>180.39</v>
       </c>
       <c r="D41">
-        <v>-40.41</v>
+        <v>-40.48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1183,13 +1197,13 @@
         <v>43902</v>
       </c>
       <c r="B42">
-        <v>106.17</v>
+        <v>105.96</v>
       </c>
       <c r="C42">
         <v>180.39</v>
       </c>
       <c r="D42">
-        <v>-41.15</v>
+        <v>-41.26</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1197,13 +1211,13 @@
         <v>43903</v>
       </c>
       <c r="B43">
-        <v>104.96</v>
+        <v>104.92</v>
       </c>
       <c r="C43">
         <v>180.39</v>
       </c>
       <c r="D43">
-        <v>-41.81</v>
+        <v>-41.84</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1211,13 +1225,13 @@
         <v>43904</v>
       </c>
       <c r="B44">
-        <v>104.21</v>
+        <v>104.08</v>
       </c>
       <c r="C44">
         <v>180.39</v>
       </c>
       <c r="D44">
-        <v>-42.23</v>
+        <v>-42.3</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1225,13 +1239,13 @@
         <v>43905</v>
       </c>
       <c r="B45">
-        <v>103.43</v>
+        <v>103.3</v>
       </c>
       <c r="C45">
         <v>180.39</v>
       </c>
       <c r="D45">
-        <v>-42.66</v>
+        <v>-42.73</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1239,13 +1253,13 @@
         <v>43906</v>
       </c>
       <c r="B46">
-        <v>102.5</v>
+        <v>102.38</v>
       </c>
       <c r="C46">
         <v>180.39</v>
       </c>
       <c r="D46">
-        <v>-43.18</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1253,13 +1267,13 @@
         <v>43907</v>
       </c>
       <c r="B47">
-        <v>101.48</v>
+        <v>101.35</v>
       </c>
       <c r="C47">
         <v>180.39</v>
       </c>
       <c r="D47">
-        <v>-43.74</v>
+        <v>-43.82</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1267,13 +1281,13 @@
         <v>43908</v>
       </c>
       <c r="B48">
-        <v>106.39</v>
+        <v>108.48</v>
       </c>
       <c r="C48">
         <v>180.39</v>
       </c>
       <c r="D48">
-        <v>-41.02</v>
+        <v>-39.86</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1281,13 +1295,13 @@
         <v>43909</v>
       </c>
       <c r="B49">
-        <v>145.17</v>
+        <v>156</v>
       </c>
       <c r="C49">
         <v>180.39</v>
       </c>
       <c r="D49">
-        <v>-19.52</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1295,13 +1309,13 @@
         <v>43910</v>
       </c>
       <c r="B50">
-        <v>183.46</v>
+        <v>178.91</v>
       </c>
       <c r="C50">
         <v>180.39</v>
       </c>
       <c r="D50">
-        <v>1.7</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1309,13 +1323,13 @@
         <v>43911</v>
       </c>
       <c r="B51">
-        <v>152.83</v>
+        <v>151</v>
       </c>
       <c r="C51">
         <v>180.39</v>
       </c>
       <c r="D51">
-        <v>-15.28</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1323,13 +1337,13 @@
         <v>43912</v>
       </c>
       <c r="B52">
-        <v>138.67</v>
+        <v>137.48</v>
       </c>
       <c r="C52">
         <v>180.39</v>
       </c>
       <c r="D52">
-        <v>-23.13</v>
+        <v>-23.79</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1337,13 +1351,13 @@
         <v>43913</v>
       </c>
       <c r="B53">
-        <v>129.36</v>
+        <v>128.52</v>
       </c>
       <c r="C53">
         <v>180.39</v>
       </c>
       <c r="D53">
-        <v>-28.29</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1351,13 +1365,13 @@
         <v>43914</v>
       </c>
       <c r="B54">
-        <v>123.21</v>
+        <v>122.58</v>
       </c>
       <c r="C54">
         <v>180.39</v>
       </c>
       <c r="D54">
-        <v>-31.7</v>
+        <v>-32.04</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1365,13 +1379,13 @@
         <v>43915</v>
       </c>
       <c r="B55">
-        <v>118.71</v>
+        <v>118.29</v>
       </c>
       <c r="C55">
         <v>180.39</v>
       </c>
       <c r="D55">
-        <v>-34.19</v>
+        <v>-34.42</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1379,13 +1393,13 @@
         <v>43916</v>
       </c>
       <c r="B56">
-        <v>115.42</v>
+        <v>115.04</v>
       </c>
       <c r="C56">
         <v>180.39</v>
       </c>
       <c r="D56">
-        <v>-36.02</v>
+        <v>-36.23</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1393,13 +1407,13 @@
         <v>43917</v>
       </c>
       <c r="B57">
-        <v>112.87</v>
+        <v>112.61</v>
       </c>
       <c r="C57">
         <v>180.39</v>
       </c>
       <c r="D57">
-        <v>-37.43</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1407,13 +1421,13 @@
         <v>43918</v>
       </c>
       <c r="B58">
-        <v>111.29</v>
+        <v>111.17</v>
       </c>
       <c r="C58">
         <v>180.39</v>
       </c>
       <c r="D58">
-        <v>-38.3</v>
+        <v>-38.37</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1421,13 +1435,13 @@
         <v>43919</v>
       </c>
       <c r="B59">
-        <v>110.33</v>
+        <v>110.21</v>
       </c>
       <c r="C59">
         <v>180.39</v>
       </c>
       <c r="D59">
-        <v>-38.84</v>
+        <v>-38.9</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1435,13 +1449,13 @@
         <v>43920</v>
       </c>
       <c r="B60">
-        <v>109.58</v>
+        <v>109.46</v>
       </c>
       <c r="C60">
         <v>180.39</v>
       </c>
       <c r="D60">
-        <v>-39.25</v>
+        <v>-39.32</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1449,13 +1463,13 @@
         <v>43921</v>
       </c>
       <c r="B61">
-        <v>108.54</v>
+        <v>108.43</v>
       </c>
       <c r="C61">
         <v>180.39</v>
       </c>
       <c r="D61">
-        <v>-39.83</v>
+        <v>-39.89</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1477,13 +1491,13 @@
         <v>43923</v>
       </c>
       <c r="B63">
-        <v>107.3</v>
+        <v>107.18</v>
       </c>
       <c r="C63">
         <v>198.56</v>
       </c>
       <c r="D63">
-        <v>-45.96</v>
+        <v>-46.02</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1491,13 +1505,13 @@
         <v>43924</v>
       </c>
       <c r="B64">
-        <v>106.27</v>
+        <v>106.18</v>
       </c>
       <c r="C64">
         <v>198.56</v>
       </c>
       <c r="D64">
-        <v>-46.48</v>
+        <v>-46.52</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1505,13 +1519,13 @@
         <v>43925</v>
       </c>
       <c r="B65">
-        <v>105.43</v>
+        <v>105.33</v>
       </c>
       <c r="C65">
         <v>198.56</v>
       </c>
       <c r="D65">
-        <v>-46.9</v>
+        <v>-46.95</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1519,13 +1533,13 @@
         <v>43926</v>
       </c>
       <c r="B66">
-        <v>104.65</v>
+        <v>104.57</v>
       </c>
       <c r="C66">
         <v>198.56</v>
       </c>
       <c r="D66">
-        <v>-47.3</v>
+        <v>-47.34</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1561,13 +1575,13 @@
         <v>43929</v>
       </c>
       <c r="B69">
-        <v>113.41</v>
+        <v>113.2</v>
       </c>
       <c r="C69">
         <v>198.56</v>
       </c>
       <c r="D69">
-        <v>-42.88</v>
+        <v>-42.99</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1575,13 +1589,13 @@
         <v>43930</v>
       </c>
       <c r="B70">
-        <v>115.33</v>
+        <v>115.96</v>
       </c>
       <c r="C70">
         <v>198.56</v>
       </c>
       <c r="D70">
-        <v>-41.92</v>
+        <v>-41.6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1589,13 +1603,13 @@
         <v>43931</v>
       </c>
       <c r="B71">
-        <v>114.96</v>
+        <v>114.46</v>
       </c>
       <c r="C71">
         <v>198.56</v>
       </c>
       <c r="D71">
-        <v>-42.1</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1603,13 +1617,13 @@
         <v>43932</v>
       </c>
       <c r="B72">
-        <v>111.71</v>
+        <v>111.38</v>
       </c>
       <c r="C72">
         <v>198.56</v>
       </c>
       <c r="D72">
-        <v>-43.74</v>
+        <v>-43.91</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1617,13 +1631,13 @@
         <v>43933</v>
       </c>
       <c r="B73">
-        <v>109.58</v>
+        <v>109.42</v>
       </c>
       <c r="C73">
         <v>198.56</v>
       </c>
       <c r="D73">
-        <v>-44.81</v>
+        <v>-44.9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1631,13 +1645,13 @@
         <v>43934</v>
       </c>
       <c r="B74">
-        <v>107.86</v>
+        <v>107.67</v>
       </c>
       <c r="C74">
         <v>198.56</v>
       </c>
       <c r="D74">
-        <v>-45.68</v>
+        <v>-45.78</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1645,13 +1659,13 @@
         <v>43935</v>
       </c>
       <c r="B75">
-        <v>109.69</v>
+        <v>109.81</v>
       </c>
       <c r="C75">
         <v>198.56</v>
       </c>
       <c r="D75">
-        <v>-44.76</v>
+        <v>-44.7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1659,13 +1673,13 @@
         <v>43936</v>
       </c>
       <c r="B76">
-        <v>108.68</v>
+        <v>108.29</v>
       </c>
       <c r="C76">
         <v>198.56</v>
       </c>
       <c r="D76">
-        <v>-45.27</v>
+        <v>-45.46</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1673,13 +1687,13 @@
         <v>43937</v>
       </c>
       <c r="B77">
-        <v>106.59</v>
+        <v>106.52</v>
       </c>
       <c r="C77">
         <v>198.56</v>
       </c>
       <c r="D77">
-        <v>-46.32</v>
+        <v>-46.35</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1687,13 +1701,13 @@
         <v>43938</v>
       </c>
       <c r="B78">
-        <v>111.16</v>
+        <v>112.06</v>
       </c>
       <c r="C78">
         <v>198.56</v>
       </c>
       <c r="D78">
-        <v>-44.02</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1701,13 +1715,13 @@
         <v>43939</v>
       </c>
       <c r="B79">
-        <v>110.43</v>
+        <v>110.25</v>
       </c>
       <c r="C79">
         <v>198.56</v>
       </c>
       <c r="D79">
-        <v>-44.39</v>
+        <v>-44.48</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1715,13 +1729,13 @@
         <v>43940</v>
       </c>
       <c r="B80">
-        <v>108.26</v>
+        <v>108.05</v>
       </c>
       <c r="C80">
         <v>198.56</v>
       </c>
       <c r="D80">
-        <v>-45.48</v>
+        <v>-45.59</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1729,13 +1743,13 @@
         <v>43941</v>
       </c>
       <c r="B81">
-        <v>106.5</v>
+        <v>106.3</v>
       </c>
       <c r="C81">
         <v>198.56</v>
       </c>
       <c r="D81">
-        <v>-46.36</v>
+        <v>-46.46</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1743,13 +1757,13 @@
         <v>43942</v>
       </c>
       <c r="B82">
-        <v>104.91</v>
+        <v>104.74</v>
       </c>
       <c r="C82">
         <v>198.56</v>
       </c>
       <c r="D82">
-        <v>-47.16</v>
+        <v>-47.25</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1757,13 +1771,13 @@
         <v>43943</v>
       </c>
       <c r="B83">
-        <v>103.62</v>
+        <v>103.52</v>
       </c>
       <c r="C83">
         <v>198.56</v>
       </c>
       <c r="D83">
-        <v>-47.81</v>
+        <v>-47.86</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1771,13 +1785,13 @@
         <v>43944</v>
       </c>
       <c r="B84">
-        <v>102.91</v>
+        <v>102.87</v>
       </c>
       <c r="C84">
         <v>198.56</v>
       </c>
       <c r="D84">
-        <v>-48.17</v>
+        <v>-48.19</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1785,13 +1799,13 @@
         <v>43945</v>
       </c>
       <c r="B85">
-        <v>102.22</v>
+        <v>102.17</v>
       </c>
       <c r="C85">
         <v>198.56</v>
       </c>
       <c r="D85">
-        <v>-48.52</v>
+        <v>-48.54</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1799,13 +1813,13 @@
         <v>43946</v>
       </c>
       <c r="B86">
-        <v>101.35</v>
+        <v>101.25</v>
       </c>
       <c r="C86">
         <v>198.56</v>
       </c>
       <c r="D86">
-        <v>-48.96</v>
+        <v>-49.01</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1813,13 +1827,13 @@
         <v>43947</v>
       </c>
       <c r="B87">
-        <v>100.46</v>
+        <v>100.33</v>
       </c>
       <c r="C87">
         <v>198.56</v>
       </c>
       <c r="D87">
-        <v>-49.41</v>
+        <v>-49.47</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1939,13 +1953,13 @@
         <v>43956</v>
       </c>
       <c r="B96">
-        <v>100.33</v>
+        <v>100.83</v>
       </c>
       <c r="C96">
         <v>279.37</v>
       </c>
       <c r="D96">
-        <v>-64.09</v>
+        <v>-63.91</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1953,13 +1967,13 @@
         <v>43957</v>
       </c>
       <c r="B97">
-        <v>102.96</v>
+        <v>103.3</v>
       </c>
       <c r="C97">
         <v>279.37</v>
       </c>
       <c r="D97">
-        <v>-63.15</v>
+        <v>-63.02</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1967,13 +1981,13 @@
         <v>43958</v>
       </c>
       <c r="B98">
-        <v>105.61</v>
+        <v>105.74</v>
       </c>
       <c r="C98">
         <v>279.37</v>
       </c>
       <c r="D98">
-        <v>-62.2</v>
+        <v>-62.15</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1981,13 +1995,13 @@
         <v>43959</v>
       </c>
       <c r="B99">
-        <v>105.83</v>
+        <v>106.75</v>
       </c>
       <c r="C99">
         <v>279.37</v>
       </c>
       <c r="D99">
-        <v>-62.12</v>
+        <v>-61.79</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1995,13 +2009,13 @@
         <v>43960</v>
       </c>
       <c r="B100">
-        <v>114.83</v>
+        <v>114.91</v>
       </c>
       <c r="C100">
         <v>279.37</v>
       </c>
       <c r="D100">
-        <v>-58.9</v>
+        <v>-58.87</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2009,13 +2023,13 @@
         <v>43961</v>
       </c>
       <c r="B101">
-        <v>111.43</v>
+        <v>110.96</v>
       </c>
       <c r="C101">
         <v>279.37</v>
       </c>
       <c r="D101">
-        <v>-60.11</v>
+        <v>-60.28</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2023,13 +2037,13 @@
         <v>43962</v>
       </c>
       <c r="B102">
-        <v>108.26</v>
+        <v>107.96</v>
       </c>
       <c r="C102">
         <v>279.37</v>
       </c>
       <c r="D102">
-        <v>-61.25</v>
+        <v>-61.36</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2037,13 +2051,13 @@
         <v>43963</v>
       </c>
       <c r="B103">
-        <v>107.38</v>
+        <v>107.79</v>
       </c>
       <c r="C103">
         <v>279.37</v>
       </c>
       <c r="D103">
-        <v>-61.57</v>
+        <v>-61.42</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2051,13 +2065,13 @@
         <v>43964</v>
       </c>
       <c r="B104">
-        <v>168.96</v>
+        <v>179.81</v>
       </c>
       <c r="C104">
         <v>279.37</v>
       </c>
       <c r="D104">
-        <v>-39.52</v>
+        <v>-35.64</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2065,13 +2079,13 @@
         <v>43965</v>
       </c>
       <c r="B105">
-        <v>442.05</v>
+        <v>466.17</v>
       </c>
       <c r="C105">
         <v>279.37</v>
       </c>
       <c r="D105">
-        <v>58.23</v>
+        <v>66.87</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2079,13 +2093,13 @@
         <v>43966</v>
       </c>
       <c r="B106">
-        <v>383.78</v>
+        <v>343.09</v>
       </c>
       <c r="C106">
         <v>279.37</v>
       </c>
       <c r="D106">
-        <v>37.37</v>
+        <v>22.81</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2093,13 +2107,13 @@
         <v>43967</v>
       </c>
       <c r="B107">
-        <v>213.5</v>
+        <v>206.92</v>
       </c>
       <c r="C107">
         <v>279.37</v>
       </c>
       <c r="D107">
-        <v>-23.58</v>
+        <v>-25.93</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2107,13 +2121,13 @@
         <v>43968</v>
       </c>
       <c r="B108">
-        <v>177.5</v>
+        <v>174.96</v>
       </c>
       <c r="C108">
         <v>279.37</v>
       </c>
       <c r="D108">
-        <v>-36.46</v>
+        <v>-37.37</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2121,13 +2135,13 @@
         <v>43969</v>
       </c>
       <c r="B109">
-        <v>158.13</v>
+        <v>156.62</v>
       </c>
       <c r="C109">
         <v>279.37</v>
       </c>
       <c r="D109">
-        <v>-43.4</v>
+        <v>-43.94</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2135,13 +2149,13 @@
         <v>43970</v>
       </c>
       <c r="B110">
-        <v>145.96</v>
+        <v>144.77</v>
       </c>
       <c r="C110">
         <v>279.37</v>
       </c>
       <c r="D110">
-        <v>-47.76</v>
+        <v>-48.18</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2149,13 +2163,13 @@
         <v>43971</v>
       </c>
       <c r="B111">
-        <v>136.83</v>
+        <v>136.08</v>
       </c>
       <c r="C111">
         <v>279.37</v>
       </c>
       <c r="D111">
-        <v>-51.02</v>
+        <v>-51.29</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2163,13 +2177,13 @@
         <v>43972</v>
       </c>
       <c r="B112">
-        <v>130.61</v>
+        <v>129.87</v>
       </c>
       <c r="C112">
         <v>279.37</v>
       </c>
       <c r="D112">
-        <v>-53.25</v>
+        <v>-53.51</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2177,13 +2191,13 @@
         <v>43973</v>
       </c>
       <c r="B113">
-        <v>448.62</v>
+        <v>535.62</v>
       </c>
       <c r="C113">
         <v>279.37</v>
       </c>
       <c r="D113">
-        <v>60.58</v>
+        <v>91.73</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2191,13 +2205,13 @@
         <v>43974</v>
       </c>
       <c r="B114">
-        <v>1052.78</v>
+        <v>1093.57</v>
       </c>
       <c r="C114">
         <v>279.37</v>
       </c>
       <c r="D114">
-        <v>276.84</v>
+        <v>291.44</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2205,13 +2219,13 @@
         <v>43975</v>
       </c>
       <c r="B115">
-        <v>927.75</v>
+        <v>862.17</v>
       </c>
       <c r="C115">
         <v>279.37</v>
       </c>
       <c r="D115">
-        <v>232.09</v>
+        <v>208.61</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2219,13 +2233,13 @@
         <v>43976</v>
       </c>
       <c r="B116">
-        <v>454.12</v>
+        <v>419.12</v>
       </c>
       <c r="C116">
         <v>279.37</v>
       </c>
       <c r="D116">
-        <v>62.55</v>
+        <v>50.02</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2233,13 +2247,13 @@
         <v>43977</v>
       </c>
       <c r="B117">
-        <v>291.38</v>
+        <v>281.29</v>
       </c>
       <c r="C117">
         <v>279.37</v>
       </c>
       <c r="D117">
-        <v>4.3</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2247,13 +2261,13 @@
         <v>43978</v>
       </c>
       <c r="B118">
-        <v>231.67</v>
+        <v>226.83</v>
       </c>
       <c r="C118">
         <v>279.37</v>
       </c>
       <c r="D118">
-        <v>-17.08</v>
+        <v>-18.81</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2261,13 +2275,13 @@
         <v>43979</v>
       </c>
       <c r="B119">
-        <v>201.75</v>
+        <v>199.04</v>
       </c>
       <c r="C119">
         <v>279.37</v>
       </c>
       <c r="D119">
-        <v>-27.78</v>
+        <v>-28.75</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2275,13 +2289,13 @@
         <v>43980</v>
       </c>
       <c r="B120">
-        <v>183.54</v>
+        <v>181.67</v>
       </c>
       <c r="C120">
         <v>279.37</v>
       </c>
       <c r="D120">
-        <v>-34.3</v>
+        <v>-34.97</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2289,13 +2303,13 @@
         <v>43981</v>
       </c>
       <c r="B121">
-        <v>170.25</v>
+        <v>168.88</v>
       </c>
       <c r="C121">
         <v>279.37</v>
       </c>
       <c r="D121">
-        <v>-39.06</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2303,13 +2317,13 @@
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>160.67</v>
+        <v>159.75</v>
       </c>
       <c r="C122">
         <v>279.37</v>
       </c>
       <c r="D122">
-        <v>-42.49</v>
+        <v>-42.82</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2317,13 +2331,13 @@
         <v>43983</v>
       </c>
       <c r="B123">
-        <v>155.43</v>
+        <v>154.91</v>
       </c>
       <c r="C123">
         <v>244.93</v>
       </c>
       <c r="D123">
-        <v>-36.54</v>
+        <v>-36.75</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2331,13 +2345,13 @@
         <v>43984</v>
       </c>
       <c r="B124">
-        <v>151.5</v>
+        <v>151.12</v>
       </c>
       <c r="C124">
         <v>244.93</v>
       </c>
       <c r="D124">
-        <v>-38.14</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2345,13 +2359,13 @@
         <v>43985</v>
       </c>
       <c r="B125">
-        <v>147.78</v>
+        <v>147.13</v>
       </c>
       <c r="C125">
         <v>244.93</v>
       </c>
       <c r="D125">
-        <v>-39.66</v>
+        <v>-39.93</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2359,13 +2373,13 @@
         <v>43986</v>
       </c>
       <c r="B126">
-        <v>152.05</v>
+        <v>162.35</v>
       </c>
       <c r="C126">
         <v>244.93</v>
       </c>
       <c r="D126">
-        <v>-37.92</v>
+        <v>-33.72</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2373,13 +2387,13 @@
         <v>43987</v>
       </c>
       <c r="B127">
-        <v>278.05</v>
+        <v>345.83</v>
       </c>
       <c r="C127">
         <v>244.93</v>
       </c>
       <c r="D127">
-        <v>13.52</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2387,13 +2401,13 @@
         <v>43988</v>
       </c>
       <c r="B128">
-        <v>708</v>
+        <v>739.29</v>
       </c>
       <c r="C128">
         <v>244.93</v>
       </c>
       <c r="D128">
-        <v>189.07</v>
+        <v>201.84</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2401,13 +2415,13 @@
         <v>43989</v>
       </c>
       <c r="B129">
-        <v>737.22</v>
+        <v>710.09</v>
       </c>
       <c r="C129">
         <v>244.93</v>
       </c>
       <c r="D129">
-        <v>200.99</v>
+        <v>189.92</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2415,13 +2429,13 @@
         <v>43990</v>
       </c>
       <c r="B130">
-        <v>401.87</v>
+        <v>379.62</v>
       </c>
       <c r="C130">
         <v>244.93</v>
       </c>
       <c r="D130">
-        <v>64.08</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2429,13 +2443,13 @@
         <v>43991</v>
       </c>
       <c r="B131">
-        <v>293.75</v>
+        <v>298.71</v>
       </c>
       <c r="C131">
         <v>244.93</v>
       </c>
       <c r="D131">
-        <v>19.93</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2443,13 +2457,13 @@
         <v>43992</v>
       </c>
       <c r="B132">
-        <v>506.38</v>
+        <v>558.79</v>
       </c>
       <c r="C132">
         <v>244.93</v>
       </c>
       <c r="D132">
-        <v>106.75</v>
+        <v>128.15</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2457,13 +2471,13 @@
         <v>43993</v>
       </c>
       <c r="B133">
-        <v>809.77</v>
+        <v>814.14</v>
       </c>
       <c r="C133">
         <v>244.93</v>
       </c>
       <c r="D133">
-        <v>230.62</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2471,13 +2485,13 @@
         <v>43994</v>
       </c>
       <c r="B134">
-        <v>749.96</v>
+        <v>728.45</v>
       </c>
       <c r="C134">
         <v>244.93</v>
       </c>
       <c r="D134">
-        <v>206.2</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2485,13 +2499,13 @@
         <v>43995</v>
       </c>
       <c r="B135">
-        <v>455.09</v>
+        <v>431.62</v>
       </c>
       <c r="C135">
         <v>244.93</v>
       </c>
       <c r="D135">
-        <v>85.81</v>
+        <v>76.23</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2499,13 +2513,13 @@
         <v>43996</v>
       </c>
       <c r="B136">
-        <v>337.83</v>
+        <v>334.87</v>
       </c>
       <c r="C136">
         <v>244.93</v>
       </c>
       <c r="D136">
-        <v>37.93</v>
+        <v>36.72</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2513,13 +2527,13 @@
         <v>43997</v>
       </c>
       <c r="B137">
-        <v>307.09</v>
+        <v>302.32</v>
       </c>
       <c r="C137">
         <v>244.93</v>
       </c>
       <c r="D137">
-        <v>25.38</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2527,13 +2541,13 @@
         <v>43998</v>
       </c>
       <c r="B138">
-        <v>254.1</v>
+        <v>248.77</v>
       </c>
       <c r="C138">
         <v>244.93</v>
       </c>
       <c r="D138">
-        <v>3.74</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2541,13 +2555,13 @@
         <v>43999</v>
       </c>
       <c r="B139">
-        <v>215.79</v>
+        <v>212.46</v>
       </c>
       <c r="C139">
         <v>244.93</v>
       </c>
       <c r="D139">
-        <v>-11.9</v>
+        <v>-13.26</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2555,13 +2569,13 @@
         <v>44000</v>
       </c>
       <c r="B140">
-        <v>194.35</v>
+        <v>192.17</v>
       </c>
       <c r="C140">
         <v>244.93</v>
       </c>
       <c r="D140">
-        <v>-20.65</v>
+        <v>-21.54</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2569,13 +2583,13 @@
         <v>44001</v>
       </c>
       <c r="B141">
-        <v>180.04</v>
+        <v>178.78</v>
       </c>
       <c r="C141">
         <v>244.93</v>
       </c>
       <c r="D141">
-        <v>-26.49</v>
+        <v>-27.01</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2583,13 +2597,13 @@
         <v>44002</v>
       </c>
       <c r="B142">
-        <v>169.22</v>
+        <v>168.39</v>
       </c>
       <c r="C142">
         <v>244.93</v>
       </c>
       <c r="D142">
-        <v>-30.91</v>
+        <v>-31.25</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2597,13 +2611,13 @@
         <v>44003</v>
       </c>
       <c r="B143">
-        <v>160.87</v>
+        <v>160.26</v>
       </c>
       <c r="C143">
         <v>244.93</v>
       </c>
       <c r="D143">
-        <v>-34.32</v>
+        <v>-34.57</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2611,13 +2625,13 @@
         <v>44004</v>
       </c>
       <c r="B144">
-        <v>154</v>
+        <v>153.32</v>
       </c>
       <c r="C144">
         <v>244.93</v>
       </c>
       <c r="D144">
-        <v>-37.12</v>
+        <v>-37.4</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2625,13 +2639,13 @@
         <v>44005</v>
       </c>
       <c r="B145">
-        <v>148.7</v>
+        <v>148.04</v>
       </c>
       <c r="C145">
         <v>244.93</v>
       </c>
       <c r="D145">
-        <v>-39.29</v>
+        <v>-39.56</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2639,13 +2653,13 @@
         <v>44006</v>
       </c>
       <c r="B146">
-        <v>144.04</v>
+        <v>143.61</v>
       </c>
       <c r="C146">
         <v>244.93</v>
       </c>
       <c r="D146">
-        <v>-41.19</v>
+        <v>-41.37</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2653,13 +2667,13 @@
         <v>44007</v>
       </c>
       <c r="B147">
-        <v>140.62</v>
+        <v>140.36</v>
       </c>
       <c r="C147">
         <v>244.93</v>
       </c>
       <c r="D147">
-        <v>-42.59</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2667,13 +2681,13 @@
         <v>44008</v>
       </c>
       <c r="B148">
-        <v>139.21</v>
+        <v>139</v>
       </c>
       <c r="C148">
         <v>244.93</v>
       </c>
       <c r="D148">
-        <v>-43.16</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2681,13 +2695,13 @@
         <v>44009</v>
       </c>
       <c r="B149">
-        <v>141.21</v>
+        <v>141.58</v>
       </c>
       <c r="C149">
         <v>244.93</v>
       </c>
       <c r="D149">
-        <v>-42.35</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2695,13 +2709,13 @@
         <v>44010</v>
       </c>
       <c r="B150">
-        <v>139.58</v>
+        <v>139.08</v>
       </c>
       <c r="C150">
         <v>244.93</v>
       </c>
       <c r="D150">
-        <v>-43.01</v>
+        <v>-43.21</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2709,13 +2723,13 @@
         <v>44011</v>
       </c>
       <c r="B151">
-        <v>135.83</v>
+        <v>135.57</v>
       </c>
       <c r="C151">
         <v>244.93</v>
       </c>
       <c r="D151">
-        <v>-44.54</v>
+        <v>-44.65</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2723,13 +2737,13 @@
         <v>44012</v>
       </c>
       <c r="B152">
-        <v>143.32</v>
+        <v>144.63</v>
       </c>
       <c r="C152">
         <v>244.93</v>
       </c>
       <c r="D152">
-        <v>-41.49</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2737,13 +2751,13 @@
         <v>44013</v>
       </c>
       <c r="B153">
-        <v>410.33</v>
+        <v>423.55</v>
       </c>
       <c r="C153">
         <v>200.23</v>
       </c>
       <c r="D153">
-        <v>104.93</v>
+        <v>111.53</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2751,13 +2765,13 @@
         <v>44014</v>
       </c>
       <c r="B154">
-        <v>347.95</v>
+        <v>328.33</v>
       </c>
       <c r="C154">
         <v>200.23</v>
       </c>
       <c r="D154">
-        <v>73.78</v>
+        <v>63.98</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2765,13 +2779,13 @@
         <v>44015</v>
       </c>
       <c r="B155">
-        <v>232.13</v>
+        <v>226.71</v>
       </c>
       <c r="C155">
         <v>200.23</v>
       </c>
       <c r="D155">
-        <v>15.93</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2779,13 +2793,13 @@
         <v>44016</v>
       </c>
       <c r="B156">
-        <v>197.04</v>
+        <v>194</v>
       </c>
       <c r="C156">
         <v>200.23</v>
       </c>
       <c r="D156">
-        <v>-1.59</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2793,13 +2807,13 @@
         <v>44017</v>
       </c>
       <c r="B157">
-        <v>177.77</v>
+        <v>175.86</v>
       </c>
       <c r="C157">
         <v>200.23</v>
       </c>
       <c r="D157">
-        <v>-11.21</v>
+        <v>-12.17</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2807,13 +2821,13 @@
         <v>44018</v>
       </c>
       <c r="B158">
-        <v>165.75</v>
+        <v>165.5</v>
       </c>
       <c r="C158">
         <v>200.23</v>
       </c>
       <c r="D158">
-        <v>-17.22</v>
+        <v>-17.34</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2821,13 +2835,13 @@
         <v>44019</v>
       </c>
       <c r="B159">
-        <v>212.75</v>
+        <v>219</v>
       </c>
       <c r="C159">
         <v>200.23</v>
       </c>
       <c r="D159">
-        <v>6.25</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2835,13 +2849,13 @@
         <v>44020</v>
       </c>
       <c r="B160">
-        <v>231.5</v>
+        <v>241.1</v>
       </c>
       <c r="C160">
         <v>200.23</v>
       </c>
       <c r="D160">
-        <v>15.62</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2849,13 +2863,13 @@
         <v>44021</v>
       </c>
       <c r="B161">
-        <v>652.21</v>
+        <v>713.8200000000001</v>
       </c>
       <c r="C161">
         <v>200.23</v>
       </c>
       <c r="D161">
-        <v>225.73</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2863,13 +2877,13 @@
         <v>44022</v>
       </c>
       <c r="B162">
-        <v>520.58</v>
+        <v>476.5</v>
       </c>
       <c r="C162">
         <v>200.23</v>
       </c>
       <c r="D162">
-        <v>160</v>
+        <v>137.98</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2877,13 +2891,13 @@
         <v>44023</v>
       </c>
       <c r="B163">
-        <v>294.38</v>
+        <v>282.25</v>
       </c>
       <c r="C163">
         <v>200.23</v>
       </c>
       <c r="D163">
-        <v>47.02</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2891,13 +2905,13 @@
         <v>44024</v>
       </c>
       <c r="B164">
-        <v>232.52</v>
+        <v>228.22</v>
       </c>
       <c r="C164">
         <v>200.23</v>
       </c>
       <c r="D164">
-        <v>16.13</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2905,13 +2919,13 @@
         <v>44025</v>
       </c>
       <c r="B165">
-        <v>203.83</v>
+        <v>200.92</v>
       </c>
       <c r="C165">
         <v>200.23</v>
       </c>
       <c r="D165">
-        <v>1.8</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2919,13 +2933,13 @@
         <v>44026</v>
       </c>
       <c r="B166">
-        <v>187.29</v>
+        <v>185.88</v>
       </c>
       <c r="C166">
         <v>200.23</v>
       </c>
       <c r="D166">
-        <v>-6.46</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2933,13 +2947,13 @@
         <v>44027</v>
       </c>
       <c r="B167">
-        <v>174.42</v>
+        <v>172.79</v>
       </c>
       <c r="C167">
         <v>200.23</v>
       </c>
       <c r="D167">
-        <v>-12.89</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2947,13 +2961,13 @@
         <v>44028</v>
       </c>
       <c r="B168">
-        <v>162.92</v>
+        <v>161.87</v>
       </c>
       <c r="C168">
         <v>200.23</v>
       </c>
       <c r="D168">
-        <v>-18.63</v>
+        <v>-19.16</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2961,13 +2975,13 @@
         <v>44029</v>
       </c>
       <c r="B169">
-        <v>155.3</v>
+        <v>154.83</v>
       </c>
       <c r="C169">
         <v>200.23</v>
       </c>
       <c r="D169">
-        <v>-22.44</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2975,13 +2989,13 @@
         <v>44030</v>
       </c>
       <c r="B170">
-        <v>150.17</v>
+        <v>149.38</v>
       </c>
       <c r="C170">
         <v>200.23</v>
       </c>
       <c r="D170">
-        <v>-25</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2989,13 +3003,13 @@
         <v>44031</v>
       </c>
       <c r="B171">
-        <v>144.33</v>
+        <v>143.67</v>
       </c>
       <c r="C171">
         <v>200.23</v>
       </c>
       <c r="D171">
-        <v>-27.92</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3003,13 +3017,13 @@
         <v>44032</v>
       </c>
       <c r="B172">
-        <v>139.68</v>
+        <v>139.09</v>
       </c>
       <c r="C172">
         <v>200.23</v>
       </c>
       <c r="D172">
-        <v>-30.24</v>
+        <v>-30.53</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3017,13 +3031,13 @@
         <v>44033</v>
       </c>
       <c r="B173">
-        <v>135.79</v>
+        <v>135.48</v>
       </c>
       <c r="C173">
         <v>200.23</v>
       </c>
       <c r="D173">
-        <v>-32.18</v>
+        <v>-32.34</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3031,13 +3045,13 @@
         <v>44034</v>
       </c>
       <c r="B174">
-        <v>132.7</v>
+        <v>132.38</v>
       </c>
       <c r="C174">
         <v>200.23</v>
       </c>
       <c r="D174">
-        <v>-33.73</v>
+        <v>-33.89</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3045,13 +3059,13 @@
         <v>44035</v>
       </c>
       <c r="B175">
-        <v>130.32</v>
+        <v>130.05</v>
       </c>
       <c r="C175">
         <v>200.23</v>
       </c>
       <c r="D175">
-        <v>-34.91</v>
+        <v>-35.05</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3059,13 +3073,13 @@
         <v>44036</v>
       </c>
       <c r="B176">
-        <v>128.14</v>
+        <v>127.9</v>
       </c>
       <c r="C176">
         <v>200.23</v>
       </c>
       <c r="D176">
-        <v>-36</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3073,13 +3087,13 @@
         <v>44037</v>
       </c>
       <c r="B177">
-        <v>126.32</v>
+        <v>126.09</v>
       </c>
       <c r="C177">
         <v>200.23</v>
       </c>
       <c r="D177">
-        <v>-36.91</v>
+        <v>-37.03</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3101,13 +3115,13 @@
         <v>44039</v>
       </c>
       <c r="B179">
-        <v>124.48</v>
+        <v>124.35</v>
       </c>
       <c r="C179">
         <v>200.23</v>
       </c>
       <c r="D179">
-        <v>-37.83</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3143,13 +3157,13 @@
         <v>44042</v>
       </c>
       <c r="B182">
-        <v>126.82</v>
+        <v>128.32</v>
       </c>
       <c r="C182">
         <v>200.23</v>
       </c>
       <c r="D182">
-        <v>-36.66</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3157,13 +3171,13 @@
         <v>44043</v>
       </c>
       <c r="B183">
-        <v>133.04</v>
+        <v>132.45</v>
       </c>
       <c r="C183">
         <v>200.23</v>
       </c>
       <c r="D183">
-        <v>-33.55</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3171,13 +3185,13 @@
         <v>44044</v>
       </c>
       <c r="B184">
-        <v>127.43</v>
+        <v>126.96</v>
       </c>
       <c r="C184">
         <v>190.45</v>
       </c>
       <c r="D184">
-        <v>-33.09</v>
+        <v>-33.34</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3185,13 +3199,13 @@
         <v>44045</v>
       </c>
       <c r="B185">
-        <v>124.04</v>
+        <v>123.71</v>
       </c>
       <c r="C185">
         <v>190.45</v>
       </c>
       <c r="D185">
-        <v>-34.87</v>
+        <v>-35.04</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3199,13 +3213,13 @@
         <v>44046</v>
       </c>
       <c r="B186">
-        <v>121.65</v>
+        <v>121.35</v>
       </c>
       <c r="C186">
         <v>190.45</v>
       </c>
       <c r="D186">
-        <v>-36.12</v>
+        <v>-36.28</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3213,13 +3227,13 @@
         <v>44047</v>
       </c>
       <c r="B187">
-        <v>119.62</v>
+        <v>119.52</v>
       </c>
       <c r="C187">
         <v>190.45</v>
       </c>
       <c r="D187">
-        <v>-37.19</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3227,13 +3241,13 @@
         <v>44048</v>
       </c>
       <c r="B188">
-        <v>118.5</v>
+        <v>118.38</v>
       </c>
       <c r="C188">
         <v>190.45</v>
       </c>
       <c r="D188">
-        <v>-37.78</v>
+        <v>-37.84</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3493,13 +3507,13 @@
         <v>44067</v>
       </c>
       <c r="B207">
-        <v>185.67</v>
+        <v>184.58</v>
       </c>
       <c r="C207">
         <v>190.45</v>
       </c>
       <c r="D207">
-        <v>-2.51</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3507,13 +3521,13 @@
         <v>44068</v>
       </c>
       <c r="B208">
-        <v>175.21</v>
+        <v>173.74</v>
       </c>
       <c r="C208">
         <v>190.45</v>
       </c>
       <c r="D208">
-        <v>-8</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3521,13 +3535,13 @@
         <v>44069</v>
       </c>
       <c r="B209">
-        <v>162.82</v>
+        <v>161.74</v>
       </c>
       <c r="C209">
         <v>190.45</v>
       </c>
       <c r="D209">
-        <v>-14.51</v>
+        <v>-15.07</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3535,13 +3549,13 @@
         <v>44070</v>
       </c>
       <c r="B210">
-        <v>153.82</v>
+        <v>152.73</v>
       </c>
       <c r="C210">
         <v>190.45</v>
       </c>
       <c r="D210">
-        <v>-19.23</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3549,13 +3563,13 @@
         <v>44071</v>
       </c>
       <c r="B211">
-        <v>146.96</v>
+        <v>146.17</v>
       </c>
       <c r="C211">
         <v>190.45</v>
       </c>
       <c r="D211">
-        <v>-22.84</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3563,13 +3577,13 @@
         <v>44072</v>
       </c>
       <c r="B212">
-        <v>141.35</v>
+        <v>140.86</v>
       </c>
       <c r="C212">
         <v>190.45</v>
       </c>
       <c r="D212">
-        <v>-25.78</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3577,13 +3591,13 @@
         <v>44073</v>
       </c>
       <c r="B213">
-        <v>136.87</v>
+        <v>136.46</v>
       </c>
       <c r="C213">
         <v>190.45</v>
       </c>
       <c r="D213">
-        <v>-28.13</v>
+        <v>-28.35</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3591,13 +3605,13 @@
         <v>44074</v>
       </c>
       <c r="B214">
-        <v>133.38</v>
+        <v>132.92</v>
       </c>
       <c r="C214">
         <v>190.45</v>
       </c>
       <c r="D214">
-        <v>-29.97</v>
+        <v>-30.21</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3605,13 +3619,13 @@
         <v>44075</v>
       </c>
       <c r="B215">
-        <v>130.25</v>
+        <v>129.92</v>
       </c>
       <c r="C215">
         <v>216.08</v>
       </c>
       <c r="D215">
-        <v>-39.72</v>
+        <v>-39.88</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3619,13 +3633,13 @@
         <v>44076</v>
       </c>
       <c r="B216">
-        <v>127.43</v>
+        <v>127.09</v>
       </c>
       <c r="C216">
         <v>216.08</v>
       </c>
       <c r="D216">
-        <v>-41.03</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3633,13 +3647,13 @@
         <v>44077</v>
       </c>
       <c r="B217">
-        <v>125.08</v>
+        <v>124.83</v>
       </c>
       <c r="C217">
         <v>216.08</v>
       </c>
       <c r="D217">
-        <v>-42.11</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3647,13 +3661,13 @@
         <v>44078</v>
       </c>
       <c r="B218">
-        <v>123.48</v>
+        <v>123.27</v>
       </c>
       <c r="C218">
         <v>216.08</v>
       </c>
       <c r="D218">
-        <v>-42.86</v>
+        <v>-42.95</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3661,13 +3675,13 @@
         <v>44079</v>
       </c>
       <c r="B219">
-        <v>121.65</v>
+        <v>121.54</v>
       </c>
       <c r="C219">
         <v>216.08</v>
       </c>
       <c r="D219">
-        <v>-43.7</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3675,13 +3689,13 @@
         <v>44080</v>
       </c>
       <c r="B220">
-        <v>120.58</v>
+        <v>120.46</v>
       </c>
       <c r="C220">
         <v>216.08</v>
       </c>
       <c r="D220">
-        <v>-44.2</v>
+        <v>-44.25</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3689,13 +3703,13 @@
         <v>44081</v>
       </c>
       <c r="B221">
-        <v>119.59</v>
+        <v>119.48</v>
       </c>
       <c r="C221">
         <v>216.08</v>
       </c>
       <c r="D221">
-        <v>-44.66</v>
+        <v>-44.71</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3703,13 +3717,13 @@
         <v>44082</v>
       </c>
       <c r="B222">
-        <v>118.64</v>
+        <v>118.52</v>
       </c>
       <c r="C222">
         <v>216.08</v>
       </c>
       <c r="D222">
-        <v>-45.1</v>
+        <v>-45.15</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3717,13 +3731,13 @@
         <v>44083</v>
       </c>
       <c r="B223">
-        <v>117.78</v>
+        <v>117.65</v>
       </c>
       <c r="C223">
         <v>216.08</v>
       </c>
       <c r="D223">
-        <v>-45.49</v>
+        <v>-45.55</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3731,13 +3745,13 @@
         <v>44084</v>
       </c>
       <c r="B224">
-        <v>116.91</v>
+        <v>116.78</v>
       </c>
       <c r="C224">
         <v>216.08</v>
       </c>
       <c r="D224">
-        <v>-45.89</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3759,13 +3773,13 @@
         <v>44086</v>
       </c>
       <c r="B226">
-        <v>115.22</v>
+        <v>115.09</v>
       </c>
       <c r="C226">
         <v>216.08</v>
       </c>
       <c r="D226">
-        <v>-46.68</v>
+        <v>-46.74</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3773,13 +3787,13 @@
         <v>44087</v>
       </c>
       <c r="B227">
-        <v>114.3</v>
+        <v>114.17</v>
       </c>
       <c r="C227">
         <v>216.08</v>
       </c>
       <c r="D227">
-        <v>-47.1</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3787,13 +3801,13 @@
         <v>44088</v>
       </c>
       <c r="B228">
-        <v>113.64</v>
+        <v>113.5</v>
       </c>
       <c r="C228">
         <v>216.08</v>
       </c>
       <c r="D228">
-        <v>-47.41</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3801,13 +3815,13 @@
         <v>44089</v>
       </c>
       <c r="B229">
-        <v>112.45</v>
+        <v>112.32</v>
       </c>
       <c r="C229">
         <v>216.08</v>
       </c>
       <c r="D229">
-        <v>-47.96</v>
+        <v>-48.02</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3815,13 +3829,13 @@
         <v>44090</v>
       </c>
       <c r="B230">
-        <v>111.88</v>
+        <v>111.78</v>
       </c>
       <c r="C230">
         <v>216.08</v>
       </c>
       <c r="D230">
-        <v>-48.23</v>
+        <v>-48.27</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3829,13 +3843,13 @@
         <v>44091</v>
       </c>
       <c r="B231">
-        <v>111.45</v>
+        <v>111.57</v>
       </c>
       <c r="C231">
         <v>216.08</v>
       </c>
       <c r="D231">
-        <v>-48.42</v>
+        <v>-48.37</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3843,13 +3857,13 @@
         <v>44092</v>
       </c>
       <c r="B232">
-        <v>111.38</v>
+        <v>111.26</v>
       </c>
       <c r="C232">
         <v>216.08</v>
       </c>
       <c r="D232">
-        <v>-48.46</v>
+        <v>-48.51</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3857,13 +3871,13 @@
         <v>44093</v>
       </c>
       <c r="B233">
-        <v>110.95</v>
+        <v>110.83</v>
       </c>
       <c r="C233">
         <v>216.08</v>
       </c>
       <c r="D233">
-        <v>-48.65</v>
+        <v>-48.71</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3871,13 +3885,13 @@
         <v>44094</v>
       </c>
       <c r="B234">
-        <v>109.91</v>
+        <v>109.82</v>
       </c>
       <c r="C234">
         <v>216.08</v>
       </c>
       <c r="D234">
-        <v>-49.13</v>
+        <v>-49.18</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3885,13 +3899,13 @@
         <v>44095</v>
       </c>
       <c r="B235">
-        <v>108.74</v>
+        <v>108.75</v>
       </c>
       <c r="C235">
         <v>216.08</v>
       </c>
       <c r="D235">
-        <v>-49.68</v>
+        <v>-49.67</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3899,13 +3913,13 @@
         <v>44096</v>
       </c>
       <c r="B236">
-        <v>108.14</v>
+        <v>108</v>
       </c>
       <c r="C236">
         <v>216.08</v>
       </c>
       <c r="D236">
-        <v>-49.95</v>
+        <v>-50.02</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3913,13 +3927,13 @@
         <v>44097</v>
       </c>
       <c r="B237">
-        <v>107.41</v>
+        <v>107.3</v>
       </c>
       <c r="C237">
         <v>216.08</v>
       </c>
       <c r="D237">
-        <v>-50.29</v>
+        <v>-50.34</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3941,13 +3955,13 @@
         <v>44099</v>
       </c>
       <c r="B239">
-        <v>106.09</v>
+        <v>105.95</v>
       </c>
       <c r="C239">
         <v>216.08</v>
       </c>
       <c r="D239">
-        <v>-50.9</v>
+        <v>-50.97</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3955,13 +3969,13 @@
         <v>44100</v>
       </c>
       <c r="B240">
-        <v>105.35</v>
+        <v>105.25</v>
       </c>
       <c r="C240">
         <v>216.08</v>
       </c>
       <c r="D240">
-        <v>-51.25</v>
+        <v>-51.29</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3969,13 +3983,13 @@
         <v>44101</v>
       </c>
       <c r="B241">
-        <v>105.04</v>
+        <v>105.21</v>
       </c>
       <c r="C241">
         <v>216.08</v>
       </c>
       <c r="D241">
-        <v>-51.39</v>
+        <v>-51.31</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3983,13 +3997,13 @@
         <v>44102</v>
       </c>
       <c r="B242">
-        <v>109.5</v>
+        <v>110.52</v>
       </c>
       <c r="C242">
         <v>216.08</v>
       </c>
       <c r="D242">
-        <v>-49.33</v>
+        <v>-48.85</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3997,13 +4011,13 @@
         <v>44103</v>
       </c>
       <c r="B243">
-        <v>116.7</v>
+        <v>116.96</v>
       </c>
       <c r="C243">
         <v>216.08</v>
       </c>
       <c r="D243">
-        <v>-46</v>
+        <v>-45.87</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4011,13 +4025,13 @@
         <v>44104</v>
       </c>
       <c r="B244">
-        <v>116.38</v>
+        <v>116.24</v>
       </c>
       <c r="C244">
         <v>216.08</v>
       </c>
       <c r="D244">
-        <v>-46.14</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4025,13 +4039,13 @@
         <v>44105</v>
       </c>
       <c r="B245">
-        <v>115.96</v>
+        <v>115.54</v>
       </c>
       <c r="C245">
         <v>310.64</v>
       </c>
       <c r="D245">
-        <v>-62.67</v>
+        <v>-62.81</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4039,13 +4053,13 @@
         <v>44106</v>
       </c>
       <c r="B246">
-        <v>112.04</v>
+        <v>111.58</v>
       </c>
       <c r="C246">
         <v>310.64</v>
       </c>
       <c r="D246">
-        <v>-63.93</v>
+        <v>-64.08</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4053,13 +4067,13 @@
         <v>44107</v>
       </c>
       <c r="B247">
-        <v>109.25</v>
+        <v>109</v>
       </c>
       <c r="C247">
         <v>310.64</v>
       </c>
       <c r="D247">
-        <v>-64.83</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4067,13 +4081,13 @@
         <v>44108</v>
       </c>
       <c r="B248">
-        <v>107.48</v>
+        <v>107.35</v>
       </c>
       <c r="C248">
         <v>310.64</v>
       </c>
       <c r="D248">
-        <v>-65.40000000000001</v>
+        <v>-65.44</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4081,13 +4095,13 @@
         <v>44109</v>
       </c>
       <c r="B249">
-        <v>105.92</v>
+        <v>105.67</v>
       </c>
       <c r="C249">
         <v>310.64</v>
       </c>
       <c r="D249">
-        <v>-65.90000000000001</v>
+        <v>-65.98</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4095,13 +4109,13 @@
         <v>44110</v>
       </c>
       <c r="B250">
-        <v>104.61</v>
+        <v>104.48</v>
       </c>
       <c r="C250">
         <v>310.64</v>
       </c>
       <c r="D250">
-        <v>-66.31999999999999</v>
+        <v>-66.37</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4109,13 +4123,13 @@
         <v>44111</v>
       </c>
       <c r="B251">
-        <v>103.71</v>
+        <v>103.58</v>
       </c>
       <c r="C251">
         <v>310.64</v>
       </c>
       <c r="D251">
-        <v>-66.61</v>
+        <v>-66.65000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4123,13 +4137,13 @@
         <v>44112</v>
       </c>
       <c r="B252">
-        <v>104.79</v>
+        <v>105.71</v>
       </c>
       <c r="C252">
         <v>310.64</v>
       </c>
       <c r="D252">
-        <v>-66.27</v>
+        <v>-65.97</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4137,13 +4151,13 @@
         <v>44113</v>
       </c>
       <c r="B253">
-        <v>119.09</v>
+        <v>120.48</v>
       </c>
       <c r="C253">
         <v>310.64</v>
       </c>
       <c r="D253">
-        <v>-61.66</v>
+        <v>-61.22</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4151,13 +4165,13 @@
         <v>44114</v>
       </c>
       <c r="B254">
-        <v>120</v>
+        <v>119.54</v>
       </c>
       <c r="C254">
         <v>310.64</v>
       </c>
       <c r="D254">
-        <v>-61.37</v>
+        <v>-61.52</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4165,13 +4179,13 @@
         <v>44115</v>
       </c>
       <c r="B255">
-        <v>116.67</v>
+        <v>116.52</v>
       </c>
       <c r="C255">
         <v>310.64</v>
       </c>
       <c r="D255">
-        <v>-62.44</v>
+        <v>-62.49</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4179,13 +4193,13 @@
         <v>44116</v>
       </c>
       <c r="B256">
-        <v>115.83</v>
+        <v>115.71</v>
       </c>
       <c r="C256">
         <v>310.64</v>
       </c>
       <c r="D256">
-        <v>-62.71</v>
+        <v>-62.75</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4193,13 +4207,13 @@
         <v>44117</v>
       </c>
       <c r="B257">
-        <v>113.96</v>
+        <v>113.7</v>
       </c>
       <c r="C257">
         <v>310.64</v>
       </c>
       <c r="D257">
-        <v>-63.32</v>
+        <v>-63.4</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4207,13 +4221,13 @@
         <v>44118</v>
       </c>
       <c r="B258">
-        <v>112.27</v>
+        <v>112.24</v>
       </c>
       <c r="C258">
         <v>310.64</v>
       </c>
       <c r="D258">
-        <v>-63.86</v>
+        <v>-63.87</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4221,13 +4235,13 @@
         <v>44119</v>
       </c>
       <c r="B259">
-        <v>113.4</v>
+        <v>113.71</v>
       </c>
       <c r="C259">
         <v>310.64</v>
       </c>
       <c r="D259">
-        <v>-63.49</v>
+        <v>-63.39</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4235,13 +4249,13 @@
         <v>44120</v>
       </c>
       <c r="B260">
-        <v>124.09</v>
+        <v>126.23</v>
       </c>
       <c r="C260">
         <v>310.64</v>
       </c>
       <c r="D260">
-        <v>-60.05</v>
+        <v>-59.37</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4249,13 +4263,13 @@
         <v>44121</v>
       </c>
       <c r="B261">
-        <v>129.46</v>
+        <v>128.88</v>
       </c>
       <c r="C261">
         <v>310.64</v>
       </c>
       <c r="D261">
-        <v>-58.33</v>
+        <v>-58.51</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4263,13 +4277,13 @@
         <v>44122</v>
       </c>
       <c r="B262">
-        <v>124.78</v>
+        <v>124.22</v>
       </c>
       <c r="C262">
         <v>310.64</v>
       </c>
       <c r="D262">
-        <v>-59.83</v>
+        <v>-60.01</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4277,13 +4291,13 @@
         <v>44123</v>
       </c>
       <c r="B263">
-        <v>120.13</v>
+        <v>119.61</v>
       </c>
       <c r="C263">
         <v>310.64</v>
       </c>
       <c r="D263">
-        <v>-61.33</v>
+        <v>-61.5</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4291,13 +4305,13 @@
         <v>44124</v>
       </c>
       <c r="B264">
-        <v>116.46</v>
+        <v>116.08</v>
       </c>
       <c r="C264">
         <v>310.64</v>
       </c>
       <c r="D264">
-        <v>-62.51</v>
+        <v>-62.63</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4305,13 +4319,13 @@
         <v>44125</v>
       </c>
       <c r="B265">
-        <v>113.62</v>
+        <v>113.38</v>
       </c>
       <c r="C265">
         <v>310.64</v>
       </c>
       <c r="D265">
-        <v>-63.42</v>
+        <v>-63.5</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4319,13 +4333,13 @@
         <v>44126</v>
       </c>
       <c r="B266">
-        <v>111.25</v>
+        <v>110.91</v>
       </c>
       <c r="C266">
         <v>310.64</v>
       </c>
       <c r="D266">
-        <v>-64.19</v>
+        <v>-64.3</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4333,13 +4347,13 @@
         <v>44127</v>
       </c>
       <c r="B267">
-        <v>109</v>
+        <v>108.79</v>
       </c>
       <c r="C267">
         <v>310.64</v>
       </c>
       <c r="D267">
-        <v>-64.91</v>
+        <v>-64.98</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4347,13 +4361,13 @@
         <v>44128</v>
       </c>
       <c r="B268">
-        <v>107.21</v>
+        <v>107</v>
       </c>
       <c r="C268">
         <v>310.64</v>
       </c>
       <c r="D268">
-        <v>-65.48999999999999</v>
+        <v>-65.55</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4361,13 +4375,13 @@
         <v>44129</v>
       </c>
       <c r="B269">
-        <v>105.52</v>
+        <v>105.42</v>
       </c>
       <c r="C269">
         <v>310.64</v>
       </c>
       <c r="D269">
-        <v>-66.03</v>
+        <v>-66.06</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4389,13 +4403,13 @@
         <v>44131</v>
       </c>
       <c r="B271">
-        <v>105.17</v>
+        <v>105.21</v>
       </c>
       <c r="C271">
         <v>310.64</v>
       </c>
       <c r="D271">
-        <v>-66.15000000000001</v>
+        <v>-66.13</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4403,13 +4417,13 @@
         <v>44132</v>
       </c>
       <c r="B272">
-        <v>105</v>
+        <v>104.96</v>
       </c>
       <c r="C272">
         <v>310.64</v>
       </c>
       <c r="D272">
-        <v>-66.2</v>
+        <v>-66.20999999999999</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4417,13 +4431,13 @@
         <v>44133</v>
       </c>
       <c r="B273">
-        <v>104.64</v>
+        <v>104.55</v>
       </c>
       <c r="C273">
         <v>310.64</v>
       </c>
       <c r="D273">
-        <v>-66.31999999999999</v>
+        <v>-66.34</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4431,13 +4445,13 @@
         <v>44134</v>
       </c>
       <c r="B274">
-        <v>103.7</v>
+        <v>103.62</v>
       </c>
       <c r="C274">
         <v>310.64</v>
       </c>
       <c r="D274">
-        <v>-66.62</v>
+        <v>-66.64</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4445,13 +4459,13 @@
         <v>44135</v>
       </c>
       <c r="B275">
-        <v>103.17</v>
+        <v>103.04</v>
       </c>
       <c r="C275">
         <v>310.64</v>
       </c>
       <c r="D275">
-        <v>-66.79000000000001</v>
+        <v>-66.83</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4459,13 +4473,13 @@
         <v>44136</v>
       </c>
       <c r="B276">
-        <v>102.68</v>
+        <v>102.74</v>
       </c>
       <c r="C276">
         <v>254.02</v>
       </c>
       <c r="D276">
-        <v>-59.58</v>
+        <v>-59.55</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4473,13 +4487,13 @@
         <v>44137</v>
       </c>
       <c r="B277">
-        <v>102.57</v>
+        <v>102.61</v>
       </c>
       <c r="C277">
         <v>254.02</v>
       </c>
       <c r="D277">
-        <v>-59.62</v>
+        <v>-59.61</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4501,13 +4515,13 @@
         <v>44139</v>
       </c>
       <c r="B279">
-        <v>102.52</v>
+        <v>102.5</v>
       </c>
       <c r="C279">
         <v>254.02</v>
       </c>
       <c r="D279">
-        <v>-59.64</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4515,13 +4529,13 @@
         <v>44140</v>
       </c>
       <c r="B280">
-        <v>102.41</v>
+        <v>102.32</v>
       </c>
       <c r="C280">
         <v>254.02</v>
       </c>
       <c r="D280">
-        <v>-59.68</v>
+        <v>-59.72</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4529,13 +4543,13 @@
         <v>44141</v>
       </c>
       <c r="B281">
-        <v>101.3</v>
+        <v>101.22</v>
       </c>
       <c r="C281">
         <v>254.02</v>
       </c>
       <c r="D281">
-        <v>-60.12</v>
+        <v>-60.15</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4599,13 +4613,13 @@
         <v>44146</v>
       </c>
       <c r="B286">
-        <v>101.09</v>
+        <v>101.22</v>
       </c>
       <c r="C286">
         <v>254.02</v>
       </c>
       <c r="D286">
-        <v>-60.2</v>
+        <v>-60.15</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4613,13 +4627,13 @@
         <v>44147</v>
       </c>
       <c r="B287">
-        <v>101.13</v>
+        <v>101.3</v>
       </c>
       <c r="C287">
         <v>254.02</v>
       </c>
       <c r="D287">
-        <v>-60.19</v>
+        <v>-60.12</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4627,13 +4641,13 @@
         <v>44148</v>
       </c>
       <c r="B288">
-        <v>102.91</v>
+        <v>103.05</v>
       </c>
       <c r="C288">
         <v>254.02</v>
       </c>
       <c r="D288">
-        <v>-59.49</v>
+        <v>-59.43</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4641,13 +4655,13 @@
         <v>44149</v>
       </c>
       <c r="B289">
-        <v>104.65</v>
+        <v>104.87</v>
       </c>
       <c r="C289">
         <v>254.02</v>
       </c>
       <c r="D289">
-        <v>-58.8</v>
+        <v>-58.72</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4655,13 +4669,13 @@
         <v>44150</v>
       </c>
       <c r="B290">
-        <v>107.74</v>
+        <v>108.87</v>
       </c>
       <c r="C290">
         <v>254.02</v>
       </c>
       <c r="D290">
-        <v>-57.59</v>
+        <v>-57.14</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4669,13 +4683,13 @@
         <v>44151</v>
       </c>
       <c r="B291">
-        <v>111.22</v>
+        <v>110.61</v>
       </c>
       <c r="C291">
         <v>254.02</v>
       </c>
       <c r="D291">
-        <v>-56.22</v>
+        <v>-56.46</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4683,13 +4697,13 @@
         <v>44152</v>
       </c>
       <c r="B292">
-        <v>108.09</v>
+        <v>107.83</v>
       </c>
       <c r="C292">
         <v>254.02</v>
       </c>
       <c r="D292">
-        <v>-57.45</v>
+        <v>-57.55</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4697,13 +4711,13 @@
         <v>44153</v>
       </c>
       <c r="B293">
-        <v>106.14</v>
+        <v>106</v>
       </c>
       <c r="C293">
         <v>254.02</v>
       </c>
       <c r="D293">
-        <v>-58.22</v>
+        <v>-58.27</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4711,13 +4725,13 @@
         <v>44154</v>
       </c>
       <c r="B294">
-        <v>105.62</v>
+        <v>105.5</v>
       </c>
       <c r="C294">
         <v>254.02</v>
       </c>
       <c r="D294">
-        <v>-58.42</v>
+        <v>-58.47</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4725,13 +4739,13 @@
         <v>44155</v>
       </c>
       <c r="B295">
-        <v>104.38</v>
+        <v>104.12</v>
       </c>
       <c r="C295">
         <v>254.02</v>
       </c>
       <c r="D295">
-        <v>-58.91</v>
+        <v>-59.01</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4739,13 +4753,13 @@
         <v>44156</v>
       </c>
       <c r="B296">
-        <v>102.62</v>
+        <v>102.5</v>
       </c>
       <c r="C296">
         <v>254.02</v>
       </c>
       <c r="D296">
-        <v>-59.6</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4753,13 +4767,13 @@
         <v>44157</v>
       </c>
       <c r="B297">
-        <v>101.46</v>
+        <v>101.33</v>
       </c>
       <c r="C297">
         <v>254.02</v>
       </c>
       <c r="D297">
-        <v>-60.06</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4767,13 +4781,13 @@
         <v>44158</v>
       </c>
       <c r="B298">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="C298">
         <v>254.02</v>
       </c>
       <c r="D298">
-        <v>-60.4</v>
+        <v>-60.44</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4865,13 +4879,13 @@
         <v>44165</v>
       </c>
       <c r="B305">
-        <v>101.65</v>
+        <v>102.45</v>
       </c>
       <c r="C305">
         <v>254.02</v>
       </c>
       <c r="D305">
-        <v>-59.98</v>
+        <v>-59.67</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4879,13 +4893,13 @@
         <v>44166</v>
       </c>
       <c r="B306">
-        <v>110.58</v>
+        <v>110.96</v>
       </c>
       <c r="C306">
         <v>217.71</v>
       </c>
       <c r="D306">
-        <v>-49.21</v>
+        <v>-49.03</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4893,13 +4907,13 @@
         <v>44167</v>
       </c>
       <c r="B307">
-        <v>108.5</v>
+        <v>108.2</v>
       </c>
       <c r="C307">
         <v>217.71</v>
       </c>
       <c r="D307">
-        <v>-50.16</v>
+        <v>-50.3</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4921,13 +4935,13 @@
         <v>44169</v>
       </c>
       <c r="B309">
-        <v>214.25</v>
+        <v>212.43</v>
       </c>
       <c r="C309">
         <v>217.71</v>
       </c>
       <c r="D309">
-        <v>-1.59</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4935,13 +4949,13 @@
         <v>44170</v>
       </c>
       <c r="B310">
-        <v>231.35</v>
+        <v>237</v>
       </c>
       <c r="C310">
         <v>217.71</v>
       </c>
       <c r="D310">
-        <v>6.27</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4949,13 +4963,13 @@
         <v>44171</v>
       </c>
       <c r="B311">
-        <v>243.12</v>
+        <v>239.43</v>
       </c>
       <c r="C311">
         <v>217.71</v>
       </c>
       <c r="D311">
-        <v>11.68</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4963,13 +4977,13 @@
         <v>44172</v>
       </c>
       <c r="B312">
-        <v>201.39</v>
+        <v>198.12</v>
       </c>
       <c r="C312">
         <v>217.71</v>
       </c>
       <c r="D312">
-        <v>-7.49</v>
+        <v>-8.99</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4977,13 +4991,13 @@
         <v>44173</v>
       </c>
       <c r="B313">
-        <v>175.17</v>
+        <v>172.87</v>
       </c>
       <c r="C313">
         <v>217.71</v>
       </c>
       <c r="D313">
-        <v>-19.54</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4991,13 +5005,13 @@
         <v>44174</v>
       </c>
       <c r="B314">
-        <v>156.35</v>
+        <v>154.79</v>
       </c>
       <c r="C314">
         <v>217.71</v>
       </c>
       <c r="D314">
-        <v>-28.18</v>
+        <v>-28.9</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5005,13 +5019,13 @@
         <v>44175</v>
       </c>
       <c r="B315">
-        <v>144</v>
+        <v>142.91</v>
       </c>
       <c r="C315">
         <v>217.71</v>
       </c>
       <c r="D315">
-        <v>-33.86</v>
+        <v>-34.36</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5019,13 +5033,13 @@
         <v>44176</v>
       </c>
       <c r="B316">
-        <v>135.23</v>
+        <v>134.39</v>
       </c>
       <c r="C316">
         <v>217.71</v>
       </c>
       <c r="D316">
-        <v>-37.89</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5033,13 +5047,13 @@
         <v>44177</v>
       </c>
       <c r="B317">
-        <v>128.75</v>
+        <v>128.08</v>
       </c>
       <c r="C317">
         <v>217.71</v>
       </c>
       <c r="D317">
-        <v>-40.86</v>
+        <v>-41.17</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5047,13 +5061,13 @@
         <v>44178</v>
       </c>
       <c r="B318">
-        <v>124.17</v>
+        <v>123.7</v>
       </c>
       <c r="C318">
         <v>217.71</v>
       </c>
       <c r="D318">
-        <v>-42.96</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5061,13 +5075,13 @@
         <v>44179</v>
       </c>
       <c r="B319">
-        <v>121.7</v>
+        <v>121.57</v>
       </c>
       <c r="C319">
         <v>217.71</v>
       </c>
       <c r="D319">
-        <v>-44.1</v>
+        <v>-44.16</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5075,13 +5089,13 @@
         <v>44180</v>
       </c>
       <c r="B320">
-        <v>119.43</v>
+        <v>119.17</v>
       </c>
       <c r="C320">
         <v>217.71</v>
       </c>
       <c r="D320">
-        <v>-45.14</v>
+        <v>-45.26</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5089,13 +5103,13 @@
         <v>44181</v>
       </c>
       <c r="B321">
-        <v>117.26</v>
+        <v>117.43</v>
       </c>
       <c r="C321">
         <v>217.71</v>
       </c>
       <c r="D321">
-        <v>-46.14</v>
+        <v>-46.06</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5103,13 +5117,13 @@
         <v>44182</v>
       </c>
       <c r="B322">
-        <v>118.09</v>
+        <v>117.87</v>
       </c>
       <c r="C322">
         <v>217.71</v>
       </c>
       <c r="D322">
-        <v>-45.76</v>
+        <v>-45.86</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5117,13 +5131,13 @@
         <v>44183</v>
       </c>
       <c r="B323">
-        <v>116.75</v>
+        <v>116.58</v>
       </c>
       <c r="C323">
         <v>217.71</v>
       </c>
       <c r="D323">
-        <v>-46.37</v>
+        <v>-46.45</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5131,13 +5145,13 @@
         <v>44184</v>
       </c>
       <c r="B324">
-        <v>114.76</v>
+        <v>114.57</v>
       </c>
       <c r="C324">
         <v>217.71</v>
       </c>
       <c r="D324">
-        <v>-47.28</v>
+        <v>-47.37</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5145,13 +5159,13 @@
         <v>44185</v>
       </c>
       <c r="B325">
-        <v>123.88</v>
+        <v>125.16</v>
       </c>
       <c r="C325">
         <v>217.71</v>
       </c>
       <c r="D325">
-        <v>-43.1</v>
+        <v>-42.51</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5159,13 +5173,13 @@
         <v>44186</v>
       </c>
       <c r="B326">
-        <v>134.21</v>
+        <v>134.33</v>
       </c>
       <c r="C326">
         <v>217.71</v>
       </c>
       <c r="D326">
-        <v>-38.35</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5173,13 +5187,13 @@
         <v>44187</v>
       </c>
       <c r="B327">
-        <v>136.58</v>
+        <v>137.62</v>
       </c>
       <c r="C327">
         <v>217.71</v>
       </c>
       <c r="D327">
-        <v>-37.26</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5187,13 +5201,13 @@
         <v>44188</v>
       </c>
       <c r="B328">
-        <v>136.52</v>
+        <v>135.09</v>
       </c>
       <c r="C328">
         <v>217.71</v>
       </c>
       <c r="D328">
-        <v>-37.29</v>
+        <v>-37.95</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5201,13 +5215,13 @@
         <v>44189</v>
       </c>
       <c r="B329">
-        <v>127.08</v>
+        <v>126.17</v>
       </c>
       <c r="C329">
         <v>217.71</v>
       </c>
       <c r="D329">
-        <v>-41.63</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5215,13 +5229,13 @@
         <v>44190</v>
       </c>
       <c r="B330">
-        <v>120.96</v>
+        <v>120.33</v>
       </c>
       <c r="C330">
         <v>217.71</v>
       </c>
       <c r="D330">
-        <v>-44.44</v>
+        <v>-44.73</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5229,13 +5243,13 @@
         <v>44191</v>
       </c>
       <c r="B331">
-        <v>116.79</v>
+        <v>116.42</v>
       </c>
       <c r="C331">
         <v>217.71</v>
       </c>
       <c r="D331">
-        <v>-46.35</v>
+        <v>-46.53</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5243,13 +5257,13 @@
         <v>44192</v>
       </c>
       <c r="B332">
-        <v>113.5</v>
+        <v>113.12</v>
       </c>
       <c r="C332">
         <v>217.71</v>
       </c>
       <c r="D332">
-        <v>-47.87</v>
+        <v>-48.04</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5257,13 +5271,13 @@
         <v>44193</v>
       </c>
       <c r="B333">
-        <v>111.13</v>
+        <v>110.87</v>
       </c>
       <c r="C333">
         <v>217.71</v>
       </c>
       <c r="D333">
-        <v>-48.95</v>
+        <v>-49.07</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5271,13 +5285,13 @@
         <v>44194</v>
       </c>
       <c r="B334">
-        <v>111.5</v>
+        <v>114.75</v>
       </c>
       <c r="C334">
         <v>217.71</v>
       </c>
       <c r="D334">
-        <v>-48.78</v>
+        <v>-47.29</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5285,13 +5299,13 @@
         <v>44195</v>
       </c>
       <c r="B335">
-        <v>135.13</v>
+        <v>133.78</v>
       </c>
       <c r="C335">
         <v>217.71</v>
       </c>
       <c r="D335">
-        <v>-37.93</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5299,13 +5313,13 @@
         <v>44196</v>
       </c>
       <c r="B336">
-        <v>129.92</v>
+        <v>131</v>
       </c>
       <c r="C336">
         <v>217.71</v>
       </c>
       <c r="D336">
-        <v>-40.32</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5313,13 +5327,13 @@
         <v>44197</v>
       </c>
       <c r="B337">
-        <v>133.78</v>
+        <v>133.3</v>
       </c>
       <c r="C337">
         <v>205.8</v>
       </c>
       <c r="D337">
-        <v>-34.99</v>
+        <v>-35.23</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5327,13 +5341,13 @@
         <v>44198</v>
       </c>
       <c r="B338">
-        <v>128.83</v>
+        <v>128.35</v>
       </c>
       <c r="C338">
         <v>205.8</v>
       </c>
       <c r="D338">
-        <v>-37.4</v>
+        <v>-37.63</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5341,13 +5355,13 @@
         <v>44199</v>
       </c>
       <c r="B339">
-        <v>122.26</v>
+        <v>121.75</v>
       </c>
       <c r="C339">
         <v>205.8</v>
       </c>
       <c r="D339">
-        <v>-40.59</v>
+        <v>-40.84</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5355,13 +5369,13 @@
         <v>44200</v>
       </c>
       <c r="B340">
-        <v>118.29</v>
+        <v>117.79</v>
       </c>
       <c r="C340">
         <v>205.8</v>
       </c>
       <c r="D340">
-        <v>-42.52</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5369,13 +5383,13 @@
         <v>44201</v>
       </c>
       <c r="B341">
-        <v>116.29</v>
+        <v>116.54</v>
       </c>
       <c r="C341">
         <v>205.8</v>
       </c>
       <c r="D341">
-        <v>-43.49</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5397,13 +5411,13 @@
         <v>44203</v>
       </c>
       <c r="B343">
-        <v>118</v>
+        <v>117.91</v>
       </c>
       <c r="C343">
         <v>205.8</v>
       </c>
       <c r="D343">
-        <v>-42.66</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5411,13 +5425,13 @@
         <v>44204</v>
       </c>
       <c r="B344">
-        <v>116.71</v>
+        <v>116.79</v>
       </c>
       <c r="C344">
         <v>205.8</v>
       </c>
       <c r="D344">
-        <v>-43.29</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5425,13 +5439,13 @@
         <v>44205</v>
       </c>
       <c r="B345">
-        <v>117.5</v>
+        <v>117.38</v>
       </c>
       <c r="C345">
         <v>205.8</v>
       </c>
       <c r="D345">
-        <v>-42.91</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5439,13 +5453,13 @@
         <v>44206</v>
       </c>
       <c r="B346">
-        <v>116.69</v>
+        <v>116.62</v>
       </c>
       <c r="C346">
         <v>205.8</v>
       </c>
       <c r="D346">
-        <v>-43.3</v>
+        <v>-43.34</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5467,13 +5481,13 @@
         <v>44208</v>
       </c>
       <c r="B348">
-        <v>113.19</v>
+        <v>113.16</v>
       </c>
       <c r="C348">
         <v>205.8</v>
       </c>
       <c r="D348">
-        <v>-45</v>
+        <v>-45.02</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5481,13 +5495,13 @@
         <v>44209</v>
       </c>
       <c r="B349">
-        <v>116.5</v>
+        <v>117.27</v>
       </c>
       <c r="C349">
         <v>205.8</v>
       </c>
       <c r="D349">
-        <v>-43.39</v>
+        <v>-43.02</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5495,13 +5509,13 @@
         <v>44210</v>
       </c>
       <c r="B350">
-        <v>122.52</v>
+        <v>122.09</v>
       </c>
       <c r="C350">
         <v>205.8</v>
       </c>
       <c r="D350">
-        <v>-40.46</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5509,13 +5523,13 @@
         <v>44211</v>
       </c>
       <c r="B351">
-        <v>118.96</v>
+        <v>118.79</v>
       </c>
       <c r="C351">
         <v>205.8</v>
       </c>
       <c r="D351">
-        <v>-42.2</v>
+        <v>-42.28</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5523,13 +5537,13 @@
         <v>44212</v>
       </c>
       <c r="B352">
-        <v>120.67</v>
+        <v>127.55</v>
       </c>
       <c r="C352">
         <v>205.8</v>
       </c>
       <c r="D352">
-        <v>-41.37</v>
+        <v>-38.02</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5537,13 +5551,13 @@
         <v>44213</v>
       </c>
       <c r="B353">
-        <v>160.95</v>
+        <v>162.61</v>
       </c>
       <c r="C353">
         <v>205.8</v>
       </c>
       <c r="D353">
-        <v>-21.79</v>
+        <v>-20.99</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5551,13 +5565,13 @@
         <v>44214</v>
       </c>
       <c r="B354">
-        <v>195.21</v>
+        <v>201.26</v>
       </c>
       <c r="C354">
         <v>205.8</v>
       </c>
       <c r="D354">
-        <v>-5.15</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5565,13 +5579,13 @@
         <v>44215</v>
       </c>
       <c r="B355">
-        <v>199.05</v>
+        <v>196.3</v>
       </c>
       <c r="C355">
         <v>205.8</v>
       </c>
       <c r="D355">
-        <v>-3.28</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5579,13 +5593,13 @@
         <v>44216</v>
       </c>
       <c r="B356">
-        <v>207.83</v>
+        <v>219.22</v>
       </c>
       <c r="C356">
         <v>205.8</v>
       </c>
       <c r="D356">
-        <v>0.99</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5593,13 +5607,13 @@
         <v>44217</v>
       </c>
       <c r="B357">
-        <v>410.43</v>
+        <v>442.7</v>
       </c>
       <c r="C357">
         <v>205.8</v>
       </c>
       <c r="D357">
-        <v>99.43000000000001</v>
+        <v>115.11</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5607,13 +5621,13 @@
         <v>44218</v>
       </c>
       <c r="B358">
-        <v>482</v>
+        <v>464.91</v>
       </c>
       <c r="C358">
         <v>205.8</v>
       </c>
       <c r="D358">
-        <v>134.21</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5621,13 +5635,13 @@
         <v>44219</v>
       </c>
       <c r="B359">
-        <v>301.95</v>
+        <v>289.78</v>
       </c>
       <c r="C359">
         <v>205.8</v>
       </c>
       <c r="D359">
-        <v>46.72</v>
+        <v>40.81</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5635,13 +5649,13 @@
         <v>44220</v>
       </c>
       <c r="B360">
-        <v>238.75</v>
+        <v>241.91</v>
       </c>
       <c r="C360">
         <v>205.8</v>
       </c>
       <c r="D360">
-        <v>16.01</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5649,13 +5663,13 @@
         <v>44221</v>
       </c>
       <c r="B361">
-        <v>256.09</v>
+        <v>255.58</v>
       </c>
       <c r="C361">
         <v>205.8</v>
       </c>
       <c r="D361">
-        <v>24.44</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5663,13 +5677,13 @@
         <v>44222</v>
       </c>
       <c r="B362">
-        <v>557.88</v>
+        <v>640.62</v>
       </c>
       <c r="C362">
         <v>205.8</v>
       </c>
       <c r="D362">
-        <v>171.08</v>
+        <v>211.29</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5677,13 +5691,13 @@
         <v>44223</v>
       </c>
       <c r="B363">
-        <v>880.04</v>
+        <v>846.26</v>
       </c>
       <c r="C363">
         <v>205.8</v>
       </c>
       <c r="D363">
-        <v>327.62</v>
+        <v>311.21</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5691,13 +5705,13 @@
         <v>44224</v>
       </c>
       <c r="B364">
-        <v>522.79</v>
+        <v>500.25</v>
       </c>
       <c r="C364">
         <v>205.8</v>
       </c>
       <c r="D364">
-        <v>154.03</v>
+        <v>143.08</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5705,13 +5719,13 @@
         <v>44225</v>
       </c>
       <c r="B365">
-        <v>757.29</v>
+        <v>835.04</v>
       </c>
       <c r="C365">
         <v>205.8</v>
       </c>
       <c r="D365">
-        <v>267.98</v>
+        <v>305.76</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5719,13 +5733,13 @@
         <v>44226</v>
       </c>
       <c r="B366">
-        <v>1169.05</v>
+        <v>1167.7</v>
       </c>
       <c r="C366">
         <v>205.8</v>
       </c>
       <c r="D366">
-        <v>468.05</v>
+        <v>467.4</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5733,13 +5747,223 @@
         <v>44227</v>
       </c>
       <c r="B367">
-        <v>1137.5</v>
+        <v>1146.88</v>
       </c>
       <c r="C367">
         <v>205.8</v>
       </c>
       <c r="D367">
-        <v>452.72</v>
+        <v>457.28</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B368">
+        <v>1319.09</v>
+      </c>
+      <c r="C368">
+        <v>218.57</v>
+      </c>
+      <c r="D368">
+        <v>503.51</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B369">
+        <v>1108.52</v>
+      </c>
+      <c r="C369">
+        <v>218.57</v>
+      </c>
+      <c r="D369">
+        <v>407.17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B370">
+        <v>599</v>
+      </c>
+      <c r="C370">
+        <v>218.57</v>
+      </c>
+      <c r="D370">
+        <v>174.05</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B371">
+        <v>336.09</v>
+      </c>
+      <c r="C371">
+        <v>218.57</v>
+      </c>
+      <c r="D371">
+        <v>53.77</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B372">
+        <v>255.25</v>
+      </c>
+      <c r="C372">
+        <v>218.57</v>
+      </c>
+      <c r="D372">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B373">
+        <v>215.83</v>
+      </c>
+      <c r="C373">
+        <v>218.57</v>
+      </c>
+      <c r="D373">
+        <v>-1.26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B374">
+        <v>192.58</v>
+      </c>
+      <c r="C374">
+        <v>218.57</v>
+      </c>
+      <c r="D374">
+        <v>-11.89</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B375">
+        <v>177.7</v>
+      </c>
+      <c r="C375">
+        <v>218.57</v>
+      </c>
+      <c r="D375">
+        <v>-18.7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B376">
+        <v>166.55</v>
+      </c>
+      <c r="C376">
+        <v>218.57</v>
+      </c>
+      <c r="D376">
+        <v>-23.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B377">
+        <v>157.45</v>
+      </c>
+      <c r="C377">
+        <v>218.57</v>
+      </c>
+      <c r="D377">
+        <v>-27.96</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B378">
+        <v>151</v>
+      </c>
+      <c r="C378">
+        <v>218.57</v>
+      </c>
+      <c r="D378">
+        <v>-30.91</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B379">
+        <v>151.04</v>
+      </c>
+      <c r="C379">
+        <v>218.57</v>
+      </c>
+      <c r="D379">
+        <v>-30.9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B380">
+        <v>146.29</v>
+      </c>
+      <c r="C380">
+        <v>218.57</v>
+      </c>
+      <c r="D380">
+        <v>-33.07</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B381">
+        <v>140.41</v>
+      </c>
+      <c r="C381">
+        <v>218.57</v>
+      </c>
+      <c r="D381">
+        <v>-35.76</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B382">
+        <v>136.09</v>
+      </c>
+      <c r="C382">
+        <v>218.57</v>
+      </c>
+      <c r="D382">
+        <v>-37.74</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>167.88</v>
+        <v>290.18</v>
       </c>
       <c r="C2">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D2">
-        <v>-23.19</v>
+        <v>18.47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B3">
-        <v>119.31</v>
+        <v>206.22</v>
       </c>
       <c r="C3">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D3">
-        <v>-33.86</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B4">
-        <v>106.9</v>
+        <v>141.47</v>
       </c>
       <c r="C4">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D4">
-        <v>-46.16</v>
+        <v>-25.72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B5">
-        <v>256.46</v>
+        <v>114.56</v>
       </c>
       <c r="C5">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D5">
-        <v>-8.199999999999999</v>
+        <v>-46.99</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B6">
-        <v>290.18</v>
+        <v>111.67</v>
       </c>
       <c r="C6">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D6">
-        <v>18.47</v>
+        <v>-64.05</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B7">
-        <v>206.22</v>
+        <v>103.39</v>
       </c>
       <c r="C7">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D7">
-        <v>2.99</v>
+        <v>-59.3</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="B8">
-        <v>141.47</v>
+        <v>138.96</v>
       </c>
       <c r="C8">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D8">
-        <v>-25.72</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="B9">
-        <v>114.56</v>
+        <v>313.84</v>
       </c>
       <c r="C9">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D9">
-        <v>-46.99</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44135</v>
+        <v>44255</v>
       </c>
       <c r="B10">
-        <v>111.67</v>
+        <v>243.22</v>
       </c>
       <c r="C10">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D10">
-        <v>-64.05</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B11">
-        <v>103.39</v>
+        <v>113.33</v>
       </c>
       <c r="C11">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D11">
-        <v>-59.3</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44196</v>
+        <v>44316</v>
       </c>
       <c r="B12">
-        <v>138.96</v>
+        <v>104.11</v>
       </c>
       <c r="C12">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D12">
-        <v>-36.17</v>
+        <v>-47.57</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44227</v>
+        <v>44347</v>
       </c>
       <c r="B13">
-        <v>313.84</v>
+        <v>103.38</v>
       </c>
       <c r="C13">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D13">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B14">
-        <v>350.19</v>
-      </c>
-      <c r="C14">
-        <v>218.57</v>
-      </c>
-      <c r="D14">
-        <v>60.22</v>
+        <v>-63</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,783 +620,783 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="B2">
-        <v>605.13</v>
+        <v>154.91</v>
       </c>
       <c r="C2">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D2">
-        <v>176.86</v>
+        <v>-36.75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43863</v>
+        <v>43984</v>
       </c>
       <c r="B3">
-        <v>234.71</v>
+        <v>151.12</v>
       </c>
       <c r="C3">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D3">
-        <v>7.39</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43864</v>
+        <v>43985</v>
       </c>
       <c r="B4">
-        <v>275.77</v>
+        <v>147.13</v>
       </c>
       <c r="C4">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D4">
-        <v>26.17</v>
+        <v>-39.93</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43865</v>
+        <v>43986</v>
       </c>
       <c r="B5">
-        <v>300.73</v>
+        <v>162.35</v>
       </c>
       <c r="C5">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D5">
-        <v>37.59</v>
+        <v>-33.72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43866</v>
+        <v>43987</v>
       </c>
       <c r="B6">
-        <v>206.7</v>
+        <v>345.83</v>
       </c>
       <c r="C6">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D6">
-        <v>-5.43</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43867</v>
+        <v>43988</v>
       </c>
       <c r="B7">
-        <v>173.12</v>
+        <v>739.29</v>
       </c>
       <c r="C7">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D7">
-        <v>-20.79</v>
+        <v>201.84</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43868</v>
+        <v>43989</v>
       </c>
       <c r="B8">
-        <v>154.87</v>
+        <v>710.09</v>
       </c>
       <c r="C8">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D8">
-        <v>-29.14</v>
+        <v>189.92</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43869</v>
+        <v>43990</v>
       </c>
       <c r="B9">
-        <v>142.79</v>
+        <v>379.62</v>
       </c>
       <c r="C9">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D9">
-        <v>-34.67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43870</v>
+        <v>43991</v>
       </c>
       <c r="B10">
-        <v>140.57</v>
+        <v>298.71</v>
       </c>
       <c r="C10">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D10">
-        <v>-35.69</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43871</v>
+        <v>43992</v>
       </c>
       <c r="B11">
-        <v>135.09</v>
+        <v>558.79</v>
       </c>
       <c r="C11">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D11">
-        <v>-38.19</v>
+        <v>128.15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43872</v>
+        <v>43993</v>
       </c>
       <c r="B12">
-        <v>136.22</v>
+        <v>814.14</v>
       </c>
       <c r="C12">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D12">
-        <v>-37.68</v>
+        <v>232.4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43873</v>
+        <v>43994</v>
       </c>
       <c r="B13">
-        <v>129.67</v>
+        <v>728.45</v>
       </c>
       <c r="C13">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D13">
-        <v>-40.67</v>
+        <v>197.42</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43874</v>
+        <v>43995</v>
       </c>
       <c r="B14">
-        <v>125.21</v>
+        <v>431.62</v>
       </c>
       <c r="C14">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D14">
-        <v>-42.71</v>
+        <v>76.23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43875</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>124.78</v>
+        <v>334.87</v>
       </c>
       <c r="C15">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D15">
-        <v>-42.91</v>
+        <v>36.72</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43876</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>121.58</v>
+        <v>302.32</v>
       </c>
       <c r="C16">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D16">
-        <v>-44.37</v>
+        <v>23.43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43877</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>117.7</v>
+        <v>248.77</v>
       </c>
       <c r="C17">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D17">
-        <v>-46.15</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43878</v>
+        <v>43999</v>
       </c>
       <c r="B18">
-        <v>115.96</v>
+        <v>212.46</v>
       </c>
       <c r="C18">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D18">
-        <v>-46.95</v>
+        <v>-13.26</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>114.39</v>
+        <v>192.17</v>
       </c>
       <c r="C19">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D19">
-        <v>-47.66</v>
+        <v>-21.54</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>113.96</v>
+        <v>178.78</v>
       </c>
       <c r="C20">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D20">
-        <v>-47.86</v>
+        <v>-27.01</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43881</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>115.48</v>
+        <v>168.39</v>
       </c>
       <c r="C21">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D21">
-        <v>-47.17</v>
+        <v>-31.25</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43882</v>
+        <v>44003</v>
       </c>
       <c r="B22">
-        <v>112.13</v>
+        <v>160.26</v>
       </c>
       <c r="C22">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D22">
-        <v>-48.7</v>
+        <v>-34.57</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43883</v>
+        <v>44004</v>
       </c>
       <c r="B23">
-        <v>110.46</v>
+        <v>153.32</v>
       </c>
       <c r="C23">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D23">
-        <v>-49.46</v>
+        <v>-37.4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43884</v>
+        <v>44005</v>
       </c>
       <c r="B24">
-        <v>108.5</v>
+        <v>148.04</v>
       </c>
       <c r="C24">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D24">
-        <v>-50.36</v>
+        <v>-39.56</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43885</v>
+        <v>44006</v>
       </c>
       <c r="B25">
-        <v>106.52</v>
+        <v>143.61</v>
       </c>
       <c r="C25">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D25">
-        <v>-51.26</v>
+        <v>-41.37</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43886</v>
+        <v>44007</v>
       </c>
       <c r="B26">
-        <v>112.83</v>
+        <v>140.36</v>
       </c>
       <c r="C26">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D26">
-        <v>-48.38</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43887</v>
+        <v>44008</v>
       </c>
       <c r="B27">
-        <v>152.24</v>
+        <v>139</v>
       </c>
       <c r="C27">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D27">
-        <v>-30.35</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43888</v>
+        <v>44009</v>
       </c>
       <c r="B28">
-        <v>245.74</v>
+        <v>141.58</v>
       </c>
       <c r="C28">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D28">
-        <v>12.43</v>
+        <v>-42.19</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43889</v>
+        <v>44010</v>
       </c>
       <c r="B29">
-        <v>180.26</v>
+        <v>139.08</v>
       </c>
       <c r="C29">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D29">
-        <v>-17.53</v>
+        <v>-43.21</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43890</v>
+        <v>44011</v>
       </c>
       <c r="B30">
-        <v>155.42</v>
+        <v>135.57</v>
       </c>
       <c r="C30">
-        <v>218.57</v>
+        <v>244.93</v>
       </c>
       <c r="D30">
-        <v>-28.89</v>
+        <v>-44.65</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43891</v>
+        <v>44012</v>
       </c>
       <c r="B31">
-        <v>141.43</v>
+        <v>144.63</v>
       </c>
       <c r="C31">
-        <v>180.39</v>
+        <v>244.93</v>
       </c>
       <c r="D31">
-        <v>-21.59</v>
+        <v>-40.95</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43892</v>
+        <v>44013</v>
       </c>
       <c r="B32">
-        <v>132</v>
+        <v>423.55</v>
       </c>
       <c r="C32">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D32">
-        <v>-26.82</v>
+        <v>111.53</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43893</v>
+        <v>44014</v>
       </c>
       <c r="B33">
-        <v>125.52</v>
+        <v>328.33</v>
       </c>
       <c r="C33">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D33">
-        <v>-30.42</v>
+        <v>63.98</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43894</v>
+        <v>44015</v>
       </c>
       <c r="B34">
-        <v>121.46</v>
+        <v>226.71</v>
       </c>
       <c r="C34">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D34">
-        <v>-32.67</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43895</v>
+        <v>44016</v>
       </c>
       <c r="B35">
-        <v>118.35</v>
+        <v>194</v>
       </c>
       <c r="C35">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D35">
-        <v>-34.39</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43896</v>
+        <v>44017</v>
       </c>
       <c r="B36">
-        <v>115.83</v>
+        <v>175.86</v>
       </c>
       <c r="C36">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D36">
-        <v>-35.79</v>
+        <v>-12.17</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43897</v>
+        <v>44018</v>
       </c>
       <c r="B37">
-        <v>113.7</v>
+        <v>165.5</v>
       </c>
       <c r="C37">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D37">
-        <v>-36.97</v>
+        <v>-17.34</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43898</v>
+        <v>44019</v>
       </c>
       <c r="B38">
-        <v>112.91</v>
+        <v>219</v>
       </c>
       <c r="C38">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D38">
-        <v>-37.41</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43899</v>
+        <v>44020</v>
       </c>
       <c r="B39">
-        <v>111.12</v>
+        <v>241.1</v>
       </c>
       <c r="C39">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D39">
-        <v>-38.4</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43900</v>
+        <v>44021</v>
       </c>
       <c r="B40">
-        <v>108.88</v>
+        <v>713.8200000000001</v>
       </c>
       <c r="C40">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D40">
-        <v>-39.64</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43901</v>
+        <v>44022</v>
       </c>
       <c r="B41">
-        <v>107.38</v>
+        <v>476.5</v>
       </c>
       <c r="C41">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D41">
-        <v>-40.48</v>
+        <v>137.98</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43902</v>
+        <v>44023</v>
       </c>
       <c r="B42">
-        <v>105.96</v>
+        <v>282.25</v>
       </c>
       <c r="C42">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D42">
-        <v>-41.26</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43903</v>
+        <v>44024</v>
       </c>
       <c r="B43">
-        <v>104.92</v>
+        <v>228.22</v>
       </c>
       <c r="C43">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D43">
-        <v>-41.84</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43904</v>
+        <v>44025</v>
       </c>
       <c r="B44">
-        <v>104.08</v>
+        <v>200.92</v>
       </c>
       <c r="C44">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D44">
-        <v>-42.3</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43905</v>
+        <v>44026</v>
       </c>
       <c r="B45">
-        <v>103.3</v>
+        <v>185.88</v>
       </c>
       <c r="C45">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D45">
-        <v>-42.73</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43906</v>
+        <v>44027</v>
       </c>
       <c r="B46">
-        <v>102.38</v>
+        <v>172.79</v>
       </c>
       <c r="C46">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D46">
-        <v>-43.25</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43907</v>
+        <v>44028</v>
       </c>
       <c r="B47">
-        <v>101.35</v>
+        <v>161.87</v>
       </c>
       <c r="C47">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D47">
-        <v>-43.82</v>
+        <v>-19.16</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43908</v>
+        <v>44029</v>
       </c>
       <c r="B48">
-        <v>108.48</v>
+        <v>154.83</v>
       </c>
       <c r="C48">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D48">
-        <v>-39.86</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43909</v>
+        <v>44030</v>
       </c>
       <c r="B49">
-        <v>156</v>
+        <v>149.38</v>
       </c>
       <c r="C49">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D49">
-        <v>-13.52</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43910</v>
+        <v>44031</v>
       </c>
       <c r="B50">
-        <v>178.91</v>
+        <v>143.67</v>
       </c>
       <c r="C50">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D50">
-        <v>-0.82</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43911</v>
+        <v>44032</v>
       </c>
       <c r="B51">
-        <v>151</v>
+        <v>139.09</v>
       </c>
       <c r="C51">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D51">
-        <v>-16.29</v>
+        <v>-30.53</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43912</v>
+        <v>44033</v>
       </c>
       <c r="B52">
-        <v>137.48</v>
+        <v>135.48</v>
       </c>
       <c r="C52">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D52">
-        <v>-23.79</v>
+        <v>-32.34</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43913</v>
+        <v>44034</v>
       </c>
       <c r="B53">
-        <v>128.52</v>
+        <v>132.38</v>
       </c>
       <c r="C53">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D53">
-        <v>-28.75</v>
+        <v>-33.89</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43914</v>
+        <v>44035</v>
       </c>
       <c r="B54">
-        <v>122.58</v>
+        <v>130.05</v>
       </c>
       <c r="C54">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D54">
-        <v>-32.04</v>
+        <v>-35.05</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43915</v>
+        <v>44036</v>
       </c>
       <c r="B55">
-        <v>118.29</v>
+        <v>127.9</v>
       </c>
       <c r="C55">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D55">
-        <v>-34.42</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43916</v>
+        <v>44037</v>
       </c>
       <c r="B56">
-        <v>115.04</v>
+        <v>126.09</v>
       </c>
       <c r="C56">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D56">
-        <v>-36.23</v>
+        <v>-37.03</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43917</v>
+        <v>44038</v>
       </c>
       <c r="B57">
-        <v>112.61</v>
+        <v>125</v>
       </c>
       <c r="C57">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D57">
         <v>-37.57</v>
@@ -1418,153 +1404,153 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43918</v>
+        <v>44039</v>
       </c>
       <c r="B58">
-        <v>111.17</v>
+        <v>124.35</v>
       </c>
       <c r="C58">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D58">
-        <v>-38.37</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43919</v>
+        <v>44040</v>
       </c>
       <c r="B59">
-        <v>110.21</v>
+        <v>124.22</v>
       </c>
       <c r="C59">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D59">
-        <v>-38.9</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43920</v>
+        <v>44041</v>
       </c>
       <c r="B60">
-        <v>109.46</v>
+        <v>123.42</v>
       </c>
       <c r="C60">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D60">
-        <v>-39.32</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43921</v>
+        <v>44042</v>
       </c>
       <c r="B61">
-        <v>108.43</v>
+        <v>128.32</v>
       </c>
       <c r="C61">
-        <v>180.39</v>
+        <v>200.23</v>
       </c>
       <c r="D61">
-        <v>-39.89</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43922</v>
+        <v>44043</v>
       </c>
       <c r="B62">
-        <v>107.96</v>
+        <v>132.45</v>
       </c>
       <c r="C62">
-        <v>198.56</v>
+        <v>200.23</v>
       </c>
       <c r="D62">
-        <v>-45.63</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43923</v>
+        <v>44044</v>
       </c>
       <c r="B63">
-        <v>107.18</v>
+        <v>126.96</v>
       </c>
       <c r="C63">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D63">
-        <v>-46.02</v>
+        <v>-33.34</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43924</v>
+        <v>44045</v>
       </c>
       <c r="B64">
-        <v>106.18</v>
+        <v>123.71</v>
       </c>
       <c r="C64">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D64">
-        <v>-46.52</v>
+        <v>-35.04</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43925</v>
+        <v>44046</v>
       </c>
       <c r="B65">
-        <v>105.33</v>
+        <v>121.35</v>
       </c>
       <c r="C65">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D65">
-        <v>-46.95</v>
+        <v>-36.28</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43926</v>
+        <v>44047</v>
       </c>
       <c r="B66">
-        <v>104.57</v>
+        <v>119.52</v>
       </c>
       <c r="C66">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D66">
-        <v>-47.34</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43927</v>
-      </c>
-      <c r="B67" t="s">
-        <v>4</v>
+        <v>44048</v>
+      </c>
+      <c r="B67">
+        <v>118.38</v>
       </c>
       <c r="C67">
-        <v>198.56</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+        <v>190.45</v>
+      </c>
+      <c r="D67">
+        <v>-37.84</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43928</v>
+        <v>44049</v>
       </c>
       <c r="B68" t="s">
         <v>4</v>
       </c>
       <c r="C68">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D68" t="s">
         <v>4</v>
@@ -1572,3905 +1558,3905 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43929</v>
-      </c>
-      <c r="B69">
-        <v>113.2</v>
+        <v>44050</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
       </c>
       <c r="C69">
-        <v>198.56</v>
-      </c>
-      <c r="D69">
-        <v>-42.99</v>
+        <v>190.45</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43930</v>
-      </c>
-      <c r="B70">
-        <v>115.96</v>
+        <v>44051</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
       </c>
       <c r="C70">
-        <v>198.56</v>
-      </c>
-      <c r="D70">
-        <v>-41.6</v>
+        <v>190.45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43931</v>
-      </c>
-      <c r="B71">
-        <v>114.46</v>
+        <v>44052</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
       </c>
       <c r="C71">
-        <v>198.56</v>
-      </c>
-      <c r="D71">
-        <v>-42.36</v>
+        <v>190.45</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43932</v>
-      </c>
-      <c r="B72">
-        <v>111.38</v>
+        <v>44053</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
       </c>
       <c r="C72">
-        <v>198.56</v>
-      </c>
-      <c r="D72">
-        <v>-43.91</v>
+        <v>190.45</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43933</v>
-      </c>
-      <c r="B73">
-        <v>109.42</v>
+        <v>44054</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>198.56</v>
-      </c>
-      <c r="D73">
-        <v>-44.9</v>
+        <v>190.45</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43934</v>
-      </c>
-      <c r="B74">
-        <v>107.67</v>
+        <v>44055</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>198.56</v>
-      </c>
-      <c r="D74">
-        <v>-45.78</v>
+        <v>190.45</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43935</v>
-      </c>
-      <c r="B75">
-        <v>109.81</v>
+        <v>44056</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
       </c>
       <c r="C75">
-        <v>198.56</v>
-      </c>
-      <c r="D75">
-        <v>-44.7</v>
+        <v>190.45</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43936</v>
-      </c>
-      <c r="B76">
-        <v>108.29</v>
+        <v>44057</v>
+      </c>
+      <c r="B76" t="s">
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>198.56</v>
-      </c>
-      <c r="D76">
-        <v>-45.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43937</v>
-      </c>
-      <c r="B77">
-        <v>106.52</v>
+        <v>44058</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>198.56</v>
-      </c>
-      <c r="D77">
-        <v>-46.35</v>
+        <v>190.45</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43938</v>
-      </c>
-      <c r="B78">
-        <v>112.06</v>
+        <v>44059</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>198.56</v>
-      </c>
-      <c r="D78">
-        <v>-43.56</v>
+        <v>190.45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43939</v>
-      </c>
-      <c r="B79">
-        <v>110.25</v>
+        <v>44060</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
       </c>
       <c r="C79">
-        <v>198.56</v>
-      </c>
-      <c r="D79">
-        <v>-44.48</v>
+        <v>190.45</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43940</v>
-      </c>
-      <c r="B80">
-        <v>108.05</v>
+        <v>44061</v>
+      </c>
+      <c r="B80" t="s">
+        <v>4</v>
       </c>
       <c r="C80">
-        <v>198.56</v>
-      </c>
-      <c r="D80">
-        <v>-45.59</v>
+        <v>190.45</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43941</v>
-      </c>
-      <c r="B81">
-        <v>106.3</v>
+        <v>44062</v>
+      </c>
+      <c r="B81" t="s">
+        <v>4</v>
       </c>
       <c r="C81">
-        <v>198.56</v>
-      </c>
-      <c r="D81">
-        <v>-46.46</v>
+        <v>190.45</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43942</v>
-      </c>
-      <c r="B82">
-        <v>104.74</v>
+        <v>44063</v>
+      </c>
+      <c r="B82" t="s">
+        <v>4</v>
       </c>
       <c r="C82">
-        <v>198.56</v>
-      </c>
-      <c r="D82">
-        <v>-47.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43943</v>
-      </c>
-      <c r="B83">
-        <v>103.52</v>
+        <v>44064</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>198.56</v>
-      </c>
-      <c r="D83">
-        <v>-47.86</v>
+        <v>190.45</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43944</v>
-      </c>
-      <c r="B84">
-        <v>102.87</v>
+        <v>44065</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>198.56</v>
-      </c>
-      <c r="D84">
-        <v>-48.19</v>
+        <v>190.45</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43945</v>
-      </c>
-      <c r="B85">
-        <v>102.17</v>
+        <v>44066</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
       </c>
       <c r="C85">
-        <v>198.56</v>
-      </c>
-      <c r="D85">
-        <v>-48.54</v>
+        <v>190.45</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43946</v>
+        <v>44067</v>
       </c>
       <c r="B86">
-        <v>101.25</v>
+        <v>184.58</v>
       </c>
       <c r="C86">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D86">
-        <v>-49.01</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43947</v>
+        <v>44068</v>
       </c>
       <c r="B87">
-        <v>100.33</v>
+        <v>173.74</v>
       </c>
       <c r="C87">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D87">
-        <v>-49.47</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43948</v>
+        <v>44069</v>
       </c>
       <c r="B88">
-        <v>100</v>
+        <v>161.74</v>
       </c>
       <c r="C88">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D88">
-        <v>-49.64</v>
+        <v>-15.07</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43949</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>100</v>
+        <v>152.73</v>
       </c>
       <c r="C89">
-        <v>198.56</v>
+        <v>190.45</v>
       </c>
       <c r="D89">
-        <v>-49.64</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43950</v>
-      </c>
-      <c r="B90" t="s">
-        <v>4</v>
+        <v>44071</v>
+      </c>
+      <c r="B90">
+        <v>146.17</v>
       </c>
       <c r="C90">
-        <v>198.56</v>
-      </c>
-      <c r="D90" t="s">
-        <v>4</v>
+        <v>190.45</v>
+      </c>
+      <c r="D90">
+        <v>-23.25</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43951</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
+        <v>44072</v>
+      </c>
+      <c r="B91">
+        <v>140.86</v>
       </c>
       <c r="C91">
-        <v>198.56</v>
-      </c>
-      <c r="D91" t="s">
-        <v>4</v>
+        <v>190.45</v>
+      </c>
+      <c r="D91">
+        <v>-26.04</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43952</v>
-      </c>
-      <c r="B92" t="s">
-        <v>4</v>
+        <v>44073</v>
+      </c>
+      <c r="B92">
+        <v>136.46</v>
       </c>
       <c r="C92">
-        <v>279.37</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
+        <v>190.45</v>
+      </c>
+      <c r="D92">
+        <v>-28.35</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43953</v>
-      </c>
-      <c r="B93" t="s">
-        <v>4</v>
+        <v>44074</v>
+      </c>
+      <c r="B93">
+        <v>132.92</v>
       </c>
       <c r="C93">
-        <v>279.37</v>
-      </c>
-      <c r="D93" t="s">
-        <v>4</v>
+        <v>190.45</v>
+      </c>
+      <c r="D93">
+        <v>-30.21</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43954</v>
-      </c>
-      <c r="B94" t="s">
-        <v>4</v>
+        <v>44075</v>
+      </c>
+      <c r="B94">
+        <v>129.92</v>
       </c>
       <c r="C94">
-        <v>279.37</v>
-      </c>
-      <c r="D94" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D94">
+        <v>-39.88</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43955</v>
-      </c>
-      <c r="B95" t="s">
-        <v>4</v>
+        <v>44076</v>
+      </c>
+      <c r="B95">
+        <v>127.09</v>
       </c>
       <c r="C95">
-        <v>279.37</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D95">
+        <v>-41.19</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>100.83</v>
+        <v>124.83</v>
       </c>
       <c r="C96">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D96">
-        <v>-63.91</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43957</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>103.3</v>
+        <v>123.27</v>
       </c>
       <c r="C97">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D97">
-        <v>-63.02</v>
+        <v>-42.95</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43958</v>
+        <v>44079</v>
       </c>
       <c r="B98">
-        <v>105.74</v>
+        <v>121.54</v>
       </c>
       <c r="C98">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D98">
-        <v>-62.15</v>
+        <v>-43.75</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43959</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>106.75</v>
+        <v>120.46</v>
       </c>
       <c r="C99">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D99">
-        <v>-61.79</v>
+        <v>-44.25</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43960</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>114.91</v>
+        <v>119.48</v>
       </c>
       <c r="C100">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D100">
-        <v>-58.87</v>
+        <v>-44.71</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43961</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>110.96</v>
+        <v>118.52</v>
       </c>
       <c r="C101">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D101">
-        <v>-60.28</v>
+        <v>-45.15</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43962</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>107.96</v>
+        <v>117.65</v>
       </c>
       <c r="C102">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D102">
-        <v>-61.36</v>
+        <v>-45.55</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43963</v>
+        <v>44084</v>
       </c>
       <c r="B103">
-        <v>107.79</v>
+        <v>116.78</v>
       </c>
       <c r="C103">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D103">
-        <v>-61.42</v>
+        <v>-45.95</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43964</v>
+        <v>44085</v>
       </c>
       <c r="B104">
-        <v>179.81</v>
+        <v>115.96</v>
       </c>
       <c r="C104">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D104">
-        <v>-35.64</v>
+        <v>-46.34</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43965</v>
+        <v>44086</v>
       </c>
       <c r="B105">
-        <v>466.17</v>
+        <v>115.09</v>
       </c>
       <c r="C105">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D105">
-        <v>66.87</v>
+        <v>-46.74</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43966</v>
+        <v>44087</v>
       </c>
       <c r="B106">
-        <v>343.09</v>
+        <v>114.17</v>
       </c>
       <c r="C106">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D106">
-        <v>22.81</v>
+        <v>-47.16</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43967</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>206.92</v>
+        <v>113.5</v>
       </c>
       <c r="C107">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D107">
-        <v>-25.93</v>
+        <v>-47.47</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43968</v>
+        <v>44089</v>
       </c>
       <c r="B108">
-        <v>174.96</v>
+        <v>112.32</v>
       </c>
       <c r="C108">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D108">
-        <v>-37.37</v>
+        <v>-48.02</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43969</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>156.62</v>
+        <v>111.78</v>
       </c>
       <c r="C109">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D109">
-        <v>-43.94</v>
+        <v>-48.27</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43970</v>
+        <v>44091</v>
       </c>
       <c r="B110">
-        <v>144.77</v>
+        <v>111.57</v>
       </c>
       <c r="C110">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D110">
-        <v>-48.18</v>
+        <v>-48.37</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43971</v>
+        <v>44092</v>
       </c>
       <c r="B111">
-        <v>136.08</v>
+        <v>111.26</v>
       </c>
       <c r="C111">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D111">
-        <v>-51.29</v>
+        <v>-48.51</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43972</v>
+        <v>44093</v>
       </c>
       <c r="B112">
-        <v>129.87</v>
+        <v>110.83</v>
       </c>
       <c r="C112">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D112">
-        <v>-53.51</v>
+        <v>-48.71</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43973</v>
+        <v>44094</v>
       </c>
       <c r="B113">
-        <v>535.62</v>
+        <v>109.82</v>
       </c>
       <c r="C113">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D113">
-        <v>91.73</v>
+        <v>-49.18</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43974</v>
+        <v>44095</v>
       </c>
       <c r="B114">
-        <v>1093.57</v>
+        <v>108.75</v>
       </c>
       <c r="C114">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D114">
-        <v>291.44</v>
+        <v>-49.67</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43975</v>
+        <v>44096</v>
       </c>
       <c r="B115">
-        <v>862.17</v>
+        <v>108</v>
       </c>
       <c r="C115">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D115">
-        <v>208.61</v>
+        <v>-50.02</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43976</v>
+        <v>44097</v>
       </c>
       <c r="B116">
-        <v>419.12</v>
+        <v>107.3</v>
       </c>
       <c r="C116">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D116">
-        <v>50.02</v>
+        <v>-50.34</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43977</v>
+        <v>44098</v>
       </c>
       <c r="B117">
-        <v>281.29</v>
+        <v>106.67</v>
       </c>
       <c r="C117">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D117">
-        <v>0.6899999999999999</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43978</v>
+        <v>44099</v>
       </c>
       <c r="B118">
-        <v>226.83</v>
+        <v>105.95</v>
       </c>
       <c r="C118">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D118">
-        <v>-18.81</v>
+        <v>-50.97</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43979</v>
+        <v>44100</v>
       </c>
       <c r="B119">
-        <v>199.04</v>
+        <v>105.25</v>
       </c>
       <c r="C119">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D119">
-        <v>-28.75</v>
+        <v>-51.29</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43980</v>
+        <v>44101</v>
       </c>
       <c r="B120">
-        <v>181.67</v>
+        <v>105.21</v>
       </c>
       <c r="C120">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D120">
-        <v>-34.97</v>
+        <v>-51.31</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43981</v>
+        <v>44102</v>
       </c>
       <c r="B121">
-        <v>168.88</v>
+        <v>110.52</v>
       </c>
       <c r="C121">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D121">
-        <v>-39.55</v>
+        <v>-48.85</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43982</v>
+        <v>44103</v>
       </c>
       <c r="B122">
-        <v>159.75</v>
+        <v>116.96</v>
       </c>
       <c r="C122">
-        <v>279.37</v>
+        <v>216.08</v>
       </c>
       <c r="D122">
-        <v>-42.82</v>
+        <v>-45.87</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43983</v>
+        <v>44104</v>
       </c>
       <c r="B123">
-        <v>154.91</v>
+        <v>116.24</v>
       </c>
       <c r="C123">
-        <v>244.93</v>
+        <v>216.08</v>
       </c>
       <c r="D123">
-        <v>-36.75</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43984</v>
+        <v>44105</v>
       </c>
       <c r="B124">
-        <v>151.12</v>
+        <v>115.54</v>
       </c>
       <c r="C124">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D124">
-        <v>-38.3</v>
+        <v>-62.81</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43985</v>
+        <v>44106</v>
       </c>
       <c r="B125">
-        <v>147.13</v>
+        <v>111.58</v>
       </c>
       <c r="C125">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D125">
-        <v>-39.93</v>
+        <v>-64.08</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43986</v>
+        <v>44107</v>
       </c>
       <c r="B126">
-        <v>162.35</v>
+        <v>109</v>
       </c>
       <c r="C126">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D126">
-        <v>-33.72</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43987</v>
+        <v>44108</v>
       </c>
       <c r="B127">
-        <v>345.83</v>
+        <v>107.35</v>
       </c>
       <c r="C127">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D127">
-        <v>41.2</v>
+        <v>-65.44</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43988</v>
+        <v>44109</v>
       </c>
       <c r="B128">
-        <v>739.29</v>
+        <v>105.67</v>
       </c>
       <c r="C128">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D128">
-        <v>201.84</v>
+        <v>-65.98</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43989</v>
+        <v>44110</v>
       </c>
       <c r="B129">
-        <v>710.09</v>
+        <v>104.48</v>
       </c>
       <c r="C129">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D129">
-        <v>189.92</v>
+        <v>-66.37</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43990</v>
+        <v>44111</v>
       </c>
       <c r="B130">
-        <v>379.62</v>
+        <v>103.58</v>
       </c>
       <c r="C130">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D130">
-        <v>55</v>
+        <v>-66.65000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43991</v>
+        <v>44112</v>
       </c>
       <c r="B131">
-        <v>298.71</v>
+        <v>105.71</v>
       </c>
       <c r="C131">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D131">
-        <v>21.96</v>
+        <v>-65.97</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43992</v>
+        <v>44113</v>
       </c>
       <c r="B132">
-        <v>558.79</v>
+        <v>120.48</v>
       </c>
       <c r="C132">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D132">
-        <v>128.15</v>
+        <v>-61.22</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43993</v>
+        <v>44114</v>
       </c>
       <c r="B133">
-        <v>814.14</v>
+        <v>119.54</v>
       </c>
       <c r="C133">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D133">
-        <v>232.4</v>
+        <v>-61.52</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43994</v>
+        <v>44115</v>
       </c>
       <c r="B134">
-        <v>728.45</v>
+        <v>116.52</v>
       </c>
       <c r="C134">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D134">
-        <v>197.42</v>
+        <v>-62.49</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43995</v>
+        <v>44116</v>
       </c>
       <c r="B135">
-        <v>431.62</v>
+        <v>115.71</v>
       </c>
       <c r="C135">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D135">
-        <v>76.23</v>
+        <v>-62.75</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43996</v>
+        <v>44117</v>
       </c>
       <c r="B136">
-        <v>334.87</v>
+        <v>113.7</v>
       </c>
       <c r="C136">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D136">
-        <v>36.72</v>
+        <v>-63.4</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43997</v>
+        <v>44118</v>
       </c>
       <c r="B137">
-        <v>302.32</v>
+        <v>112.24</v>
       </c>
       <c r="C137">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D137">
-        <v>23.43</v>
+        <v>-63.87</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43998</v>
+        <v>44119</v>
       </c>
       <c r="B138">
-        <v>248.77</v>
+        <v>113.71</v>
       </c>
       <c r="C138">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D138">
-        <v>1.57</v>
+        <v>-63.39</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43999</v>
+        <v>44120</v>
       </c>
       <c r="B139">
-        <v>212.46</v>
+        <v>126.23</v>
       </c>
       <c r="C139">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D139">
-        <v>-13.26</v>
+        <v>-59.37</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44000</v>
+        <v>44121</v>
       </c>
       <c r="B140">
-        <v>192.17</v>
+        <v>128.88</v>
       </c>
       <c r="C140">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D140">
-        <v>-21.54</v>
+        <v>-58.51</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44001</v>
+        <v>44122</v>
       </c>
       <c r="B141">
-        <v>178.78</v>
+        <v>124.22</v>
       </c>
       <c r="C141">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D141">
-        <v>-27.01</v>
+        <v>-60.01</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44002</v>
+        <v>44123</v>
       </c>
       <c r="B142">
-        <v>168.39</v>
+        <v>119.61</v>
       </c>
       <c r="C142">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D142">
-        <v>-31.25</v>
+        <v>-61.5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44003</v>
+        <v>44124</v>
       </c>
       <c r="B143">
-        <v>160.26</v>
+        <v>116.08</v>
       </c>
       <c r="C143">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D143">
-        <v>-34.57</v>
+        <v>-62.63</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44004</v>
+        <v>44125</v>
       </c>
       <c r="B144">
-        <v>153.32</v>
+        <v>113.38</v>
       </c>
       <c r="C144">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D144">
-        <v>-37.4</v>
+        <v>-63.5</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44005</v>
+        <v>44126</v>
       </c>
       <c r="B145">
-        <v>148.04</v>
+        <v>110.91</v>
       </c>
       <c r="C145">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D145">
-        <v>-39.56</v>
+        <v>-64.3</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44006</v>
+        <v>44127</v>
       </c>
       <c r="B146">
-        <v>143.61</v>
+        <v>108.79</v>
       </c>
       <c r="C146">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D146">
-        <v>-41.37</v>
+        <v>-64.98</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44007</v>
+        <v>44128</v>
       </c>
       <c r="B147">
-        <v>140.36</v>
+        <v>107</v>
       </c>
       <c r="C147">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D147">
-        <v>-42.69</v>
+        <v>-65.55</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44008</v>
+        <v>44129</v>
       </c>
       <c r="B148">
-        <v>139</v>
+        <v>105.42</v>
       </c>
       <c r="C148">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D148">
-        <v>-43.25</v>
+        <v>-66.06</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44009</v>
+        <v>44130</v>
       </c>
       <c r="B149">
-        <v>141.58</v>
+        <v>105.04</v>
       </c>
       <c r="C149">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D149">
-        <v>-42.19</v>
+        <v>-66.19</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44010</v>
+        <v>44131</v>
       </c>
       <c r="B150">
-        <v>139.08</v>
+        <v>105.21</v>
       </c>
       <c r="C150">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D150">
-        <v>-43.21</v>
+        <v>-66.13</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44011</v>
+        <v>44132</v>
       </c>
       <c r="B151">
-        <v>135.57</v>
+        <v>104.96</v>
       </c>
       <c r="C151">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D151">
-        <v>-44.65</v>
+        <v>-66.20999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44012</v>
+        <v>44133</v>
       </c>
       <c r="B152">
-        <v>144.63</v>
+        <v>104.55</v>
       </c>
       <c r="C152">
-        <v>244.93</v>
+        <v>310.64</v>
       </c>
       <c r="D152">
-        <v>-40.95</v>
+        <v>-66.34</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44013</v>
+        <v>44134</v>
       </c>
       <c r="B153">
-        <v>423.55</v>
+        <v>103.62</v>
       </c>
       <c r="C153">
-        <v>200.23</v>
+        <v>310.64</v>
       </c>
       <c r="D153">
-        <v>111.53</v>
+        <v>-66.64</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44014</v>
+        <v>44135</v>
       </c>
       <c r="B154">
-        <v>328.33</v>
+        <v>103.04</v>
       </c>
       <c r="C154">
-        <v>200.23</v>
+        <v>310.64</v>
       </c>
       <c r="D154">
-        <v>63.98</v>
+        <v>-66.83</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44015</v>
+        <v>44136</v>
       </c>
       <c r="B155">
-        <v>226.71</v>
+        <v>102.74</v>
       </c>
       <c r="C155">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D155">
-        <v>13.23</v>
+        <v>-59.55</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44016</v>
+        <v>44137</v>
       </c>
       <c r="B156">
-        <v>194</v>
+        <v>102.61</v>
       </c>
       <c r="C156">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D156">
-        <v>-3.11</v>
+        <v>-59.61</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44017</v>
+        <v>44138</v>
       </c>
       <c r="B157">
-        <v>175.86</v>
+        <v>103</v>
       </c>
       <c r="C157">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D157">
-        <v>-12.17</v>
+        <v>-59.45</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44018</v>
+        <v>44139</v>
       </c>
       <c r="B158">
-        <v>165.5</v>
+        <v>102.5</v>
       </c>
       <c r="C158">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D158">
-        <v>-17.34</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44019</v>
+        <v>44140</v>
       </c>
       <c r="B159">
-        <v>219</v>
+        <v>102.32</v>
       </c>
       <c r="C159">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D159">
-        <v>9.380000000000001</v>
+        <v>-59.72</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44020</v>
+        <v>44141</v>
       </c>
       <c r="B160">
-        <v>241.1</v>
+        <v>101.22</v>
       </c>
       <c r="C160">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D160">
-        <v>20.41</v>
+        <v>-60.15</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B161">
-        <v>713.8200000000001</v>
+        <v>44142</v>
+      </c>
+      <c r="B161" t="s">
+        <v>4</v>
       </c>
       <c r="C161">
-        <v>200.23</v>
-      </c>
-      <c r="D161">
-        <v>256.5</v>
+        <v>254.02</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B162">
-        <v>476.5</v>
+        <v>44143</v>
+      </c>
+      <c r="B162" t="s">
+        <v>4</v>
       </c>
       <c r="C162">
-        <v>200.23</v>
-      </c>
-      <c r="D162">
-        <v>137.98</v>
+        <v>254.02</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44023</v>
+        <v>44144</v>
       </c>
       <c r="B163">
-        <v>282.25</v>
+        <v>100</v>
       </c>
       <c r="C163">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D163">
-        <v>40.97</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44024</v>
+        <v>44145</v>
       </c>
       <c r="B164">
-        <v>228.22</v>
+        <v>100</v>
       </c>
       <c r="C164">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D164">
-        <v>13.98</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44025</v>
+        <v>44146</v>
       </c>
       <c r="B165">
-        <v>200.92</v>
+        <v>101.22</v>
       </c>
       <c r="C165">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D165">
-        <v>0.34</v>
+        <v>-60.15</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44026</v>
+        <v>44147</v>
       </c>
       <c r="B166">
-        <v>185.88</v>
+        <v>101.3</v>
       </c>
       <c r="C166">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D166">
-        <v>-7.17</v>
+        <v>-60.12</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44027</v>
+        <v>44148</v>
       </c>
       <c r="B167">
-        <v>172.79</v>
+        <v>103.05</v>
       </c>
       <c r="C167">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D167">
-        <v>-13.7</v>
+        <v>-59.43</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44028</v>
+        <v>44149</v>
       </c>
       <c r="B168">
-        <v>161.87</v>
+        <v>104.87</v>
       </c>
       <c r="C168">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D168">
-        <v>-19.16</v>
+        <v>-58.72</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44029</v>
+        <v>44150</v>
       </c>
       <c r="B169">
-        <v>154.83</v>
+        <v>108.87</v>
       </c>
       <c r="C169">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D169">
-        <v>-22.67</v>
+        <v>-57.14</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44030</v>
+        <v>44151</v>
       </c>
       <c r="B170">
-        <v>149.38</v>
+        <v>110.61</v>
       </c>
       <c r="C170">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D170">
-        <v>-25.4</v>
+        <v>-56.46</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44031</v>
+        <v>44152</v>
       </c>
       <c r="B171">
-        <v>143.67</v>
+        <v>107.83</v>
       </c>
       <c r="C171">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D171">
-        <v>-28.25</v>
+        <v>-57.55</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44032</v>
+        <v>44153</v>
       </c>
       <c r="B172">
-        <v>139.09</v>
+        <v>106</v>
       </c>
       <c r="C172">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D172">
-        <v>-30.53</v>
+        <v>-58.27</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44033</v>
+        <v>44154</v>
       </c>
       <c r="B173">
-        <v>135.48</v>
+        <v>105.5</v>
       </c>
       <c r="C173">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D173">
-        <v>-32.34</v>
+        <v>-58.47</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44034</v>
+        <v>44155</v>
       </c>
       <c r="B174">
-        <v>132.38</v>
+        <v>104.12</v>
       </c>
       <c r="C174">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D174">
-        <v>-33.89</v>
+        <v>-59.01</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44035</v>
+        <v>44156</v>
       </c>
       <c r="B175">
-        <v>130.05</v>
+        <v>102.5</v>
       </c>
       <c r="C175">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D175">
-        <v>-35.05</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44036</v>
+        <v>44157</v>
       </c>
       <c r="B176">
-        <v>127.9</v>
+        <v>101.33</v>
       </c>
       <c r="C176">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D176">
-        <v>-36.12</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44037</v>
+        <v>44158</v>
       </c>
       <c r="B177">
-        <v>126.09</v>
+        <v>100.5</v>
       </c>
       <c r="C177">
-        <v>200.23</v>
+        <v>254.02</v>
       </c>
       <c r="D177">
-        <v>-37.03</v>
+        <v>-60.44</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44038</v>
-      </c>
-      <c r="B178">
-        <v>125</v>
+        <v>44159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
       </c>
       <c r="C178">
-        <v>200.23</v>
-      </c>
-      <c r="D178">
-        <v>-37.57</v>
+        <v>254.02</v>
+      </c>
+      <c r="D178" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44039</v>
-      </c>
-      <c r="B179">
-        <v>124.35</v>
+        <v>44160</v>
+      </c>
+      <c r="B179" t="s">
+        <v>4</v>
       </c>
       <c r="C179">
-        <v>200.23</v>
-      </c>
-      <c r="D179">
-        <v>-37.9</v>
+        <v>254.02</v>
+      </c>
+      <c r="D179" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44040</v>
-      </c>
-      <c r="B180">
-        <v>124.22</v>
+        <v>44161</v>
+      </c>
+      <c r="B180" t="s">
+        <v>4</v>
       </c>
       <c r="C180">
-        <v>200.23</v>
-      </c>
-      <c r="D180">
-        <v>-37.96</v>
+        <v>254.02</v>
+      </c>
+      <c r="D180" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44041</v>
-      </c>
-      <c r="B181">
-        <v>123.42</v>
+        <v>44162</v>
+      </c>
+      <c r="B181" t="s">
+        <v>4</v>
       </c>
       <c r="C181">
-        <v>200.23</v>
-      </c>
-      <c r="D181">
-        <v>-38.36</v>
+        <v>254.02</v>
+      </c>
+      <c r="D181" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44042</v>
-      </c>
-      <c r="B182">
-        <v>128.32</v>
+        <v>44163</v>
+      </c>
+      <c r="B182" t="s">
+        <v>4</v>
       </c>
       <c r="C182">
-        <v>200.23</v>
-      </c>
-      <c r="D182">
-        <v>-35.91</v>
+        <v>254.02</v>
+      </c>
+      <c r="D182" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44043</v>
-      </c>
-      <c r="B183">
-        <v>132.45</v>
+        <v>44164</v>
+      </c>
+      <c r="B183" t="s">
+        <v>4</v>
       </c>
       <c r="C183">
-        <v>200.23</v>
-      </c>
-      <c r="D183">
-        <v>-33.85</v>
+        <v>254.02</v>
+      </c>
+      <c r="D183" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44044</v>
+        <v>44165</v>
       </c>
       <c r="B184">
-        <v>126.96</v>
+        <v>102.45</v>
       </c>
       <c r="C184">
-        <v>190.45</v>
+        <v>254.02</v>
       </c>
       <c r="D184">
-        <v>-33.34</v>
+        <v>-59.67</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44045</v>
+        <v>44166</v>
       </c>
       <c r="B185">
-        <v>123.71</v>
+        <v>110.96</v>
       </c>
       <c r="C185">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D185">
-        <v>-35.04</v>
+        <v>-49.03</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44046</v>
+        <v>44167</v>
       </c>
       <c r="B186">
-        <v>121.35</v>
+        <v>108.2</v>
       </c>
       <c r="C186">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D186">
-        <v>-36.28</v>
+        <v>-50.3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44047</v>
-      </c>
-      <c r="B187">
-        <v>119.52</v>
+        <v>44168</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
       </c>
       <c r="C187">
-        <v>190.45</v>
-      </c>
-      <c r="D187">
-        <v>-37.24</v>
+        <v>217.71</v>
+      </c>
+      <c r="D187" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44048</v>
+        <v>44169</v>
       </c>
       <c r="B188">
-        <v>118.38</v>
+        <v>212.43</v>
       </c>
       <c r="C188">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D188">
-        <v>-37.84</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B189" t="s">
-        <v>4</v>
+        <v>44170</v>
+      </c>
+      <c r="B189">
+        <v>237</v>
       </c>
       <c r="C189">
-        <v>190.45</v>
-      </c>
-      <c r="D189" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D189">
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B190" t="s">
-        <v>4</v>
+        <v>44171</v>
+      </c>
+      <c r="B190">
+        <v>239.43</v>
       </c>
       <c r="C190">
-        <v>190.45</v>
-      </c>
-      <c r="D190" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D190">
+        <v>9.98</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B191" t="s">
-        <v>4</v>
+        <v>44172</v>
+      </c>
+      <c r="B191">
+        <v>198.12</v>
       </c>
       <c r="C191">
-        <v>190.45</v>
-      </c>
-      <c r="D191" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D191">
+        <v>-8.99</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B192" t="s">
-        <v>4</v>
+        <v>44173</v>
+      </c>
+      <c r="B192">
+        <v>172.87</v>
       </c>
       <c r="C192">
-        <v>190.45</v>
-      </c>
-      <c r="D192" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D192">
+        <v>-20.6</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B193" t="s">
-        <v>4</v>
+        <v>44174</v>
+      </c>
+      <c r="B193">
+        <v>154.79</v>
       </c>
       <c r="C193">
-        <v>190.45</v>
-      </c>
-      <c r="D193" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D193">
+        <v>-28.9</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B194" t="s">
-        <v>4</v>
+        <v>44175</v>
+      </c>
+      <c r="B194">
+        <v>142.91</v>
       </c>
       <c r="C194">
-        <v>190.45</v>
-      </c>
-      <c r="D194" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D194">
+        <v>-34.36</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B195" t="s">
-        <v>4</v>
+        <v>44176</v>
+      </c>
+      <c r="B195">
+        <v>134.39</v>
       </c>
       <c r="C195">
-        <v>190.45</v>
-      </c>
-      <c r="D195" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D195">
+        <v>-38.27</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B196" t="s">
-        <v>4</v>
+        <v>44177</v>
+      </c>
+      <c r="B196">
+        <v>128.08</v>
       </c>
       <c r="C196">
-        <v>190.45</v>
-      </c>
-      <c r="D196" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D196">
+        <v>-41.17</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B197" t="s">
-        <v>4</v>
+        <v>44178</v>
+      </c>
+      <c r="B197">
+        <v>123.7</v>
       </c>
       <c r="C197">
-        <v>190.45</v>
-      </c>
-      <c r="D197" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D197">
+        <v>-43.18</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B198" t="s">
-        <v>4</v>
+        <v>44179</v>
+      </c>
+      <c r="B198">
+        <v>121.57</v>
       </c>
       <c r="C198">
-        <v>190.45</v>
-      </c>
-      <c r="D198" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D198">
+        <v>-44.16</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B199" t="s">
-        <v>4</v>
+        <v>44180</v>
+      </c>
+      <c r="B199">
+        <v>119.17</v>
       </c>
       <c r="C199">
-        <v>190.45</v>
-      </c>
-      <c r="D199" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D199">
+        <v>-45.26</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B200" t="s">
-        <v>4</v>
+        <v>44181</v>
+      </c>
+      <c r="B200">
+        <v>117.43</v>
       </c>
       <c r="C200">
-        <v>190.45</v>
-      </c>
-      <c r="D200" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D200">
+        <v>-46.06</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B201" t="s">
-        <v>4</v>
+        <v>44182</v>
+      </c>
+      <c r="B201">
+        <v>117.87</v>
       </c>
       <c r="C201">
-        <v>190.45</v>
-      </c>
-      <c r="D201" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D201">
+        <v>-45.86</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B202" t="s">
-        <v>4</v>
+        <v>44183</v>
+      </c>
+      <c r="B202">
+        <v>116.58</v>
       </c>
       <c r="C202">
-        <v>190.45</v>
-      </c>
-      <c r="D202" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D202">
+        <v>-46.45</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B203" t="s">
-        <v>4</v>
+        <v>44184</v>
+      </c>
+      <c r="B203">
+        <v>114.57</v>
       </c>
       <c r="C203">
-        <v>190.45</v>
-      </c>
-      <c r="D203" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D203">
+        <v>-47.37</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B204" t="s">
-        <v>4</v>
+        <v>44185</v>
+      </c>
+      <c r="B204">
+        <v>125.16</v>
       </c>
       <c r="C204">
-        <v>190.45</v>
-      </c>
-      <c r="D204" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D204">
+        <v>-42.51</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B205" t="s">
-        <v>4</v>
+        <v>44186</v>
+      </c>
+      <c r="B205">
+        <v>134.33</v>
       </c>
       <c r="C205">
-        <v>190.45</v>
-      </c>
-      <c r="D205" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D205">
+        <v>-38.3</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B206" t="s">
-        <v>4</v>
+        <v>44187</v>
+      </c>
+      <c r="B206">
+        <v>137.62</v>
       </c>
       <c r="C206">
-        <v>190.45</v>
-      </c>
-      <c r="D206" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D206">
+        <v>-36.78</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44067</v>
+        <v>44188</v>
       </c>
       <c r="B207">
-        <v>184.58</v>
+        <v>135.09</v>
       </c>
       <c r="C207">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D207">
-        <v>-3.08</v>
+        <v>-37.95</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44068</v>
+        <v>44189</v>
       </c>
       <c r="B208">
-        <v>173.74</v>
+        <v>126.17</v>
       </c>
       <c r="C208">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D208">
-        <v>-8.77</v>
+        <v>-42.05</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44069</v>
+        <v>44190</v>
       </c>
       <c r="B209">
-        <v>161.74</v>
+        <v>120.33</v>
       </c>
       <c r="C209">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D209">
-        <v>-15.07</v>
+        <v>-44.73</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44070</v>
+        <v>44191</v>
       </c>
       <c r="B210">
-        <v>152.73</v>
+        <v>116.42</v>
       </c>
       <c r="C210">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D210">
-        <v>-19.81</v>
+        <v>-46.53</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44071</v>
+        <v>44192</v>
       </c>
       <c r="B211">
-        <v>146.17</v>
+        <v>113.12</v>
       </c>
       <c r="C211">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D211">
-        <v>-23.25</v>
+        <v>-48.04</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44072</v>
+        <v>44193</v>
       </c>
       <c r="B212">
-        <v>140.86</v>
+        <v>110.87</v>
       </c>
       <c r="C212">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D212">
-        <v>-26.04</v>
+        <v>-49.07</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44073</v>
+        <v>44194</v>
       </c>
       <c r="B213">
-        <v>136.46</v>
+        <v>114.75</v>
       </c>
       <c r="C213">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D213">
-        <v>-28.35</v>
+        <v>-47.29</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44074</v>
+        <v>44195</v>
       </c>
       <c r="B214">
-        <v>132.92</v>
+        <v>133.78</v>
       </c>
       <c r="C214">
-        <v>190.45</v>
+        <v>217.71</v>
       </c>
       <c r="D214">
-        <v>-30.21</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44075</v>
+        <v>44196</v>
       </c>
       <c r="B215">
-        <v>129.92</v>
+        <v>131</v>
       </c>
       <c r="C215">
-        <v>216.08</v>
+        <v>217.71</v>
       </c>
       <c r="D215">
-        <v>-39.88</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44076</v>
+        <v>44197</v>
       </c>
       <c r="B216">
-        <v>127.09</v>
+        <v>133.3</v>
       </c>
       <c r="C216">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D216">
-        <v>-41.19</v>
+        <v>-35.23</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44077</v>
+        <v>44198</v>
       </c>
       <c r="B217">
-        <v>124.83</v>
+        <v>128.35</v>
       </c>
       <c r="C217">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D217">
-        <v>-42.23</v>
+        <v>-37.63</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44078</v>
+        <v>44199</v>
       </c>
       <c r="B218">
-        <v>123.27</v>
+        <v>121.75</v>
       </c>
       <c r="C218">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D218">
-        <v>-42.95</v>
+        <v>-40.84</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44079</v>
+        <v>44200</v>
       </c>
       <c r="B219">
-        <v>121.54</v>
+        <v>117.79</v>
       </c>
       <c r="C219">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D219">
-        <v>-43.75</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44080</v>
+        <v>44201</v>
       </c>
       <c r="B220">
-        <v>120.46</v>
+        <v>116.54</v>
       </c>
       <c r="C220">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D220">
-        <v>-44.25</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44081</v>
+        <v>44202</v>
       </c>
       <c r="B221">
-        <v>119.48</v>
+        <v>118.83</v>
       </c>
       <c r="C221">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D221">
-        <v>-44.71</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44082</v>
+        <v>44203</v>
       </c>
       <c r="B222">
-        <v>118.52</v>
+        <v>117.91</v>
       </c>
       <c r="C222">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D222">
-        <v>-45.15</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44083</v>
+        <v>44204</v>
       </c>
       <c r="B223">
-        <v>117.65</v>
+        <v>116.79</v>
       </c>
       <c r="C223">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D223">
-        <v>-45.55</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44084</v>
+        <v>44205</v>
       </c>
       <c r="B224">
-        <v>116.78</v>
+        <v>117.38</v>
       </c>
       <c r="C224">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D224">
-        <v>-45.95</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44085</v>
+        <v>44206</v>
       </c>
       <c r="B225">
-        <v>115.96</v>
+        <v>116.62</v>
       </c>
       <c r="C225">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D225">
-        <v>-46.34</v>
+        <v>-43.34</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B226">
-        <v>115.09</v>
+        <v>44207</v>
+      </c>
+      <c r="B226" t="s">
+        <v>4</v>
       </c>
       <c r="C226">
-        <v>216.08</v>
-      </c>
-      <c r="D226">
-        <v>-46.74</v>
+        <v>205.8</v>
+      </c>
+      <c r="D226" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44087</v>
+        <v>44208</v>
       </c>
       <c r="B227">
-        <v>114.17</v>
+        <v>113.16</v>
       </c>
       <c r="C227">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D227">
-        <v>-47.16</v>
+        <v>-45.02</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44088</v>
+        <v>44209</v>
       </c>
       <c r="B228">
-        <v>113.5</v>
+        <v>117.27</v>
       </c>
       <c r="C228">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D228">
-        <v>-47.47</v>
+        <v>-43.02</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44089</v>
+        <v>44210</v>
       </c>
       <c r="B229">
-        <v>112.32</v>
+        <v>122.09</v>
       </c>
       <c r="C229">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D229">
-        <v>-48.02</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44090</v>
+        <v>44211</v>
       </c>
       <c r="B230">
-        <v>111.78</v>
+        <v>118.79</v>
       </c>
       <c r="C230">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D230">
-        <v>-48.27</v>
+        <v>-42.28</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44091</v>
+        <v>44212</v>
       </c>
       <c r="B231">
-        <v>111.57</v>
+        <v>127.55</v>
       </c>
       <c r="C231">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D231">
-        <v>-48.37</v>
+        <v>-38.02</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44092</v>
+        <v>44213</v>
       </c>
       <c r="B232">
-        <v>111.26</v>
+        <v>162.61</v>
       </c>
       <c r="C232">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D232">
-        <v>-48.51</v>
+        <v>-20.99</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44093</v>
+        <v>44214</v>
       </c>
       <c r="B233">
-        <v>110.83</v>
+        <v>201.26</v>
       </c>
       <c r="C233">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D233">
-        <v>-48.71</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44094</v>
+        <v>44215</v>
       </c>
       <c r="B234">
-        <v>109.82</v>
+        <v>196.3</v>
       </c>
       <c r="C234">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D234">
-        <v>-49.18</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44095</v>
+        <v>44216</v>
       </c>
       <c r="B235">
-        <v>108.75</v>
+        <v>219.22</v>
       </c>
       <c r="C235">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D235">
-        <v>-49.67</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44096</v>
+        <v>44217</v>
       </c>
       <c r="B236">
-        <v>108</v>
+        <v>442.7</v>
       </c>
       <c r="C236">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D236">
-        <v>-50.02</v>
+        <v>115.11</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44097</v>
+        <v>44218</v>
       </c>
       <c r="B237">
-        <v>107.3</v>
+        <v>464.91</v>
       </c>
       <c r="C237">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D237">
-        <v>-50.34</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44098</v>
+        <v>44219</v>
       </c>
       <c r="B238">
-        <v>106.67</v>
+        <v>289.78</v>
       </c>
       <c r="C238">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D238">
-        <v>-50.64</v>
+        <v>40.81</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44099</v>
+        <v>44220</v>
       </c>
       <c r="B239">
-        <v>105.95</v>
+        <v>241.91</v>
       </c>
       <c r="C239">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D239">
-        <v>-50.97</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44100</v>
+        <v>44221</v>
       </c>
       <c r="B240">
-        <v>105.25</v>
+        <v>255.58</v>
       </c>
       <c r="C240">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D240">
-        <v>-51.29</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44101</v>
+        <v>44222</v>
       </c>
       <c r="B241">
-        <v>105.21</v>
+        <v>640.62</v>
       </c>
       <c r="C241">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D241">
-        <v>-51.31</v>
+        <v>211.29</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44102</v>
+        <v>44223</v>
       </c>
       <c r="B242">
-        <v>110.52</v>
+        <v>846.26</v>
       </c>
       <c r="C242">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D242">
-        <v>-48.85</v>
+        <v>311.21</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44103</v>
+        <v>44224</v>
       </c>
       <c r="B243">
-        <v>116.96</v>
+        <v>500.25</v>
       </c>
       <c r="C243">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D243">
-        <v>-45.87</v>
+        <v>143.08</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44104</v>
+        <v>44225</v>
       </c>
       <c r="B244">
-        <v>116.24</v>
+        <v>835.04</v>
       </c>
       <c r="C244">
-        <v>216.08</v>
+        <v>205.8</v>
       </c>
       <c r="D244">
-        <v>-46.21</v>
+        <v>305.76</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44105</v>
+        <v>44226</v>
       </c>
       <c r="B245">
-        <v>115.54</v>
+        <v>1167.7</v>
       </c>
       <c r="C245">
-        <v>310.64</v>
+        <v>205.8</v>
       </c>
       <c r="D245">
-        <v>-62.81</v>
+        <v>467.4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44106</v>
+        <v>44227</v>
       </c>
       <c r="B246">
-        <v>111.58</v>
+        <v>1146.88</v>
       </c>
       <c r="C246">
-        <v>310.64</v>
+        <v>205.8</v>
       </c>
       <c r="D246">
-        <v>-64.08</v>
+        <v>457.28</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44107</v>
+        <v>44228</v>
       </c>
       <c r="B247">
-        <v>109</v>
+        <v>1319.09</v>
       </c>
       <c r="C247">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D247">
-        <v>-64.91</v>
+        <v>503.51</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44108</v>
+        <v>44229</v>
       </c>
       <c r="B248">
-        <v>107.35</v>
+        <v>1108.52</v>
       </c>
       <c r="C248">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D248">
-        <v>-65.44</v>
+        <v>407.17</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44109</v>
+        <v>44230</v>
       </c>
       <c r="B249">
-        <v>105.67</v>
+        <v>599</v>
       </c>
       <c r="C249">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D249">
-        <v>-65.98</v>
+        <v>174.05</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44110</v>
+        <v>44231</v>
       </c>
       <c r="B250">
-        <v>104.48</v>
+        <v>336.09</v>
       </c>
       <c r="C250">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D250">
-        <v>-66.37</v>
+        <v>53.77</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44111</v>
+        <v>44232</v>
       </c>
       <c r="B251">
-        <v>103.58</v>
+        <v>255.25</v>
       </c>
       <c r="C251">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D251">
-        <v>-66.65000000000001</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44112</v>
+        <v>44233</v>
       </c>
       <c r="B252">
-        <v>105.71</v>
+        <v>215.83</v>
       </c>
       <c r="C252">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D252">
-        <v>-65.97</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44113</v>
+        <v>44234</v>
       </c>
       <c r="B253">
-        <v>120.48</v>
+        <v>192.58</v>
       </c>
       <c r="C253">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D253">
-        <v>-61.22</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44114</v>
+        <v>44235</v>
       </c>
       <c r="B254">
-        <v>119.54</v>
+        <v>177.7</v>
       </c>
       <c r="C254">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D254">
-        <v>-61.52</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44115</v>
+        <v>44236</v>
       </c>
       <c r="B255">
-        <v>116.52</v>
+        <v>166.55</v>
       </c>
       <c r="C255">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D255">
-        <v>-62.49</v>
+        <v>-23.8</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44116</v>
+        <v>44237</v>
       </c>
       <c r="B256">
-        <v>115.71</v>
+        <v>157.45</v>
       </c>
       <c r="C256">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D256">
-        <v>-62.75</v>
+        <v>-27.96</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44117</v>
+        <v>44238</v>
       </c>
       <c r="B257">
-        <v>113.7</v>
+        <v>151</v>
       </c>
       <c r="C257">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D257">
-        <v>-63.4</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44118</v>
+        <v>44239</v>
       </c>
       <c r="B258">
-        <v>112.24</v>
+        <v>151.04</v>
       </c>
       <c r="C258">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D258">
-        <v>-63.87</v>
+        <v>-30.9</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44119</v>
+        <v>44240</v>
       </c>
       <c r="B259">
-        <v>113.71</v>
+        <v>146.29</v>
       </c>
       <c r="C259">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D259">
-        <v>-63.39</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44120</v>
+        <v>44241</v>
       </c>
       <c r="B260">
-        <v>126.23</v>
+        <v>140.41</v>
       </c>
       <c r="C260">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D260">
-        <v>-59.37</v>
+        <v>-35.76</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44121</v>
+        <v>44242</v>
       </c>
       <c r="B261">
-        <v>128.88</v>
+        <v>136.09</v>
       </c>
       <c r="C261">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D261">
-        <v>-58.51</v>
+        <v>-37.74</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44122</v>
+        <v>44243</v>
       </c>
       <c r="B262">
-        <v>124.22</v>
+        <v>132.35</v>
       </c>
       <c r="C262">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D262">
-        <v>-60.01</v>
+        <v>-39.45</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44123</v>
+        <v>44244</v>
       </c>
       <c r="B263">
-        <v>119.61</v>
+        <v>129</v>
       </c>
       <c r="C263">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D263">
-        <v>-61.5</v>
+        <v>-40.98</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44124</v>
+        <v>44245</v>
       </c>
       <c r="B264">
-        <v>116.08</v>
+        <v>126.85</v>
       </c>
       <c r="C264">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D264">
-        <v>-62.63</v>
+        <v>-41.97</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44125</v>
+        <v>44246</v>
       </c>
       <c r="B265">
-        <v>113.38</v>
+        <v>123.17</v>
       </c>
       <c r="C265">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D265">
-        <v>-63.5</v>
+        <v>-43.65</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44126</v>
+        <v>44247</v>
       </c>
       <c r="B266">
-        <v>110.91</v>
+        <v>121.25</v>
       </c>
       <c r="C266">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D266">
-        <v>-64.3</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44127</v>
+        <v>44248</v>
       </c>
       <c r="B267">
-        <v>108.79</v>
+        <v>119.27</v>
       </c>
       <c r="C267">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D267">
-        <v>-64.98</v>
+        <v>-45.43</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44128</v>
+        <v>44249</v>
       </c>
       <c r="B268">
-        <v>107</v>
+        <v>117.52</v>
       </c>
       <c r="C268">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D268">
-        <v>-65.55</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44129</v>
+        <v>44250</v>
       </c>
       <c r="B269">
-        <v>105.42</v>
+        <v>115.96</v>
       </c>
       <c r="C269">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D269">
-        <v>-66.06</v>
+        <v>-46.95</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44130</v>
+        <v>44251</v>
       </c>
       <c r="B270">
-        <v>105.04</v>
+        <v>115.92</v>
       </c>
       <c r="C270">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D270">
-        <v>-66.19</v>
+        <v>-46.97</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44131</v>
+        <v>44252</v>
       </c>
       <c r="B271">
-        <v>105.21</v>
+        <v>115.26</v>
       </c>
       <c r="C271">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D271">
-        <v>-66.13</v>
+        <v>-47.27</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44132</v>
+        <v>44253</v>
       </c>
       <c r="B272">
-        <v>104.96</v>
+        <v>113.61</v>
       </c>
       <c r="C272">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D272">
-        <v>-66.20999999999999</v>
+        <v>-48.02</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44133</v>
+        <v>44254</v>
       </c>
       <c r="B273">
-        <v>104.55</v>
+        <v>112.57</v>
       </c>
       <c r="C273">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D273">
-        <v>-66.34</v>
+        <v>-48.5</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44134</v>
+        <v>44255</v>
       </c>
       <c r="B274">
-        <v>103.62</v>
+        <v>114.67</v>
       </c>
       <c r="C274">
-        <v>310.64</v>
+        <v>218.57</v>
       </c>
       <c r="D274">
-        <v>-66.64</v>
+        <v>-47.54</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44135</v>
+        <v>44256</v>
       </c>
       <c r="B275">
-        <v>103.04</v>
+        <v>112.92</v>
       </c>
       <c r="C275">
-        <v>310.64</v>
+        <v>180.39</v>
       </c>
       <c r="D275">
-        <v>-66.83</v>
+        <v>-37.4</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44136</v>
+        <v>44257</v>
       </c>
       <c r="B276">
-        <v>102.74</v>
+        <v>111.74</v>
       </c>
       <c r="C276">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D276">
-        <v>-59.55</v>
+        <v>-38.06</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44137</v>
+        <v>44258</v>
       </c>
       <c r="B277">
-        <v>102.61</v>
+        <v>111.36</v>
       </c>
       <c r="C277">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D277">
-        <v>-59.61</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44138</v>
+        <v>44259</v>
       </c>
       <c r="B278">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C278">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D278">
-        <v>-59.45</v>
+        <v>-38.47</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44139</v>
+        <v>44260</v>
       </c>
       <c r="B279">
-        <v>102.5</v>
+        <v>110.48</v>
       </c>
       <c r="C279">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D279">
-        <v>-59.65</v>
+        <v>-38.75</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44140</v>
+        <v>44261</v>
       </c>
       <c r="B280">
-        <v>102.32</v>
+        <v>112.57</v>
       </c>
       <c r="C280">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D280">
-        <v>-59.72</v>
+        <v>-37.6</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44141</v>
+        <v>44262</v>
       </c>
       <c r="B281">
-        <v>101.22</v>
+        <v>121.96</v>
       </c>
       <c r="C281">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D281">
-        <v>-60.15</v>
+        <v>-32.39</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B282" t="s">
-        <v>4</v>
+        <v>44263</v>
+      </c>
+      <c r="B282">
+        <v>120.39</v>
       </c>
       <c r="C282">
-        <v>254.02</v>
-      </c>
-      <c r="D282" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D282">
+        <v>-33.26</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B283" t="s">
-        <v>4</v>
+        <v>44264</v>
+      </c>
+      <c r="B283">
+        <v>115.78</v>
       </c>
       <c r="C283">
-        <v>254.02</v>
-      </c>
-      <c r="D283" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D283">
+        <v>-35.81</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44144</v>
+        <v>44265</v>
       </c>
       <c r="B284">
-        <v>100</v>
+        <v>112.52</v>
       </c>
       <c r="C284">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D284">
-        <v>-60.63</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44145</v>
+        <v>44266</v>
       </c>
       <c r="B285">
-        <v>100</v>
+        <v>109.88</v>
       </c>
       <c r="C285">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D285">
-        <v>-60.63</v>
+        <v>-39.09</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44146</v>
+        <v>44267</v>
       </c>
       <c r="B286">
-        <v>101.22</v>
+        <v>108.25</v>
       </c>
       <c r="C286">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D286">
-        <v>-60.15</v>
+        <v>-39.99</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44147</v>
+        <v>44268</v>
       </c>
       <c r="B287">
-        <v>101.3</v>
+        <v>106.58</v>
       </c>
       <c r="C287">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D287">
-        <v>-60.12</v>
+        <v>-40.91</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44148</v>
+        <v>44269</v>
       </c>
       <c r="B288">
-        <v>103.05</v>
+        <v>105.36</v>
       </c>
       <c r="C288">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D288">
-        <v>-59.43</v>
+        <v>-41.59</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44149</v>
+        <v>44270</v>
       </c>
       <c r="B289">
-        <v>104.87</v>
+        <v>104.39</v>
       </c>
       <c r="C289">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D289">
-        <v>-58.72</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44150</v>
+        <v>44271</v>
       </c>
       <c r="B290">
-        <v>108.87</v>
+        <v>103.86</v>
       </c>
       <c r="C290">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D290">
-        <v>-57.14</v>
+        <v>-42.42</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44151</v>
+        <v>44272</v>
       </c>
       <c r="B291">
-        <v>110.61</v>
+        <v>105.35</v>
       </c>
       <c r="C291">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D291">
-        <v>-56.46</v>
+        <v>-41.6</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44152</v>
+        <v>44273</v>
       </c>
       <c r="B292">
-        <v>107.83</v>
+        <v>107</v>
       </c>
       <c r="C292">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D292">
-        <v>-57.55</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44153</v>
+        <v>44274</v>
       </c>
       <c r="B293">
-        <v>106</v>
+        <v>105.67</v>
       </c>
       <c r="C293">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D293">
-        <v>-58.27</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44154</v>
+        <v>44275</v>
       </c>
       <c r="B294">
-        <v>105.5</v>
+        <v>105.39</v>
       </c>
       <c r="C294">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D294">
-        <v>-58.47</v>
+        <v>-41.57</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44155</v>
+        <v>44276</v>
       </c>
       <c r="B295">
-        <v>104.12</v>
+        <v>106</v>
       </c>
       <c r="C295">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D295">
-        <v>-59.01</v>
+        <v>-41.24</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44156</v>
+        <v>44277</v>
       </c>
       <c r="B296">
-        <v>102.5</v>
+        <v>106.35</v>
       </c>
       <c r="C296">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D296">
-        <v>-59.65</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44157</v>
+        <v>44278</v>
       </c>
       <c r="B297">
-        <v>101.33</v>
+        <v>106.57</v>
       </c>
       <c r="C297">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D297">
-        <v>-60.11</v>
+        <v>-40.92</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44158</v>
+        <v>44279</v>
       </c>
       <c r="B298">
-        <v>100.5</v>
+        <v>117.06</v>
       </c>
       <c r="C298">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D298">
-        <v>-60.44</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44159</v>
-      </c>
-      <c r="B299" t="s">
-        <v>4</v>
+        <v>44280</v>
+      </c>
+      <c r="B299">
+        <v>121.53</v>
       </c>
       <c r="C299">
-        <v>254.02</v>
-      </c>
-      <c r="D299" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D299">
+        <v>-32.63</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B300" t="s">
-        <v>4</v>
+        <v>44281</v>
+      </c>
+      <c r="B300">
+        <v>120.71</v>
       </c>
       <c r="C300">
-        <v>254.02</v>
-      </c>
-      <c r="D300" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D300">
+        <v>-33.08</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44161</v>
-      </c>
-      <c r="B301" t="s">
-        <v>4</v>
+        <v>44282</v>
+      </c>
+      <c r="B301">
+        <v>118.65</v>
       </c>
       <c r="C301">
-        <v>254.02</v>
-      </c>
-      <c r="D301" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D301">
+        <v>-34.23</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B302" t="s">
-        <v>4</v>
+        <v>44283</v>
+      </c>
+      <c r="B302">
+        <v>137.8</v>
       </c>
       <c r="C302">
-        <v>254.02</v>
-      </c>
-      <c r="D302" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D302">
+        <v>-23.61</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B303" t="s">
-        <v>4</v>
+        <v>44284</v>
+      </c>
+      <c r="B303">
+        <v>131.52</v>
       </c>
       <c r="C303">
-        <v>254.02</v>
-      </c>
-      <c r="D303" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D303">
+        <v>-27.09</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44164</v>
-      </c>
-      <c r="B304" t="s">
-        <v>4</v>
+        <v>44285</v>
+      </c>
+      <c r="B304">
+        <v>124.32</v>
       </c>
       <c r="C304">
-        <v>254.02</v>
-      </c>
-      <c r="D304" t="s">
-        <v>4</v>
+        <v>180.39</v>
+      </c>
+      <c r="D304">
+        <v>-31.08</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44165</v>
+        <v>44286</v>
       </c>
       <c r="B305">
-        <v>102.45</v>
+        <v>120.16</v>
       </c>
       <c r="C305">
-        <v>254.02</v>
+        <v>180.39</v>
       </c>
       <c r="D305">
-        <v>-59.67</v>
+        <v>-33.39</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44166</v>
+        <v>44287</v>
       </c>
       <c r="B306">
-        <v>110.96</v>
+        <v>116.18</v>
       </c>
       <c r="C306">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D306">
-        <v>-49.03</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44167</v>
+        <v>44288</v>
       </c>
       <c r="B307">
-        <v>108.2</v>
+        <v>113.53</v>
       </c>
       <c r="C307">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D307">
-        <v>-50.3</v>
+        <v>-42.82</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44168</v>
-      </c>
-      <c r="B308" t="s">
-        <v>4</v>
+        <v>44289</v>
+      </c>
+      <c r="B308">
+        <v>111.07</v>
       </c>
       <c r="C308">
-        <v>217.71</v>
-      </c>
-      <c r="D308" t="s">
-        <v>4</v>
+        <v>198.56</v>
+      </c>
+      <c r="D308">
+        <v>-44.06</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44169</v>
+        <v>44290</v>
       </c>
       <c r="B309">
-        <v>212.43</v>
+        <v>109.42</v>
       </c>
       <c r="C309">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D309">
-        <v>-2.42</v>
+        <v>-44.89</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44170</v>
+        <v>44291</v>
       </c>
       <c r="B310">
-        <v>237</v>
+        <v>107.68</v>
       </c>
       <c r="C310">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D310">
-        <v>8.859999999999999</v>
+        <v>-45.77</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44171</v>
+        <v>44292</v>
       </c>
       <c r="B311">
-        <v>239.43</v>
+        <v>106.42</v>
       </c>
       <c r="C311">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D311">
-        <v>9.98</v>
+        <v>-46.4</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44172</v>
+        <v>44293</v>
       </c>
       <c r="B312">
-        <v>198.12</v>
+        <v>105.42</v>
       </c>
       <c r="C312">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D312">
-        <v>-8.99</v>
+        <v>-46.91</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44173</v>
+        <v>44294</v>
       </c>
       <c r="B313">
-        <v>172.87</v>
+        <v>104.43</v>
       </c>
       <c r="C313">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D313">
-        <v>-20.6</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44174</v>
+        <v>44295</v>
       </c>
       <c r="B314">
-        <v>154.79</v>
+        <v>103.38</v>
       </c>
       <c r="C314">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D314">
-        <v>-28.9</v>
+        <v>-47.94</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44175</v>
+        <v>44296</v>
       </c>
       <c r="B315">
-        <v>142.91</v>
+        <v>102.43</v>
       </c>
       <c r="C315">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D315">
-        <v>-34.36</v>
+        <v>-48.41</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44176</v>
+        <v>44297</v>
       </c>
       <c r="B316">
-        <v>134.39</v>
+        <v>101.45</v>
       </c>
       <c r="C316">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D316">
-        <v>-38.27</v>
+        <v>-48.91</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44177</v>
+        <v>44298</v>
       </c>
       <c r="B317">
-        <v>128.08</v>
+        <v>100.96</v>
       </c>
       <c r="C317">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D317">
-        <v>-41.17</v>
+        <v>-49.16</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44178</v>
+        <v>44299</v>
       </c>
       <c r="B318">
-        <v>123.7</v>
+        <v>100.43</v>
       </c>
       <c r="C318">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D318">
-        <v>-43.18</v>
+        <v>-49.42</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44179</v>
+        <v>44300</v>
       </c>
       <c r="B319">
-        <v>121.57</v>
+        <v>100</v>
       </c>
       <c r="C319">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D319">
-        <v>-44.16</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44180</v>
-      </c>
-      <c r="B320">
-        <v>119.17</v>
+        <v>44301</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
       </c>
       <c r="C320">
-        <v>217.71</v>
-      </c>
-      <c r="D320">
-        <v>-45.26</v>
+        <v>198.56</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44181</v>
+        <v>44302</v>
       </c>
       <c r="B321">
-        <v>117.43</v>
+        <v>100</v>
       </c>
       <c r="C321">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D321">
-        <v>-46.06</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44182</v>
+        <v>44303</v>
       </c>
       <c r="B322">
-        <v>117.87</v>
+        <v>100</v>
       </c>
       <c r="C322">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D322">
-        <v>-45.86</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44183</v>
-      </c>
-      <c r="B323">
-        <v>116.58</v>
+        <v>44304</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>217.71</v>
-      </c>
-      <c r="D323">
-        <v>-46.45</v>
+        <v>198.56</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44184</v>
-      </c>
-      <c r="B324">
-        <v>114.57</v>
+        <v>44305</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
       </c>
       <c r="C324">
-        <v>217.71</v>
-      </c>
-      <c r="D324">
-        <v>-47.37</v>
+        <v>198.56</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44185</v>
+        <v>44306</v>
       </c>
       <c r="B325">
-        <v>125.16</v>
+        <v>101.55</v>
       </c>
       <c r="C325">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D325">
-        <v>-42.51</v>
+        <v>-48.86</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44186</v>
+        <v>44307</v>
       </c>
       <c r="B326">
-        <v>134.33</v>
+        <v>101.52</v>
       </c>
       <c r="C326">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D326">
-        <v>-38.3</v>
+        <v>-48.87</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44187</v>
+        <v>44308</v>
       </c>
       <c r="B327">
-        <v>137.62</v>
+        <v>100.36</v>
       </c>
       <c r="C327">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D327">
-        <v>-36.78</v>
+        <v>-49.46</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44188</v>
+        <v>44309</v>
       </c>
       <c r="B328">
-        <v>135.09</v>
+        <v>100</v>
       </c>
       <c r="C328">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D328">
-        <v>-37.95</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44189</v>
+        <v>44310</v>
       </c>
       <c r="B329">
-        <v>126.17</v>
+        <v>100</v>
       </c>
       <c r="C329">
-        <v>217.71</v>
+        <v>198.56</v>
       </c>
       <c r="D329">
-        <v>-42.05</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44190</v>
-      </c>
-      <c r="B330">
-        <v>120.33</v>
+        <v>44311</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
       </c>
       <c r="C330">
-        <v>217.71</v>
-      </c>
-      <c r="D330">
-        <v>-44.73</v>
+        <v>198.56</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44191</v>
-      </c>
-      <c r="B331">
-        <v>116.42</v>
+        <v>44312</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
       </c>
       <c r="C331">
-        <v>217.71</v>
-      </c>
-      <c r="D331">
-        <v>-46.53</v>
+        <v>198.56</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44192</v>
-      </c>
-      <c r="B332">
-        <v>113.12</v>
+        <v>44313</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>217.71</v>
-      </c>
-      <c r="D332">
-        <v>-48.04</v>
+        <v>198.56</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44193</v>
-      </c>
-      <c r="B333">
-        <v>110.87</v>
+        <v>44314</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
       </c>
       <c r="C333">
-        <v>217.71</v>
-      </c>
-      <c r="D333">
-        <v>-49.07</v>
+        <v>198.56</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44194</v>
-      </c>
-      <c r="B334">
-        <v>114.75</v>
+        <v>44315</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
       </c>
       <c r="C334">
-        <v>217.71</v>
-      </c>
-      <c r="D334">
-        <v>-47.29</v>
+        <v>198.56</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44195</v>
-      </c>
-      <c r="B335">
-        <v>133.78</v>
+        <v>44316</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
       </c>
       <c r="C335">
-        <v>217.71</v>
-      </c>
-      <c r="D335">
-        <v>-38.55</v>
+        <v>198.56</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B336">
-        <v>131</v>
+        <v>44317</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
       </c>
       <c r="C336">
-        <v>217.71</v>
-      </c>
-      <c r="D336">
-        <v>-39.83</v>
+        <v>279.37</v>
+      </c>
+      <c r="D336" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B337">
-        <v>133.3</v>
+        <v>44318</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
       </c>
       <c r="C337">
-        <v>205.8</v>
-      </c>
-      <c r="D337">
-        <v>-35.23</v>
+        <v>279.37</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B338">
-        <v>128.35</v>
+        <v>44319</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
       </c>
       <c r="C338">
-        <v>205.8</v>
-      </c>
-      <c r="D338">
-        <v>-37.63</v>
+        <v>279.37</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B339">
-        <v>121.75</v>
+        <v>44320</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
       </c>
       <c r="C339">
-        <v>205.8</v>
-      </c>
-      <c r="D339">
-        <v>-40.84</v>
+        <v>279.37</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B340">
-        <v>117.79</v>
+        <v>44321</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
       </c>
       <c r="C340">
-        <v>205.8</v>
-      </c>
-      <c r="D340">
-        <v>-42.76</v>
+        <v>279.37</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B341">
-        <v>116.54</v>
+        <v>44322</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
       </c>
       <c r="C341">
-        <v>205.8</v>
-      </c>
-      <c r="D341">
-        <v>-43.37</v>
+        <v>279.37</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B342">
-        <v>118.83</v>
+        <v>44323</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
       </c>
       <c r="C342">
-        <v>205.8</v>
-      </c>
-      <c r="D342">
-        <v>-42.26</v>
+        <v>279.37</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44203</v>
+        <v>44324</v>
       </c>
       <c r="B343">
-        <v>117.91</v>
+        <v>100.41</v>
       </c>
       <c r="C343">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D343">
-        <v>-42.7</v>
+        <v>-64.06</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44204</v>
+        <v>44325</v>
       </c>
       <c r="B344">
-        <v>116.79</v>
+        <v>100</v>
       </c>
       <c r="C344">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D344">
-        <v>-43.25</v>
+        <v>-64.20999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B345">
-        <v>117.38</v>
+        <v>44326</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>205.8</v>
-      </c>
-      <c r="D345">
-        <v>-42.97</v>
+        <v>279.37</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B346">
-        <v>116.62</v>
+        <v>44327</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
       </c>
       <c r="C346">
-        <v>205.8</v>
-      </c>
-      <c r="D346">
-        <v>-43.34</v>
+        <v>279.37</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44207</v>
+        <v>44328</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
       </c>
       <c r="C347">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D347" t="s">
         <v>4</v>
@@ -5478,492 +5464,268 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44208</v>
+        <v>44329</v>
       </c>
       <c r="B348">
-        <v>113.16</v>
+        <v>100</v>
       </c>
       <c r="C348">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D348">
-        <v>-45.02</v>
+        <v>-64.20999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44209</v>
+        <v>44330</v>
       </c>
       <c r="B349">
-        <v>117.27</v>
+        <v>100</v>
       </c>
       <c r="C349">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D349">
-        <v>-43.02</v>
+        <v>-64.20999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B350">
-        <v>122.09</v>
+        <v>44331</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
       </c>
       <c r="C350">
-        <v>205.8</v>
-      </c>
-      <c r="D350">
-        <v>-40.68</v>
+        <v>279.37</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B351">
-        <v>118.79</v>
+        <v>44332</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
       </c>
       <c r="C351">
-        <v>205.8</v>
-      </c>
-      <c r="D351">
-        <v>-42.28</v>
+        <v>279.37</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44212</v>
-      </c>
-      <c r="B352">
-        <v>127.55</v>
+        <v>44333</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
       </c>
       <c r="C352">
-        <v>205.8</v>
-      </c>
-      <c r="D352">
-        <v>-38.02</v>
+        <v>279.37</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44213</v>
-      </c>
-      <c r="B353">
-        <v>162.61</v>
+        <v>44334</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
       </c>
       <c r="C353">
-        <v>205.8</v>
-      </c>
-      <c r="D353">
-        <v>-20.99</v>
+        <v>279.37</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44214</v>
-      </c>
-      <c r="B354">
-        <v>201.26</v>
+        <v>44335</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
       </c>
       <c r="C354">
-        <v>205.8</v>
-      </c>
-      <c r="D354">
-        <v>-2.21</v>
+        <v>279.37</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44215</v>
-      </c>
-      <c r="B355">
-        <v>196.3</v>
+        <v>44336</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
       </c>
       <c r="C355">
-        <v>205.8</v>
-      </c>
-      <c r="D355">
-        <v>-4.61</v>
+        <v>279.37</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44216</v>
-      </c>
-      <c r="B356">
-        <v>219.22</v>
+        <v>44337</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
       </c>
       <c r="C356">
-        <v>205.8</v>
-      </c>
-      <c r="D356">
-        <v>6.52</v>
+        <v>279.37</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44217</v>
-      </c>
-      <c r="B357">
-        <v>442.7</v>
+        <v>44338</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
       </c>
       <c r="C357">
-        <v>205.8</v>
-      </c>
-      <c r="D357">
-        <v>115.11</v>
+        <v>279.37</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44218</v>
+        <v>44339</v>
       </c>
       <c r="B358">
-        <v>464.91</v>
+        <v>100.87</v>
       </c>
       <c r="C358">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D358">
-        <v>125.9</v>
+        <v>-63.9</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44219</v>
+        <v>44340</v>
       </c>
       <c r="B359">
-        <v>289.78</v>
+        <v>107.61</v>
       </c>
       <c r="C359">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D359">
-        <v>40.81</v>
+        <v>-61.48</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44220</v>
+        <v>44341</v>
       </c>
       <c r="B360">
-        <v>241.91</v>
+        <v>113.91</v>
       </c>
       <c r="C360">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D360">
-        <v>17.55</v>
+        <v>-59.23</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44221</v>
+        <v>44342</v>
       </c>
       <c r="B361">
-        <v>255.58</v>
+        <v>108.48</v>
       </c>
       <c r="C361">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D361">
-        <v>24.19</v>
+        <v>-61.17</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44222</v>
+        <v>44343</v>
       </c>
       <c r="B362">
-        <v>640.62</v>
+        <v>105.18</v>
       </c>
       <c r="C362">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D362">
-        <v>211.29</v>
+        <v>-62.35</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44223</v>
+        <v>44344</v>
       </c>
       <c r="B363">
-        <v>846.26</v>
+        <v>103.14</v>
       </c>
       <c r="C363">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D363">
-        <v>311.21</v>
+        <v>-63.08</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44224</v>
+        <v>44345</v>
       </c>
       <c r="B364">
-        <v>500.25</v>
+        <v>101</v>
       </c>
       <c r="C364">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D364">
-        <v>143.08</v>
+        <v>-63.85</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44225</v>
+        <v>44346</v>
       </c>
       <c r="B365">
-        <v>835.04</v>
+        <v>101.79</v>
       </c>
       <c r="C365">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D365">
-        <v>305.76</v>
+        <v>-63.56</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44226</v>
+        <v>44347</v>
       </c>
       <c r="B366">
-        <v>1167.7</v>
+        <v>101.55</v>
       </c>
       <c r="C366">
-        <v>205.8</v>
+        <v>279.37</v>
       </c>
       <c r="D366">
-        <v>467.4</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B367">
-        <v>1146.88</v>
-      </c>
-      <c r="C367">
-        <v>205.8</v>
-      </c>
-      <c r="D367">
-        <v>457.28</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B368">
-        <v>1319.09</v>
-      </c>
-      <c r="C368">
-        <v>218.57</v>
-      </c>
-      <c r="D368">
-        <v>503.51</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44229</v>
-      </c>
-      <c r="B369">
-        <v>1108.52</v>
-      </c>
-      <c r="C369">
-        <v>218.57</v>
-      </c>
-      <c r="D369">
-        <v>407.17</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44230</v>
-      </c>
-      <c r="B370">
-        <v>599</v>
-      </c>
-      <c r="C370">
-        <v>218.57</v>
-      </c>
-      <c r="D370">
-        <v>174.05</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B371">
-        <v>336.09</v>
-      </c>
-      <c r="C371">
-        <v>218.57</v>
-      </c>
-      <c r="D371">
-        <v>53.77</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44232</v>
-      </c>
-      <c r="B372">
-        <v>255.25</v>
-      </c>
-      <c r="C372">
-        <v>218.57</v>
-      </c>
-      <c r="D372">
-        <v>16.78</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44233</v>
-      </c>
-      <c r="B373">
-        <v>215.83</v>
-      </c>
-      <c r="C373">
-        <v>218.57</v>
-      </c>
-      <c r="D373">
-        <v>-1.26</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44234</v>
-      </c>
-      <c r="B374">
-        <v>192.58</v>
-      </c>
-      <c r="C374">
-        <v>218.57</v>
-      </c>
-      <c r="D374">
-        <v>-11.89</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B375">
-        <v>177.7</v>
-      </c>
-      <c r="C375">
-        <v>218.57</v>
-      </c>
-      <c r="D375">
-        <v>-18.7</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44236</v>
-      </c>
-      <c r="B376">
-        <v>166.55</v>
-      </c>
-      <c r="C376">
-        <v>218.57</v>
-      </c>
-      <c r="D376">
-        <v>-23.8</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44237</v>
-      </c>
-      <c r="B377">
-        <v>157.45</v>
-      </c>
-      <c r="C377">
-        <v>218.57</v>
-      </c>
-      <c r="D377">
-        <v>-27.96</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B378">
-        <v>151</v>
-      </c>
-      <c r="C378">
-        <v>218.57</v>
-      </c>
-      <c r="D378">
-        <v>-30.91</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44239</v>
-      </c>
-      <c r="B379">
-        <v>151.04</v>
-      </c>
-      <c r="C379">
-        <v>218.57</v>
-      </c>
-      <c r="D379">
-        <v>-30.9</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44240</v>
-      </c>
-      <c r="B380">
-        <v>146.29</v>
-      </c>
-      <c r="C380">
-        <v>218.57</v>
-      </c>
-      <c r="D380">
-        <v>-33.07</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44241</v>
-      </c>
-      <c r="B381">
-        <v>140.41</v>
-      </c>
-      <c r="C381">
-        <v>218.57</v>
-      </c>
-      <c r="D381">
-        <v>-35.76</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B382">
-        <v>136.09</v>
-      </c>
-      <c r="C382">
-        <v>218.57</v>
-      </c>
-      <c r="D382">
-        <v>-37.74</v>
+        <v>-63.65</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65981500_ponte_do_capanema.xlsx
@@ -420,170 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B2">
-        <v>290.18</v>
+        <v>206.22</v>
       </c>
       <c r="C2">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D2">
-        <v>18.47</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B3">
-        <v>206.22</v>
+        <v>141.47</v>
       </c>
       <c r="C3">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D3">
-        <v>2.99</v>
+        <v>-25.72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B4">
-        <v>141.47</v>
+        <v>114.56</v>
       </c>
       <c r="C4">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D4">
-        <v>-25.72</v>
+        <v>-46.99</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B5">
-        <v>114.56</v>
+        <v>111.67</v>
       </c>
       <c r="C5">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D5">
-        <v>-46.99</v>
+        <v>-64.05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B6">
-        <v>111.67</v>
+        <v>103.39</v>
       </c>
       <c r="C6">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D6">
-        <v>-64.05</v>
+        <v>-59.3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B7">
-        <v>103.39</v>
+        <v>138.96</v>
       </c>
       <c r="C7">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D7">
-        <v>-59.3</v>
+        <v>-36.17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B8">
-        <v>138.96</v>
+        <v>313.84</v>
       </c>
       <c r="C8">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D8">
-        <v>-36.17</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B9">
-        <v>313.84</v>
+        <v>243.22</v>
       </c>
       <c r="C9">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D9">
-        <v>52.5</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44255</v>
+        <v>44286</v>
       </c>
       <c r="B10">
-        <v>243.22</v>
+        <v>113.33</v>
       </c>
       <c r="C10">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D10">
-        <v>11.28</v>
+        <v>-37.18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B11">
-        <v>113.33</v>
+        <v>104.11</v>
       </c>
       <c r="C11">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D11">
-        <v>-37.18</v>
+        <v>-47.57</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B12">
-        <v>104.11</v>
+        <v>103.38</v>
       </c>
       <c r="C12">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D12">
-        <v>-47.57</v>
+        <v>-63</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B13">
-        <v>103.38</v>
+        <v>121.76</v>
       </c>
       <c r="C13">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D13">
-        <v>-63</v>
+        <v>-50.29</v>
       </c>
     </row>
   </sheetData>
@@ -620,4465 +620,4465 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>154.91</v>
+        <v>423.55</v>
       </c>
       <c r="C2">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D2">
-        <v>-36.75</v>
+        <v>111.53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B3">
-        <v>151.12</v>
+        <v>328.33</v>
       </c>
       <c r="C3">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D3">
-        <v>-38.3</v>
+        <v>63.98</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>147.13</v>
+        <v>226.71</v>
       </c>
       <c r="C4">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D4">
-        <v>-39.93</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>162.35</v>
+        <v>194</v>
       </c>
       <c r="C5">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D5">
-        <v>-33.72</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>345.83</v>
+        <v>175.86</v>
       </c>
       <c r="C6">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D6">
-        <v>41.2</v>
+        <v>-12.17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B7">
-        <v>739.29</v>
+        <v>165.5</v>
       </c>
       <c r="C7">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D7">
-        <v>201.84</v>
+        <v>-17.34</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B8">
-        <v>710.09</v>
+        <v>219</v>
       </c>
       <c r="C8">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D8">
-        <v>189.92</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B9">
-        <v>379.62</v>
+        <v>241.1</v>
       </c>
       <c r="C9">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>20.41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B10">
-        <v>298.71</v>
+        <v>713.8200000000001</v>
       </c>
       <c r="C10">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D10">
-        <v>21.96</v>
+        <v>256.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B11">
-        <v>558.79</v>
+        <v>476.5</v>
       </c>
       <c r="C11">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D11">
-        <v>128.15</v>
+        <v>137.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B12">
-        <v>814.14</v>
+        <v>282.25</v>
       </c>
       <c r="C12">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D12">
-        <v>232.4</v>
+        <v>40.97</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B13">
-        <v>728.45</v>
+        <v>228.22</v>
       </c>
       <c r="C13">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D13">
-        <v>197.42</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B14">
-        <v>431.62</v>
+        <v>200.92</v>
       </c>
       <c r="C14">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D14">
-        <v>76.23</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B15">
-        <v>334.87</v>
+        <v>185.88</v>
       </c>
       <c r="C15">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D15">
-        <v>36.72</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B16">
-        <v>302.32</v>
+        <v>172.79</v>
       </c>
       <c r="C16">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D16">
-        <v>23.43</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B17">
-        <v>248.77</v>
+        <v>161.87</v>
       </c>
       <c r="C17">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D17">
-        <v>1.57</v>
+        <v>-19.16</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B18">
-        <v>212.46</v>
+        <v>154.83</v>
       </c>
       <c r="C18">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D18">
-        <v>-13.26</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B19">
-        <v>192.17</v>
+        <v>149.38</v>
       </c>
       <c r="C19">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D19">
-        <v>-21.54</v>
+        <v>-25.4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B20">
-        <v>178.78</v>
+        <v>143.67</v>
       </c>
       <c r="C20">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D20">
-        <v>-27.01</v>
+        <v>-28.25</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B21">
-        <v>168.39</v>
+        <v>139.09</v>
       </c>
       <c r="C21">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D21">
-        <v>-31.25</v>
+        <v>-30.53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B22">
-        <v>160.26</v>
+        <v>135.48</v>
       </c>
       <c r="C22">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D22">
-        <v>-34.57</v>
+        <v>-32.34</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B23">
-        <v>153.32</v>
+        <v>132.38</v>
       </c>
       <c r="C23">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D23">
-        <v>-37.4</v>
+        <v>-33.89</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B24">
-        <v>148.04</v>
+        <v>130.05</v>
       </c>
       <c r="C24">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D24">
-        <v>-39.56</v>
+        <v>-35.05</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B25">
-        <v>143.61</v>
+        <v>127.9</v>
       </c>
       <c r="C25">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D25">
-        <v>-41.37</v>
+        <v>-36.12</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B26">
-        <v>140.36</v>
+        <v>126.09</v>
       </c>
       <c r="C26">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D26">
-        <v>-42.69</v>
+        <v>-37.03</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B27">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C27">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D27">
-        <v>-43.25</v>
+        <v>-37.57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B28">
-        <v>141.58</v>
+        <v>124.35</v>
       </c>
       <c r="C28">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D28">
-        <v>-42.19</v>
+        <v>-37.9</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B29">
-        <v>139.08</v>
+        <v>124.22</v>
       </c>
       <c r="C29">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D29">
-        <v>-43.21</v>
+        <v>-37.96</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B30">
-        <v>135.57</v>
+        <v>123.42</v>
       </c>
       <c r="C30">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D30">
-        <v>-44.65</v>
+        <v>-38.36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B31">
-        <v>144.63</v>
+        <v>128.32</v>
       </c>
       <c r="C31">
-        <v>244.93</v>
+        <v>200.23</v>
       </c>
       <c r="D31">
-        <v>-40.95</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B32">
-        <v>423.55</v>
+        <v>132.45</v>
       </c>
       <c r="C32">
         <v>200.23</v>
       </c>
       <c r="D32">
-        <v>111.53</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B33">
-        <v>328.33</v>
+        <v>126.96</v>
       </c>
       <c r="C33">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D33">
-        <v>63.98</v>
+        <v>-33.34</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B34">
-        <v>226.71</v>
+        <v>123.71</v>
       </c>
       <c r="C34">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D34">
-        <v>13.23</v>
+        <v>-35.04</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B35">
-        <v>194</v>
+        <v>121.35</v>
       </c>
       <c r="C35">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D35">
-        <v>-3.11</v>
+        <v>-36.28</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B36">
-        <v>175.86</v>
+        <v>119.52</v>
       </c>
       <c r="C36">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D36">
-        <v>-12.17</v>
+        <v>-37.24</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B37">
-        <v>165.5</v>
+        <v>118.38</v>
       </c>
       <c r="C37">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D37">
-        <v>-17.34</v>
+        <v>-37.84</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44019</v>
-      </c>
-      <c r="B38">
-        <v>219</v>
+        <v>44049</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>200.23</v>
-      </c>
-      <c r="D38">
-        <v>9.380000000000001</v>
+        <v>190.45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44020</v>
-      </c>
-      <c r="B39">
-        <v>241.1</v>
+        <v>44050</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>200.23</v>
-      </c>
-      <c r="D39">
-        <v>20.41</v>
+        <v>190.45</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44021</v>
-      </c>
-      <c r="B40">
-        <v>713.8200000000001</v>
+        <v>44051</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>200.23</v>
-      </c>
-      <c r="D40">
-        <v>256.5</v>
+        <v>190.45</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44022</v>
-      </c>
-      <c r="B41">
-        <v>476.5</v>
+        <v>44052</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>200.23</v>
-      </c>
-      <c r="D41">
-        <v>137.98</v>
+        <v>190.45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44023</v>
-      </c>
-      <c r="B42">
-        <v>282.25</v>
+        <v>44053</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>200.23</v>
-      </c>
-      <c r="D42">
-        <v>40.97</v>
+        <v>190.45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44024</v>
-      </c>
-      <c r="B43">
-        <v>228.22</v>
+        <v>44054</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>200.23</v>
-      </c>
-      <c r="D43">
-        <v>13.98</v>
+        <v>190.45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44025</v>
-      </c>
-      <c r="B44">
-        <v>200.92</v>
+        <v>44055</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>200.23</v>
-      </c>
-      <c r="D44">
-        <v>0.34</v>
+        <v>190.45</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44026</v>
-      </c>
-      <c r="B45">
-        <v>185.88</v>
+        <v>44056</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>200.23</v>
-      </c>
-      <c r="D45">
-        <v>-7.17</v>
+        <v>190.45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44027</v>
-      </c>
-      <c r="B46">
-        <v>172.79</v>
+        <v>44057</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>200.23</v>
-      </c>
-      <c r="D46">
-        <v>-13.7</v>
+        <v>190.45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44028</v>
-      </c>
-      <c r="B47">
-        <v>161.87</v>
+        <v>44058</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>200.23</v>
-      </c>
-      <c r="D47">
-        <v>-19.16</v>
+        <v>190.45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44029</v>
-      </c>
-      <c r="B48">
-        <v>154.83</v>
+        <v>44059</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>200.23</v>
-      </c>
-      <c r="D48">
-        <v>-22.67</v>
+        <v>190.45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44030</v>
-      </c>
-      <c r="B49">
-        <v>149.38</v>
+        <v>44060</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>200.23</v>
-      </c>
-      <c r="D49">
-        <v>-25.4</v>
+        <v>190.45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44031</v>
-      </c>
-      <c r="B50">
-        <v>143.67</v>
+        <v>44061</v>
+      </c>
+      <c r="B50" t="s">
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>200.23</v>
-      </c>
-      <c r="D50">
-        <v>-28.25</v>
+        <v>190.45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44032</v>
-      </c>
-      <c r="B51">
-        <v>139.09</v>
+        <v>44062</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>200.23</v>
-      </c>
-      <c r="D51">
-        <v>-30.53</v>
+        <v>190.45</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44033</v>
-      </c>
-      <c r="B52">
-        <v>135.48</v>
+        <v>44063</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>200.23</v>
-      </c>
-      <c r="D52">
-        <v>-32.34</v>
+        <v>190.45</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44034</v>
-      </c>
-      <c r="B53">
-        <v>132.38</v>
+        <v>44064</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>200.23</v>
-      </c>
-      <c r="D53">
-        <v>-33.89</v>
+        <v>190.45</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44035</v>
-      </c>
-      <c r="B54">
-        <v>130.05</v>
+        <v>44065</v>
+      </c>
+      <c r="B54" t="s">
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>200.23</v>
-      </c>
-      <c r="D54">
-        <v>-35.05</v>
+        <v>190.45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44036</v>
-      </c>
-      <c r="B55">
-        <v>127.9</v>
+        <v>44066</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>200.23</v>
-      </c>
-      <c r="D55">
-        <v>-36.12</v>
+        <v>190.45</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B56">
-        <v>126.09</v>
+        <v>184.58</v>
       </c>
       <c r="C56">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D56">
-        <v>-37.03</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B57">
-        <v>125</v>
+        <v>173.74</v>
       </c>
       <c r="C57">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D57">
-        <v>-37.57</v>
+        <v>-8.77</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B58">
-        <v>124.35</v>
+        <v>161.74</v>
       </c>
       <c r="C58">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D58">
-        <v>-37.9</v>
+        <v>-15.07</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B59">
-        <v>124.22</v>
+        <v>152.73</v>
       </c>
       <c r="C59">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D59">
-        <v>-37.96</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B60">
-        <v>123.42</v>
+        <v>146.17</v>
       </c>
       <c r="C60">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D60">
-        <v>-38.36</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B61">
-        <v>128.32</v>
+        <v>140.86</v>
       </c>
       <c r="C61">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D61">
-        <v>-35.91</v>
+        <v>-26.04</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B62">
-        <v>132.45</v>
+        <v>136.46</v>
       </c>
       <c r="C62">
-        <v>200.23</v>
+        <v>190.45</v>
       </c>
       <c r="D62">
-        <v>-33.85</v>
+        <v>-28.35</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B63">
-        <v>126.96</v>
+        <v>132.92</v>
       </c>
       <c r="C63">
         <v>190.45</v>
       </c>
       <c r="D63">
-        <v>-33.34</v>
+        <v>-30.21</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B64">
-        <v>123.71</v>
+        <v>129.92</v>
       </c>
       <c r="C64">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D64">
-        <v>-35.04</v>
+        <v>-39.88</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B65">
-        <v>121.35</v>
+        <v>127.09</v>
       </c>
       <c r="C65">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D65">
-        <v>-36.28</v>
+        <v>-41.19</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B66">
-        <v>119.52</v>
+        <v>124.83</v>
       </c>
       <c r="C66">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D66">
-        <v>-37.24</v>
+        <v>-42.23</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B67">
-        <v>118.38</v>
+        <v>123.27</v>
       </c>
       <c r="C67">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D67">
-        <v>-37.84</v>
+        <v>-42.95</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44049</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
+        <v>44079</v>
+      </c>
+      <c r="B68">
+        <v>121.54</v>
       </c>
       <c r="C68">
-        <v>190.45</v>
-      </c>
-      <c r="D68" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D68">
+        <v>-43.75</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44050</v>
-      </c>
-      <c r="B69" t="s">
-        <v>4</v>
+        <v>44080</v>
+      </c>
+      <c r="B69">
+        <v>120.46</v>
       </c>
       <c r="C69">
-        <v>190.45</v>
-      </c>
-      <c r="D69" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D69">
+        <v>-44.25</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44051</v>
-      </c>
-      <c r="B70" t="s">
-        <v>4</v>
+        <v>44081</v>
+      </c>
+      <c r="B70">
+        <v>119.48</v>
       </c>
       <c r="C70">
-        <v>190.45</v>
-      </c>
-      <c r="D70" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D70">
+        <v>-44.71</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B71" t="s">
-        <v>4</v>
+        <v>44082</v>
+      </c>
+      <c r="B71">
+        <v>118.52</v>
       </c>
       <c r="C71">
-        <v>190.45</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D71">
+        <v>-45.15</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B72" t="s">
-        <v>4</v>
+        <v>44083</v>
+      </c>
+      <c r="B72">
+        <v>117.65</v>
       </c>
       <c r="C72">
-        <v>190.45</v>
-      </c>
-      <c r="D72" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D72">
+        <v>-45.55</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B73" t="s">
-        <v>4</v>
+        <v>44084</v>
+      </c>
+      <c r="B73">
+        <v>116.78</v>
       </c>
       <c r="C73">
-        <v>190.45</v>
-      </c>
-      <c r="D73" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D73">
+        <v>-45.95</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B74" t="s">
-        <v>4</v>
+        <v>44085</v>
+      </c>
+      <c r="B74">
+        <v>115.96</v>
       </c>
       <c r="C74">
-        <v>190.45</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D74">
+        <v>-46.34</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
+        <v>44086</v>
+      </c>
+      <c r="B75">
+        <v>115.09</v>
       </c>
       <c r="C75">
-        <v>190.45</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D75">
+        <v>-46.74</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B76" t="s">
-        <v>4</v>
+        <v>44087</v>
+      </c>
+      <c r="B76">
+        <v>114.17</v>
       </c>
       <c r="C76">
-        <v>190.45</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D76">
+        <v>-47.16</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
+        <v>44088</v>
+      </c>
+      <c r="B77">
+        <v>113.5</v>
       </c>
       <c r="C77">
-        <v>190.45</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D77">
+        <v>-47.47</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B78" t="s">
-        <v>4</v>
+        <v>44089</v>
+      </c>
+      <c r="B78">
+        <v>112.32</v>
       </c>
       <c r="C78">
-        <v>190.45</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D78">
+        <v>-48.02</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B79" t="s">
-        <v>4</v>
+        <v>44090</v>
+      </c>
+      <c r="B79">
+        <v>111.78</v>
       </c>
       <c r="C79">
-        <v>190.45</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D79">
+        <v>-48.27</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B80" t="s">
-        <v>4</v>
+        <v>44091</v>
+      </c>
+      <c r="B80">
+        <v>111.57</v>
       </c>
       <c r="C80">
-        <v>190.45</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D80">
+        <v>-48.37</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B81" t="s">
-        <v>4</v>
+        <v>44092</v>
+      </c>
+      <c r="B81">
+        <v>111.26</v>
       </c>
       <c r="C81">
-        <v>190.45</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D81">
+        <v>-48.51</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B82" t="s">
-        <v>4</v>
+        <v>44093</v>
+      </c>
+      <c r="B82">
+        <v>110.83</v>
       </c>
       <c r="C82">
-        <v>190.45</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D82">
+        <v>-48.71</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B83" t="s">
-        <v>4</v>
+        <v>44094</v>
+      </c>
+      <c r="B83">
+        <v>109.82</v>
       </c>
       <c r="C83">
-        <v>190.45</v>
-      </c>
-      <c r="D83" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D83">
+        <v>-49.18</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
+        <v>44095</v>
+      </c>
+      <c r="B84">
+        <v>108.75</v>
       </c>
       <c r="C84">
-        <v>190.45</v>
-      </c>
-      <c r="D84" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D84">
+        <v>-49.67</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B85" t="s">
-        <v>4</v>
+        <v>44096</v>
+      </c>
+      <c r="B85">
+        <v>108</v>
       </c>
       <c r="C85">
-        <v>190.45</v>
-      </c>
-      <c r="D85" t="s">
-        <v>4</v>
+        <v>216.08</v>
+      </c>
+      <c r="D85">
+        <v>-50.02</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B86">
-        <v>184.58</v>
+        <v>107.3</v>
       </c>
       <c r="C86">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D86">
-        <v>-3.08</v>
+        <v>-50.34</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B87">
-        <v>173.74</v>
+        <v>106.67</v>
       </c>
       <c r="C87">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D87">
-        <v>-8.77</v>
+        <v>-50.64</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B88">
-        <v>161.74</v>
+        <v>105.95</v>
       </c>
       <c r="C88">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D88">
-        <v>-15.07</v>
+        <v>-50.97</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B89">
-        <v>152.73</v>
+        <v>105.25</v>
       </c>
       <c r="C89">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D89">
-        <v>-19.81</v>
+        <v>-51.29</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B90">
-        <v>146.17</v>
+        <v>105.21</v>
       </c>
       <c r="C90">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D90">
-        <v>-23.25</v>
+        <v>-51.31</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B91">
-        <v>140.86</v>
+        <v>110.52</v>
       </c>
       <c r="C91">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D91">
-        <v>-26.04</v>
+        <v>-48.85</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B92">
-        <v>136.46</v>
+        <v>116.96</v>
       </c>
       <c r="C92">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D92">
-        <v>-28.35</v>
+        <v>-45.87</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B93">
-        <v>132.92</v>
+        <v>116.24</v>
       </c>
       <c r="C93">
-        <v>190.45</v>
+        <v>216.08</v>
       </c>
       <c r="D93">
-        <v>-30.21</v>
+        <v>-46.21</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B94">
-        <v>129.92</v>
+        <v>115.54</v>
       </c>
       <c r="C94">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D94">
-        <v>-39.88</v>
+        <v>-62.81</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B95">
-        <v>127.09</v>
+        <v>111.58</v>
       </c>
       <c r="C95">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D95">
-        <v>-41.19</v>
+        <v>-64.08</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B96">
-        <v>124.83</v>
+        <v>109</v>
       </c>
       <c r="C96">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D96">
-        <v>-42.23</v>
+        <v>-64.91</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B97">
-        <v>123.27</v>
+        <v>107.35</v>
       </c>
       <c r="C97">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D97">
-        <v>-42.95</v>
+        <v>-65.44</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B98">
-        <v>121.54</v>
+        <v>105.67</v>
       </c>
       <c r="C98">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D98">
-        <v>-43.75</v>
+        <v>-65.98</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B99">
-        <v>120.46</v>
+        <v>104.48</v>
       </c>
       <c r="C99">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D99">
-        <v>-44.25</v>
+        <v>-66.37</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B100">
-        <v>119.48</v>
+        <v>103.58</v>
       </c>
       <c r="C100">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D100">
-        <v>-44.71</v>
+        <v>-66.65000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B101">
-        <v>118.52</v>
+        <v>105.71</v>
       </c>
       <c r="C101">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D101">
-        <v>-45.15</v>
+        <v>-65.97</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B102">
-        <v>117.65</v>
+        <v>120.48</v>
       </c>
       <c r="C102">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D102">
-        <v>-45.55</v>
+        <v>-61.22</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B103">
-        <v>116.78</v>
+        <v>119.54</v>
       </c>
       <c r="C103">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D103">
-        <v>-45.95</v>
+        <v>-61.52</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B104">
-        <v>115.96</v>
+        <v>116.52</v>
       </c>
       <c r="C104">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D104">
-        <v>-46.34</v>
+        <v>-62.49</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B105">
-        <v>115.09</v>
+        <v>115.71</v>
       </c>
       <c r="C105">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D105">
-        <v>-46.74</v>
+        <v>-62.75</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B106">
-        <v>114.17</v>
+        <v>113.7</v>
       </c>
       <c r="C106">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D106">
-        <v>-47.16</v>
+        <v>-63.4</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B107">
-        <v>113.5</v>
+        <v>112.24</v>
       </c>
       <c r="C107">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D107">
-        <v>-47.47</v>
+        <v>-63.87</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B108">
-        <v>112.32</v>
+        <v>113.71</v>
       </c>
       <c r="C108">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D108">
-        <v>-48.02</v>
+        <v>-63.39</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B109">
-        <v>111.78</v>
+        <v>126.23</v>
       </c>
       <c r="C109">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D109">
-        <v>-48.27</v>
+        <v>-59.37</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B110">
-        <v>111.57</v>
+        <v>128.88</v>
       </c>
       <c r="C110">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D110">
-        <v>-48.37</v>
+        <v>-58.51</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B111">
-        <v>111.26</v>
+        <v>124.22</v>
       </c>
       <c r="C111">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D111">
-        <v>-48.51</v>
+        <v>-60.01</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B112">
-        <v>110.83</v>
+        <v>119.61</v>
       </c>
       <c r="C112">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D112">
-        <v>-48.71</v>
+        <v>-61.5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B113">
-        <v>109.82</v>
+        <v>116.08</v>
       </c>
       <c r="C113">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D113">
-        <v>-49.18</v>
+        <v>-62.63</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B114">
-        <v>108.75</v>
+        <v>113.38</v>
       </c>
       <c r="C114">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D114">
-        <v>-49.67</v>
+        <v>-63.5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B115">
-        <v>108</v>
+        <v>110.91</v>
       </c>
       <c r="C115">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D115">
-        <v>-50.02</v>
+        <v>-64.3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B116">
-        <v>107.3</v>
+        <v>108.79</v>
       </c>
       <c r="C116">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D116">
-        <v>-50.34</v>
+        <v>-64.98</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B117">
-        <v>106.67</v>
+        <v>107</v>
       </c>
       <c r="C117">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D117">
-        <v>-50.64</v>
+        <v>-65.55</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B118">
-        <v>105.95</v>
+        <v>105.42</v>
       </c>
       <c r="C118">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D118">
-        <v>-50.97</v>
+        <v>-66.06</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B119">
-        <v>105.25</v>
+        <v>105.04</v>
       </c>
       <c r="C119">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D119">
-        <v>-51.29</v>
+        <v>-66.19</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B120">
         <v>105.21</v>
       </c>
       <c r="C120">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D120">
-        <v>-51.31</v>
+        <v>-66.13</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B121">
-        <v>110.52</v>
+        <v>104.96</v>
       </c>
       <c r="C121">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D121">
-        <v>-48.85</v>
+        <v>-66.20999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B122">
-        <v>116.96</v>
+        <v>104.55</v>
       </c>
       <c r="C122">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D122">
-        <v>-45.87</v>
+        <v>-66.34</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B123">
-        <v>116.24</v>
+        <v>103.62</v>
       </c>
       <c r="C123">
-        <v>216.08</v>
+        <v>310.64</v>
       </c>
       <c r="D123">
-        <v>-46.21</v>
+        <v>-66.64</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B124">
-        <v>115.54</v>
+        <v>103.04</v>
       </c>
       <c r="C124">
         <v>310.64</v>
       </c>
       <c r="D124">
-        <v>-62.81</v>
+        <v>-66.83</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B125">
-        <v>111.58</v>
+        <v>102.74</v>
       </c>
       <c r="C125">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D125">
-        <v>-64.08</v>
+        <v>-59.55</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B126">
-        <v>109</v>
+        <v>102.61</v>
       </c>
       <c r="C126">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D126">
-        <v>-64.91</v>
+        <v>-59.61</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B127">
-        <v>107.35</v>
+        <v>103</v>
       </c>
       <c r="C127">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D127">
-        <v>-65.44</v>
+        <v>-59.45</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B128">
-        <v>105.67</v>
+        <v>102.5</v>
       </c>
       <c r="C128">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D128">
-        <v>-65.98</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B129">
-        <v>104.48</v>
+        <v>102.32</v>
       </c>
       <c r="C129">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D129">
-        <v>-66.37</v>
+        <v>-59.72</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B130">
-        <v>103.58</v>
+        <v>101.22</v>
       </c>
       <c r="C130">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D130">
-        <v>-66.65000000000001</v>
+        <v>-60.15</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B131">
-        <v>105.71</v>
+        <v>44142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
       </c>
       <c r="C131">
-        <v>310.64</v>
-      </c>
-      <c r="D131">
-        <v>-65.97</v>
+        <v>254.02</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B132">
-        <v>120.48</v>
+        <v>44143</v>
+      </c>
+      <c r="B132" t="s">
+        <v>4</v>
       </c>
       <c r="C132">
-        <v>310.64</v>
-      </c>
-      <c r="D132">
-        <v>-61.22</v>
+        <v>254.02</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B133">
-        <v>119.54</v>
+        <v>100</v>
       </c>
       <c r="C133">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D133">
-        <v>-61.52</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B134">
-        <v>116.52</v>
+        <v>100</v>
       </c>
       <c r="C134">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D134">
-        <v>-62.49</v>
+        <v>-60.63</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B135">
-        <v>115.71</v>
+        <v>101.22</v>
       </c>
       <c r="C135">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D135">
-        <v>-62.75</v>
+        <v>-60.15</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B136">
-        <v>113.7</v>
+        <v>101.3</v>
       </c>
       <c r="C136">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D136">
-        <v>-63.4</v>
+        <v>-60.12</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B137">
-        <v>112.24</v>
+        <v>103.05</v>
       </c>
       <c r="C137">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D137">
-        <v>-63.87</v>
+        <v>-59.43</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B138">
-        <v>113.71</v>
+        <v>104.87</v>
       </c>
       <c r="C138">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D138">
-        <v>-63.39</v>
+        <v>-58.72</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B139">
-        <v>126.23</v>
+        <v>108.87</v>
       </c>
       <c r="C139">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D139">
-        <v>-59.37</v>
+        <v>-57.14</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B140">
-        <v>128.88</v>
+        <v>110.61</v>
       </c>
       <c r="C140">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D140">
-        <v>-58.51</v>
+        <v>-56.46</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B141">
-        <v>124.22</v>
+        <v>107.83</v>
       </c>
       <c r="C141">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D141">
-        <v>-60.01</v>
+        <v>-57.55</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B142">
-        <v>119.61</v>
+        <v>106</v>
       </c>
       <c r="C142">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D142">
-        <v>-61.5</v>
+        <v>-58.27</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B143">
-        <v>116.08</v>
+        <v>105.5</v>
       </c>
       <c r="C143">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D143">
-        <v>-62.63</v>
+        <v>-58.47</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B144">
-        <v>113.38</v>
+        <v>104.12</v>
       </c>
       <c r="C144">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D144">
-        <v>-63.5</v>
+        <v>-59.01</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B145">
-        <v>110.91</v>
+        <v>102.5</v>
       </c>
       <c r="C145">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D145">
-        <v>-64.3</v>
+        <v>-59.65</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B146">
-        <v>108.79</v>
+        <v>101.33</v>
       </c>
       <c r="C146">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D146">
-        <v>-64.98</v>
+        <v>-60.11</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B147">
-        <v>107</v>
+        <v>100.5</v>
       </c>
       <c r="C147">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D147">
-        <v>-65.55</v>
+        <v>-60.44</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B148">
-        <v>105.42</v>
+        <v>44159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>4</v>
       </c>
       <c r="C148">
-        <v>310.64</v>
-      </c>
-      <c r="D148">
-        <v>-66.06</v>
+        <v>254.02</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B149">
-        <v>105.04</v>
+        <v>44160</v>
+      </c>
+      <c r="B149" t="s">
+        <v>4</v>
       </c>
       <c r="C149">
-        <v>310.64</v>
-      </c>
-      <c r="D149">
-        <v>-66.19</v>
+        <v>254.02</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44131</v>
-      </c>
-      <c r="B150">
-        <v>105.21</v>
+        <v>44161</v>
+      </c>
+      <c r="B150" t="s">
+        <v>4</v>
       </c>
       <c r="C150">
-        <v>310.64</v>
-      </c>
-      <c r="D150">
-        <v>-66.13</v>
+        <v>254.02</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44132</v>
-      </c>
-      <c r="B151">
-        <v>104.96</v>
+        <v>44162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>4</v>
       </c>
       <c r="C151">
-        <v>310.64</v>
-      </c>
-      <c r="D151">
-        <v>-66.20999999999999</v>
+        <v>254.02</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44133</v>
-      </c>
-      <c r="B152">
-        <v>104.55</v>
+        <v>44163</v>
+      </c>
+      <c r="B152" t="s">
+        <v>4</v>
       </c>
       <c r="C152">
-        <v>310.64</v>
-      </c>
-      <c r="D152">
-        <v>-66.34</v>
+        <v>254.02</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44134</v>
-      </c>
-      <c r="B153">
-        <v>103.62</v>
+        <v>44164</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
       </c>
       <c r="C153">
-        <v>310.64</v>
-      </c>
-      <c r="D153">
-        <v>-66.64</v>
+        <v>254.02</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B154">
-        <v>103.04</v>
+        <v>102.45</v>
       </c>
       <c r="C154">
-        <v>310.64</v>
+        <v>254.02</v>
       </c>
       <c r="D154">
-        <v>-66.83</v>
+        <v>-59.67</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B155">
-        <v>102.74</v>
+        <v>110.96</v>
       </c>
       <c r="C155">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D155">
-        <v>-59.55</v>
+        <v>-49.03</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B156">
-        <v>102.61</v>
+        <v>108.2</v>
       </c>
       <c r="C156">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D156">
-        <v>-59.61</v>
+        <v>-50.3</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B157">
-        <v>103</v>
+        <v>44168</v>
+      </c>
+      <c r="B157" t="s">
+        <v>4</v>
       </c>
       <c r="C157">
-        <v>254.02</v>
-      </c>
-      <c r="D157">
-        <v>-59.45</v>
+        <v>217.71</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44139</v>
+        <v>44169</v>
       </c>
       <c r="B158">
-        <v>102.5</v>
+        <v>212.43</v>
       </c>
       <c r="C158">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D158">
-        <v>-59.65</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44140</v>
+        <v>44170</v>
       </c>
       <c r="B159">
-        <v>102.32</v>
+        <v>237</v>
       </c>
       <c r="C159">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D159">
-        <v>-59.72</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44141</v>
+        <v>44171</v>
       </c>
       <c r="B160">
-        <v>101.22</v>
+        <v>239.43</v>
       </c>
       <c r="C160">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D160">
-        <v>-60.15</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B161" t="s">
-        <v>4</v>
+        <v>44172</v>
+      </c>
+      <c r="B161">
+        <v>198.12</v>
       </c>
       <c r="C161">
-        <v>254.02</v>
-      </c>
-      <c r="D161" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D161">
+        <v>-8.99</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B162" t="s">
-        <v>4</v>
+        <v>44173</v>
+      </c>
+      <c r="B162">
+        <v>172.87</v>
       </c>
       <c r="C162">
-        <v>254.02</v>
-      </c>
-      <c r="D162" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D162">
+        <v>-20.6</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44144</v>
+        <v>44174</v>
       </c>
       <c r="B163">
-        <v>100</v>
+        <v>154.79</v>
       </c>
       <c r="C163">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D163">
-        <v>-60.63</v>
+        <v>-28.9</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="B164">
-        <v>100</v>
+        <v>142.91</v>
       </c>
       <c r="C164">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D164">
-        <v>-60.63</v>
+        <v>-34.36</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44146</v>
+        <v>44176</v>
       </c>
       <c r="B165">
-        <v>101.22</v>
+        <v>134.39</v>
       </c>
       <c r="C165">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D165">
-        <v>-60.15</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44147</v>
+        <v>44177</v>
       </c>
       <c r="B166">
-        <v>101.3</v>
+        <v>128.08</v>
       </c>
       <c r="C166">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D166">
-        <v>-60.12</v>
+        <v>-41.17</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44148</v>
+        <v>44178</v>
       </c>
       <c r="B167">
-        <v>103.05</v>
+        <v>123.7</v>
       </c>
       <c r="C167">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D167">
-        <v>-59.43</v>
+        <v>-43.18</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44149</v>
+        <v>44179</v>
       </c>
       <c r="B168">
-        <v>104.87</v>
+        <v>121.57</v>
       </c>
       <c r="C168">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D168">
-        <v>-58.72</v>
+        <v>-44.16</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="B169">
-        <v>108.87</v>
+        <v>119.17</v>
       </c>
       <c r="C169">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D169">
-        <v>-57.14</v>
+        <v>-45.26</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="B170">
-        <v>110.61</v>
+        <v>117.43</v>
       </c>
       <c r="C170">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D170">
-        <v>-56.46</v>
+        <v>-46.06</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="B171">
-        <v>107.83</v>
+        <v>117.87</v>
       </c>
       <c r="C171">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D171">
-        <v>-57.55</v>
+        <v>-45.86</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="B172">
-        <v>106</v>
+        <v>116.58</v>
       </c>
       <c r="C172">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D172">
-        <v>-58.27</v>
+        <v>-46.45</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44154</v>
+        <v>44184</v>
       </c>
       <c r="B173">
-        <v>105.5</v>
+        <v>114.57</v>
       </c>
       <c r="C173">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D173">
-        <v>-58.47</v>
+        <v>-47.37</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44155</v>
+        <v>44185</v>
       </c>
       <c r="B174">
-        <v>104.12</v>
+        <v>125.16</v>
       </c>
       <c r="C174">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D174">
-        <v>-59.01</v>
+        <v>-42.51</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44156</v>
+        <v>44186</v>
       </c>
       <c r="B175">
-        <v>102.5</v>
+        <v>134.33</v>
       </c>
       <c r="C175">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D175">
-        <v>-59.65</v>
+        <v>-38.3</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44157</v>
+        <v>44187</v>
       </c>
       <c r="B176">
-        <v>101.33</v>
+        <v>137.62</v>
       </c>
       <c r="C176">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D176">
-        <v>-60.11</v>
+        <v>-36.78</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44158</v>
+        <v>44188</v>
       </c>
       <c r="B177">
-        <v>100.5</v>
+        <v>135.09</v>
       </c>
       <c r="C177">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D177">
-        <v>-60.44</v>
+        <v>-37.95</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44159</v>
-      </c>
-      <c r="B178" t="s">
-        <v>4</v>
+        <v>44189</v>
+      </c>
+      <c r="B178">
+        <v>126.17</v>
       </c>
       <c r="C178">
-        <v>254.02</v>
-      </c>
-      <c r="D178" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D178">
+        <v>-42.05</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B179" t="s">
-        <v>4</v>
+        <v>44190</v>
+      </c>
+      <c r="B179">
+        <v>120.33</v>
       </c>
       <c r="C179">
-        <v>254.02</v>
-      </c>
-      <c r="D179" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D179">
+        <v>-44.73</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44161</v>
-      </c>
-      <c r="B180" t="s">
-        <v>4</v>
+        <v>44191</v>
+      </c>
+      <c r="B180">
+        <v>116.42</v>
       </c>
       <c r="C180">
-        <v>254.02</v>
-      </c>
-      <c r="D180" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D180">
+        <v>-46.53</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B181" t="s">
-        <v>4</v>
+        <v>44192</v>
+      </c>
+      <c r="B181">
+        <v>113.12</v>
       </c>
       <c r="C181">
-        <v>254.02</v>
-      </c>
-      <c r="D181" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D181">
+        <v>-48.04</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B182" t="s">
-        <v>4</v>
+        <v>44193</v>
+      </c>
+      <c r="B182">
+        <v>110.87</v>
       </c>
       <c r="C182">
-        <v>254.02</v>
-      </c>
-      <c r="D182" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D182">
+        <v>-49.07</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44164</v>
-      </c>
-      <c r="B183" t="s">
-        <v>4</v>
+        <v>44194</v>
+      </c>
+      <c r="B183">
+        <v>114.75</v>
       </c>
       <c r="C183">
-        <v>254.02</v>
-      </c>
-      <c r="D183" t="s">
-        <v>4</v>
+        <v>217.71</v>
+      </c>
+      <c r="D183">
+        <v>-47.29</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B184">
-        <v>102.45</v>
+        <v>133.78</v>
       </c>
       <c r="C184">
-        <v>254.02</v>
+        <v>217.71</v>
       </c>
       <c r="D184">
-        <v>-59.67</v>
+        <v>-38.55</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B185">
-        <v>110.96</v>
+        <v>131</v>
       </c>
       <c r="C185">
         <v>217.71</v>
       </c>
       <c r="D185">
-        <v>-49.03</v>
+        <v>-39.83</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44167</v>
+        <v>44197</v>
       </c>
       <c r="B186">
-        <v>108.2</v>
+        <v>133.3</v>
       </c>
       <c r="C186">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D186">
-        <v>-50.3</v>
+        <v>-35.23</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44168</v>
-      </c>
-      <c r="B187" t="s">
-        <v>4</v>
+        <v>44198</v>
+      </c>
+      <c r="B187">
+        <v>128.35</v>
       </c>
       <c r="C187">
-        <v>217.71</v>
-      </c>
-      <c r="D187" t="s">
-        <v>4</v>
+        <v>205.8</v>
+      </c>
+      <c r="D187">
+        <v>-37.63</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44169</v>
+        <v>44199</v>
       </c>
       <c r="B188">
-        <v>212.43</v>
+        <v>121.75</v>
       </c>
       <c r="C188">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D188">
-        <v>-2.42</v>
+        <v>-40.84</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44170</v>
+        <v>44200</v>
       </c>
       <c r="B189">
-        <v>237</v>
+        <v>117.79</v>
       </c>
       <c r="C189">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D189">
-        <v>8.859999999999999</v>
+        <v>-42.76</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44171</v>
+        <v>44201</v>
       </c>
       <c r="B190">
-        <v>239.43</v>
+        <v>116.54</v>
       </c>
       <c r="C190">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D190">
-        <v>9.98</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44172</v>
+        <v>44202</v>
       </c>
       <c r="B191">
-        <v>198.12</v>
+        <v>118.83</v>
       </c>
       <c r="C191">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D191">
-        <v>-8.99</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44173</v>
+        <v>44203</v>
       </c>
       <c r="B192">
-        <v>172.87</v>
+        <v>117.91</v>
       </c>
       <c r="C192">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D192">
-        <v>-20.6</v>
+        <v>-42.7</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44174</v>
+        <v>44204</v>
       </c>
       <c r="B193">
-        <v>154.79</v>
+        <v>116.79</v>
       </c>
       <c r="C193">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D193">
-        <v>-28.9</v>
+        <v>-43.25</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44175</v>
+        <v>44205</v>
       </c>
       <c r="B194">
-        <v>142.91</v>
+        <v>117.38</v>
       </c>
       <c r="C194">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D194">
-        <v>-34.36</v>
+        <v>-42.97</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44176</v>
+        <v>44206</v>
       </c>
       <c r="B195">
-        <v>134.39</v>
+        <v>116.62</v>
       </c>
       <c r="C195">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D195">
-        <v>-38.27</v>
+        <v>-43.34</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44177</v>
-      </c>
-      <c r="B196">
-        <v>128.08</v>
+        <v>44207</v>
+      </c>
+      <c r="B196" t="s">
+        <v>4</v>
       </c>
       <c r="C196">
-        <v>217.71</v>
-      </c>
-      <c r="D196">
-        <v>-41.17</v>
+        <v>205.8</v>
+      </c>
+      <c r="D196" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44178</v>
+        <v>44208</v>
       </c>
       <c r="B197">
-        <v>123.7</v>
+        <v>113.16</v>
       </c>
       <c r="C197">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D197">
-        <v>-43.18</v>
+        <v>-45.02</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44179</v>
+        <v>44209</v>
       </c>
       <c r="B198">
-        <v>121.57</v>
+        <v>117.27</v>
       </c>
       <c r="C198">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D198">
-        <v>-44.16</v>
+        <v>-43.02</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44180</v>
+        <v>44210</v>
       </c>
       <c r="B199">
-        <v>119.17</v>
+        <v>122.09</v>
       </c>
       <c r="C199">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D199">
-        <v>-45.26</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44181</v>
+        <v>44211</v>
       </c>
       <c r="B200">
-        <v>117.43</v>
+        <v>118.79</v>
       </c>
       <c r="C200">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D200">
-        <v>-46.06</v>
+        <v>-42.28</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44182</v>
+        <v>44212</v>
       </c>
       <c r="B201">
-        <v>117.87</v>
+        <v>127.55</v>
       </c>
       <c r="C201">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D201">
-        <v>-45.86</v>
+        <v>-38.02</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44183</v>
+        <v>44213</v>
       </c>
       <c r="B202">
-        <v>116.58</v>
+        <v>162.61</v>
       </c>
       <c r="C202">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D202">
-        <v>-46.45</v>
+        <v>-20.99</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44184</v>
+        <v>44214</v>
       </c>
       <c r="B203">
-        <v>114.57</v>
+        <v>201.26</v>
       </c>
       <c r="C203">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D203">
-        <v>-47.37</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44185</v>
+        <v>44215</v>
       </c>
       <c r="B204">
-        <v>125.16</v>
+        <v>196.3</v>
       </c>
       <c r="C204">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D204">
-        <v>-42.51</v>
+        <v>-4.61</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="B205">
-        <v>134.33</v>
+        <v>219.22</v>
       </c>
       <c r="C205">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D205">
-        <v>-38.3</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44187</v>
+        <v>44217</v>
       </c>
       <c r="B206">
-        <v>137.62</v>
+        <v>442.7</v>
       </c>
       <c r="C206">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D206">
-        <v>-36.78</v>
+        <v>115.11</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44218</v>
       </c>
       <c r="B207">
-        <v>135.09</v>
+        <v>464.91</v>
       </c>
       <c r="C207">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D207">
-        <v>-37.95</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44189</v>
+        <v>44219</v>
       </c>
       <c r="B208">
-        <v>126.17</v>
+        <v>289.78</v>
       </c>
       <c r="C208">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D208">
-        <v>-42.05</v>
+        <v>40.81</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44190</v>
+        <v>44220</v>
       </c>
       <c r="B209">
-        <v>120.33</v>
+        <v>241.91</v>
       </c>
       <c r="C209">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D209">
-        <v>-44.73</v>
+        <v>17.55</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44191</v>
+        <v>44221</v>
       </c>
       <c r="B210">
-        <v>116.42</v>
+        <v>255.58</v>
       </c>
       <c r="C210">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D210">
-        <v>-46.53</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44192</v>
+        <v>44222</v>
       </c>
       <c r="B211">
-        <v>113.12</v>
+        <v>640.62</v>
       </c>
       <c r="C211">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D211">
-        <v>-48.04</v>
+        <v>211.29</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44193</v>
+        <v>44223</v>
       </c>
       <c r="B212">
-        <v>110.87</v>
+        <v>846.26</v>
       </c>
       <c r="C212">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D212">
-        <v>-49.07</v>
+        <v>311.21</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="B213">
-        <v>114.75</v>
+        <v>500.25</v>
       </c>
       <c r="C213">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D213">
-        <v>-47.29</v>
+        <v>143.08</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B214">
-        <v>133.78</v>
+        <v>835.04</v>
       </c>
       <c r="C214">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D214">
-        <v>-38.55</v>
+        <v>305.76</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44196</v>
+        <v>44226</v>
       </c>
       <c r="B215">
-        <v>131</v>
+        <v>1167.7</v>
       </c>
       <c r="C215">
-        <v>217.71</v>
+        <v>205.8</v>
       </c>
       <c r="D215">
-        <v>-39.83</v>
+        <v>467.4</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B216">
-        <v>133.3</v>
+        <v>1146.88</v>
       </c>
       <c r="C216">
         <v>205.8</v>
       </c>
       <c r="D216">
-        <v>-35.23</v>
+        <v>457.28</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44198</v>
+        <v>44228</v>
       </c>
       <c r="B217">
-        <v>128.35</v>
+        <v>1319.09</v>
       </c>
       <c r="C217">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D217">
-        <v>-37.63</v>
+        <v>503.51</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44199</v>
+        <v>44229</v>
       </c>
       <c r="B218">
-        <v>121.75</v>
+        <v>1108.52</v>
       </c>
       <c r="C218">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D218">
-        <v>-40.84</v>
+        <v>407.17</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44200</v>
+        <v>44230</v>
       </c>
       <c r="B219">
-        <v>117.79</v>
+        <v>599</v>
       </c>
       <c r="C219">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D219">
-        <v>-42.76</v>
+        <v>174.05</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="B220">
-        <v>116.54</v>
+        <v>336.09</v>
       </c>
       <c r="C220">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D220">
-        <v>-43.37</v>
+        <v>53.77</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="B221">
-        <v>118.83</v>
+        <v>255.25</v>
       </c>
       <c r="C221">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D221">
-        <v>-42.26</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44203</v>
+        <v>44233</v>
       </c>
       <c r="B222">
-        <v>117.91</v>
+        <v>215.83</v>
       </c>
       <c r="C222">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D222">
-        <v>-42.7</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44204</v>
+        <v>44234</v>
       </c>
       <c r="B223">
-        <v>116.79</v>
+        <v>192.58</v>
       </c>
       <c r="C223">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D223">
-        <v>-43.25</v>
+        <v>-11.89</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44205</v>
+        <v>44235</v>
       </c>
       <c r="B224">
-        <v>117.38</v>
+        <v>177.7</v>
       </c>
       <c r="C224">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D224">
-        <v>-42.97</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44206</v>
+        <v>44236</v>
       </c>
       <c r="B225">
-        <v>116.62</v>
+        <v>166.55</v>
       </c>
       <c r="C225">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D225">
-        <v>-43.34</v>
+        <v>-23.8</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B226" t="s">
-        <v>4</v>
+        <v>44237</v>
+      </c>
+      <c r="B226">
+        <v>157.45</v>
       </c>
       <c r="C226">
-        <v>205.8</v>
-      </c>
-      <c r="D226" t="s">
-        <v>4</v>
+        <v>218.57</v>
+      </c>
+      <c r="D226">
+        <v>-27.96</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="B227">
-        <v>113.16</v>
+        <v>151</v>
       </c>
       <c r="C227">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D227">
-        <v>-45.02</v>
+        <v>-30.91</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44209</v>
+        <v>44239</v>
       </c>
       <c r="B228">
-        <v>117.27</v>
+        <v>151.04</v>
       </c>
       <c r="C228">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D228">
-        <v>-43.02</v>
+        <v>-30.9</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44210</v>
+        <v>44240</v>
       </c>
       <c r="B229">
-        <v>122.09</v>
+        <v>146.29</v>
       </c>
       <c r="C229">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D229">
-        <v>-40.68</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44211</v>
+        <v>44241</v>
       </c>
       <c r="B230">
-        <v>118.79</v>
+        <v>140.41</v>
       </c>
       <c r="C230">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D230">
-        <v>-42.28</v>
+        <v>-35.76</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44212</v>
+        <v>44242</v>
       </c>
       <c r="B231">
-        <v>127.55</v>
+        <v>136.09</v>
       </c>
       <c r="C231">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D231">
-        <v>-38.02</v>
+        <v>-37.74</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44213</v>
+        <v>44243</v>
       </c>
       <c r="B232">
-        <v>162.61</v>
+        <v>132.35</v>
       </c>
       <c r="C232">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D232">
-        <v>-20.99</v>
+        <v>-39.45</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44214</v>
+        <v>44244</v>
       </c>
       <c r="B233">
-        <v>201.26</v>
+        <v>129</v>
       </c>
       <c r="C233">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D233">
-        <v>-2.21</v>
+        <v>-40.98</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44215</v>
+        <v>44245</v>
       </c>
       <c r="B234">
-        <v>196.3</v>
+        <v>126.85</v>
       </c>
       <c r="C234">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D234">
-        <v>-4.61</v>
+        <v>-41.97</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44216</v>
+        <v>44246</v>
       </c>
       <c r="B235">
-        <v>219.22</v>
+        <v>123.17</v>
       </c>
       <c r="C235">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D235">
-        <v>6.52</v>
+        <v>-43.65</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44217</v>
+        <v>44247</v>
       </c>
       <c r="B236">
-        <v>442.7</v>
+        <v>121.25</v>
       </c>
       <c r="C236">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D236">
-        <v>115.11</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44218</v>
+        <v>44248</v>
       </c>
       <c r="B237">
-        <v>464.91</v>
+        <v>119.27</v>
       </c>
       <c r="C237">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D237">
-        <v>125.9</v>
+        <v>-45.43</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44219</v>
+        <v>44249</v>
       </c>
       <c r="B238">
-        <v>289.78</v>
+        <v>117.52</v>
       </c>
       <c r="C238">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D238">
-        <v>40.81</v>
+        <v>-46.23</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44220</v>
+        <v>44250</v>
       </c>
       <c r="B239">
-        <v>241.91</v>
+        <v>115.96</v>
       </c>
       <c r="C239">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D239">
-        <v>17.55</v>
+        <v>-46.95</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44221</v>
+        <v>44251</v>
       </c>
       <c r="B240">
-        <v>255.58</v>
+        <v>115.92</v>
       </c>
       <c r="C240">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D240">
-        <v>24.19</v>
+        <v>-46.97</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44222</v>
+        <v>44252</v>
       </c>
       <c r="B241">
-        <v>640.62</v>
+        <v>115.26</v>
       </c>
       <c r="C241">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D241">
-        <v>211.29</v>
+        <v>-47.27</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44223</v>
+        <v>44253</v>
       </c>
       <c r="B242">
-        <v>846.26</v>
+        <v>113.61</v>
       </c>
       <c r="C242">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D242">
-        <v>311.21</v>
+        <v>-48.02</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44224</v>
+        <v>44254</v>
       </c>
       <c r="B243">
-        <v>500.25</v>
+        <v>112.57</v>
       </c>
       <c r="C243">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D243">
-        <v>143.08</v>
+        <v>-48.5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44225</v>
+        <v>44255</v>
       </c>
       <c r="B244">
-        <v>835.04</v>
+        <v>114.67</v>
       </c>
       <c r="C244">
-        <v>205.8</v>
+        <v>218.57</v>
       </c>
       <c r="D244">
-        <v>305.76</v>
+        <v>-47.54</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44226</v>
+        <v>44256</v>
       </c>
       <c r="B245">
-        <v>1167.7</v>
+        <v>112.92</v>
       </c>
       <c r="C245">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D245">
-        <v>467.4</v>
+        <v>-37.4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44227</v>
+        <v>44257</v>
       </c>
       <c r="B246">
-        <v>1146.88</v>
+        <v>111.74</v>
       </c>
       <c r="C246">
-        <v>205.8</v>
+        <v>180.39</v>
       </c>
       <c r="D246">
-        <v>457.28</v>
+        <v>-38.06</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44228</v>
+        <v>44258</v>
       </c>
       <c r="B247">
-        <v>1319.09</v>
+        <v>111.36</v>
       </c>
       <c r="C247">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D247">
-        <v>503.51</v>
+        <v>-38.26</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44229</v>
+        <v>44259</v>
       </c>
       <c r="B248">
-        <v>1108.52</v>
+        <v>111</v>
       </c>
       <c r="C248">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D248">
-        <v>407.17</v>
+        <v>-38.47</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44230</v>
+        <v>44260</v>
       </c>
       <c r="B249">
-        <v>599</v>
+        <v>110.48</v>
       </c>
       <c r="C249">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D249">
-        <v>174.05</v>
+        <v>-38.75</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44231</v>
+        <v>44261</v>
       </c>
       <c r="B250">
-        <v>336.09</v>
+        <v>112.57</v>
       </c>
       <c r="C250">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D250">
-        <v>53.77</v>
+        <v>-37.6</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44232</v>
+        <v>44262</v>
       </c>
       <c r="B251">
-        <v>255.25</v>
+        <v>121.96</v>
       </c>
       <c r="C251">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D251">
-        <v>16.78</v>
+        <v>-32.39</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44233</v>
+        <v>44263</v>
       </c>
       <c r="B252">
-        <v>215.83</v>
+        <v>120.39</v>
       </c>
       <c r="C252">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D252">
-        <v>-1.26</v>
+        <v>-33.26</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44234</v>
+        <v>44264</v>
       </c>
       <c r="B253">
-        <v>192.58</v>
+        <v>115.78</v>
       </c>
       <c r="C253">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D253">
-        <v>-11.89</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44235</v>
+        <v>44265</v>
       </c>
       <c r="B254">
-        <v>177.7</v>
+        <v>112.52</v>
       </c>
       <c r="C254">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D254">
-        <v>-18.7</v>
+        <v>-37.62</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44236</v>
+        <v>44266</v>
       </c>
       <c r="B255">
-        <v>166.55</v>
+        <v>109.88</v>
       </c>
       <c r="C255">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D255">
-        <v>-23.8</v>
+        <v>-39.09</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44237</v>
+        <v>44267</v>
       </c>
       <c r="B256">
-        <v>157.45</v>
+        <v>108.25</v>
       </c>
       <c r="C256">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D256">
-        <v>-27.96</v>
+        <v>-39.99</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44238</v>
+        <v>44268</v>
       </c>
       <c r="B257">
-        <v>151</v>
+        <v>106.58</v>
       </c>
       <c r="C257">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D257">
-        <v>-30.91</v>
+        <v>-40.91</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44239</v>
+        <v>44269</v>
       </c>
       <c r="B258">
-        <v>151.04</v>
+        <v>105.36</v>
       </c>
       <c r="C258">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D258">
-        <v>-30.9</v>
+        <v>-41.59</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44240</v>
+        <v>44270</v>
       </c>
       <c r="B259">
-        <v>146.29</v>
+        <v>104.39</v>
       </c>
       <c r="C259">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D259">
-        <v>-33.07</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44241</v>
+        <v>44271</v>
       </c>
       <c r="B260">
-        <v>140.41</v>
+        <v>103.86</v>
       </c>
       <c r="C260">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D260">
-        <v>-35.76</v>
+        <v>-42.42</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44242</v>
+        <v>44272</v>
       </c>
       <c r="B261">
-        <v>136.09</v>
+        <v>105.35</v>
       </c>
       <c r="C261">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D261">
-        <v>-37.74</v>
+        <v>-41.6</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44243</v>
+        <v>44273</v>
       </c>
       <c r="B262">
-        <v>132.35</v>
+        <v>107</v>
       </c>
       <c r="C262">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D262">
-        <v>-39.45</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44244</v>
+        <v>44274</v>
       </c>
       <c r="B263">
-        <v>129</v>
+        <v>105.67</v>
       </c>
       <c r="C263">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D263">
-        <v>-40.98</v>
+        <v>-41.42</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44245</v>
+        <v>44275</v>
       </c>
       <c r="B264">
-        <v>126.85</v>
+        <v>105.39</v>
       </c>
       <c r="C264">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D264">
-        <v>-41.97</v>
+        <v>-41.57</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44246</v>
+        <v>44276</v>
       </c>
       <c r="B265">
-        <v>123.17</v>
+        <v>106</v>
       </c>
       <c r="C265">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D265">
-        <v>-43.65</v>
+        <v>-41.24</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B266">
-        <v>121.25</v>
+        <v>106.35</v>
       </c>
       <c r="C266">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D266">
-        <v>-44.53</v>
+        <v>-41.04</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44248</v>
+        <v>44278</v>
       </c>
       <c r="B267">
-        <v>119.27</v>
+        <v>106.57</v>
       </c>
       <c r="C267">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D267">
-        <v>-45.43</v>
+        <v>-40.92</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44249</v>
+        <v>44279</v>
       </c>
       <c r="B268">
-        <v>117.52</v>
+        <v>117.06</v>
       </c>
       <c r="C268">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D268">
-        <v>-46.23</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44250</v>
+        <v>44280</v>
       </c>
       <c r="B269">
-        <v>115.96</v>
+        <v>121.53</v>
       </c>
       <c r="C269">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D269">
-        <v>-46.95</v>
+        <v>-32.63</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44251</v>
+        <v>44281</v>
       </c>
       <c r="B270">
-        <v>115.92</v>
+        <v>120.71</v>
       </c>
       <c r="C270">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D270">
-        <v>-46.97</v>
+        <v>-33.08</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44252</v>
+        <v>44282</v>
       </c>
       <c r="B271">
-        <v>115.26</v>
+        <v>118.65</v>
       </c>
       <c r="C271">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D271">
-        <v>-47.27</v>
+        <v>-34.23</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44253</v>
+        <v>44283</v>
       </c>
       <c r="B272">
-        <v>113.61</v>
+        <v>137.8</v>
       </c>
       <c r="C272">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D272">
-        <v>-48.02</v>
+        <v>-23.61</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44254</v>
+        <v>44284</v>
       </c>
       <c r="B273">
-        <v>112.57</v>
+        <v>131.52</v>
       </c>
       <c r="C273">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D273">
-        <v>-48.5</v>
+        <v>-27.09</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44255</v>
+        <v>44285</v>
       </c>
       <c r="B274">
-        <v>114.67</v>
+        <v>124.32</v>
       </c>
       <c r="C274">
-        <v>218.57</v>
+        <v>180.39</v>
       </c>
       <c r="D274">
-        <v>-47.54</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B275">
-        <v>112.92</v>
+        <v>120.16</v>
       </c>
       <c r="C275">
         <v>180.39</v>
       </c>
       <c r="D275">
-        <v>-37.4</v>
+        <v>-33.39</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44257</v>
+        <v>44287</v>
       </c>
       <c r="B276">
-        <v>111.74</v>
+        <v>116.18</v>
       </c>
       <c r="C276">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D276">
-        <v>-38.06</v>
+        <v>-41.49</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44258</v>
+        <v>44288</v>
       </c>
       <c r="B277">
-        <v>111.36</v>
+        <v>113.53</v>
       </c>
       <c r="C277">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D277">
-        <v>-38.26</v>
+        <v>-42.82</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44259</v>
+        <v>44289</v>
       </c>
       <c r="B278">
-        <v>111</v>
+        <v>111.07</v>
       </c>
       <c r="C278">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D278">
-        <v>-38.47</v>
+        <v>-44.06</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44260</v>
+        <v>44290</v>
       </c>
       <c r="B279">
-        <v>110.48</v>
+        <v>109.42</v>
       </c>
       <c r="C279">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D279">
-        <v>-38.75</v>
+        <v>-44.89</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44261</v>
+        <v>44291</v>
       </c>
       <c r="B280">
-        <v>112.57</v>
+        <v>107.68</v>
       </c>
       <c r="C280">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D280">
-        <v>-37.6</v>
+        <v>-45.77</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44262</v>
+        <v>44292</v>
       </c>
       <c r="B281">
-        <v>121.96</v>
+        <v>106.42</v>
       </c>
       <c r="C281">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D281">
-        <v>-32.39</v>
+        <v>-46.4</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44263</v>
+        <v>44293</v>
       </c>
       <c r="B282">
-        <v>120.39</v>
+        <v>105.42</v>
       </c>
       <c r="C282">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D282">
-        <v>-33.26</v>
+        <v>-46.91</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="B283">
-        <v>115.78</v>
+        <v>104.43</v>
       </c>
       <c r="C283">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D283">
-        <v>-35.81</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44265</v>
+        <v>44295</v>
       </c>
       <c r="B284">
-        <v>112.52</v>
+        <v>103.38</v>
       </c>
       <c r="C284">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D284">
-        <v>-37.62</v>
+        <v>-47.94</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44266</v>
+        <v>44296</v>
       </c>
       <c r="B285">
-        <v>109.88</v>
+        <v>102.43</v>
       </c>
       <c r="C285">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D285">
-        <v>-39.09</v>
+        <v>-48.41</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44267</v>
+        <v>44297</v>
       </c>
       <c r="B286">
-        <v>108.25</v>
+        <v>101.45</v>
       </c>
       <c r="C286">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D286">
-        <v>-39.99</v>
+        <v>-48.91</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44268</v>
+        <v>44298</v>
       </c>
       <c r="B287">
-        <v>106.58</v>
+        <v>100.96</v>
       </c>
       <c r="C287">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D287">
-        <v>-40.91</v>
+        <v>-49.16</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44269</v>
+        <v>44299</v>
       </c>
       <c r="B288">
-        <v>105.36</v>
+        <v>100.43</v>
       </c>
       <c r="C288">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D288">
-        <v>-41.59</v>
+        <v>-49.42</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44270</v>
+        <v>44300</v>
       </c>
       <c r="B289">
-        <v>104.39</v>
+        <v>100</v>
       </c>
       <c r="C289">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D289">
-        <v>-42.13</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44271</v>
-      </c>
-      <c r="B290">
-        <v>103.86</v>
+        <v>44301</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
       </c>
       <c r="C290">
-        <v>180.39</v>
-      </c>
-      <c r="D290">
-        <v>-42.42</v>
+        <v>198.56</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44272</v>
+        <v>44302</v>
       </c>
       <c r="B291">
-        <v>105.35</v>
+        <v>100</v>
       </c>
       <c r="C291">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D291">
-        <v>-41.6</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44273</v>
+        <v>44303</v>
       </c>
       <c r="B292">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C292">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D292">
-        <v>-40.68</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44274</v>
-      </c>
-      <c r="B293">
-        <v>105.67</v>
+        <v>44304</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
       </c>
       <c r="C293">
-        <v>180.39</v>
-      </c>
-      <c r="D293">
-        <v>-41.42</v>
+        <v>198.56</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44275</v>
-      </c>
-      <c r="B294">
-        <v>105.39</v>
+        <v>44305</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
       </c>
       <c r="C294">
-        <v>180.39</v>
-      </c>
-      <c r="D294">
-        <v>-41.57</v>
+        <v>198.56</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44276</v>
+        <v>44306</v>
       </c>
       <c r="B295">
-        <v>106</v>
+        <v>101.55</v>
       </c>
       <c r="C295">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D295">
-        <v>-41.24</v>
+        <v>-48.86</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="B296">
-        <v>106.35</v>
+        <v>101.52</v>
       </c>
       <c r="C296">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D296">
-        <v>-41.04</v>
+        <v>-48.87</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="B297">
-        <v>106.57</v>
+        <v>100.36</v>
       </c>
       <c r="C297">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D297">
-        <v>-40.92</v>
+        <v>-49.46</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44279</v>
+        <v>44309</v>
       </c>
       <c r="B298">
-        <v>117.06</v>
+        <v>100</v>
       </c>
       <c r="C298">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D298">
-        <v>-35.1</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44280</v>
+        <v>44310</v>
       </c>
       <c r="B299">
-        <v>121.53</v>
+        <v>100</v>
       </c>
       <c r="C299">
-        <v>180.39</v>
+        <v>198.56</v>
       </c>
       <c r="D299">
-        <v>-32.63</v>
+        <v>-49.64</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44281</v>
-      </c>
-      <c r="B300">
-        <v>120.71</v>
+        <v>44311</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
       </c>
       <c r="C300">
-        <v>180.39</v>
-      </c>
-      <c r="D300">
-        <v>-33.08</v>
+        <v>198.56</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44282</v>
-      </c>
-      <c r="B301">
-        <v>118.65</v>
+        <v>44312</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
       </c>
       <c r="C301">
-        <v>180.39</v>
-      </c>
-      <c r="D301">
-        <v>-34.23</v>
+        <v>198.56</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44283</v>
-      </c>
-      <c r="B302">
-        <v>137.8</v>
+        <v>44313</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
       </c>
       <c r="C302">
-        <v>180.39</v>
-      </c>
-      <c r="D302">
-        <v>-23.61</v>
+        <v>198.56</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44284</v>
-      </c>
-      <c r="B303">
-        <v>131.52</v>
+        <v>44314</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
       </c>
       <c r="C303">
-        <v>180.39</v>
-      </c>
-      <c r="D303">
-        <v>-27.09</v>
+        <v>198.56</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44285</v>
-      </c>
-      <c r="B304">
-        <v>124.32</v>
+        <v>44315</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
       </c>
       <c r="C304">
-        <v>180.39</v>
-      </c>
-      <c r="D304">
-        <v>-31.08</v>
+        <v>198.56</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44286</v>
-      </c>
-      <c r="B305">
-        <v>120.16</v>
+        <v>44316</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4</v>
       </c>
       <c r="C305">
-        <v>180.39</v>
-      </c>
-      <c r="D305">
-        <v>-33.39</v>
+        <v>198.56</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44287</v>
-      </c>
-      <c r="B306">
-        <v>116.18</v>
+        <v>44317</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
       </c>
       <c r="C306">
-        <v>198.56</v>
-      </c>
-      <c r="D306">
-        <v>-41.49</v>
+        <v>279.37</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44288</v>
-      </c>
-      <c r="B307">
-        <v>113.53</v>
+        <v>44318</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4</v>
       </c>
       <c r="C307">
-        <v>198.56</v>
-      </c>
-      <c r="D307">
-        <v>-42.82</v>
+        <v>279.37</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44289</v>
-      </c>
-      <c r="B308">
-        <v>111.07</v>
+        <v>44319</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>198.56</v>
-      </c>
-      <c r="D308">
-        <v>-44.06</v>
+        <v>279.37</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44290</v>
-      </c>
-      <c r="B309">
-        <v>109.42</v>
+        <v>44320</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4</v>
       </c>
       <c r="C309">
-        <v>198.56</v>
-      </c>
-      <c r="D309">
-        <v>-44.89</v>
+        <v>279.37</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44291</v>
-      </c>
-      <c r="B310">
-        <v>107.68</v>
+        <v>44321</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
       </c>
       <c r="C310">
-        <v>198.56</v>
-      </c>
-      <c r="D310">
-        <v>-45.77</v>
+        <v>279.37</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44292</v>
-      </c>
-      <c r="B311">
-        <v>106.42</v>
+        <v>44322</v>
+      </c>
+      <c r="B311" t="s">
+        <v>4</v>
       </c>
       <c r="C311">
-        <v>198.56</v>
-      </c>
-      <c r="D311">
-        <v>-46.4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44293</v>
-      </c>
-      <c r="B312">
-        <v>105.42</v>
+        <v>44323</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
       </c>
       <c r="C312">
-        <v>198.56</v>
-      </c>
-      <c r="D312">
-        <v>-46.91</v>
+        <v>279.37</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44294</v>
+        <v>44324</v>
       </c>
       <c r="B313">
-        <v>104.43</v>
+        <v>100.41</v>
       </c>
       <c r="C313">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D313">
-        <v>-47.4</v>
+        <v>-64.06</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44295</v>
+        <v>44325</v>
       </c>
       <c r="B314">
-        <v>103.38</v>
+        <v>100</v>
       </c>
       <c r="C314">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D314">
-        <v>-47.94</v>
+        <v>-64.20999999999999</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44296</v>
-      </c>
-      <c r="B315">
-        <v>102.43</v>
+        <v>44326</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>198.56</v>
-      </c>
-      <c r="D315">
-        <v>-48.41</v>
+        <v>279.37</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44297</v>
-      </c>
-      <c r="B316">
-        <v>101.45</v>
+        <v>44327</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
       </c>
       <c r="C316">
-        <v>198.56</v>
-      </c>
-      <c r="D316">
-        <v>-48.91</v>
+        <v>279.37</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44298</v>
-      </c>
-      <c r="B317">
-        <v>100.96</v>
+        <v>44328</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
       </c>
       <c r="C317">
-        <v>198.56</v>
-      </c>
-      <c r="D317">
-        <v>-49.16</v>
+        <v>279.37</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44299</v>
+        <v>44329</v>
       </c>
       <c r="B318">
-        <v>100.43</v>
+        <v>100</v>
       </c>
       <c r="C318">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D318">
-        <v>-49.42</v>
+        <v>-64.20999999999999</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="B319">
         <v>100</v>
       </c>
       <c r="C319">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D319">
-        <v>-49.64</v>
+        <v>-64.20999999999999</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44301</v>
+        <v>44331</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
       </c>
       <c r="C320">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
@@ -5086,41 +5086,41 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44302</v>
-      </c>
-      <c r="B321">
-        <v>100</v>
+        <v>44332</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
       </c>
       <c r="C321">
-        <v>198.56</v>
-      </c>
-      <c r="D321">
-        <v>-49.64</v>
+        <v>279.37</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44303</v>
-      </c>
-      <c r="B322">
-        <v>100</v>
+        <v>44333</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
       </c>
       <c r="C322">
-        <v>198.56</v>
-      </c>
-      <c r="D322">
-        <v>-49.64</v>
+        <v>279.37</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44304</v>
+        <v>44334</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
       </c>
       <c r="C323">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
@@ -5128,13 +5128,13 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44305</v>
+        <v>44335</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
       </c>
       <c r="C324">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -5142,590 +5142,590 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44306</v>
-      </c>
-      <c r="B325">
-        <v>101.55</v>
+        <v>44336</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
       </c>
       <c r="C325">
-        <v>198.56</v>
-      </c>
-      <c r="D325">
-        <v>-48.86</v>
+        <v>279.37</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44307</v>
-      </c>
-      <c r="B326">
-        <v>101.52</v>
+        <v>44337</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
       </c>
       <c r="C326">
-        <v>198.56</v>
-      </c>
-      <c r="D326">
-        <v>-48.87</v>
+        <v>279.37</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44308</v>
-      </c>
-      <c r="B327">
-        <v>100.36</v>
+        <v>44338</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>198.56</v>
-      </c>
-      <c r="D327">
-        <v>-49.46</v>
+        <v>279.37</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44309</v>
+        <v>44339</v>
       </c>
       <c r="B328">
-        <v>100</v>
+        <v>100.87</v>
       </c>
       <c r="C328">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D328">
-        <v>-49.64</v>
+        <v>-63.9</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44310</v>
+        <v>44340</v>
       </c>
       <c r="B329">
-        <v>100</v>
+        <v>107.61</v>
       </c>
       <c r="C329">
-        <v>198.56</v>
+        <v>279.37</v>
       </c>
       <c r="D329">
-        <v>-49.64</v>
+        <v>-61.48</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44311</v>
-      </c>
-      <c r="B330" t="s">
-        <v>4</v>
+        <v>44341</v>
+      </c>
+      <c r="B330">
+        <v>113.91</v>
       </c>
       <c r="C330">
-        <v>198.56</v>
-      </c>
-      <c r="D330" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D330">
+        <v>-59.23</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44312</v>
-      </c>
-      <c r="B331" t="s">
-        <v>4</v>
+        <v>44342</v>
+      </c>
+      <c r="B331">
+        <v>108.48</v>
       </c>
       <c r="C331">
-        <v>198.56</v>
-      </c>
-      <c r="D331" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D331">
+        <v>-61.17</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44313</v>
-      </c>
-      <c r="B332" t="s">
-        <v>4</v>
+        <v>44343</v>
+      </c>
+      <c r="B332">
+        <v>105.18</v>
       </c>
       <c r="C332">
-        <v>198.56</v>
-      </c>
-      <c r="D332" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D332">
+        <v>-62.35</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44314</v>
-      </c>
-      <c r="B333" t="s">
-        <v>4</v>
+        <v>44344</v>
+      </c>
+      <c r="B333">
+        <v>103.14</v>
       </c>
       <c r="C333">
-        <v>198.56</v>
-      </c>
-      <c r="D333" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D333">
+        <v>-63.08</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44315</v>
-      </c>
-      <c r="B334" t="s">
-        <v>4</v>
+        <v>44345</v>
+      </c>
+      <c r="B334">
+        <v>101</v>
       </c>
       <c r="C334">
-        <v>198.56</v>
-      </c>
-      <c r="D334" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D334">
+        <v>-63.85</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44316</v>
-      </c>
-      <c r="B335" t="s">
-        <v>4</v>
+        <v>44346</v>
+      </c>
+      <c r="B335">
+        <v>101.79</v>
       </c>
       <c r="C335">
-        <v>198.56</v>
-      </c>
-      <c r="D335" t="s">
-        <v>4</v>
+        <v>279.37</v>
+      </c>
+      <c r="D335">
+        <v>-63.56</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44317</v>
-      </c>
-      <c r="B336" t="s">
-        <v>4</v>
+        <v>44347</v>
+      </c>
+      <c r="B336">
+        <v>101.55</v>
       </c>
       <c r="C336">
         <v>279.37</v>
       </c>
-      <c r="D336" t="s">
-        <v>4</v>
+      <c r="D336">
+        <v>-63.65</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44318</v>
-      </c>
-      <c r="B337" t="s">
-        <v>4</v>
+        <v>44348</v>
+      </c>
+      <c r="B337">
+        <v>100.48</v>
       </c>
       <c r="C337">
-        <v>279.37</v>
-      </c>
-      <c r="D337" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D337">
+        <v>-58.98</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44319</v>
-      </c>
-      <c r="B338" t="s">
-        <v>4</v>
+        <v>44349</v>
+      </c>
+      <c r="B338">
+        <v>100.58</v>
       </c>
       <c r="C338">
-        <v>279.37</v>
-      </c>
-      <c r="D338" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D338">
+        <v>-58.94</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44320</v>
-      </c>
-      <c r="B339" t="s">
-        <v>4</v>
+        <v>44350</v>
+      </c>
+      <c r="B339">
+        <v>102.21</v>
       </c>
       <c r="C339">
-        <v>279.37</v>
-      </c>
-      <c r="D339" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D339">
+        <v>-58.27</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44321</v>
-      </c>
-      <c r="B340" t="s">
-        <v>4</v>
+        <v>44351</v>
+      </c>
+      <c r="B340">
+        <v>101.95</v>
       </c>
       <c r="C340">
-        <v>279.37</v>
-      </c>
-      <c r="D340" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D340">
+        <v>-58.37</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44322</v>
-      </c>
-      <c r="B341" t="s">
-        <v>4</v>
+        <v>44352</v>
+      </c>
+      <c r="B341">
+        <v>101</v>
       </c>
       <c r="C341">
-        <v>279.37</v>
-      </c>
-      <c r="D341" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D341">
+        <v>-58.76</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44323</v>
-      </c>
-      <c r="B342" t="s">
-        <v>4</v>
+        <v>44353</v>
+      </c>
+      <c r="B342">
+        <v>100.61</v>
       </c>
       <c r="C342">
-        <v>279.37</v>
-      </c>
-      <c r="D342" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D342">
+        <v>-58.92</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44324</v>
+        <v>44354</v>
       </c>
       <c r="B343">
-        <v>100.41</v>
+        <v>103.12</v>
       </c>
       <c r="C343">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D343">
-        <v>-64.06</v>
+        <v>-57.9</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44325</v>
+        <v>44355</v>
       </c>
       <c r="B344">
-        <v>100</v>
+        <v>103.55</v>
       </c>
       <c r="C344">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D344">
-        <v>-64.20999999999999</v>
+        <v>-57.72</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44326</v>
-      </c>
-      <c r="B345" t="s">
-        <v>4</v>
+        <v>44356</v>
+      </c>
+      <c r="B345">
+        <v>106.62</v>
       </c>
       <c r="C345">
-        <v>279.37</v>
-      </c>
-      <c r="D345" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D345">
+        <v>-56.47</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44327</v>
-      </c>
-      <c r="B346" t="s">
-        <v>4</v>
+        <v>44357</v>
+      </c>
+      <c r="B346">
+        <v>103.77</v>
       </c>
       <c r="C346">
-        <v>279.37</v>
-      </c>
-      <c r="D346" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D346">
+        <v>-57.63</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44328</v>
-      </c>
-      <c r="B347" t="s">
-        <v>4</v>
+        <v>44358</v>
+      </c>
+      <c r="B347">
+        <v>103.12</v>
       </c>
       <c r="C347">
-        <v>279.37</v>
-      </c>
-      <c r="D347" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D347">
+        <v>-57.9</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44329</v>
+        <v>44359</v>
       </c>
       <c r="B348">
-        <v>100</v>
+        <v>109.36</v>
       </c>
       <c r="C348">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D348">
-        <v>-64.20999999999999</v>
+        <v>-55.35</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44330</v>
+        <v>44360</v>
       </c>
       <c r="B349">
-        <v>100</v>
+        <v>107.62</v>
       </c>
       <c r="C349">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D349">
-        <v>-64.20999999999999</v>
+        <v>-56.06</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44331</v>
-      </c>
-      <c r="B350" t="s">
-        <v>4</v>
+        <v>44361</v>
+      </c>
+      <c r="B350">
+        <v>106</v>
       </c>
       <c r="C350">
-        <v>279.37</v>
-      </c>
-      <c r="D350" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D350">
+        <v>-56.72</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44332</v>
-      </c>
-      <c r="B351" t="s">
-        <v>4</v>
+        <v>44362</v>
+      </c>
+      <c r="B351">
+        <v>105</v>
       </c>
       <c r="C351">
-        <v>279.37</v>
-      </c>
-      <c r="D351" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D351">
+        <v>-57.13</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44333</v>
-      </c>
-      <c r="B352" t="s">
-        <v>4</v>
+        <v>44363</v>
+      </c>
+      <c r="B352">
+        <v>103.36</v>
       </c>
       <c r="C352">
-        <v>279.37</v>
-      </c>
-      <c r="D352" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D352">
+        <v>-57.8</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44334</v>
-      </c>
-      <c r="B353" t="s">
-        <v>4</v>
+        <v>44364</v>
+      </c>
+      <c r="B353">
+        <v>102.38</v>
       </c>
       <c r="C353">
-        <v>279.37</v>
-      </c>
-      <c r="D353" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D353">
+        <v>-58.2</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44335</v>
-      </c>
-      <c r="B354" t="s">
-        <v>4</v>
+        <v>44365</v>
+      </c>
+      <c r="B354">
+        <v>101.52</v>
       </c>
       <c r="C354">
-        <v>279.37</v>
-      </c>
-      <c r="D354" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D354">
+        <v>-58.55</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44336</v>
-      </c>
-      <c r="B355" t="s">
-        <v>4</v>
+        <v>44366</v>
+      </c>
+      <c r="B355">
+        <v>109.22</v>
       </c>
       <c r="C355">
-        <v>279.37</v>
-      </c>
-      <c r="D355" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D355">
+        <v>-55.41</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44337</v>
-      </c>
-      <c r="B356" t="s">
-        <v>4</v>
+        <v>44367</v>
+      </c>
+      <c r="B356">
+        <v>121.5</v>
       </c>
       <c r="C356">
-        <v>279.37</v>
-      </c>
-      <c r="D356" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D356">
+        <v>-50.39</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44338</v>
-      </c>
-      <c r="B357" t="s">
-        <v>4</v>
+        <v>44368</v>
+      </c>
+      <c r="B357">
+        <v>173.83</v>
       </c>
       <c r="C357">
-        <v>279.37</v>
-      </c>
-      <c r="D357" t="s">
-        <v>4</v>
+        <v>244.93</v>
+      </c>
+      <c r="D357">
+        <v>-29.03</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44339</v>
+        <v>44369</v>
       </c>
       <c r="B358">
-        <v>100.87</v>
+        <v>154.58</v>
       </c>
       <c r="C358">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D358">
-        <v>-63.9</v>
+        <v>-36.89</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="B359">
-        <v>107.61</v>
+        <v>147.12</v>
       </c>
       <c r="C359">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D359">
-        <v>-61.48</v>
+        <v>-39.93</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44341</v>
+        <v>44371</v>
       </c>
       <c r="B360">
-        <v>113.91</v>
+        <v>142.39</v>
       </c>
       <c r="C360">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D360">
-        <v>-59.23</v>
+        <v>-41.86</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="B361">
-        <v>108.48</v>
+        <v>138.14</v>
       </c>
       <c r="C361">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D361">
-        <v>-61.17</v>
+        <v>-43.6</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44343</v>
+        <v>44373</v>
       </c>
       <c r="B362">
-        <v>105.18</v>
+        <v>140.75</v>
       </c>
       <c r="C362">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D362">
-        <v>-62.35</v>
+        <v>-42.53</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44344</v>
+        <v>44374</v>
       </c>
       <c r="B363">
-        <v>103.14</v>
+        <v>143.15</v>
       </c>
       <c r="C363">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D363">
-        <v>-63.08</v>
+        <v>-41.55</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44345</v>
+        <v>44375</v>
       </c>
       <c r="B364">
-        <v>101</v>
+        <v>152.32</v>
       </c>
       <c r="C364">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D364">
-        <v>-63.85</v>
+        <v>-37.81</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44346</v>
+        <v>44376</v>
       </c>
       <c r="B365">
-        <v>101.79</v>
+        <v>191.04</v>
       </c>
       <c r="C365">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D365">
-        <v>-63.56</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B366">
-        <v>101.55</v>
+        <v>176.5</v>
       </c>
       <c r="C366">
-        <v>279.37</v>
+        <v>244.93</v>
       </c>
       <c r="D366">
-        <v>-63.65</v>
+        <v>-27.94</v>
       </c>
     </row>
   </sheetData>
